--- a/excels/config/game/hero/talent_tree/talent_tree_config.xlsx
+++ b/excels/config/game/hero/talent_tree/talent_tree_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22185" windowHeight="10155"/>
+    <workbookView windowWidth="27945" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="talent_tree_config" sheetId="1" r:id="rId1"/>
@@ -89,10 +89,10 @@
     <t>key</t>
   </si>
   <si>
-    <t>#Loccustom_talent_drow_ranger_{}</t>
-  </si>
-  <si>
-    <t>#Loccustom_talent_drow_ranger_{}_desc</t>
+    <t>#Loccustom_talent_{}</t>
+  </si>
+  <si>
+    <t>#Loccustom_talent_{}_desc</t>
   </si>
   <si>
     <t>hero_id</t>
@@ -2352,31 +2352,31 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{1348E159-5952-4C60-9364-41CA0EC55D0C}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{EF874550-CC52-4CE0-B3DE-EE19290DC315}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{6897AF50-7E5F-47C8-832B-38C907613522}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{F222F99D-491E-4CEE-BF32-A985E4F9C1C7}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{3D5EF6AF-EA31-40C3-86DF-C88D7BDB2336}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{02F8489A-AE61-40BE-90B6-28D58B2FB6B7}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{CB41A73F-1527-40F9-9874-B8B2FF325B02}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{B831D30E-385D-4CD9-A0D9-16389A5F1B66}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{1DE845E1-5D9F-435D-B221-DF4035E042BA}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{4C4F8D91-7F6F-462F-96EC-69693DDBA293}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
@@ -2688,13 +2688,13 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D5" sqref="D5"/>
+      <selection pane="topRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.675" customWidth="1"/>
-    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col min="2" max="2" width="32.625" customWidth="1"/>
     <col min="3" max="3" width="40.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.25" style="2" customWidth="1"/>
     <col min="5" max="5" width="14.0083333333333" customWidth="1"/>
@@ -6409,7 +6409,7 @@
     </row>
     <row r="59" ht="14.25"/>
   </sheetData>
-  <autoFilter ref="A1:AB58">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AB58" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="F$1:F$1048576">

--- a/excels/config/game/hero/talent_tree/talent_tree_config.xlsx
+++ b/excels/config/game/hero/talent_tree/talent_tree_config.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="347">
   <si>
     <t>下标</t>
   </si>
@@ -290,7 +290,7 @@
     <t>积蓄</t>
   </si>
   <si>
-    <t>分裂箭命中时会额外回复%add_mana%点蓝量。</t>
+    <t>每支箭都享受回蓝效果，分裂箭命中时会额外回复%add_mana%点蓝量。</t>
   </si>
   <si>
     <t>hero/drow/积蓄</t>
@@ -649,7 +649,7 @@
   </si>
   <si>
     <t>风暴环绕技能赋予风元素效果，伤害变为风元素伤害。
-（2级触发风元素伤害增加15%）</t>
+风元素伤害增加%WindDamageBonus.Base%%%</t>
   </si>
   <si>
     <t>hero/drow/退散</t>
@@ -659,6 +659,11 @@
   </si>
   <si>
     <t>cover_to_wind 1</t>
+  </si>
+  <si>
+    <t>WindDamageBonus {
+"Base" "0 15"
+}</t>
   </si>
   <si>
     <t>冰雹</t>
@@ -2352,31 +2357,31 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{EF874550-CC52-4CE0-B3DE-EE19290DC315}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{EE6A127F-FDD0-4B61-A997-D0EAED8FF2DE}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{F222F99D-491E-4CEE-BF32-A985E4F9C1C7}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{19E246B1-E5C4-4A83-8B54-C1AE106C951B}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{02F8489A-AE61-40BE-90B6-28D58B2FB6B7}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{0F6F646A-CD50-4391-935E-97158A2E5559}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{B831D30E-385D-4CD9-A0D9-16389A5F1B66}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{2A2C1803-8634-4286-BB7E-ACFF1EB7459C}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{4C4F8D91-7F6F-462F-96EC-69693DDBA293}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{07DC5769-850E-4FFE-9F5F-E38E9E0CCE13}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
@@ -2685,10 +2690,10 @@
   <sheetPr/>
   <dimension ref="A1:AB59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B3" sqref="B3"/>
+      <selection pane="topRight" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3398,7 +3403,7 @@
       <c r="AA10" s="7"/>
       <c r="AB10" s="18"/>
     </row>
-    <row r="11" ht="18.5" customHeight="1" spans="1:28">
+    <row r="11" ht="33" spans="1:28">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -4773,7 +4778,9 @@
       <c r="V32" s="7"/>
       <c r="W32" s="7"/>
       <c r="X32" s="7"/>
-      <c r="Y32" s="8"/>
+      <c r="Y32" s="8" t="s">
+        <v>207</v>
+      </c>
       <c r="Z32" s="7"/>
       <c r="AA32" s="7"/>
       <c r="AB32" s="18"/>
@@ -4783,10 +4790,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D33" s="10">
         <v>6</v>
@@ -4807,7 +4814,7 @@
         <v>38</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K33" s="10">
         <v>2</v>
@@ -4816,17 +4823,17 @@
         <v>29</v>
       </c>
       <c r="M33" s="10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N33" s="10">
         <v>2</v>
       </c>
       <c r="O33" s="11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P33" s="10"/>
       <c r="Q33" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="R33" s="10"/>
       <c r="S33" s="10"/>
@@ -4845,10 +4852,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D34" s="10">
         <v>6</v>
@@ -4869,7 +4876,7 @@
         <v>46</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K34" s="7">
         <v>3</v>
@@ -4884,17 +4891,17 @@
         <v>3</v>
       </c>
       <c r="O34" s="8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P34" s="7"/>
       <c r="Q34" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="R34" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="S34" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="T34" s="7"/>
       <c r="U34" s="7"/>
@@ -4911,10 +4918,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D35" s="10">
         <v>6</v>
@@ -4935,7 +4942,7 @@
         <v>38</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K35" s="10">
         <v>1</v>
@@ -4944,23 +4951,23 @@
         <v>0</v>
       </c>
       <c r="M35" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N35" s="10">
         <v>5</v>
       </c>
       <c r="O35" s="11" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P35" s="10"/>
       <c r="Q35" s="10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="R35" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S35" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="T35" s="10"/>
       <c r="U35" s="10"/>
@@ -4977,10 +4984,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D36" s="10">
         <v>6</v>
@@ -4998,10 +5005,10 @@
         <v>1</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K36" s="7">
         <v>2</v>
@@ -5010,23 +5017,23 @@
         <v>34</v>
       </c>
       <c r="M36" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N36" s="7">
         <v>2</v>
       </c>
       <c r="O36" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P36" s="7"/>
       <c r="Q36" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="R36" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="S36" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="T36" s="7"/>
       <c r="U36" s="7"/>
@@ -5043,10 +5050,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D37" s="10">
         <v>6</v>
@@ -5067,7 +5074,7 @@
         <v>197</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K37" s="10">
         <v>3</v>
@@ -5082,11 +5089,11 @@
         <v>2</v>
       </c>
       <c r="O37" s="11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P37" s="10"/>
       <c r="Q37" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="R37" s="10"/>
       <c r="S37" s="10"/>
@@ -5105,10 +5112,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D38" s="10">
         <v>6</v>
@@ -5129,7 +5136,7 @@
         <v>197</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K38" s="7">
         <v>2</v>
@@ -5138,20 +5145,20 @@
         <v>34</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N38" s="7">
         <v>3</v>
       </c>
       <c r="O38" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P38" s="7"/>
       <c r="Q38" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R38" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="S38" s="7"/>
       <c r="T38" s="7"/>
@@ -5169,10 +5176,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D39" s="10">
         <v>6</v>
@@ -5193,7 +5200,7 @@
         <v>38</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K39" s="10">
         <v>3</v>
@@ -5208,11 +5215,11 @@
         <v>2</v>
       </c>
       <c r="O39" s="11" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P39" s="10"/>
       <c r="Q39" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="R39" s="10"/>
       <c r="S39" s="10"/>
@@ -5231,10 +5238,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D40" s="10">
         <v>6</v>
@@ -5268,17 +5275,17 @@
         <v>3</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P40" s="7"/>
       <c r="Q40" s="7" t="s">
         <v>152</v>
       </c>
       <c r="R40" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="S40" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="U40" s="7"/>
       <c r="V40" s="7"/>
@@ -5294,10 +5301,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D41" s="10">
         <v>6</v>
@@ -5325,13 +5332,13 @@
       </c>
       <c r="L41" s="10"/>
       <c r="M41" s="10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N41" s="10">
         <v>5</v>
       </c>
       <c r="O41" s="11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P41" s="10"/>
       <c r="Q41" s="10"/>
@@ -5342,7 +5349,7 @@
       <c r="W41" s="10"/>
       <c r="X41" s="10"/>
       <c r="Y41" s="11" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Z41" s="10"/>
       <c r="AA41" s="10"/>
@@ -5353,10 +5360,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D42" s="10">
         <v>6</v>
@@ -5390,11 +5397,11 @@
         <v>3</v>
       </c>
       <c r="O42" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P42" s="7"/>
       <c r="Q42" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="R42" s="7"/>
       <c r="S42" s="7"/>
@@ -5412,10 +5419,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D43" s="10">
         <v>6</v>
@@ -5449,11 +5456,11 @@
         <v>5</v>
       </c>
       <c r="O43" s="11" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P43" s="10"/>
       <c r="Q43" s="10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="R43" s="10"/>
       <c r="S43" s="10"/>
@@ -5471,10 +5478,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D44" s="10">
         <v>6</v>
@@ -5508,14 +5515,14 @@
         <v>2</v>
       </c>
       <c r="O44" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P44" s="7"/>
       <c r="Q44" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="R44" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="S44" s="7"/>
       <c r="U44" s="7"/>
@@ -5532,10 +5539,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D45" s="10">
         <v>6</v>
@@ -5569,14 +5576,14 @@
         <v>2</v>
       </c>
       <c r="O45" s="11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P45" s="10"/>
       <c r="Q45" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="R45" s="10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="S45" s="10"/>
       <c r="T45" s="10"/>
@@ -5594,10 +5601,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D46" s="10">
         <v>6</v>
@@ -5618,7 +5625,7 @@
         <v>197</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K46" s="7">
         <v>1</v>
@@ -5627,20 +5634,20 @@
         <v>0</v>
       </c>
       <c r="M46" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N46" s="7">
         <v>3</v>
       </c>
       <c r="O46" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P46" s="7"/>
       <c r="Q46" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="R46" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="S46" s="7"/>
       <c r="T46" s="7"/>
@@ -5658,10 +5665,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D47" s="10">
         <v>6</v>
@@ -5682,7 +5689,7 @@
         <v>38</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K47" s="10">
         <v>2</v>
@@ -5691,20 +5698,20 @@
         <v>45</v>
       </c>
       <c r="M47" s="10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N47" s="10">
         <v>2</v>
       </c>
       <c r="O47" s="11" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P47" s="10"/>
       <c r="Q47" s="10" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="R47" s="10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S47" s="10"/>
       <c r="T47" s="10"/>
@@ -5722,10 +5729,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D48" s="10">
         <v>6</v>
@@ -5746,7 +5753,7 @@
         <v>38</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K48" s="7">
         <v>3</v>
@@ -5761,11 +5768,11 @@
         <v>2</v>
       </c>
       <c r="O48" s="8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P48" s="7"/>
       <c r="Q48" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="R48" s="7"/>
       <c r="S48" s="7"/>
@@ -5784,10 +5791,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D49" s="10">
         <v>6</v>
@@ -5805,10 +5812,10 @@
         <v>0</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K49" s="10">
         <v>1</v>
@@ -5817,23 +5824,23 @@
         <v>0</v>
       </c>
       <c r="M49" s="10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N49" s="10">
         <v>3</v>
       </c>
       <c r="O49" s="11" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P49" s="10"/>
       <c r="Q49" s="10" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="R49" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="S49" s="10" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="T49" s="10"/>
       <c r="U49" s="10"/>
@@ -5850,10 +5857,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D50" s="10">
         <v>6</v>
@@ -5874,7 +5881,7 @@
         <v>38</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K50" s="7">
         <v>2</v>
@@ -5883,17 +5890,17 @@
         <v>48</v>
       </c>
       <c r="M50" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N50" s="7">
         <v>2</v>
       </c>
       <c r="O50" s="8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P50" s="7"/>
       <c r="Q50" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="R50" s="7"/>
       <c r="S50" s="7"/>
@@ -5912,10 +5919,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D51" s="10">
         <v>6</v>
@@ -5936,7 +5943,7 @@
         <v>38</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K51" s="10">
         <v>3</v>
@@ -5951,7 +5958,7 @@
         <v>1</v>
       </c>
       <c r="O51" s="11" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P51" s="10"/>
       <c r="Q51" s="10"/>
@@ -5972,10 +5979,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D52" s="10">
         <v>6</v>
@@ -6009,7 +6016,7 @@
         <v>3</v>
       </c>
       <c r="O52" s="8" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
@@ -6021,10 +6028,10 @@
       <c r="W52" s="7"/>
       <c r="X52" s="7"/>
       <c r="Y52" s="8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Z52" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AA52" s="7"/>
       <c r="AB52" s="18"/>
@@ -6034,10 +6041,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D53" s="10">
         <v>6</v>
@@ -6071,7 +6078,7 @@
         <v>5</v>
       </c>
       <c r="O53" s="11" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P53" s="10"/>
       <c r="Q53" s="10"/>
@@ -6083,7 +6090,7 @@
       <c r="W53" s="10"/>
       <c r="X53" s="10"/>
       <c r="Y53" s="11" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Z53" s="10"/>
       <c r="AA53" s="10"/>
@@ -6094,10 +6101,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D54" s="10">
         <v>6</v>
@@ -6131,17 +6138,17 @@
         <v>3</v>
       </c>
       <c r="O54" s="8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P54" s="7"/>
       <c r="Q54" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="R54" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="S54" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="T54" s="7"/>
       <c r="U54" s="7"/>
@@ -6158,10 +6165,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D55" s="10">
         <v>6</v>
@@ -6182,7 +6189,7 @@
         <v>197</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K55" s="10">
         <v>1</v>
@@ -6191,20 +6198,20 @@
         <v>0</v>
       </c>
       <c r="M55" s="10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N55" s="10">
         <v>1</v>
       </c>
       <c r="O55" s="11" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P55" s="10"/>
       <c r="Q55" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="R55" s="10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S55" s="10"/>
       <c r="T55" s="10"/>
@@ -6222,10 +6229,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D56" s="10">
         <v>6</v>
@@ -6246,7 +6253,7 @@
         <v>38</v>
       </c>
       <c r="J56" s="10" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K56" s="7">
         <v>2</v>
@@ -6261,11 +6268,11 @@
         <v>1</v>
       </c>
       <c r="O56" s="8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P56" s="7"/>
       <c r="Q56" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="R56" s="7"/>
       <c r="S56" s="7"/>
@@ -6284,10 +6291,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D57" s="10">
         <v>6</v>
@@ -6308,7 +6315,7 @@
         <v>38</v>
       </c>
       <c r="J57" s="10" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K57" s="10">
         <v>2</v>
@@ -6323,14 +6330,14 @@
         <v>1</v>
       </c>
       <c r="O57" s="11" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P57" s="10"/>
       <c r="Q57" s="10" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="R57" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="S57" s="10"/>
       <c r="T57" s="10"/>
@@ -6348,10 +6355,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D58" s="10">
         <v>6</v>
@@ -6372,7 +6379,7 @@
         <v>38</v>
       </c>
       <c r="J58" s="10" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K58" s="15">
         <v>2</v>
@@ -6387,14 +6394,14 @@
         <v>1</v>
       </c>
       <c r="O58" s="16" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="P58" s="15"/>
       <c r="Q58" s="15" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="R58" s="15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="S58" s="15"/>
       <c r="T58" s="15"/>

--- a/excels/config/game/hero/talent_tree/talent_tree_config.xlsx
+++ b/excels/config/game/hero/talent_tree/talent_tree_config.xlsx
@@ -1016,14 +1016,14 @@
     <t>尖锐</t>
   </si>
   <si>
-    <t>造成的伤害提高15%/20%/25%，同时受到的伤害也会提高15%</t>
+    <t>造成的伤害提高%DamageBonusMul.Base%%%，同时受到的伤害也会提高%DmgReductionPct.Base%%%</t>
   </si>
   <si>
     <t>hero/generic/尖锐</t>
   </si>
   <si>
     <t>DmgReductionPct {
-"Base" "15"
+"Base" "-15"
 }</t>
   </si>
   <si>
@@ -2357,31 +2357,31 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{EE6A127F-FDD0-4B61-A997-D0EAED8FF2DE}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{C108918C-A967-442F-BB60-6333B8B3EDDF}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{19E246B1-E5C4-4A83-8B54-C1AE106C951B}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{2A882D86-E234-4D41-B4BC-6095634D9B8F}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{0F6F646A-CD50-4391-935E-97158A2E5559}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{3FD8AECD-9A80-4FA1-846C-94A2F20A958E}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{2A2C1803-8634-4286-BB7E-ACFF1EB7459C}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{C30B163C-3706-4A89-86A5-3C6414B6D08D}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{07DC5769-850E-4FFE-9F5F-E38E9E0CCE13}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{BB80B301-6A70-47AB-9A01-1759B1DB32A3}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
@@ -2690,10 +2690,10 @@
   <sheetPr/>
   <dimension ref="A1:AB59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="S1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D44" sqref="D44"/>
+      <selection pane="topRight" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/excels/config/game/hero/talent_tree/talent_tree_config.xlsx
+++ b/excels/config/game/hero/talent_tree/talent_tree_config.xlsx
@@ -374,7 +374,7 @@
     <t>穿透</t>
   </si>
   <si>
-    <t>连续射击可穿透目标，伤害提高20%/40%/60%。</t>
+    <t>连续射击可穿透目标，伤害提高%bonus_value%%%。</t>
   </si>
   <si>
     <t>drow_2a_b</t>
@@ -846,7 +846,7 @@
     <t>灵活</t>
   </si>
   <si>
-    <t>闪避提高6%/8%/10%/12%/15%</t>
+    <t>闪避提高%EvasionProb.Base%%%</t>
   </si>
   <si>
     <t>41|0</t>
@@ -856,14 +856,14 @@
   </si>
   <si>
     <t>EvasionProb {
-"BasePercent" "6 8 10 12 15"
+"Base" "6 8 10 12 15"
 }</t>
   </si>
   <si>
     <t>侥幸</t>
   </si>
   <si>
-    <t>闪避后立即回复10%/15%/20%已损失生命值。</t>
+    <t>闪避后立即回复%dogde_heal_loss%%%已损失生命值。</t>
   </si>
   <si>
     <t>hero/generic/侥幸</t>
@@ -875,7 +875,7 @@
     <t>凌弱</t>
   </si>
   <si>
-    <t>对被减速的敌人造成伤害时，暴击概率提高5%/10%/15%/20%/25%</t>
+    <t>对被减速的敌人造成伤害时，暴击概率提高%bonus_crit%%%</t>
   </si>
   <si>
     <t>hero/generic/凌弱</t>
@@ -887,7 +887,7 @@
     <t>潜能激发</t>
   </si>
   <si>
-    <t>蓝量小于最大蓝量的20%/30%时，每秒恢复5点蓝量。</t>
+    <t>蓝量小于最大蓝量的%mana_low%%%时，每秒恢复5点蓝量。</t>
   </si>
   <si>
     <t>hero/generic/潜能激发</t>
@@ -902,7 +902,7 @@
     <t>治愈</t>
   </si>
   <si>
-    <t>每过5秒，回复4%/8%最大生命值。</t>
+    <t>每过%interval%%%秒，回复%heal_maxhp_pct%%%最大生命值。</t>
   </si>
   <si>
     <t>hero/generic/治愈</t>
@@ -1035,7 +1035,7 @@
     <t>专注</t>
   </si>
   <si>
-    <t>暴击概率提高6%/8%/10%/12%/15%</t>
+    <t>暴击概率提高%CriticalChance.Base%%%</t>
   </si>
   <si>
     <t>hero/generic/专注</t>
@@ -1049,7 +1049,7 @@
     <t>追猎</t>
   </si>
   <si>
-    <t>暴击后提高10%/20%/30%攻速和20%移速，持续2秒。</t>
+    <t>暴击后提高%add_as_pct%%%攻速和%add_mv_pct%%%移速，持续2秒。</t>
   </si>
   <si>
     <t>hero/generic/追猎</t>
@@ -2357,31 +2357,31 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{C108918C-A967-442F-BB60-6333B8B3EDDF}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{E968A812-3AC9-4944-BBD3-79828E8D4B58}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{2A882D86-E234-4D41-B4BC-6095634D9B8F}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{2CF5FB9A-5520-4C5A-8B5E-FB9D04B0CFF9}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{3FD8AECD-9A80-4FA1-846C-94A2F20A958E}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{2AEE37C6-557B-4D53-98FA-4D5782784D17}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{C30B163C-3706-4A89-86A5-3C6414B6D08D}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{0EAC1562-C3D2-4282-A4E8-E93C397A5FCE}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{BB80B301-6A70-47AB-9A01-1759B1DB32A3}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{5E3CDE4F-6043-4746-9F4F-38877C4C151A}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
@@ -2687,13 +2687,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AB59"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AB58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="S1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="O1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C53" sqref="C53"/>
+      <selection pane="topRight" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2813,7 +2813,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:28">
+    <row r="2" s="1" customFormat="1" ht="18.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A2" s="6" t="s">
         <v>18</v>
       </c>
@@ -2899,7 +2899,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" ht="51.5" customHeight="1" spans="1:28">
+    <row r="3" ht="51.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -2963,7 +2963,7 @@
       <c r="AA3" s="10"/>
       <c r="AB3" s="19"/>
     </row>
-    <row r="4" ht="35" customHeight="1" spans="1:28">
+    <row r="4" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -3027,7 +3027,7 @@
       <c r="AA4" s="7"/>
       <c r="AB4" s="18"/>
     </row>
-    <row r="5" ht="35" customHeight="1" spans="1:28">
+    <row r="5" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A5" s="9">
         <v>3</v>
       </c>
@@ -3091,7 +3091,7 @@
       <c r="AA5" s="10"/>
       <c r="AB5" s="19"/>
     </row>
-    <row r="6" ht="35" customHeight="1" spans="1:28">
+    <row r="6" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -3155,7 +3155,7 @@
       <c r="AA6" s="7"/>
       <c r="AB6" s="18"/>
     </row>
-    <row r="7" ht="51.5" customHeight="1" spans="1:28">
+    <row r="7" ht="51.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A7" s="9">
         <v>5</v>
       </c>
@@ -3217,7 +3217,7 @@
       <c r="AA7" s="10"/>
       <c r="AB7" s="19"/>
     </row>
-    <row r="8" ht="35" customHeight="1" spans="1:28">
+    <row r="8" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -3279,7 +3279,7 @@
       <c r="AA8" s="7"/>
       <c r="AB8" s="18"/>
     </row>
-    <row r="9" ht="18.5" customHeight="1" spans="1:28">
+    <row r="9" ht="18.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -3341,7 +3341,7 @@
       <c r="AA9" s="10"/>
       <c r="AB9" s="19"/>
     </row>
-    <row r="10" ht="35" customHeight="1" spans="1:28">
+    <row r="10" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -3403,7 +3403,7 @@
       <c r="AA10" s="7"/>
       <c r="AB10" s="18"/>
     </row>
-    <row r="11" ht="33" spans="1:28">
+    <row r="11" ht="33" hidden="1" spans="1:28">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -3465,7 +3465,7 @@
       <c r="AA11" s="10"/>
       <c r="AB11" s="19"/>
     </row>
-    <row r="12" ht="35" customHeight="1" spans="1:28">
+    <row r="12" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -3529,7 +3529,7 @@
       <c r="AA12" s="7"/>
       <c r="AB12" s="18"/>
     </row>
-    <row r="13" ht="18.5" customHeight="1" spans="1:28">
+    <row r="13" ht="18.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -3591,7 +3591,7 @@
       <c r="AA13" s="10"/>
       <c r="AB13" s="19"/>
     </row>
-    <row r="14" ht="35" customHeight="1" spans="1:28">
+    <row r="14" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -3657,7 +3657,7 @@
       <c r="AA14" s="7"/>
       <c r="AB14" s="18"/>
     </row>
-    <row r="15" ht="35" customHeight="1" spans="1:28">
+    <row r="15" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -3719,7 +3719,7 @@
       <c r="AA15" s="10"/>
       <c r="AB15" s="19"/>
     </row>
-    <row r="16" ht="18.5" customHeight="1" spans="1:28">
+    <row r="16" ht="18.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -3781,7 +3781,7 @@
       <c r="AA16" s="7"/>
       <c r="AB16" s="18"/>
     </row>
-    <row r="17" ht="35" customHeight="1" spans="1:28">
+    <row r="17" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -3843,7 +3843,7 @@
       <c r="AA17" s="10"/>
       <c r="AB17" s="19"/>
     </row>
-    <row r="18" ht="51.5" customHeight="1" spans="1:28">
+    <row r="18" ht="51.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -3909,7 +3909,7 @@
       <c r="AA18" s="7"/>
       <c r="AB18" s="18"/>
     </row>
-    <row r="19" ht="18.5" customHeight="1" spans="1:28">
+    <row r="19" ht="18.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -3973,7 +3973,7 @@
       <c r="AA19" s="10"/>
       <c r="AB19" s="19"/>
     </row>
-    <row r="20" ht="35" customHeight="1" spans="1:28">
+    <row r="20" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -4035,7 +4035,7 @@
       <c r="AA20" s="7"/>
       <c r="AB20" s="18"/>
     </row>
-    <row r="21" ht="18.5" customHeight="1" spans="1:28">
+    <row r="21" ht="18.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -4097,7 +4097,7 @@
       <c r="AA21" s="10"/>
       <c r="AB21" s="19"/>
     </row>
-    <row r="22" ht="35" customHeight="1" spans="1:28">
+    <row r="22" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -4161,7 +4161,7 @@
       <c r="AA22" s="7"/>
       <c r="AB22" s="18"/>
     </row>
-    <row r="23" ht="35" customHeight="1" spans="1:28">
+    <row r="23" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -4223,7 +4223,7 @@
       <c r="AA23" s="10"/>
       <c r="AB23" s="19"/>
     </row>
-    <row r="24" ht="51.5" customHeight="1" spans="1:28">
+    <row r="24" ht="51.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -4287,7 +4287,7 @@
       <c r="AA24" s="7"/>
       <c r="AB24" s="18"/>
     </row>
-    <row r="25" ht="35" customHeight="1" spans="1:28">
+    <row r="25" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -4591,7 +4591,7 @@
       <c r="AA29" s="10"/>
       <c r="AB29" s="19"/>
     </row>
-    <row r="30" customFormat="1" ht="51.5" customHeight="1" spans="1:28">
+    <row r="30" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -4657,7 +4657,7 @@
       <c r="AA30" s="7"/>
       <c r="AB30" s="18"/>
     </row>
-    <row r="31" customFormat="1" ht="18.5" customHeight="1" spans="1:28">
+    <row r="31" customFormat="1" ht="18.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A31" s="9">
         <v>30</v>
       </c>
@@ -4719,7 +4719,7 @@
       <c r="AA31" s="10"/>
       <c r="AB31" s="19"/>
     </row>
-    <row r="32" customFormat="1" ht="51.5" customHeight="1" spans="1:28">
+    <row r="32" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -4785,7 +4785,7 @@
       <c r="AA32" s="7"/>
       <c r="AB32" s="18"/>
     </row>
-    <row r="33" customFormat="1" ht="51.5" customHeight="1" spans="1:28">
+    <row r="33" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A33" s="9">
         <v>32</v>
       </c>
@@ -4847,7 +4847,7 @@
       <c r="AA33" s="10"/>
       <c r="AB33" s="19"/>
     </row>
-    <row r="34" customFormat="1" ht="84.5" customHeight="1" spans="1:28">
+    <row r="34" customFormat="1" ht="84.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -4913,7 +4913,7 @@
       <c r="AA34" s="7"/>
       <c r="AB34" s="18"/>
     </row>
-    <row r="35" customFormat="1" ht="51.5" customHeight="1" spans="1:28">
+    <row r="35" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A35" s="9">
         <v>34</v>
       </c>
@@ -4979,7 +4979,7 @@
       <c r="AA35" s="10"/>
       <c r="AB35" s="19"/>
     </row>
-    <row r="36" customFormat="1" ht="68" customHeight="1" spans="1:28">
+    <row r="36" customFormat="1" ht="68" hidden="1" customHeight="1" spans="1:28">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -5045,7 +5045,7 @@
       <c r="AA36" s="7"/>
       <c r="AB36" s="18"/>
     </row>
-    <row r="37" customFormat="1" ht="35" customHeight="1" spans="1:28">
+    <row r="37" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A37" s="9">
         <v>36</v>
       </c>
@@ -5107,7 +5107,7 @@
       <c r="AA37" s="10"/>
       <c r="AB37" s="19"/>
     </row>
-    <row r="38" customFormat="1" ht="35" customHeight="1" spans="1:28">
+    <row r="38" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -5171,7 +5171,7 @@
       <c r="AA38" s="7"/>
       <c r="AB38" s="18"/>
     </row>
-    <row r="39" customFormat="1" ht="35" customHeight="1" spans="1:28">
+    <row r="39" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A39" s="9">
         <v>38</v>
       </c>
@@ -5596,7 +5596,7 @@
       <c r="AA45" s="10"/>
       <c r="AB45" s="19"/>
     </row>
-    <row r="46" customFormat="1" ht="35" customHeight="1" spans="1:28">
+    <row r="46" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -5660,7 +5660,7 @@
       <c r="AA46" s="7"/>
       <c r="AB46" s="18"/>
     </row>
-    <row r="47" customFormat="1" ht="35" customHeight="1" spans="1:28">
+    <row r="47" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A47" s="9">
         <v>46</v>
       </c>
@@ -5724,7 +5724,7 @@
       <c r="AA47" s="10"/>
       <c r="AB47" s="19"/>
     </row>
-    <row r="48" customFormat="1" ht="35" customHeight="1" spans="1:28">
+    <row r="48" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -5786,7 +5786,7 @@
       <c r="AA48" s="7"/>
       <c r="AB48" s="18"/>
     </row>
-    <row r="49" customFormat="1" ht="35" customHeight="1" spans="1:28">
+    <row r="49" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A49" s="9">
         <v>48</v>
       </c>
@@ -5852,7 +5852,7 @@
       <c r="AA49" s="10"/>
       <c r="AB49" s="19"/>
     </row>
-    <row r="50" customFormat="1" ht="18.5" customHeight="1" spans="1:28">
+    <row r="50" customFormat="1" ht="18.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -5914,7 +5914,7 @@
       <c r="AA50" s="7"/>
       <c r="AB50" s="18"/>
     </row>
-    <row r="51" customFormat="1" ht="18.5" customHeight="1" spans="1:28">
+    <row r="51" customFormat="1" ht="18.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A51" s="9">
         <v>50</v>
       </c>
@@ -6160,7 +6160,7 @@
       <c r="AA54" s="7"/>
       <c r="AB54" s="18"/>
     </row>
-    <row r="55" customFormat="1" ht="35" customHeight="1" spans="1:28">
+    <row r="55" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A55" s="9">
         <v>54</v>
       </c>
@@ -6224,7 +6224,7 @@
       <c r="AA55" s="10"/>
       <c r="AB55" s="19"/>
     </row>
-    <row r="56" customFormat="1" ht="51.5" customHeight="1" spans="1:28">
+    <row r="56" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A56" s="6">
         <v>55</v>
       </c>
@@ -6286,7 +6286,7 @@
       <c r="AA56" s="7"/>
       <c r="AB56" s="18"/>
     </row>
-    <row r="57" customFormat="1" ht="35" customHeight="1" spans="1:28">
+    <row r="57" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A57" s="9">
         <v>56</v>
       </c>
@@ -6350,7 +6350,7 @@
       <c r="AA57" s="10"/>
       <c r="AB57" s="19"/>
     </row>
-    <row r="58" customFormat="1" ht="51.5" customHeight="1" spans="1:28">
+    <row r="58" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A58" s="14">
         <v>57</v>
       </c>
@@ -6414,9 +6414,13 @@
       <c r="AA58" s="15"/>
       <c r="AB58" s="20"/>
     </row>
-    <row r="59" ht="14.25"/>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AB58" etc:filterBottomFollowUsedRange="0">
+    <filterColumn colId="10">
+      <filters>
+        <filter val="99"/>
+      </filters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="F$1:F$1048576">

--- a/excels/config/game/hero/talent_tree/talent_tree_config.xlsx
+++ b/excels/config/game/hero/talent_tree/talent_tree_config.xlsx
@@ -831,7 +831,7 @@
     <t>全能</t>
   </si>
   <si>
-    <t>生命值大于50%时，最终伤害提升5%/10%/15%；生命值小于50%时，最终免伤降低5%/10%/15%。</t>
+    <t>生命值大于%hp_heighest%%%时，最终伤害提升%final_dmg%%%；生命值小于%hp_heighest%%%时，最终免伤降低%final_reduction%%%。</t>
   </si>
   <si>
     <t>hero/generic/全能</t>
@@ -2357,31 +2357,31 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{E968A812-3AC9-4944-BBD3-79828E8D4B58}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{C9D6D1B6-88AB-44DE-8F27-3A2935CD7963}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{2CF5FB9A-5520-4C5A-8B5E-FB9D04B0CFF9}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{DC0A3CB5-FE8A-4334-A01D-EE3F198A404C}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{2AEE37C6-557B-4D53-98FA-4D5782784D17}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{EA6CBA8B-DFFB-4AC2-973C-F780E0D2274F}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{0EAC1562-C3D2-4282-A4E8-E93C397A5FCE}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{F3DC7F5A-66E5-4338-9B5C-2019E4E2877C}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{5E3CDE4F-6043-4746-9F4F-38877C4C151A}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{2409047A-54A9-46EC-BBE3-DF4FC81B84B1}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
@@ -2691,9 +2691,9 @@
   <dimension ref="A1:AB58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="P1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C40" sqref="C40"/>
+      <selection pane="topRight" activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5233,7 +5233,7 @@
       <c r="AA39" s="10"/>
       <c r="AB39" s="19"/>
     </row>
-    <row r="40" customFormat="1" ht="35" customHeight="1" spans="1:28">
+    <row r="40" customFormat="1" ht="49.5" spans="1:28">
       <c r="A40" s="6">
         <v>39</v>
       </c>

--- a/excels/config/game/hero/talent_tree/talent_tree_config.xlsx
+++ b/excels/config/game/hero/talent_tree/talent_tree_config.xlsx
@@ -10,7 +10,7 @@
     <sheet name="talent_tree_config" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">talent_tree_config!$A$1:$AB$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">talent_tree_config!$A$1:$AC$58</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="351">
   <si>
     <t>下标</t>
   </si>
@@ -95,6 +95,9 @@
     <t>#Loccustom_talent_{}_desc</t>
   </si>
   <si>
+    <t>#Loccustom_talent_{}_desc_lv2</t>
+  </si>
+  <si>
     <t>hero_id</t>
   </si>
   <si>
@@ -392,7 +395,10 @@
     <t>刺骨</t>
   </si>
   <si>
-    <t>技能赋予冰元素效果，伤害变为冰元素伤害。（该技能冰元素减速效果增加至50%。2级才显示）</t>
+    <t>技能赋予冰元素效果，伤害变为冰元素伤害。</t>
+  </si>
+  <si>
+    <t>冰元素减速效果增加至%move_slow%%%</t>
   </si>
   <si>
     <t>17|0</t>
@@ -401,13 +407,16 @@
     <t>hero/drow/刺骨</t>
   </si>
   <si>
-    <t>cigu_value 1</t>
+    <t>cigu_value 1 2</t>
+  </si>
+  <si>
+    <t>move_slow 50</t>
   </si>
   <si>
     <t>冰爆</t>
   </si>
   <si>
-    <t>连续射击命中被减速的敌人时，有12%概率发生冰爆，对范围300码敌人造成攻击力160%/200%/250%冰元素伤害。</t>
+    <t>连续射击命中被减速的敌人时，有12%概率发生冰爆，对范围300码敌人造成攻击力%base_value%%%冰元素伤害。</t>
   </si>
   <si>
     <t>hero/drow/冰爆</t>
@@ -732,34 +741,10 @@
     <t>燃矢</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1级解锁:箭雨技能赋予火元素效果，伤害变为火元素伤害。
-2级解锁:该技能造成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>强化灼烧</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>效果,强化灼烧伤害持续时间为5秒，基础伤害为攻击力50%。</t>
-    </r>
+    <t>1级解锁: 箭雨技能赋予火元素效果，伤害变为火元素伤害。</t>
+  </si>
+  <si>
+    <t>2级解锁: 该技能造成强化灼烧效果,强化灼烧伤害持续时间为%burn_duration%秒，基础伤害为攻击力%burn_dmg%%%。</t>
   </si>
   <si>
     <t>Dot</t>
@@ -1049,7 +1034,7 @@
     <t>追猎</t>
   </si>
   <si>
-    <t>暴击后提高%add_as_pct%%%攻速和%add_mv_pct%%%移速，持续2秒。</t>
+    <t>暴击后提高%add_as_pct%%%攻速和%add_mv_pct%%%移速，持续%duration%秒。</t>
   </si>
   <si>
     <t>hero/generic/追猎</t>
@@ -1085,8 +1070,7 @@
     <t>寒霜</t>
   </si>
   <si>
-    <t>复仇获得冰元素之力，持续期间冰元素伤害提高%bonus_value%%%，
-且免疫自身减速效果。</t>
+    <t>复仇获得冰元素之力，持续期间冰元素伤害提高%bonus_value%%%，且免疫自身减速效果。</t>
   </si>
   <si>
     <t>hero/drow/寒霜</t>
@@ -1133,7 +1117,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1297,12 +1281,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="35">
@@ -1929,7 +1907,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1965,6 +1943,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2357,31 +2338,31 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{C9D6D1B6-88AB-44DE-8F27-3A2935CD7963}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{19749DF5-3B53-4501-8136-18237ED116AC}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{DC0A3CB5-FE8A-4334-A01D-EE3F198A404C}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{EE412711-2B37-4ECC-9DAF-B1B6B52A6FFF}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{EA6CBA8B-DFFB-4AC2-973C-F780E0D2274F}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{668A71CE-6AC3-476D-AD13-5C342BECC771}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{F3DC7F5A-66E5-4338-9B5C-2019E4E2877C}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{D2E9B425-E7F1-45C0-B5E9-2CA11F8EDFB4}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{2409047A-54A9-46EC-BBE3-DF4FC81B84B1}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{302F2F29-85E4-41EE-91F5-DBF7285E5222}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
@@ -2687,13 +2668,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:AB58"/>
+  <sheetPr/>
+  <dimension ref="A1:AC59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="P1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="P1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="P40" sqref="P40"/>
+      <selection pane="topRight" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2701,33 +2682,34 @@
     <col min="1" max="1" width="6.675" customWidth="1"/>
     <col min="2" max="2" width="32.625" customWidth="1"/>
     <col min="3" max="3" width="40.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.0083333333333" customWidth="1"/>
-    <col min="6" max="6" width="12.175" customWidth="1"/>
-    <col min="7" max="7" width="10.5083333333333" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.3416666666667" customWidth="1"/>
-    <col min="9" max="9" width="12.0083333333333" customWidth="1"/>
-    <col min="10" max="10" width="11.5083333333333" customWidth="1"/>
-    <col min="11" max="11" width="12.675" customWidth="1"/>
-    <col min="12" max="12" width="13.8416666666667" customWidth="1"/>
-    <col min="13" max="13" width="14.0083333333333" customWidth="1"/>
-    <col min="14" max="14" width="20.5083333333333" customWidth="1"/>
-    <col min="15" max="15" width="40.625" customWidth="1"/>
-    <col min="16" max="16" width="15.175" style="3" customWidth="1"/>
-    <col min="17" max="17" width="28.3416666666667" style="3" customWidth="1"/>
-    <col min="18" max="18" width="24.3416666666667" style="3" customWidth="1"/>
-    <col min="19" max="19" width="16.625" style="3" customWidth="1"/>
-    <col min="20" max="20" width="27.875" style="3" customWidth="1"/>
-    <col min="21" max="22" width="4.24166666666667" style="3" customWidth="1"/>
-    <col min="23" max="23" width="6.675" style="3" customWidth="1"/>
-    <col min="24" max="24" width="15.3416666666667" style="3" customWidth="1"/>
-    <col min="25" max="25" width="27.8416666666667" style="3" customWidth="1"/>
-    <col min="26" max="26" width="19.8416666666667" style="3" customWidth="1"/>
-    <col min="27" max="27" width="4.24166666666667" style="3" customWidth="1"/>
-    <col min="28" max="28" width="4.55" style="3" customWidth="1"/>
+    <col min="4" max="4" width="32.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.0083333333333" customWidth="1"/>
+    <col min="7" max="7" width="12.175" customWidth="1"/>
+    <col min="8" max="8" width="10.5083333333333" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14.3416666666667" customWidth="1"/>
+    <col min="10" max="10" width="12.0083333333333" customWidth="1"/>
+    <col min="11" max="11" width="11.5083333333333" customWidth="1"/>
+    <col min="12" max="12" width="12.675" customWidth="1"/>
+    <col min="13" max="13" width="13.8416666666667" customWidth="1"/>
+    <col min="14" max="14" width="14.0083333333333" customWidth="1"/>
+    <col min="15" max="15" width="20.5083333333333" customWidth="1"/>
+    <col min="16" max="16" width="40.625" customWidth="1"/>
+    <col min="17" max="17" width="15.175" style="3" customWidth="1"/>
+    <col min="18" max="18" width="28.3416666666667" style="3" customWidth="1"/>
+    <col min="19" max="19" width="24.3416666666667" style="3" customWidth="1"/>
+    <col min="20" max="20" width="16.625" style="3" customWidth="1"/>
+    <col min="21" max="21" width="27.875" style="3" customWidth="1"/>
+    <col min="22" max="23" width="4.24166666666667" style="3" customWidth="1"/>
+    <col min="24" max="24" width="6.675" style="3" customWidth="1"/>
+    <col min="25" max="25" width="15.3416666666667" style="3" customWidth="1"/>
+    <col min="26" max="26" width="27.8416666666667" style="3" customWidth="1"/>
+    <col min="27" max="27" width="19.8416666666667" style="3" customWidth="1"/>
+    <col min="28" max="28" width="4.24166666666667" style="3" customWidth="1"/>
+    <col min="29" max="29" width="4.55" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:28">
+    <row r="1" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:29">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2737,83 +2719,84 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5">
-        <v>0</v>
-      </c>
       <c r="Q1" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R1" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S1" s="5">
+        <v>2</v>
+      </c>
+      <c r="T1" s="5">
         <v>3</v>
       </c>
-      <c r="T1" s="5">
+      <c r="U1" s="5">
         <v>4</v>
       </c>
-      <c r="U1" s="5">
+      <c r="V1" s="5">
         <v>5</v>
       </c>
-      <c r="V1" s="5">
+      <c r="W1" s="5">
         <v>6</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="Y1" s="5">
-        <v>1</v>
-      </c>
       <c r="Z1" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA1" s="5">
+        <v>2</v>
+      </c>
+      <c r="AB1" s="5">
         <v>3</v>
       </c>
-      <c r="AB1" s="17" t="s">
+      <c r="AC1" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="18.5" hidden="1" customHeight="1" spans="1:28">
+    <row r="2" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:29">
       <c r="A2" s="6" t="s">
         <v>18</v>
       </c>
@@ -2856,65 +2839,66 @@
       <c r="N2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="7">
-        <v>1</v>
+      <c r="Q2" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="R2" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S2" s="7">
+        <v>2</v>
+      </c>
+      <c r="T2" s="7">
         <v>3</v>
       </c>
-      <c r="T2" s="7">
+      <c r="U2" s="7">
         <v>4</v>
       </c>
-      <c r="U2" s="7">
+      <c r="V2" s="7">
         <v>5</v>
       </c>
-      <c r="V2" s="7">
+      <c r="W2" s="7">
         <v>6</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="X2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="Y2" s="8">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="7">
-        <v>2</v>
+      <c r="Y2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" s="8">
+        <v>1</v>
       </c>
       <c r="AA2" s="7">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="7">
         <v>3</v>
       </c>
-      <c r="AB2" s="18" t="s">
-        <v>34</v>
+      <c r="AC2" s="19" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="3" ht="51.5" hidden="1" customHeight="1" spans="1:28">
+    <row r="3" ht="51.5" customHeight="1" spans="1:29">
       <c r="A3" s="9">
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="10">
+        <v>38</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10">
         <v>6</v>
       </c>
-      <c r="E3" s="10">
-        <v>1</v>
-      </c>
       <c r="F3" s="10">
         <v>1</v>
       </c>
@@ -2922,255 +2906,259 @@
         <v>1</v>
       </c>
       <c r="H3" s="10">
-        <v>0</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>38</v>
+        <v>1</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0</v>
       </c>
       <c r="J3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="10">
-        <v>1</v>
+      <c r="K3" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="L3" s="10">
-        <v>0</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" s="10">
-        <v>1</v>
-      </c>
-      <c r="O3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="10">
+        <v>0</v>
+      </c>
+      <c r="N3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10" t="s">
+      <c r="O3" s="10">
+        <v>1</v>
+      </c>
+      <c r="P3" s="11" t="s">
         <v>42</v>
       </c>
+      <c r="Q3" s="10"/>
       <c r="R3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="S3" s="10"/>
+      <c r="S3" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="T3" s="10"/>
       <c r="U3" s="10"/>
       <c r="V3" s="10"/>
       <c r="W3" s="10"/>
       <c r="X3" s="10"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="11"/>
       <c r="AA3" s="10"/>
-      <c r="AB3" s="19"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="20"/>
     </row>
-    <row r="4" ht="35" hidden="1" customHeight="1" spans="1:28">
+    <row r="4" ht="35" customHeight="1" spans="1:29">
       <c r="A4" s="6">
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="10">
+        <v>46</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="10">
         <v>6</v>
       </c>
-      <c r="E4" s="7">
-        <v>1</v>
-      </c>
       <c r="F4" s="7">
         <v>1</v>
       </c>
-      <c r="G4" s="10">
-        <v>1</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>46</v>
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+      <c r="H4" s="10">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K4" s="7">
-        <v>2</v>
+      <c r="K4" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="L4" s="7">
-        <v>1</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="N4" s="7">
+        <v>2</v>
+      </c>
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="7">
         <v>3</v>
       </c>
-      <c r="O4" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7" t="s">
+      <c r="P4" s="8" t="s">
         <v>50</v>
       </c>
+      <c r="Q4" s="7"/>
       <c r="R4" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="S4" s="7"/>
+      <c r="S4" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="8"/>
       <c r="AA4" s="7"/>
-      <c r="AB4" s="18"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="19"/>
     </row>
-    <row r="5" ht="35" hidden="1" customHeight="1" spans="1:28">
+    <row r="5" ht="35" customHeight="1" spans="1:29">
       <c r="A5" s="9">
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="10">
+        <v>54</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10">
         <v>6</v>
       </c>
-      <c r="E5" s="10">
-        <v>1</v>
-      </c>
       <c r="F5" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="10">
-        <v>0</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>38</v>
+        <v>1</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="K5" s="10">
+        <v>39</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="10">
         <v>3</v>
       </c>
-      <c r="L5" s="10">
-        <v>2</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="N5" s="10">
-        <v>2</v>
-      </c>
-      <c r="O5" s="11" t="s">
+      <c r="M5" s="10">
+        <v>2</v>
+      </c>
+      <c r="N5" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10" t="s">
+      <c r="O5" s="10">
+        <v>2</v>
+      </c>
+      <c r="P5" s="11" t="s">
         <v>56</v>
       </c>
+      <c r="Q5" s="10"/>
       <c r="R5" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="S5" s="10"/>
+      <c r="S5" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
       <c r="W5" s="10"/>
       <c r="X5" s="10"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="11"/>
       <c r="AA5" s="10"/>
-      <c r="AB5" s="19"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="20"/>
     </row>
-    <row r="6" ht="35" hidden="1" customHeight="1" spans="1:28">
+    <row r="6" ht="35" customHeight="1" spans="1:29">
       <c r="A6" s="6">
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="10">
+        <v>60</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="10">
         <v>6</v>
       </c>
-      <c r="E6" s="7">
-        <v>1</v>
-      </c>
       <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="10">
-        <v>1</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>38</v>
+        <v>1</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K6" s="7">
+        <v>39</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="7">
         <v>3</v>
       </c>
-      <c r="L6" s="7">
-        <v>2</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="N6" s="7">
-        <v>2</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>2</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="O6" s="7">
+        <v>2</v>
+      </c>
+      <c r="P6" s="8" t="s">
         <v>61</v>
       </c>
+      <c r="Q6" s="7"/>
       <c r="R6" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="S6" s="7"/>
+      <c r="S6" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="8"/>
       <c r="AA6" s="7"/>
-      <c r="AB6" s="18"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="19"/>
     </row>
-    <row r="7" ht="51.5" hidden="1" customHeight="1" spans="1:28">
+    <row r="7" ht="51.5" customHeight="1" spans="1:29">
       <c r="A7" s="9">
         <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="10">
+        <v>65</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10">
         <v>6</v>
       </c>
-      <c r="E7" s="10">
-        <v>1</v>
-      </c>
       <c r="F7" s="10">
         <v>1</v>
       </c>
@@ -3178,123 +3166,125 @@
         <v>1</v>
       </c>
       <c r="H7" s="10">
+        <v>1</v>
+      </c>
+      <c r="I7" s="10">
         <v>4</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>65</v>
       </c>
       <c r="J7" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="K7" s="10">
-        <v>2</v>
+      <c r="K7" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="L7" s="10">
-        <v>1</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="N7" s="10">
+        <v>2</v>
+      </c>
+      <c r="M7" s="10">
+        <v>1</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="O7" s="10">
         <v>3</v>
       </c>
-      <c r="O7" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10" t="s">
+      <c r="P7" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="R7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10" t="s">
+        <v>70</v>
+      </c>
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
       <c r="U7" s="10"/>
       <c r="V7" s="10"/>
       <c r="W7" s="10"/>
       <c r="X7" s="10"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="11"/>
       <c r="AA7" s="10"/>
-      <c r="AB7" s="19"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="20"/>
     </row>
-    <row r="8" ht="35" hidden="1" customHeight="1" spans="1:28">
+    <row r="8" ht="35" customHeight="1" spans="1:29">
       <c r="A8" s="6">
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="10">
+        <v>72</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="10">
         <v>6</v>
       </c>
-      <c r="E8" s="7">
-        <v>1</v>
-      </c>
       <c r="F8" s="7">
-        <v>0</v>
-      </c>
-      <c r="G8" s="10">
-        <v>1</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>38</v>
+        <v>1</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="K8" s="7">
+        <v>39</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" s="7">
         <v>3</v>
       </c>
-      <c r="L8" s="7">
+      <c r="M8" s="7">
         <v>5</v>
       </c>
-      <c r="M8" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="N8" s="7">
-        <v>2</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7" t="s">
+      <c r="N8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="O8" s="7">
+        <v>2</v>
+      </c>
+      <c r="P8" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="R8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="8"/>
       <c r="AA8" s="7"/>
-      <c r="AB8" s="18"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="19"/>
     </row>
-    <row r="9" ht="18.5" hidden="1" customHeight="1" spans="1:28">
+    <row r="9" ht="18.5" customHeight="1" spans="1:29">
       <c r="A9" s="9">
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="10">
+        <v>76</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10">
         <v>6</v>
       </c>
-      <c r="E9" s="10">
-        <v>1</v>
-      </c>
       <c r="F9" s="10">
         <v>1</v>
       </c>
@@ -3302,1098 +3292,1121 @@
         <v>1</v>
       </c>
       <c r="H9" s="10">
-        <v>0</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>76</v>
+        <v>1</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="K9" s="10">
-        <v>2</v>
+      <c r="K9" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="L9" s="10">
-        <v>1</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="N9" s="10">
+        <v>2</v>
+      </c>
+      <c r="M9" s="10">
+        <v>1</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="O9" s="10">
         <v>3</v>
       </c>
-      <c r="O9" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10" t="s">
+      <c r="P9" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="R9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10" t="s">
+        <v>81</v>
+      </c>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
       <c r="U9" s="10"/>
       <c r="V9" s="10"/>
       <c r="W9" s="10"/>
       <c r="X9" s="10"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="11"/>
       <c r="AA9" s="10"/>
-      <c r="AB9" s="19"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="20"/>
     </row>
-    <row r="10" ht="35" hidden="1" customHeight="1" spans="1:28">
+    <row r="10" ht="35" customHeight="1" spans="1:29">
       <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="10">
+        <v>83</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="10">
         <v>6</v>
       </c>
-      <c r="E10" s="7">
-        <v>1</v>
-      </c>
       <c r="F10" s="7">
-        <v>0</v>
-      </c>
-      <c r="G10" s="10">
-        <v>1</v>
-      </c>
-      <c r="H10" s="7">
-        <v>2</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>38</v>
+        <v>1</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>2</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="K10" s="7">
+        <v>39</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" s="7">
         <v>3</v>
       </c>
-      <c r="L10" s="7">
+      <c r="M10" s="7">
         <v>8</v>
       </c>
-      <c r="M10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="N10" s="7">
-        <v>2</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7" t="s">
+      <c r="N10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="O10" s="7">
+        <v>2</v>
+      </c>
+      <c r="P10" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="R10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="8"/>
       <c r="AA10" s="7"/>
-      <c r="AB10" s="18"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="19"/>
     </row>
-    <row r="11" ht="33" hidden="1" spans="1:28">
+    <row r="11" ht="33" spans="1:29">
       <c r="A11" s="9">
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="10">
+        <v>87</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10">
         <v>6</v>
       </c>
-      <c r="E11" s="10">
-        <v>1</v>
-      </c>
       <c r="F11" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="10">
-        <v>0</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>38</v>
+        <v>1</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="10">
+        <v>39</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="10">
         <v>3</v>
       </c>
-      <c r="L11" s="10">
+      <c r="M11" s="10">
         <v>8</v>
       </c>
-      <c r="M11" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="N11" s="10">
-        <v>2</v>
-      </c>
-      <c r="O11" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10" t="s">
+      <c r="N11" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O11" s="10">
+        <v>2</v>
+      </c>
+      <c r="P11" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="R11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
       <c r="V11" s="10"/>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="11"/>
       <c r="AA11" s="10"/>
-      <c r="AB11" s="19"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="20"/>
     </row>
-    <row r="12" ht="35" hidden="1" customHeight="1" spans="1:28">
+    <row r="12" ht="35" customHeight="1" spans="1:29">
       <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="10">
+        <v>91</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="10">
         <v>6</v>
       </c>
-      <c r="E12" s="7">
-        <v>2</v>
-      </c>
       <c r="F12" s="7">
-        <v>1</v>
-      </c>
-      <c r="G12" s="10">
-        <v>1</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>76</v>
+        <v>2</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1</v>
+      </c>
+      <c r="H12" s="10">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="K12" s="7">
-        <v>1</v>
+        <v>77</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="L12" s="7">
-        <v>0</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="N12" s="7">
+        <v>1</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="O12" s="7">
         <v>5</v>
       </c>
-      <c r="O12" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7" t="s">
+      <c r="P12" s="8" t="s">
         <v>94</v>
       </c>
+      <c r="Q12" s="7"/>
       <c r="R12" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="S12" s="7"/>
+      <c r="S12" s="7" t="s">
+        <v>96</v>
+      </c>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="8"/>
       <c r="AA12" s="7"/>
-      <c r="AB12" s="18"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="19"/>
     </row>
-    <row r="13" ht="18.5" hidden="1" customHeight="1" spans="1:28">
+    <row r="13" ht="18.5" customHeight="1" spans="1:29">
       <c r="A13" s="9">
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="10">
+        <v>98</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10">
         <v>6</v>
       </c>
-      <c r="E13" s="10">
-        <v>2</v>
-      </c>
       <c r="F13" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" s="10">
         <v>1</v>
       </c>
       <c r="H13" s="10">
-        <v>0</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>38</v>
+        <v>1</v>
+      </c>
+      <c r="I13" s="10">
+        <v>0</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="K13" s="10">
-        <v>2</v>
+        <v>39</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="L13" s="10">
+        <v>2</v>
+      </c>
+      <c r="M13" s="10">
         <v>11</v>
       </c>
-      <c r="M13" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="N13" s="10">
+      <c r="N13" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="O13" s="10">
         <v>3</v>
       </c>
-      <c r="O13" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10" t="s">
+      <c r="P13" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="R13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10" t="s">
+        <v>102</v>
+      </c>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
       <c r="U13" s="10"/>
       <c r="V13" s="10"/>
       <c r="W13" s="10"/>
       <c r="X13" s="10"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="11"/>
       <c r="AA13" s="10"/>
-      <c r="AB13" s="19"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="20"/>
     </row>
-    <row r="14" ht="35" hidden="1" customHeight="1" spans="1:28">
+    <row r="14" ht="35" customHeight="1" spans="1:29">
       <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="10">
+        <v>104</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="10">
         <v>6</v>
       </c>
-      <c r="E14" s="7">
-        <v>2</v>
-      </c>
       <c r="F14" s="7">
-        <v>0</v>
-      </c>
-      <c r="G14" s="10">
-        <v>1</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>38</v>
+        <v>2</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="10">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="K14" s="7">
+        <v>39</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L14" s="7">
         <v>3</v>
       </c>
-      <c r="L14" s="7">
+      <c r="M14" s="7">
         <v>12</v>
       </c>
-      <c r="M14" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="N14" s="7">
+      <c r="N14" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="O14" s="7">
         <v>3</v>
       </c>
-      <c r="O14" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7" t="s">
+      <c r="P14" s="8" t="s">
         <v>106</v>
       </c>
+      <c r="Q14" s="7"/>
       <c r="R14" s="7" t="s">
         <v>107</v>
       </c>
       <c r="S14" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="T14" s="7"/>
+      <c r="T14" s="7" t="s">
+        <v>109</v>
+      </c>
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="8"/>
       <c r="AA14" s="7"/>
-      <c r="AB14" s="18"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="19"/>
     </row>
-    <row r="15" ht="35" hidden="1" customHeight="1" spans="1:28">
+    <row r="15" ht="35" customHeight="1" spans="1:29">
       <c r="A15" s="9">
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" s="10">
+        <v>111</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10">
         <v>6</v>
       </c>
-      <c r="E15" s="10">
-        <v>2</v>
-      </c>
       <c r="F15" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="10">
+        <v>1</v>
+      </c>
+      <c r="I15" s="10">
         <v>4</v>
       </c>
-      <c r="I15" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="J15" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="K15" s="10">
+        <v>39</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L15" s="10">
         <v>4</v>
       </c>
-      <c r="L15" s="10">
+      <c r="M15" s="10">
         <v>13</v>
       </c>
-      <c r="M15" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="N15" s="10">
-        <v>2</v>
-      </c>
-      <c r="O15" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10" t="s">
+      <c r="N15" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O15" s="10">
+        <v>2</v>
+      </c>
+      <c r="P15" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="R15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10" t="s">
+        <v>113</v>
+      </c>
       <c r="S15" s="10"/>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
       <c r="W15" s="10"/>
       <c r="X15" s="10"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="11"/>
       <c r="AA15" s="10"/>
-      <c r="AB15" s="19"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="20"/>
     </row>
-    <row r="16" ht="18.5" hidden="1" customHeight="1" spans="1:28">
+    <row r="16" ht="18.5" customHeight="1" spans="1:29">
       <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D16" s="10">
+        <v>115</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="10">
         <v>6</v>
       </c>
-      <c r="E16" s="7">
-        <v>2</v>
-      </c>
       <c r="F16" s="7">
-        <v>1</v>
-      </c>
-      <c r="G16" s="10">
-        <v>1</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>38</v>
+        <v>2</v>
+      </c>
+      <c r="G16" s="7">
+        <v>1</v>
+      </c>
+      <c r="H16" s="10">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="K16" s="7">
-        <v>2</v>
+        <v>39</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="L16" s="7">
+        <v>2</v>
+      </c>
+      <c r="M16" s="7">
         <v>11</v>
       </c>
-      <c r="M16" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="N16" s="7">
+      <c r="N16" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="O16" s="7">
         <v>3</v>
       </c>
-      <c r="O16" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7" t="s">
+      <c r="P16" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="R16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7" t="s">
+        <v>119</v>
+      </c>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="8"/>
       <c r="AA16" s="7"/>
-      <c r="AB16" s="18"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="19"/>
     </row>
-    <row r="17" ht="35" hidden="1" customHeight="1" spans="1:28">
+    <row r="17" ht="35" customHeight="1" spans="1:29">
       <c r="A17" s="9">
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17" s="10">
+        <v>121</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" s="10">
         <v>6</v>
       </c>
-      <c r="E17" s="10">
-        <v>2</v>
-      </c>
       <c r="F17" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="10">
-        <v>2</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>38</v>
+        <v>1</v>
+      </c>
+      <c r="I17" s="10">
+        <v>2</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="K17" s="10">
+        <v>39</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="L17" s="10">
         <v>3</v>
       </c>
-      <c r="L17" s="10">
+      <c r="M17" s="10">
         <v>15</v>
       </c>
-      <c r="M17" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="N17" s="10">
-        <v>2</v>
-      </c>
-      <c r="O17" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10" t="s">
+      <c r="N17" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
+      <c r="O17" s="10">
+        <v>2</v>
+      </c>
+      <c r="P17" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="S17" s="10" t="s">
+        <v>126</v>
+      </c>
       <c r="T17" s="10"/>
       <c r="U17" s="10"/>
       <c r="V17" s="10"/>
       <c r="W17" s="10"/>
       <c r="X17" s="10"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="11"/>
       <c r="AA17" s="10"/>
-      <c r="AB17" s="19"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="20"/>
     </row>
-    <row r="18" ht="51.5" hidden="1" customHeight="1" spans="1:28">
+    <row r="18" ht="51.5" customHeight="1" spans="1:29">
       <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D18" s="10">
+        <v>128</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="10">
         <v>6</v>
       </c>
-      <c r="E18" s="7">
-        <v>2</v>
-      </c>
       <c r="F18" s="7">
-        <v>0</v>
-      </c>
-      <c r="G18" s="10">
-        <v>1</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>46</v>
+        <v>2</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
+      <c r="H18" s="10">
+        <v>1</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="K18" s="7">
+        <v>47</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L18" s="7">
         <v>4</v>
       </c>
-      <c r="L18" s="7">
+      <c r="M18" s="7">
         <v>16</v>
       </c>
-      <c r="M18" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="N18" s="7">
+      <c r="N18" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="O18" s="7">
         <v>3</v>
       </c>
-      <c r="O18" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7" t="s">
-        <v>127</v>
-      </c>
+      <c r="P18" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q18" s="7"/>
       <c r="R18" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="S18" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="T18" s="7"/>
+        <v>131</v>
+      </c>
+      <c r="T18" s="7" t="s">
+        <v>132</v>
+      </c>
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="8"/>
       <c r="AA18" s="7"/>
-      <c r="AB18" s="18"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="19"/>
     </row>
-    <row r="19" ht="18.5" hidden="1" customHeight="1" spans="1:28">
+    <row r="19" ht="18.5" customHeight="1" spans="1:29">
       <c r="A19" s="9">
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D19" s="10">
+        <v>134</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10">
         <v>6</v>
       </c>
-      <c r="E19" s="10">
-        <v>2</v>
-      </c>
       <c r="F19" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" s="10">
         <v>1</v>
       </c>
       <c r="H19" s="10">
-        <v>0</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>38</v>
+        <v>1</v>
+      </c>
+      <c r="I19" s="10">
+        <v>0</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="K19" s="10">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="L19" s="10">
-        <v>0</v>
-      </c>
-      <c r="M19" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="N19" s="10">
+        <v>1</v>
+      </c>
+      <c r="M19" s="10">
+        <v>0</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="O19" s="10">
         <v>5</v>
       </c>
-      <c r="O19" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10" t="s">
-        <v>135</v>
-      </c>
+      <c r="P19" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q19" s="10"/>
       <c r="R19" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="S19" s="10"/>
+        <v>138</v>
+      </c>
+      <c r="S19" s="10" t="s">
+        <v>139</v>
+      </c>
       <c r="T19" s="10"/>
       <c r="U19" s="10"/>
       <c r="V19" s="10"/>
       <c r="W19" s="10"/>
       <c r="X19" s="10"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="11"/>
       <c r="AA19" s="10"/>
-      <c r="AB19" s="19"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="20"/>
     </row>
-    <row r="20" ht="35" hidden="1" customHeight="1" spans="1:28">
+    <row r="20" ht="35" customHeight="1" spans="1:29">
       <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D20" s="10">
+        <v>141</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="10">
         <v>6</v>
       </c>
-      <c r="E20" s="7">
-        <v>2</v>
-      </c>
       <c r="F20" s="7">
-        <v>1</v>
-      </c>
-      <c r="G20" s="10">
-        <v>1</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>65</v>
+        <v>2</v>
+      </c>
+      <c r="G20" s="7">
+        <v>1</v>
+      </c>
+      <c r="H20" s="10">
+        <v>1</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="K20" s="7">
-        <v>2</v>
+        <v>66</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>142</v>
       </c>
       <c r="L20" s="7">
+        <v>2</v>
+      </c>
+      <c r="M20" s="7">
         <v>18</v>
       </c>
-      <c r="M20" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="N20" s="7">
+      <c r="N20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="O20" s="7">
         <v>3</v>
       </c>
-      <c r="O20" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="R20" s="7"/>
+      <c r="P20" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7" t="s">
+        <v>145</v>
+      </c>
       <c r="S20" s="7"/>
       <c r="T20" s="7"/>
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="8"/>
       <c r="AA20" s="7"/>
-      <c r="AB20" s="18"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="19"/>
     </row>
-    <row r="21" ht="18.5" hidden="1" customHeight="1" spans="1:28">
+    <row r="21" ht="18.5" customHeight="1" spans="1:29">
       <c r="A21" s="9">
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="D21" s="10">
+        <v>147</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10">
         <v>6</v>
       </c>
-      <c r="E21" s="10">
-        <v>2</v>
-      </c>
       <c r="F21" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G21" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" s="10">
-        <v>0</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>38</v>
+        <v>1</v>
+      </c>
+      <c r="I21" s="10">
+        <v>0</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="K21" s="10">
+        <v>39</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="L21" s="10">
         <v>3</v>
       </c>
-      <c r="L21" s="10">
+      <c r="M21" s="10">
         <v>19</v>
       </c>
-      <c r="M21" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="N21" s="10">
-        <v>2</v>
-      </c>
-      <c r="O21" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="R21" s="10"/>
+      <c r="N21" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="O21" s="10">
+        <v>2</v>
+      </c>
+      <c r="P21" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10" t="s">
+        <v>150</v>
+      </c>
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
       <c r="U21" s="10"/>
       <c r="V21" s="10"/>
       <c r="W21" s="10"/>
       <c r="X21" s="10"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="11"/>
       <c r="AA21" s="10"/>
-      <c r="AB21" s="19"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="20"/>
     </row>
-    <row r="22" ht="35" hidden="1" customHeight="1" spans="1:28">
+    <row r="22" ht="35" customHeight="1" spans="1:29">
       <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="D22" s="10">
+        <v>152</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="10">
         <v>6</v>
       </c>
-      <c r="E22" s="7">
-        <v>2</v>
-      </c>
       <c r="F22" s="7">
-        <v>0</v>
-      </c>
-      <c r="G22" s="10">
-        <v>1</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>38</v>
+        <v>2</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0</v>
+      </c>
+      <c r="H22" s="10">
+        <v>1</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="K22" s="7">
+        <v>39</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L22" s="7">
         <v>4</v>
       </c>
-      <c r="L22" s="7">
+      <c r="M22" s="7">
         <v>20</v>
       </c>
-      <c r="M22" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="N22" s="7">
+      <c r="N22" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="O22" s="7">
         <v>3</v>
       </c>
-      <c r="O22" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7" t="s">
-        <v>151</v>
-      </c>
+      <c r="P22" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q22" s="7"/>
       <c r="R22" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="S22" s="7"/>
+        <v>154</v>
+      </c>
+      <c r="S22" s="7" t="s">
+        <v>155</v>
+      </c>
       <c r="T22" s="7"/>
       <c r="U22" s="7"/>
       <c r="V22" s="7"/>
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
-      <c r="Y22" s="8"/>
-      <c r="Z22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="8"/>
       <c r="AA22" s="7"/>
-      <c r="AB22" s="18"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="19"/>
     </row>
-    <row r="23" ht="35" hidden="1" customHeight="1" spans="1:28">
+    <row r="23" ht="35" customHeight="1" spans="1:29">
       <c r="A23" s="9">
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="D23" s="10">
+        <v>157</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10">
         <v>6</v>
       </c>
-      <c r="E23" s="10">
-        <v>2</v>
-      </c>
       <c r="F23" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" s="10">
         <v>1</v>
       </c>
       <c r="H23" s="10">
-        <v>2</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>38</v>
+        <v>1</v>
+      </c>
+      <c r="I23" s="10">
+        <v>2</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="K23" s="10">
-        <v>2</v>
+        <v>39</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="L23" s="10">
+        <v>2</v>
+      </c>
+      <c r="M23" s="10">
         <v>18</v>
       </c>
-      <c r="M23" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="N23" s="10">
+      <c r="N23" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="O23" s="10">
         <v>3</v>
       </c>
-      <c r="O23" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="R23" s="10"/>
+      <c r="P23" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="S23" s="10"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
       <c r="W23" s="10"/>
       <c r="X23" s="10"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="11"/>
       <c r="AA23" s="10"/>
-      <c r="AB23" s="19"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="20"/>
     </row>
-    <row r="24" ht="51.5" hidden="1" customHeight="1" spans="1:28">
+    <row r="24" ht="51.5" customHeight="1" spans="1:29">
       <c r="A24" s="6">
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="D24" s="10">
+        <v>163</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="10">
         <v>6</v>
       </c>
-      <c r="E24" s="7">
-        <v>2</v>
-      </c>
       <c r="F24" s="7">
-        <v>0</v>
-      </c>
-      <c r="G24" s="10">
-        <v>1</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>38</v>
+        <v>2</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0</v>
+      </c>
+      <c r="H24" s="10">
+        <v>1</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="K24" s="7">
+        <v>39</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L24" s="7">
         <v>3</v>
       </c>
-      <c r="L24" s="7">
+      <c r="M24" s="7">
         <v>22</v>
       </c>
-      <c r="M24" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="N24" s="7">
-        <v>2</v>
-      </c>
-      <c r="O24" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7" t="s">
-        <v>163</v>
-      </c>
+      <c r="N24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="O24" s="7">
+        <v>2</v>
+      </c>
+      <c r="P24" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q24" s="7"/>
       <c r="R24" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="S24" s="7"/>
+        <v>166</v>
+      </c>
+      <c r="S24" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="T24" s="7"/>
       <c r="U24" s="7"/>
       <c r="V24" s="7"/>
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
-      <c r="Y24" s="8"/>
-      <c r="Z24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="8"/>
       <c r="AA24" s="7"/>
-      <c r="AB24" s="18"/>
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="19"/>
     </row>
-    <row r="25" ht="35" hidden="1" customHeight="1" spans="1:28">
+    <row r="25" ht="35" customHeight="1" spans="1:29">
       <c r="A25" s="9">
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="D25" s="10">
+        <v>169</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10">
         <v>6</v>
       </c>
-      <c r="E25" s="10">
-        <v>2</v>
-      </c>
       <c r="F25" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G25" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="10">
-        <v>0</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>38</v>
+        <v>1</v>
+      </c>
+      <c r="I25" s="10">
+        <v>0</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="K25" s="10">
+        <v>39</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="L25" s="10">
         <v>4</v>
       </c>
-      <c r="L25" s="10">
+      <c r="M25" s="10">
         <v>23</v>
       </c>
-      <c r="M25" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="N25" s="10">
+      <c r="N25" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O25" s="10">
         <v>3</v>
       </c>
-      <c r="O25" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="R25" s="10"/>
+      <c r="P25" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10" t="s">
+        <v>154</v>
+      </c>
       <c r="S25" s="10"/>
       <c r="T25" s="10"/>
       <c r="U25" s="10"/>
       <c r="V25" s="10"/>
       <c r="W25" s="10"/>
       <c r="X25" s="10"/>
-      <c r="Y25" s="11"/>
-      <c r="Z25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="11"/>
       <c r="AA25" s="10"/>
-      <c r="AB25" s="19"/>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="20"/>
     </row>
-    <row r="26" ht="51.5" customHeight="1" spans="1:28">
+    <row r="26" ht="51.5" customHeight="1" spans="1:29">
       <c r="A26" s="6">
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D26" s="10">
+        <v>172</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="10">
         <v>6</v>
       </c>
-      <c r="E26" s="7">
-        <v>2</v>
-      </c>
       <c r="F26" s="7">
-        <v>0</v>
-      </c>
-      <c r="G26" s="10">
-        <v>1</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>38</v>
+        <v>2</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0</v>
+      </c>
+      <c r="H26" s="10">
+        <v>1</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K26" s="7">
+        <v>39</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L26" s="7">
         <v>99</v>
       </c>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="N26" s="7">
+      <c r="M26" s="7"/>
+      <c r="N26" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="O26" s="7">
         <v>5</v>
       </c>
-      <c r="O26" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="P26" s="7"/>
+      <c r="P26" s="8" t="s">
+        <v>174</v>
+      </c>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
@@ -4402,120 +4415,122 @@
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
       <c r="X26" s="7"/>
-      <c r="Y26" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="Z26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="8" t="s">
+        <v>175</v>
+      </c>
       <c r="AA26" s="7"/>
-      <c r="AB26" s="18"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="19"/>
     </row>
-    <row r="27" ht="35" customHeight="1" spans="1:28">
+    <row r="27" ht="35" customHeight="1" spans="1:29">
       <c r="A27" s="9">
         <v>26</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10">
+        <v>6</v>
+      </c>
+      <c r="F27" s="10">
+        <v>2</v>
+      </c>
+      <c r="G27" s="10">
+        <v>0</v>
+      </c>
+      <c r="H27" s="10">
+        <v>1</v>
+      </c>
+      <c r="I27" s="10">
+        <v>0</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K27" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="D27" s="10">
-        <v>6</v>
-      </c>
-      <c r="E27" s="10">
-        <v>2</v>
-      </c>
-      <c r="F27" s="10">
-        <v>0</v>
-      </c>
-      <c r="G27" s="10">
-        <v>1</v>
-      </c>
-      <c r="H27" s="10">
-        <v>0</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="K27" s="10">
+      <c r="L27" s="10">
         <v>99</v>
       </c>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="N27" s="10">
+      <c r="M27" s="10"/>
+      <c r="N27" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O27" s="10">
         <v>5</v>
       </c>
-      <c r="O27" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10" t="s">
-        <v>176</v>
-      </c>
+      <c r="P27" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q27" s="10"/>
       <c r="R27" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="S27" s="10"/>
+        <v>179</v>
+      </c>
+      <c r="S27" s="10" t="s">
+        <v>180</v>
+      </c>
       <c r="T27" s="10"/>
       <c r="U27" s="10"/>
       <c r="V27" s="10"/>
       <c r="W27" s="10"/>
       <c r="X27" s="10"/>
-      <c r="Y27" s="11"/>
-      <c r="Z27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="11"/>
       <c r="AA27" s="10"/>
-      <c r="AB27" s="19"/>
+      <c r="AB27" s="10"/>
+      <c r="AC27" s="20"/>
     </row>
-    <row r="28" ht="51.5" customHeight="1" spans="1:28">
+    <row r="28" ht="51.5" customHeight="1" spans="1:29">
       <c r="A28" s="6">
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D28" s="10">
+        <v>182</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="10">
         <v>6</v>
       </c>
-      <c r="E28" s="7">
-        <v>2</v>
-      </c>
       <c r="F28" s="7">
-        <v>0</v>
-      </c>
-      <c r="G28" s="10">
-        <v>1</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>38</v>
+        <v>2</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0</v>
+      </c>
+      <c r="H28" s="10">
+        <v>1</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K28" s="7">
+        <v>39</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L28" s="7">
         <v>99</v>
       </c>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="N28" s="7">
+      <c r="M28" s="7"/>
+      <c r="N28" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="O28" s="7">
         <v>5</v>
       </c>
-      <c r="O28" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="P28" s="7"/>
+      <c r="P28" s="8" t="s">
+        <v>183</v>
+      </c>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
@@ -4524,58 +4539,59 @@
       <c r="V28" s="7"/>
       <c r="W28" s="7"/>
       <c r="X28" s="7"/>
-      <c r="Y28" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="8" t="s">
+        <v>184</v>
+      </c>
       <c r="AA28" s="7"/>
-      <c r="AB28" s="18"/>
+      <c r="AB28" s="7"/>
+      <c r="AC28" s="19"/>
     </row>
-    <row r="29" ht="51.5" customHeight="1" spans="1:28">
+    <row r="29" ht="51.5" customHeight="1" spans="1:29">
       <c r="A29" s="9">
         <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D29" s="10">
+        <v>186</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10">
         <v>6</v>
       </c>
-      <c r="E29" s="10">
-        <v>2</v>
-      </c>
       <c r="F29" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G29" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" s="10">
-        <v>0</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>38</v>
+        <v>1</v>
+      </c>
+      <c r="I29" s="10">
+        <v>0</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="K29" s="10">
+        <v>39</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="L29" s="10">
         <v>99</v>
       </c>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="N29" s="10">
+      <c r="M29" s="10"/>
+      <c r="N29" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O29" s="10">
         <v>5</v>
       </c>
-      <c r="O29" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="P29" s="10"/>
+      <c r="P29" s="11" t="s">
+        <v>187</v>
+      </c>
       <c r="Q29" s="10"/>
       <c r="R29" s="10"/>
       <c r="S29" s="10"/>
@@ -4584,1383 +4600,1407 @@
       <c r="V29" s="10"/>
       <c r="W29" s="10"/>
       <c r="X29" s="10"/>
-      <c r="Y29" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="Z29" s="10"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="11" t="s">
+        <v>188</v>
+      </c>
       <c r="AA29" s="10"/>
-      <c r="AB29" s="19"/>
+      <c r="AB29" s="10"/>
+      <c r="AC29" s="20"/>
     </row>
-    <row r="30" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:28">
+    <row r="30" customFormat="1" ht="51.5" customHeight="1" spans="1:29">
       <c r="A30" s="6">
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="D30" s="10">
+        <v>190</v>
+      </c>
+      <c r="D30" s="12"/>
+      <c r="E30" s="10">
         <v>6</v>
       </c>
-      <c r="E30" s="7">
+      <c r="F30" s="7">
         <v>3</v>
       </c>
-      <c r="F30" s="7">
-        <v>1</v>
-      </c>
-      <c r="G30" s="10">
-        <v>1</v>
-      </c>
-      <c r="H30" s="7">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>188</v>
+      <c r="G30" s="7">
+        <v>1</v>
+      </c>
+      <c r="H30" s="10">
+        <v>1</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="K30" s="7">
-        <v>1</v>
+        <v>191</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>192</v>
       </c>
       <c r="L30" s="7">
-        <v>0</v>
-      </c>
-      <c r="M30" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="N30" s="7">
+        <v>1</v>
+      </c>
+      <c r="M30" s="7">
+        <v>0</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="O30" s="7">
         <v>5</v>
       </c>
-      <c r="O30" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7" t="s">
-        <v>192</v>
-      </c>
+      <c r="P30" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q30" s="7"/>
       <c r="R30" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="S30" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="T30" s="7"/>
+        <v>196</v>
+      </c>
+      <c r="T30" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="U30" s="7"/>
       <c r="V30" s="7"/>
       <c r="W30" s="7"/>
       <c r="X30" s="7"/>
-      <c r="Y30" s="8"/>
-      <c r="Z30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="8"/>
       <c r="AA30" s="7"/>
-      <c r="AB30" s="18"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="19"/>
     </row>
-    <row r="31" customFormat="1" ht="18.5" hidden="1" customHeight="1" spans="1:28">
+    <row r="31" customFormat="1" ht="18.5" customHeight="1" spans="1:29">
       <c r="A31" s="9">
         <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="D31" s="10">
+        <v>199</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10">
         <v>6</v>
       </c>
-      <c r="E31" s="10">
+      <c r="F31" s="10">
         <v>3</v>
       </c>
-      <c r="F31" s="10">
-        <v>1</v>
-      </c>
       <c r="G31" s="10">
         <v>1</v>
       </c>
       <c r="H31" s="10">
-        <v>0</v>
-      </c>
-      <c r="I31" s="10" t="s">
-        <v>197</v>
+        <v>1</v>
+      </c>
+      <c r="I31" s="10">
+        <v>0</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="K31" s="10">
-        <v>2</v>
+        <v>200</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>201</v>
       </c>
       <c r="L31" s="10">
+        <v>2</v>
+      </c>
+      <c r="M31" s="10">
         <v>29</v>
       </c>
-      <c r="M31" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="N31" s="10">
-        <v>2</v>
-      </c>
-      <c r="O31" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="R31" s="10"/>
+      <c r="N31" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="O31" s="10">
+        <v>2</v>
+      </c>
+      <c r="P31" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10" t="s">
+        <v>204</v>
+      </c>
       <c r="S31" s="10"/>
       <c r="T31" s="10"/>
       <c r="U31" s="10"/>
       <c r="V31" s="10"/>
       <c r="W31" s="10"/>
       <c r="X31" s="10"/>
-      <c r="Y31" s="11"/>
-      <c r="Z31" s="10"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="11"/>
       <c r="AA31" s="10"/>
-      <c r="AB31" s="19"/>
+      <c r="AB31" s="10"/>
+      <c r="AC31" s="20"/>
     </row>
-    <row r="32" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:28">
+    <row r="32" customFormat="1" ht="51.5" customHeight="1" spans="1:29">
       <c r="A32" s="6">
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="D32" s="10">
+        <v>206</v>
+      </c>
+      <c r="D32" s="12"/>
+      <c r="E32" s="10">
         <v>6</v>
       </c>
-      <c r="E32" s="7">
+      <c r="F32" s="7">
         <v>3</v>
       </c>
-      <c r="F32" s="7">
-        <v>0</v>
-      </c>
-      <c r="G32" s="10">
-        <v>1</v>
-      </c>
-      <c r="H32" s="7">
+      <c r="G32" s="7">
+        <v>0</v>
+      </c>
+      <c r="H32" s="10">
+        <v>1</v>
+      </c>
+      <c r="I32" s="7">
         <v>4</v>
       </c>
-      <c r="I32" s="7" t="s">
-        <v>38</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="K32" s="7">
+        <v>39</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L32" s="7">
         <v>3</v>
       </c>
-      <c r="L32" s="7">
+      <c r="M32" s="7">
         <v>30</v>
       </c>
-      <c r="M32" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="N32" s="7">
-        <v>2</v>
-      </c>
-      <c r="O32" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7" t="s">
-        <v>205</v>
-      </c>
+      <c r="N32" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="O32" s="7">
+        <v>2</v>
+      </c>
+      <c r="P32" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q32" s="7"/>
       <c r="R32" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="S32" s="7"/>
+        <v>208</v>
+      </c>
+      <c r="S32" s="7" t="s">
+        <v>209</v>
+      </c>
       <c r="T32" s="7"/>
       <c r="U32" s="7"/>
       <c r="V32" s="7"/>
       <c r="W32" s="7"/>
       <c r="X32" s="7"/>
-      <c r="Y32" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="Z32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="8" t="s">
+        <v>210</v>
+      </c>
       <c r="AA32" s="7"/>
-      <c r="AB32" s="18"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="19"/>
     </row>
-    <row r="33" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:28">
+    <row r="33" customFormat="1" ht="51.5" customHeight="1" spans="1:29">
       <c r="A33" s="9">
         <v>32</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="D33" s="10">
+        <v>212</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10">
         <v>6</v>
       </c>
-      <c r="E33" s="10">
+      <c r="F33" s="10">
         <v>3</v>
       </c>
-      <c r="F33" s="10">
-        <v>1</v>
-      </c>
       <c r="G33" s="10">
         <v>1</v>
       </c>
       <c r="H33" s="10">
-        <v>2</v>
-      </c>
-      <c r="I33" s="10" t="s">
-        <v>38</v>
+        <v>1</v>
+      </c>
+      <c r="I33" s="10">
+        <v>2</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="K33" s="10">
-        <v>2</v>
+        <v>39</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>213</v>
       </c>
       <c r="L33" s="10">
+        <v>2</v>
+      </c>
+      <c r="M33" s="10">
         <v>29</v>
       </c>
-      <c r="M33" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="N33" s="10">
-        <v>2</v>
-      </c>
-      <c r="O33" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="R33" s="10"/>
+      <c r="N33" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="O33" s="10">
+        <v>2</v>
+      </c>
+      <c r="P33" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10" t="s">
+        <v>216</v>
+      </c>
       <c r="S33" s="10"/>
       <c r="T33" s="10"/>
       <c r="U33" s="10"/>
       <c r="V33" s="10"/>
       <c r="W33" s="10"/>
       <c r="X33" s="10"/>
-      <c r="Y33" s="11"/>
-      <c r="Z33" s="10"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="11"/>
       <c r="AA33" s="10"/>
-      <c r="AB33" s="19"/>
+      <c r="AB33" s="10"/>
+      <c r="AC33" s="20"/>
     </row>
-    <row r="34" customFormat="1" ht="84.5" hidden="1" customHeight="1" spans="1:28">
+    <row r="34" customFormat="1" ht="84.5" customHeight="1" spans="1:29">
       <c r="A34" s="6">
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="D34" s="10">
+        <v>218</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="E34" s="10">
         <v>6</v>
       </c>
-      <c r="E34" s="7">
+      <c r="F34" s="7">
         <v>3</v>
       </c>
-      <c r="F34" s="7">
-        <v>0</v>
-      </c>
-      <c r="G34" s="10">
-        <v>1</v>
-      </c>
-      <c r="H34" s="7">
-        <v>0</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>46</v>
+      <c r="G34" s="7">
+        <v>0</v>
+      </c>
+      <c r="H34" s="10">
+        <v>1</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="K34" s="7">
+        <v>47</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L34" s="7">
         <v>3</v>
       </c>
-      <c r="L34" s="7">
+      <c r="M34" s="7">
         <v>32</v>
       </c>
-      <c r="M34" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="N34" s="7">
+      <c r="N34" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="O34" s="7">
         <v>3</v>
       </c>
-      <c r="O34" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7" t="s">
-        <v>217</v>
-      </c>
+      <c r="P34" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q34" s="7"/>
       <c r="R34" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="S34" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="T34" s="7"/>
+        <v>221</v>
+      </c>
+      <c r="T34" s="7" t="s">
+        <v>222</v>
+      </c>
       <c r="U34" s="7"/>
       <c r="V34" s="7"/>
       <c r="W34" s="7"/>
       <c r="X34" s="7"/>
-      <c r="Y34" s="8"/>
-      <c r="Z34" s="7"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="8"/>
       <c r="AA34" s="7"/>
-      <c r="AB34" s="18"/>
+      <c r="AB34" s="7"/>
+      <c r="AC34" s="19"/>
     </row>
-    <row r="35" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:28">
+    <row r="35" customFormat="1" ht="51.5" customHeight="1" spans="1:29">
       <c r="A35" s="9">
         <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="D35" s="10">
+        <v>224</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10">
         <v>6</v>
       </c>
-      <c r="E35" s="10">
+      <c r="F35" s="10">
         <v>3</v>
       </c>
-      <c r="F35" s="10">
-        <v>1</v>
-      </c>
       <c r="G35" s="10">
         <v>1</v>
       </c>
       <c r="H35" s="10">
-        <v>0</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>38</v>
+        <v>1</v>
+      </c>
+      <c r="I35" s="10">
+        <v>0</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="K35" s="10">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>225</v>
       </c>
       <c r="L35" s="10">
-        <v>0</v>
-      </c>
-      <c r="M35" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="N35" s="10">
+        <v>1</v>
+      </c>
+      <c r="M35" s="10">
+        <v>0</v>
+      </c>
+      <c r="N35" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="O35" s="10">
         <v>5</v>
       </c>
-      <c r="O35" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10" t="s">
-        <v>225</v>
-      </c>
+      <c r="P35" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q35" s="10"/>
       <c r="R35" s="10" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="S35" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="T35" s="10"/>
+        <v>229</v>
+      </c>
+      <c r="T35" s="10" t="s">
+        <v>230</v>
+      </c>
       <c r="U35" s="10"/>
       <c r="V35" s="10"/>
       <c r="W35" s="10"/>
       <c r="X35" s="10"/>
-      <c r="Y35" s="11"/>
-      <c r="Z35" s="10"/>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="11"/>
       <c r="AA35" s="10"/>
-      <c r="AB35" s="19"/>
+      <c r="AB35" s="10"/>
+      <c r="AC35" s="20"/>
     </row>
-    <row r="36" customFormat="1" ht="68" hidden="1" customHeight="1" spans="1:28">
+    <row r="36" customFormat="1" ht="68" customHeight="1" spans="1:29">
       <c r="A36" s="6">
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="D36" s="10">
+        <v>232</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="E36" s="10">
         <v>6</v>
       </c>
-      <c r="E36" s="7">
+      <c r="F36" s="7">
         <v>3</v>
       </c>
-      <c r="F36" s="7">
-        <v>1</v>
-      </c>
-      <c r="G36" s="10">
-        <v>1</v>
-      </c>
-      <c r="H36" s="7">
-        <v>1</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>230</v>
+      <c r="G36" s="7">
+        <v>1</v>
+      </c>
+      <c r="H36" s="10">
+        <v>1</v>
+      </c>
+      <c r="I36" s="7">
+        <v>1</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="K36" s="7">
-        <v>2</v>
+        <v>234</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>235</v>
       </c>
       <c r="L36" s="7">
+        <v>2</v>
+      </c>
+      <c r="M36" s="7">
         <v>34</v>
       </c>
-      <c r="M36" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="N36" s="7">
-        <v>2</v>
-      </c>
-      <c r="O36" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7" t="s">
-        <v>234</v>
-      </c>
+      <c r="N36" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="O36" s="7">
+        <v>2</v>
+      </c>
+      <c r="P36" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q36" s="7"/>
       <c r="R36" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="S36" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="T36" s="7"/>
+        <v>239</v>
+      </c>
+      <c r="T36" s="7" t="s">
+        <v>240</v>
+      </c>
       <c r="U36" s="7"/>
       <c r="V36" s="7"/>
       <c r="W36" s="7"/>
       <c r="X36" s="7"/>
-      <c r="Y36" s="8"/>
-      <c r="Z36" s="7"/>
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="8"/>
       <c r="AA36" s="7"/>
-      <c r="AB36" s="18"/>
+      <c r="AB36" s="7"/>
+      <c r="AC36" s="19"/>
     </row>
-    <row r="37" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
+    <row r="37" customFormat="1" ht="35" customHeight="1" spans="1:29">
       <c r="A37" s="9">
         <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="D37" s="10">
+        <v>242</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10">
         <v>6</v>
       </c>
-      <c r="E37" s="10">
+      <c r="F37" s="10">
         <v>3</v>
       </c>
-      <c r="F37" s="10">
-        <v>0</v>
-      </c>
       <c r="G37" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" s="10">
-        <v>0</v>
-      </c>
-      <c r="I37" s="10" t="s">
-        <v>197</v>
+        <v>1</v>
+      </c>
+      <c r="I37" s="10">
+        <v>0</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="K37" s="10">
+        <v>200</v>
+      </c>
+      <c r="K37" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="L37" s="10">
         <v>3</v>
       </c>
-      <c r="L37" s="10">
+      <c r="M37" s="10">
         <v>35</v>
       </c>
-      <c r="M37" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="N37" s="10">
-        <v>2</v>
-      </c>
-      <c r="O37" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="R37" s="10"/>
+      <c r="N37" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O37" s="10">
+        <v>2</v>
+      </c>
+      <c r="P37" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10" t="s">
+        <v>244</v>
+      </c>
       <c r="S37" s="10"/>
       <c r="T37" s="10"/>
       <c r="U37" s="10"/>
       <c r="V37" s="10"/>
       <c r="W37" s="10"/>
       <c r="X37" s="10"/>
-      <c r="Y37" s="11"/>
-      <c r="Z37" s="10"/>
+      <c r="Y37" s="10"/>
+      <c r="Z37" s="11"/>
       <c r="AA37" s="10"/>
-      <c r="AB37" s="19"/>
+      <c r="AB37" s="10"/>
+      <c r="AC37" s="20"/>
     </row>
-    <row r="38" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
+    <row r="38" customFormat="1" ht="35" customHeight="1" spans="1:29">
       <c r="A38" s="6">
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="D38" s="10">
+        <v>246</v>
+      </c>
+      <c r="D38" s="12"/>
+      <c r="E38" s="10">
         <v>6</v>
       </c>
-      <c r="E38" s="7">
+      <c r="F38" s="7">
         <v>3</v>
       </c>
-      <c r="F38" s="7">
-        <v>1</v>
-      </c>
-      <c r="G38" s="10">
-        <v>1</v>
-      </c>
-      <c r="H38" s="7">
-        <v>0</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>197</v>
+      <c r="G38" s="7">
+        <v>1</v>
+      </c>
+      <c r="H38" s="10">
+        <v>1</v>
+      </c>
+      <c r="I38" s="7">
+        <v>0</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="K38" s="7">
-        <v>2</v>
+        <v>200</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>247</v>
       </c>
       <c r="L38" s="7">
+        <v>2</v>
+      </c>
+      <c r="M38" s="7">
         <v>34</v>
       </c>
-      <c r="M38" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="N38" s="7">
+      <c r="N38" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="O38" s="7">
         <v>3</v>
       </c>
-      <c r="O38" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="7" t="s">
-        <v>246</v>
-      </c>
+      <c r="P38" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q38" s="7"/>
       <c r="R38" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="S38" s="7"/>
+        <v>250</v>
+      </c>
+      <c r="S38" s="7" t="s">
+        <v>251</v>
+      </c>
       <c r="T38" s="7"/>
       <c r="U38" s="7"/>
       <c r="V38" s="7"/>
       <c r="W38" s="7"/>
       <c r="X38" s="7"/>
-      <c r="Y38" s="8"/>
-      <c r="Z38" s="7"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="8"/>
       <c r="AA38" s="7"/>
-      <c r="AB38" s="18"/>
+      <c r="AB38" s="7"/>
+      <c r="AC38" s="19"/>
     </row>
-    <row r="39" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
+    <row r="39" customFormat="1" ht="35" customHeight="1" spans="1:29">
       <c r="A39" s="9">
         <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="D39" s="10">
+        <v>253</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10">
         <v>6</v>
       </c>
-      <c r="E39" s="10">
+      <c r="F39" s="10">
         <v>3</v>
       </c>
-      <c r="F39" s="10">
-        <v>0</v>
-      </c>
       <c r="G39" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" s="10">
-        <v>2</v>
-      </c>
-      <c r="I39" s="10" t="s">
-        <v>38</v>
+        <v>1</v>
+      </c>
+      <c r="I39" s="10">
+        <v>2</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="K39" s="10">
+        <v>39</v>
+      </c>
+      <c r="K39" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="L39" s="10">
         <v>3</v>
       </c>
-      <c r="L39" s="10">
+      <c r="M39" s="10">
         <v>37</v>
       </c>
-      <c r="M39" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="N39" s="10">
-        <v>2</v>
-      </c>
-      <c r="O39" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="R39" s="10"/>
+      <c r="N39" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O39" s="10">
+        <v>2</v>
+      </c>
+      <c r="P39" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10" t="s">
+        <v>255</v>
+      </c>
       <c r="S39" s="10"/>
       <c r="T39" s="10"/>
       <c r="U39" s="10"/>
       <c r="V39" s="10"/>
       <c r="W39" s="10"/>
       <c r="X39" s="10"/>
-      <c r="Y39" s="11"/>
-      <c r="Z39" s="10"/>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="11"/>
       <c r="AA39" s="10"/>
-      <c r="AB39" s="19"/>
+      <c r="AB39" s="10"/>
+      <c r="AC39" s="20"/>
     </row>
-    <row r="40" customFormat="1" ht="49.5" spans="1:28">
+    <row r="40" customFormat="1" ht="49.5" spans="1:29">
       <c r="A40" s="6">
         <v>39</v>
       </c>
-      <c r="B40" s="13" t="s">
-        <v>252</v>
+      <c r="B40" s="14" t="s">
+        <v>256</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D40" s="10">
+        <v>257</v>
+      </c>
+      <c r="D40" s="12"/>
+      <c r="E40" s="10">
         <v>6</v>
       </c>
-      <c r="E40" s="7">
+      <c r="F40" s="7">
         <v>3</v>
       </c>
-      <c r="F40" s="7">
-        <v>0</v>
-      </c>
-      <c r="G40" s="10">
-        <v>1</v>
-      </c>
-      <c r="H40" s="7">
-        <v>0</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>38</v>
+      <c r="G40" s="7">
+        <v>0</v>
+      </c>
+      <c r="H40" s="10">
+        <v>1</v>
+      </c>
+      <c r="I40" s="7">
+        <v>0</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K40" s="7">
+        <v>39</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L40" s="7">
         <v>99</v>
       </c>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="N40" s="7">
+      <c r="M40" s="7"/>
+      <c r="N40" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="O40" s="7">
         <v>3</v>
       </c>
-      <c r="O40" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="7" t="s">
-        <v>152</v>
-      </c>
+      <c r="P40" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q40" s="7"/>
       <c r="R40" s="7" t="s">
-        <v>255</v>
+        <v>155</v>
       </c>
       <c r="S40" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="U40" s="7"/>
+        <v>259</v>
+      </c>
+      <c r="T40" s="7" t="s">
+        <v>260</v>
+      </c>
       <c r="V40" s="7"/>
       <c r="W40" s="7"/>
       <c r="X40" s="7"/>
-      <c r="Y40" s="8"/>
-      <c r="Z40" s="7"/>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="8"/>
       <c r="AA40" s="7"/>
-      <c r="AB40" s="18"/>
+      <c r="AB40" s="7"/>
+      <c r="AC40" s="19"/>
     </row>
-    <row r="41" customFormat="1" ht="51.5" customHeight="1" spans="1:28">
+    <row r="41" customFormat="1" ht="51.5" customHeight="1" spans="1:29">
       <c r="A41" s="9">
         <v>40</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="D41" s="10">
+        <v>262</v>
+      </c>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10">
         <v>6</v>
       </c>
-      <c r="E41" s="10">
+      <c r="F41" s="10">
         <v>3</v>
       </c>
-      <c r="F41" s="10">
-        <v>0</v>
-      </c>
       <c r="G41" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" s="10">
-        <v>0</v>
-      </c>
-      <c r="I41" s="10" t="s">
-        <v>38</v>
+        <v>1</v>
+      </c>
+      <c r="I41" s="10">
+        <v>0</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="K41" s="10">
+        <v>39</v>
+      </c>
+      <c r="K41" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="L41" s="10">
         <v>99</v>
       </c>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="N41" s="10">
+      <c r="M41" s="10"/>
+      <c r="N41" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="O41" s="10">
         <v>5</v>
       </c>
-      <c r="O41" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="P41" s="10"/>
+      <c r="P41" s="11" t="s">
+        <v>264</v>
+      </c>
       <c r="Q41" s="10"/>
       <c r="R41" s="10"/>
       <c r="S41" s="10"/>
-      <c r="U41" s="10"/>
+      <c r="T41" s="10"/>
       <c r="V41" s="10"/>
       <c r="W41" s="10"/>
       <c r="X41" s="10"/>
-      <c r="Y41" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="Z41" s="10"/>
+      <c r="Y41" s="10"/>
+      <c r="Z41" s="11" t="s">
+        <v>265</v>
+      </c>
       <c r="AA41" s="10"/>
-      <c r="AB41" s="19"/>
+      <c r="AB41" s="10"/>
+      <c r="AC41" s="20"/>
     </row>
-    <row r="42" customFormat="1" ht="18.5" customHeight="1" spans="1:28">
+    <row r="42" customFormat="1" ht="18.5" customHeight="1" spans="1:29">
       <c r="A42" s="6">
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="D42" s="10">
+        <v>267</v>
+      </c>
+      <c r="D42" s="12"/>
+      <c r="E42" s="10">
         <v>6</v>
       </c>
-      <c r="E42" s="7">
+      <c r="F42" s="7">
         <v>3</v>
       </c>
-      <c r="F42" s="7">
-        <v>0</v>
-      </c>
-      <c r="G42" s="10">
-        <v>1</v>
-      </c>
-      <c r="H42" s="7">
-        <v>0</v>
-      </c>
-      <c r="I42" s="7" t="s">
-        <v>38</v>
+      <c r="G42" s="7">
+        <v>0</v>
+      </c>
+      <c r="H42" s="10">
+        <v>1</v>
+      </c>
+      <c r="I42" s="7">
+        <v>0</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K42" s="7">
+        <v>39</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L42" s="7">
         <v>99</v>
       </c>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="N42" s="7">
+      <c r="M42" s="7"/>
+      <c r="N42" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="O42" s="7">
         <v>3</v>
       </c>
-      <c r="O42" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="R42" s="7"/>
+      <c r="P42" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7" t="s">
+        <v>269</v>
+      </c>
       <c r="S42" s="7"/>
-      <c r="U42" s="7"/>
+      <c r="T42" s="7"/>
       <c r="V42" s="7"/>
       <c r="W42" s="7"/>
       <c r="X42" s="7"/>
-      <c r="Y42" s="8"/>
-      <c r="Z42" s="7"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="8"/>
       <c r="AA42" s="7"/>
-      <c r="AB42" s="18"/>
+      <c r="AB42" s="7"/>
+      <c r="AC42" s="19"/>
     </row>
-    <row r="43" customFormat="1" ht="35" customHeight="1" spans="1:28">
+    <row r="43" customFormat="1" ht="35" customHeight="1" spans="1:29">
       <c r="A43" s="9">
         <v>42</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="D43" s="10">
+        <v>271</v>
+      </c>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10">
         <v>6</v>
       </c>
-      <c r="E43" s="10">
+      <c r="F43" s="10">
         <v>3</v>
       </c>
-      <c r="F43" s="10">
-        <v>0</v>
-      </c>
       <c r="G43" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" s="10">
-        <v>0</v>
-      </c>
-      <c r="I43" s="10" t="s">
-        <v>38</v>
+        <v>1</v>
+      </c>
+      <c r="I43" s="10">
+        <v>0</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="K43" s="10">
+        <v>39</v>
+      </c>
+      <c r="K43" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="L43" s="10">
         <v>99</v>
       </c>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="N43" s="10">
+      <c r="M43" s="10"/>
+      <c r="N43" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O43" s="10">
         <v>5</v>
       </c>
-      <c r="O43" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="R43" s="10"/>
+      <c r="P43" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10" t="s">
+        <v>273</v>
+      </c>
       <c r="S43" s="10"/>
-      <c r="U43" s="10"/>
+      <c r="T43" s="10"/>
       <c r="V43" s="10"/>
       <c r="W43" s="10"/>
       <c r="X43" s="10"/>
-      <c r="Y43" s="11"/>
-      <c r="Z43" s="10"/>
+      <c r="Y43" s="10"/>
+      <c r="Z43" s="11"/>
       <c r="AA43" s="10"/>
-      <c r="AB43" s="19"/>
+      <c r="AB43" s="10"/>
+      <c r="AC43" s="20"/>
     </row>
-    <row r="44" customFormat="1" ht="35" customHeight="1" spans="1:28">
+    <row r="44" customFormat="1" ht="35" customHeight="1" spans="1:29">
       <c r="A44" s="6">
         <v>43</v>
       </c>
-      <c r="B44" s="13" t="s">
-        <v>270</v>
+      <c r="B44" s="14" t="s">
+        <v>274</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="D44" s="10">
+        <v>275</v>
+      </c>
+      <c r="D44" s="12"/>
+      <c r="E44" s="10">
         <v>6</v>
       </c>
-      <c r="E44" s="7">
+      <c r="F44" s="7">
         <v>3</v>
       </c>
-      <c r="F44" s="7">
-        <v>0</v>
-      </c>
-      <c r="G44" s="10">
-        <v>1</v>
-      </c>
-      <c r="H44" s="7">
-        <v>0</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>38</v>
+      <c r="G44" s="7">
+        <v>0</v>
+      </c>
+      <c r="H44" s="10">
+        <v>1</v>
+      </c>
+      <c r="I44" s="7">
+        <v>0</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K44" s="7">
+        <v>39</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L44" s="7">
         <v>99</v>
       </c>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="N44" s="7">
-        <v>2</v>
-      </c>
-      <c r="O44" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="7" t="s">
-        <v>273</v>
-      </c>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="O44" s="7">
+        <v>2</v>
+      </c>
+      <c r="P44" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q44" s="7"/>
       <c r="R44" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="S44" s="7"/>
-      <c r="U44" s="7"/>
+        <v>277</v>
+      </c>
+      <c r="S44" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="T44" s="7"/>
       <c r="V44" s="7"/>
       <c r="W44" s="7"/>
       <c r="X44" s="7"/>
-      <c r="Y44" s="8"/>
-      <c r="Z44" s="7"/>
+      <c r="Y44" s="7"/>
+      <c r="Z44" s="8"/>
       <c r="AA44" s="7"/>
-      <c r="AB44" s="18"/>
+      <c r="AB44" s="7"/>
+      <c r="AC44" s="19"/>
     </row>
-    <row r="45" customFormat="1" ht="18.5" customHeight="1" spans="1:28">
+    <row r="45" customFormat="1" ht="18.5" customHeight="1" spans="1:29">
       <c r="A45" s="9">
         <v>44</v>
       </c>
-      <c r="B45" s="12" t="s">
-        <v>275</v>
+      <c r="B45" s="13" t="s">
+        <v>279</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="D45" s="10">
+        <v>280</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10">
         <v>6</v>
       </c>
-      <c r="E45" s="10">
+      <c r="F45" s="10">
         <v>3</v>
       </c>
-      <c r="F45" s="10">
-        <v>0</v>
-      </c>
       <c r="G45" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" s="10">
-        <v>0</v>
-      </c>
-      <c r="I45" s="10" t="s">
-        <v>38</v>
+        <v>1</v>
+      </c>
+      <c r="I45" s="10">
+        <v>0</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="K45" s="10">
+        <v>39</v>
+      </c>
+      <c r="K45" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="L45" s="10">
         <v>99</v>
       </c>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="N45" s="10">
-        <v>2</v>
-      </c>
-      <c r="O45" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10" t="s">
-        <v>278</v>
-      </c>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O45" s="10">
+        <v>2</v>
+      </c>
+      <c r="P45" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q45" s="10"/>
       <c r="R45" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="S45" s="10"/>
+        <v>282</v>
+      </c>
+      <c r="S45" s="10" t="s">
+        <v>283</v>
+      </c>
       <c r="T45" s="10"/>
       <c r="U45" s="10"/>
       <c r="V45" s="10"/>
       <c r="W45" s="10"/>
       <c r="X45" s="10"/>
-      <c r="Y45" s="11"/>
-      <c r="Z45" s="10"/>
+      <c r="Y45" s="10"/>
+      <c r="Z45" s="11"/>
       <c r="AA45" s="10"/>
-      <c r="AB45" s="19"/>
+      <c r="AB45" s="10"/>
+      <c r="AC45" s="20"/>
     </row>
-    <row r="46" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
+    <row r="46" customFormat="1" ht="35" customHeight="1" spans="1:29">
       <c r="A46" s="6">
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="D46" s="10">
+        <v>285</v>
+      </c>
+      <c r="D46" s="12"/>
+      <c r="E46" s="10">
         <v>6</v>
       </c>
-      <c r="E46" s="7">
+      <c r="F46" s="7">
         <v>4</v>
       </c>
-      <c r="F46" s="7">
-        <v>1</v>
-      </c>
-      <c r="G46" s="10">
-        <v>1</v>
-      </c>
-      <c r="H46" s="7">
-        <v>0</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>197</v>
+      <c r="G46" s="7">
+        <v>1</v>
+      </c>
+      <c r="H46" s="10">
+        <v>1</v>
+      </c>
+      <c r="I46" s="7">
+        <v>0</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="K46" s="7">
-        <v>1</v>
+        <v>200</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>286</v>
       </c>
       <c r="L46" s="7">
-        <v>0</v>
-      </c>
-      <c r="M46" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="N46" s="7">
+        <v>1</v>
+      </c>
+      <c r="M46" s="7">
+        <v>0</v>
+      </c>
+      <c r="N46" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="O46" s="7">
         <v>3</v>
       </c>
-      <c r="O46" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="7" t="s">
-        <v>285</v>
-      </c>
+      <c r="P46" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q46" s="7"/>
       <c r="R46" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="S46" s="7"/>
+        <v>289</v>
+      </c>
+      <c r="S46" s="7" t="s">
+        <v>290</v>
+      </c>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
       <c r="V46" s="7"/>
       <c r="W46" s="7"/>
       <c r="X46" s="7"/>
-      <c r="Y46" s="8"/>
-      <c r="Z46" s="7"/>
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="8"/>
       <c r="AA46" s="7"/>
-      <c r="AB46" s="18"/>
+      <c r="AB46" s="7"/>
+      <c r="AC46" s="19"/>
     </row>
-    <row r="47" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
+    <row r="47" customFormat="1" ht="35" customHeight="1" spans="1:29">
       <c r="A47" s="9">
         <v>46</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="D47" s="10">
+        <v>292</v>
+      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10">
         <v>6</v>
       </c>
-      <c r="E47" s="10">
+      <c r="F47" s="10">
         <v>4</v>
       </c>
-      <c r="F47" s="10">
-        <v>0</v>
-      </c>
       <c r="G47" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" s="10">
+        <v>1</v>
+      </c>
+      <c r="I47" s="10">
         <v>6</v>
       </c>
-      <c r="I47" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="J47" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="K47" s="10">
-        <v>2</v>
+        <v>39</v>
+      </c>
+      <c r="K47" s="10" t="s">
+        <v>286</v>
       </c>
       <c r="L47" s="10">
+        <v>2</v>
+      </c>
+      <c r="M47" s="10">
         <v>45</v>
       </c>
-      <c r="M47" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="N47" s="10">
-        <v>2</v>
-      </c>
-      <c r="O47" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10" t="s">
-        <v>291</v>
-      </c>
+      <c r="N47" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="O47" s="10">
+        <v>2</v>
+      </c>
+      <c r="P47" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q47" s="10"/>
       <c r="R47" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="S47" s="10"/>
+        <v>295</v>
+      </c>
+      <c r="S47" s="10" t="s">
+        <v>296</v>
+      </c>
       <c r="T47" s="10"/>
       <c r="U47" s="10"/>
       <c r="V47" s="10"/>
       <c r="W47" s="10"/>
       <c r="X47" s="10"/>
-      <c r="Y47" s="11"/>
-      <c r="Z47" s="10"/>
+      <c r="Y47" s="10"/>
+      <c r="Z47" s="11"/>
       <c r="AA47" s="10"/>
-      <c r="AB47" s="19"/>
+      <c r="AB47" s="10"/>
+      <c r="AC47" s="20"/>
     </row>
-    <row r="48" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
+    <row r="48" customFormat="1" ht="35" customHeight="1" spans="1:29">
       <c r="A48" s="6">
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="D48" s="10">
+        <v>298</v>
+      </c>
+      <c r="D48" s="12"/>
+      <c r="E48" s="10">
         <v>6</v>
       </c>
-      <c r="E48" s="7">
+      <c r="F48" s="7">
         <v>4</v>
       </c>
-      <c r="F48" s="7">
-        <v>0</v>
-      </c>
-      <c r="G48" s="10">
-        <v>1</v>
-      </c>
-      <c r="H48" s="7">
+      <c r="G48" s="7">
+        <v>0</v>
+      </c>
+      <c r="H48" s="10">
+        <v>1</v>
+      </c>
+      <c r="I48" s="7">
         <v>6</v>
       </c>
-      <c r="I48" s="7" t="s">
-        <v>38</v>
-      </c>
       <c r="J48" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="K48" s="7">
+        <v>39</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="L48" s="7">
         <v>3</v>
       </c>
-      <c r="L48" s="7">
+      <c r="M48" s="7">
         <v>46</v>
       </c>
-      <c r="M48" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="N48" s="7">
-        <v>2</v>
-      </c>
-      <c r="O48" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="P48" s="7"/>
-      <c r="Q48" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="R48" s="7"/>
+      <c r="N48" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="O48" s="7">
+        <v>2</v>
+      </c>
+      <c r="P48" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7" t="s">
+        <v>300</v>
+      </c>
       <c r="S48" s="7"/>
       <c r="T48" s="7"/>
       <c r="U48" s="7"/>
       <c r="V48" s="7"/>
       <c r="W48" s="7"/>
       <c r="X48" s="7"/>
-      <c r="Y48" s="8"/>
-      <c r="Z48" s="7"/>
+      <c r="Y48" s="7"/>
+      <c r="Z48" s="8"/>
       <c r="AA48" s="7"/>
-      <c r="AB48" s="18"/>
+      <c r="AB48" s="7"/>
+      <c r="AC48" s="19"/>
     </row>
-    <row r="49" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
+    <row r="49" customFormat="1" ht="35" customHeight="1" spans="1:29">
       <c r="A49" s="9">
         <v>48</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="D49" s="10">
+        <v>302</v>
+      </c>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10">
         <v>6</v>
       </c>
-      <c r="E49" s="10">
+      <c r="F49" s="10">
         <v>4</v>
       </c>
-      <c r="F49" s="10">
-        <v>1</v>
-      </c>
       <c r="G49" s="10">
         <v>1</v>
       </c>
       <c r="H49" s="10">
-        <v>0</v>
-      </c>
-      <c r="I49" s="10" t="s">
-        <v>230</v>
+        <v>1</v>
+      </c>
+      <c r="I49" s="10">
+        <v>0</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="K49" s="10">
-        <v>1</v>
+        <v>234</v>
+      </c>
+      <c r="K49" s="10" t="s">
+        <v>303</v>
       </c>
       <c r="L49" s="10">
-        <v>0</v>
-      </c>
-      <c r="M49" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="N49" s="10">
+        <v>1</v>
+      </c>
+      <c r="M49" s="10">
+        <v>0</v>
+      </c>
+      <c r="N49" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="O49" s="10">
         <v>3</v>
       </c>
-      <c r="O49" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="10" t="s">
-        <v>302</v>
-      </c>
+      <c r="P49" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q49" s="10"/>
       <c r="R49" s="10" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="S49" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="T49" s="10"/>
+        <v>307</v>
+      </c>
+      <c r="T49" s="10" t="s">
+        <v>308</v>
+      </c>
       <c r="U49" s="10"/>
       <c r="V49" s="10"/>
       <c r="W49" s="10"/>
       <c r="X49" s="10"/>
-      <c r="Y49" s="11"/>
-      <c r="Z49" s="10"/>
+      <c r="Y49" s="10"/>
+      <c r="Z49" s="11"/>
       <c r="AA49" s="10"/>
-      <c r="AB49" s="19"/>
+      <c r="AB49" s="10"/>
+      <c r="AC49" s="20"/>
     </row>
-    <row r="50" customFormat="1" ht="18.5" hidden="1" customHeight="1" spans="1:28">
+    <row r="50" customFormat="1" ht="18.5" customHeight="1" spans="1:29">
       <c r="A50" s="6">
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="D50" s="10">
+        <v>310</v>
+      </c>
+      <c r="D50" s="12"/>
+      <c r="E50" s="10">
         <v>6</v>
       </c>
-      <c r="E50" s="7">
+      <c r="F50" s="7">
         <v>4</v>
       </c>
-      <c r="F50" s="7">
-        <v>0</v>
-      </c>
-      <c r="G50" s="10">
-        <v>1</v>
-      </c>
-      <c r="H50" s="7">
-        <v>0</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>38</v>
+      <c r="G50" s="7">
+        <v>0</v>
+      </c>
+      <c r="H50" s="10">
+        <v>1</v>
+      </c>
+      <c r="I50" s="7">
+        <v>0</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="K50" s="7">
-        <v>2</v>
+        <v>39</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>303</v>
       </c>
       <c r="L50" s="7">
+        <v>2</v>
+      </c>
+      <c r="M50" s="7">
         <v>48</v>
       </c>
-      <c r="M50" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="N50" s="7">
-        <v>2</v>
-      </c>
-      <c r="O50" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="P50" s="7"/>
-      <c r="Q50" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="R50" s="7"/>
+      <c r="N50" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="O50" s="7">
+        <v>2</v>
+      </c>
+      <c r="P50" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7" t="s">
+        <v>313</v>
+      </c>
       <c r="S50" s="7"/>
       <c r="T50" s="7"/>
       <c r="U50" s="7"/>
       <c r="V50" s="7"/>
       <c r="W50" s="7"/>
       <c r="X50" s="7"/>
-      <c r="Y50" s="8"/>
-      <c r="Z50" s="7"/>
+      <c r="Y50" s="7"/>
+      <c r="Z50" s="8"/>
       <c r="AA50" s="7"/>
-      <c r="AB50" s="18"/>
+      <c r="AB50" s="7"/>
+      <c r="AC50" s="19"/>
     </row>
-    <row r="51" customFormat="1" ht="18.5" hidden="1" customHeight="1" spans="1:28">
+    <row r="51" customFormat="1" ht="18.5" customHeight="1" spans="1:29">
       <c r="A51" s="9">
         <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="D51" s="10">
+        <v>315</v>
+      </c>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10">
         <v>6</v>
       </c>
-      <c r="E51" s="10">
+      <c r="F51" s="10">
         <v>4</v>
       </c>
-      <c r="F51" s="10">
-        <v>0</v>
-      </c>
       <c r="G51" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" s="10">
-        <v>0</v>
-      </c>
-      <c r="I51" s="10" t="s">
-        <v>38</v>
+        <v>1</v>
+      </c>
+      <c r="I51" s="10">
+        <v>0</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="K51" s="10">
+        <v>39</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="L51" s="10">
         <v>3</v>
       </c>
-      <c r="L51" s="10">
+      <c r="M51" s="10">
         <v>49</v>
       </c>
-      <c r="M51" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="N51" s="10">
-        <v>1</v>
-      </c>
-      <c r="O51" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="P51" s="10"/>
+      <c r="N51" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O51" s="10">
+        <v>1</v>
+      </c>
+      <c r="P51" s="11" t="s">
+        <v>316</v>
+      </c>
       <c r="Q51" s="10"/>
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
@@ -5969,56 +6009,57 @@
       <c r="V51" s="10"/>
       <c r="W51" s="10"/>
       <c r="X51" s="10"/>
-      <c r="Y51" s="11"/>
-      <c r="Z51" s="10"/>
+      <c r="Y51" s="10"/>
+      <c r="Z51" s="11"/>
       <c r="AA51" s="10"/>
-      <c r="AB51" s="19"/>
+      <c r="AB51" s="10"/>
+      <c r="AC51" s="20"/>
     </row>
-    <row r="52" customFormat="1" ht="51.5" customHeight="1" spans="1:28">
+    <row r="52" customFormat="1" ht="51.5" customHeight="1" spans="1:29">
       <c r="A52" s="6">
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="D52" s="10">
+        <v>318</v>
+      </c>
+      <c r="D52" s="12"/>
+      <c r="E52" s="10">
         <v>6</v>
       </c>
-      <c r="E52" s="7">
+      <c r="F52" s="7">
         <v>4</v>
       </c>
-      <c r="F52" s="7">
-        <v>0</v>
-      </c>
-      <c r="G52" s="10">
-        <v>1</v>
-      </c>
-      <c r="H52" s="7">
-        <v>0</v>
-      </c>
-      <c r="I52" s="7" t="s">
-        <v>38</v>
+      <c r="G52" s="7">
+        <v>0</v>
+      </c>
+      <c r="H52" s="10">
+        <v>1</v>
+      </c>
+      <c r="I52" s="7">
+        <v>0</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K52" s="7">
+        <v>39</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L52" s="7">
         <v>99</v>
       </c>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="N52" s="7">
+      <c r="M52" s="7"/>
+      <c r="N52" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="O52" s="7">
         <v>3</v>
       </c>
-      <c r="O52" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="P52" s="7"/>
+      <c r="P52" s="8" t="s">
+        <v>319</v>
+      </c>
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
       <c r="S52" s="7"/>
@@ -6027,60 +6068,61 @@
       <c r="V52" s="7"/>
       <c r="W52" s="7"/>
       <c r="X52" s="7"/>
-      <c r="Y52" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="Z52" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="AA52" s="7"/>
-      <c r="AB52" s="18"/>
+      <c r="Y52" s="7"/>
+      <c r="Z52" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="AA52" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="AB52" s="7"/>
+      <c r="AC52" s="19"/>
     </row>
-    <row r="53" customFormat="1" ht="51.5" customHeight="1" spans="1:28">
+    <row r="53" customFormat="1" ht="51.5" customHeight="1" spans="1:29">
       <c r="A53" s="9">
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="D53" s="10">
+        <v>323</v>
+      </c>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10">
         <v>6</v>
       </c>
-      <c r="E53" s="10">
+      <c r="F53" s="10">
         <v>4</v>
       </c>
-      <c r="F53" s="10">
-        <v>0</v>
-      </c>
       <c r="G53" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" s="10">
-        <v>0</v>
-      </c>
-      <c r="I53" s="10" t="s">
-        <v>38</v>
+        <v>1</v>
+      </c>
+      <c r="I53" s="10">
+        <v>0</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="K53" s="10">
+        <v>39</v>
+      </c>
+      <c r="K53" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="L53" s="10">
         <v>99</v>
       </c>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="N53" s="10">
+      <c r="M53" s="10"/>
+      <c r="N53" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O53" s="10">
         <v>5</v>
       </c>
-      <c r="O53" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="P53" s="10"/>
+      <c r="P53" s="11" t="s">
+        <v>324</v>
+      </c>
       <c r="Q53" s="10"/>
       <c r="R53" s="10"/>
       <c r="S53" s="10"/>
@@ -6089,341 +6131,343 @@
       <c r="V53" s="10"/>
       <c r="W53" s="10"/>
       <c r="X53" s="10"/>
-      <c r="Y53" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="Z53" s="10"/>
+      <c r="Y53" s="10"/>
+      <c r="Z53" s="11" t="s">
+        <v>325</v>
+      </c>
       <c r="AA53" s="10"/>
-      <c r="AB53" s="19"/>
+      <c r="AB53" s="10"/>
+      <c r="AC53" s="20"/>
     </row>
-    <row r="54" customFormat="1" ht="35" customHeight="1" spans="1:28">
+    <row r="54" customFormat="1" ht="35" customHeight="1" spans="1:29">
       <c r="A54" s="6">
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="D54" s="10">
+        <v>327</v>
+      </c>
+      <c r="D54" s="12"/>
+      <c r="E54" s="10">
         <v>6</v>
       </c>
-      <c r="E54" s="7">
+      <c r="F54" s="7">
         <v>4</v>
       </c>
-      <c r="F54" s="7">
-        <v>0</v>
-      </c>
-      <c r="G54" s="10">
-        <v>1</v>
-      </c>
-      <c r="H54" s="7">
-        <v>0</v>
-      </c>
-      <c r="I54" s="7" t="s">
-        <v>38</v>
+      <c r="G54" s="7">
+        <v>0</v>
+      </c>
+      <c r="H54" s="10">
+        <v>1</v>
+      </c>
+      <c r="I54" s="7">
+        <v>0</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K54" s="7">
+        <v>39</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L54" s="7">
         <v>99</v>
       </c>
-      <c r="L54" s="7"/>
-      <c r="M54" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="N54" s="7">
+      <c r="M54" s="7"/>
+      <c r="N54" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="O54" s="7">
         <v>3</v>
       </c>
-      <c r="O54" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="P54" s="7"/>
-      <c r="Q54" s="7" t="s">
-        <v>325</v>
-      </c>
+      <c r="P54" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q54" s="7"/>
       <c r="R54" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="S54" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="T54" s="7"/>
+        <v>330</v>
+      </c>
+      <c r="T54" s="7" t="s">
+        <v>331</v>
+      </c>
       <c r="U54" s="7"/>
       <c r="V54" s="7"/>
       <c r="W54" s="7"/>
       <c r="X54" s="7"/>
-      <c r="Y54" s="8"/>
-      <c r="Z54" s="7"/>
+      <c r="Y54" s="7"/>
+      <c r="Z54" s="8"/>
       <c r="AA54" s="7"/>
-      <c r="AB54" s="18"/>
+      <c r="AB54" s="7"/>
+      <c r="AC54" s="19"/>
     </row>
-    <row r="55" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
+    <row r="55" customFormat="1" ht="35" customHeight="1" spans="1:29">
       <c r="A55" s="9">
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="D55" s="10">
+        <v>333</v>
+      </c>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10">
         <v>6</v>
       </c>
-      <c r="E55" s="10">
+      <c r="F55" s="10">
         <v>5</v>
       </c>
-      <c r="F55" s="10">
-        <v>1</v>
-      </c>
       <c r="G55" s="10">
         <v>1</v>
       </c>
       <c r="H55" s="10">
-        <v>0</v>
-      </c>
-      <c r="I55" s="10" t="s">
-        <v>197</v>
+        <v>1</v>
+      </c>
+      <c r="I55" s="10">
+        <v>0</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="K55" s="10">
-        <v>1</v>
+        <v>200</v>
+      </c>
+      <c r="K55" s="10" t="s">
+        <v>334</v>
       </c>
       <c r="L55" s="10">
-        <v>0</v>
-      </c>
-      <c r="M55" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="N55" s="10">
-        <v>1</v>
-      </c>
-      <c r="O55" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="P55" s="10"/>
-      <c r="Q55" s="10" t="s">
-        <v>333</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M55" s="10">
+        <v>0</v>
+      </c>
+      <c r="N55" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="O55" s="10">
+        <v>1</v>
+      </c>
+      <c r="P55" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q55" s="10"/>
       <c r="R55" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="S55" s="10"/>
+        <v>337</v>
+      </c>
+      <c r="S55" s="10" t="s">
+        <v>296</v>
+      </c>
       <c r="T55" s="10"/>
       <c r="U55" s="10"/>
       <c r="V55" s="10"/>
       <c r="W55" s="10"/>
       <c r="X55" s="10"/>
-      <c r="Y55" s="11"/>
-      <c r="Z55" s="10"/>
+      <c r="Y55" s="10"/>
+      <c r="Z55" s="11"/>
       <c r="AA55" s="10"/>
-      <c r="AB55" s="19"/>
+      <c r="AB55" s="10"/>
+      <c r="AC55" s="20"/>
     </row>
-    <row r="56" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:28">
+    <row r="56" customFormat="1" ht="51.5" customHeight="1" spans="1:29">
       <c r="A56" s="6">
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="D56" s="12"/>
+      <c r="E56" s="10">
+        <v>6</v>
+      </c>
+      <c r="F56" s="7">
+        <v>5</v>
+      </c>
+      <c r="G56" s="7">
+        <v>0</v>
+      </c>
+      <c r="H56" s="10">
+        <v>1</v>
+      </c>
+      <c r="I56" s="7">
+        <v>2</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K56" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="C56" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="D56" s="10">
-        <v>6</v>
-      </c>
-      <c r="E56" s="7">
-        <v>5</v>
-      </c>
-      <c r="F56" s="7">
-        <v>0</v>
-      </c>
-      <c r="G56" s="10">
-        <v>1</v>
-      </c>
-      <c r="H56" s="7">
-        <v>2</v>
-      </c>
-      <c r="I56" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J56" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="K56" s="7">
-        <v>2</v>
-      </c>
       <c r="L56" s="7">
+        <v>2</v>
+      </c>
+      <c r="M56" s="7">
         <v>54</v>
       </c>
-      <c r="M56" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="N56" s="7">
-        <v>1</v>
-      </c>
-      <c r="O56" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="P56" s="7"/>
-      <c r="Q56" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="R56" s="7"/>
+      <c r="N56" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="O56" s="7">
+        <v>1</v>
+      </c>
+      <c r="P56" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7" t="s">
+        <v>341</v>
+      </c>
       <c r="S56" s="7"/>
       <c r="T56" s="7"/>
       <c r="U56" s="7"/>
       <c r="V56" s="7"/>
       <c r="W56" s="7"/>
       <c r="X56" s="7"/>
-      <c r="Y56" s="8"/>
-      <c r="Z56" s="7"/>
+      <c r="Y56" s="7"/>
+      <c r="Z56" s="8"/>
       <c r="AA56" s="7"/>
-      <c r="AB56" s="18"/>
+      <c r="AB56" s="7"/>
+      <c r="AC56" s="19"/>
     </row>
-    <row r="57" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
+    <row r="57" customFormat="1" ht="35" customHeight="1" spans="1:29">
       <c r="A57" s="9">
         <v>56</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="D57" s="10">
+        <v>343</v>
+      </c>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10">
         <v>6</v>
       </c>
-      <c r="E57" s="10">
+      <c r="F57" s="10">
         <v>5</v>
       </c>
-      <c r="F57" s="10">
-        <v>0</v>
-      </c>
       <c r="G57" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" s="10">
+        <v>1</v>
+      </c>
+      <c r="I57" s="10">
         <v>4</v>
       </c>
-      <c r="I57" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="J57" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="K57" s="10">
-        <v>2</v>
+        <v>39</v>
+      </c>
+      <c r="K57" s="10" t="s">
+        <v>334</v>
       </c>
       <c r="L57" s="10">
+        <v>2</v>
+      </c>
+      <c r="M57" s="10">
         <v>54</v>
       </c>
-      <c r="M57" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="N57" s="10">
-        <v>1</v>
-      </c>
-      <c r="O57" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="P57" s="10"/>
-      <c r="Q57" s="10" t="s">
-        <v>341</v>
-      </c>
+      <c r="N57" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O57" s="10">
+        <v>1</v>
+      </c>
+      <c r="P57" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q57" s="10"/>
       <c r="R57" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="S57" s="10"/>
+        <v>345</v>
+      </c>
+      <c r="S57" s="10" t="s">
+        <v>346</v>
+      </c>
       <c r="T57" s="10"/>
       <c r="U57" s="10"/>
       <c r="V57" s="10"/>
       <c r="W57" s="10"/>
       <c r="X57" s="10"/>
-      <c r="Y57" s="11"/>
-      <c r="Z57" s="10"/>
+      <c r="Y57" s="10"/>
+      <c r="Z57" s="11"/>
       <c r="AA57" s="10"/>
-      <c r="AB57" s="19"/>
+      <c r="AB57" s="10"/>
+      <c r="AC57" s="20"/>
     </row>
-    <row r="58" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:28">
-      <c r="A58" s="14">
+    <row r="58" customFormat="1" ht="51.5" customHeight="1" spans="1:29">
+      <c r="A58" s="15">
         <v>57</v>
       </c>
-      <c r="B58" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="D58" s="10">
+      <c r="B58" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="D58" s="12"/>
+      <c r="E58" s="10">
         <v>6</v>
       </c>
-      <c r="E58" s="15">
+      <c r="F58" s="16">
         <v>5</v>
       </c>
-      <c r="F58" s="15">
-        <v>0</v>
-      </c>
-      <c r="G58" s="10">
-        <v>1</v>
-      </c>
-      <c r="H58" s="15">
-        <v>1</v>
-      </c>
-      <c r="I58" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="J58" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="K58" s="15">
-        <v>2</v>
-      </c>
-      <c r="L58" s="15">
+      <c r="G58" s="16">
+        <v>0</v>
+      </c>
+      <c r="H58" s="10">
+        <v>1</v>
+      </c>
+      <c r="I58" s="16">
+        <v>1</v>
+      </c>
+      <c r="J58" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="K58" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="L58" s="16">
+        <v>2</v>
+      </c>
+      <c r="M58" s="16">
         <v>54</v>
       </c>
-      <c r="M58" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="N58" s="15">
-        <v>1</v>
-      </c>
-      <c r="O58" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="P58" s="15"/>
-      <c r="Q58" s="15" t="s">
-        <v>337</v>
-      </c>
-      <c r="R58" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="S58" s="15"/>
-      <c r="T58" s="15"/>
-      <c r="U58" s="15"/>
-      <c r="V58" s="15"/>
-      <c r="W58" s="15"/>
-      <c r="X58" s="15"/>
+      <c r="N58" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="O58" s="16">
+        <v>1</v>
+      </c>
+      <c r="P58" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q58" s="16"/>
+      <c r="R58" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="S58" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="T58" s="16"/>
+      <c r="U58" s="16"/>
+      <c r="V58" s="16"/>
+      <c r="W58" s="16"/>
+      <c r="X58" s="16"/>
       <c r="Y58" s="16"/>
-      <c r="Z58" s="15"/>
-      <c r="AA58" s="15"/>
-      <c r="AB58" s="20"/>
+      <c r="Z58" s="17"/>
+      <c r="AA58" s="16"/>
+      <c r="AB58" s="16"/>
+      <c r="AC58" s="21"/>
     </row>
+    <row r="59" ht="14.25"/>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AB58" etc:filterBottomFollowUsedRange="0">
-    <filterColumn colId="10">
-      <filters>
-        <filter val="99"/>
-      </filters>
-    </filterColumn>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AC58" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
-  <conditionalFormatting sqref="F$1:F$1048576">
+  <conditionalFormatting sqref="G$1:G$1048576">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -6435,7 +6479,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G$1:G$1048576">
+  <conditionalFormatting sqref="H$1:H$1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/excels/config/game/hero/talent_tree/talent_tree_config.xlsx
+++ b/excels/config/game/hero/talent_tree/talent_tree_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="talent_tree_config" sheetId="1" r:id="rId1"/>
@@ -146,7 +146,27 @@
     <t>单体射击</t>
   </si>
   <si>
-    <t>基础技能：单体射击：攻击1名敌人，造成攻击力%base_value%%%的伤害，并回复%give_mana%点蓝量。</t>
+    <r>
+      <t>基础技能：单体射击：攻击1名敌人，造成攻击力%base_value%%%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基础技能伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，并回复%give_mana%点蓝量</t>
+    </r>
   </si>
   <si>
     <t>Null</t>
@@ -170,7 +190,27 @@
     <t>爆炸箭</t>
   </si>
   <si>
-    <t>攻击变为%skv_aoe_radius%码范围伤害，伤害提高%bonus_value%%%，伤害变为火元素伤害。</t>
+    <r>
+      <t>攻击变为%skv_aoe_radius%码范围伤害，提高%bonus_value%%%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基础技能伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，伤害变为火元素伤害。</t>
+    </r>
   </si>
   <si>
     <t>Aoe</t>
@@ -212,7 +252,27 @@
     <t>碎裂</t>
   </si>
   <si>
-    <t>爆炸箭范围提高%skv_aoe_radius%码，灼烧伤害提高%burn_dmg%%%。</t>
+    <r>
+      <t>爆炸箭范围提高%skv_aoe_radius%码，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>灼烧伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提高%burn_dmg%%%</t>
+    </r>
   </si>
   <si>
     <t>hero/drow/炸裂</t>
@@ -227,7 +287,27 @@
     <t>穿透箭</t>
   </si>
   <si>
-    <t>攻击可以穿透敌人，伤害提高%bonus_value%%%。技能赋予风元素效果，伤害变为风元素伤害。（穿透距离不超过攻击距离）</t>
+    <r>
+      <t>攻击可以穿透敌人，提高%bonus_value%%%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基础技能伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。技能赋予风元素效果，伤害变为风元素伤害。（穿透距离不超过攻击距离）</t>
+    </r>
   </si>
   <si>
     <t>Missile</t>
@@ -281,7 +361,27 @@
     <t>冰箭</t>
   </si>
   <si>
-    <t>伤害提高%bonus_value%%%，技能赋予冰元素效果，伤害变为冰元素伤害。</t>
+    <r>
+      <t>提高%bonus_value%%%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基础技能伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，技能赋予冰元素效果，伤害变为冰元素伤害</t>
+    </r>
   </si>
   <si>
     <t>drow_ranger/dragons_touch_ability_icons/drow_ranger_frost_arrows</t>
@@ -293,7 +393,7 @@
     <t>积蓄</t>
   </si>
   <si>
-    <t>每支箭都享受回蓝效果，分裂箭命中时会额外回复%add_mana%点蓝量。</t>
+    <t>每支箭都享受回蓝效果，分裂箭命中时会额外回复%add_mana%点蓝量</t>
   </si>
   <si>
     <t>hero/drow/积蓄</t>
@@ -305,7 +405,18 @@
     <t>连续射击</t>
   </si>
   <si>
-    <t>快速射出%proj_count%支箭，每支箭造成攻击力%base_value%%%的伤害。</t>
+    <r>
+      <t>快速射出%proj_count%支箭，每支箭造成攻击力%base_value%%%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基础技能伤害</t>
+    </r>
   </si>
   <si>
     <t>drow_2a</t>
@@ -344,7 +455,27 @@
     <t>击破</t>
   </si>
   <si>
-    <t>连续射击的每支箭都会使目标收到的伤害增加%value%%%，持续%duration%秒，最高%max_stack%层</t>
+    <r>
+      <t>连续射击的每支箭都会使目标受到的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基础技能伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>增加%value%%%，持续%duration%秒，最高%max_stack%层</t>
+    </r>
   </si>
   <si>
     <t>14|0</t>
@@ -365,7 +496,18 @@
     <t>风箭</t>
   </si>
   <si>
-    <t>技能赋予风元素效果，伤害变为风元素伤害。风元素伤害增加%wind_dmg_pct%%%</t>
+    <r>
+      <t>技能赋予风元素效果，伤害变为风元素伤害。增加%wind_dmg_pct%%%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>风元素伤害</t>
+    </r>
   </si>
   <si>
     <t>hero/drow/风箭</t>
@@ -377,7 +519,18 @@
     <t>穿透</t>
   </si>
   <si>
-    <t>连续射击可穿透目标，伤害提高%bonus_value%%%。</t>
+    <r>
+      <t>连续射击可穿透目标，提高%bonus_value%%%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基础技能伤害</t>
+    </r>
   </si>
   <si>
     <t>drow_2a_b</t>
@@ -416,7 +569,18 @@
     <t>冰爆</t>
   </si>
   <si>
-    <t>连续射击命中被减速的敌人时，有12%概率发生冰爆，对范围300码敌人造成攻击力%base_value%%%冰元素伤害。</t>
+    <r>
+      <t>连续射击命中被减速的敌人时，有12%概率发生冰爆，对范围300码敌人造成攻击力%base_value%%%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基础技能伤害</t>
+    </r>
   </si>
   <si>
     <t>hero/drow/冰爆</t>
@@ -434,7 +598,18 @@
     <t>散射</t>
   </si>
   <si>
-    <t>散射数支箭，造成攻击力%base_value%%%的伤害</t>
+    <r>
+      <t>散射数支箭，造成攻击力%base_value%%%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基础技能伤害</t>
+    </r>
   </si>
   <si>
     <t>drow_2b</t>
@@ -455,7 +630,18 @@
     <t>火力覆盖</t>
   </si>
   <si>
-    <t>散射技能赋予火元素效果，伤害变为火元素伤害。伤害提高%bonus_value%%%</t>
+    <r>
+      <t>散射技能赋予火元素效果，伤害变为火元素伤害。提高%bonus_value%%%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基础技能伤害</t>
+    </r>
   </si>
   <si>
     <t>drow_2b_a</t>
@@ -488,7 +674,18 @@
     <t>压制</t>
   </si>
   <si>
-    <t>对生命值高于%hp_heighest%的单位造成伤害提升%bonus_value%%%</t>
+    <r>
+      <t>对生命值高于%hp_heighest%的单位提高%bonus_value%%%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害加成</t>
+    </r>
   </si>
   <si>
     <t>hero/drow/压制</t>
@@ -503,7 +700,7 @@
     <t>双喷</t>
   </si>
   <si>
-    <t>散射技能赋予冰元素效果，伤害变为冰元素伤害。有%chance%%%概率再次释放一次。</t>
+    <t>散射技能赋予冰元素效果，伤害变为冰元素伤害。有%chance%%%概率再次释放一次</t>
   </si>
   <si>
     <t>drow_2b_b</t>
@@ -521,8 +718,19 @@
     <t>重创</t>
   </si>
   <si>
-    <t>散射对距离越近的单位造成伤害越高。最近判定%closest_distance%码。
-最高提高伤害%bonus_value%%%</t>
+    <r>
+      <t>散射对距离越近的单位造成伤害越高。最近判定%closest_distance%码
+至多提高%bonus_value%%%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害加成</t>
+    </r>
   </si>
   <si>
     <t>24|0</t>
@@ -540,7 +748,18 @@
     <t>痛击</t>
   </si>
   <si>
-    <t>散射对被降低移速的敌人造成的伤害提高%bonus_value%%%。</t>
+    <r>
+      <t>散射对被降低移速的敌人提高%bonus_value%%%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害加成</t>
+    </r>
   </si>
   <si>
     <t>hero/drow/痛击</t>
@@ -549,7 +768,7 @@
     <t>备战</t>
   </si>
   <si>
-    <t>攻击力提高%AttackDamage.BasePercent%%%</t>
+    <t>提高%AttackDamage.BasePercent%%%的攻击力</t>
   </si>
   <si>
     <t>null</t>
@@ -566,7 +785,7 @@
     <t>追击</t>
   </si>
   <si>
-    <t>生命值高于%hp_heighest%%%，攻击速度提高%base_value%</t>
+    <t>生命值高于%hp_heighest%%%，提高%base_value%的攻击速度</t>
   </si>
   <si>
     <t>hero/generic/追击</t>
@@ -581,7 +800,7 @@
     <t>压迫</t>
   </si>
   <si>
-    <t>移动速度提高%MoveSpeed.BasePercent%%%</t>
+    <t>提高%MoveSpeed.BasePercent%%%的移动速度</t>
   </si>
   <si>
     <t>hero/generic/压迫</t>
@@ -595,7 +814,7 @@
     <t>体能</t>
   </si>
   <si>
-    <t>生命值提高%MaxHealth.BasePercent%%%</t>
+    <t>提高%MaxHealth.BasePercent%%%的生命值</t>
   </si>
   <si>
     <t>hero/generic/体能</t>
@@ -609,7 +828,27 @@
     <t>风暴环绕</t>
   </si>
   <si>
-    <t xml:space="preserve">召唤一阵风暴环绕自身，每%interval%秒对触碰到风暴的敌人造成攻击力%base_value%%%的伤害，持续%duration%秒。 </t>
+    <r>
+      <t>召唤一阵风暴环绕自身，每%interval%秒对触碰到风暴的敌人造成攻击力%base_value%%%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基础技能伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，持续%duration%秒</t>
+    </r>
   </si>
   <si>
     <t>Surround</t>
@@ -657,8 +896,19 @@
     <t>退散</t>
   </si>
   <si>
-    <t>风暴环绕技能赋予风元素效果，伤害变为风元素伤害。
-风元素伤害增加%WindDamageBonus.Base%%%</t>
+    <r>
+      <t>风暴环绕技能赋予风元素效果，变为风元素伤害。
+增加%WindDamageBonus.Base%%%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>风元素伤害</t>
+    </r>
   </si>
   <si>
     <t>hero/drow/退散</t>
@@ -678,7 +928,7 @@
     <t>冰雹</t>
   </si>
   <si>
-    <t>风暴环绕技能赋予冰元素效果，伤害变为冰元素伤害。
+    <t>风暴环绕技能赋予冰元素效果，变为冰元素伤害。
 风暴数量增加%bonus_count%个</t>
   </si>
   <si>
@@ -697,9 +947,29 @@
     <t>暴雪</t>
   </si>
   <si>
-    <t>使用风暴环绕技能之后，会记录造成的实际伤害值，并在风暴持续结束时释放一阵暴雪，暴雪的伤害为记录的实际伤害值的%record_pct%%%。
+    <r>
+      <t>使用风暴环绕技能之后，会记录造成的实际伤害值，并在风暴持续结束时释放一阵暴雪，暴雪的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基础技能伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为记录的实际伤害值的%record_pct%%%。
 记录上限为英雄攻击力%limit_pct%%%。
-爆炸范围：自身直径%radius%码。</t>
+爆炸范围：自身直径%radius%码</t>
+    </r>
   </si>
   <si>
     <t>hero/drow/暴雪</t>
@@ -717,7 +987,18 @@
     <t>箭雨</t>
   </si>
   <si>
-    <t>向空中射出%arrow_count%支箭，随机打击范围%radius%码以内敌人，每支箭制造成攻击力%base_value%%%的伤害。</t>
+    <r>
+      <t>向空中射出%arrow_count%支箭，随机打击范围%radius%码以内敌人，每支箭制造成攻击力%base_value%%%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基础技能伤害</t>
+    </r>
   </si>
   <si>
     <t>drow_3b</t>
@@ -741,7 +1022,7 @@
     <t>燃矢</t>
   </si>
   <si>
-    <t>1级解锁: 箭雨技能赋予火元素效果，伤害变为火元素伤害。</t>
+    <t>1级解锁: 箭雨技能赋予火元素效果，变为火元素伤害。</t>
   </si>
   <si>
     <t>2级解锁: 该技能造成强化灼烧效果,强化灼烧伤害持续时间为%burn_duration%秒，基础伤害为攻击力%burn_dmg%%%。</t>
@@ -771,7 +1052,18 @@
     <t>焚身</t>
   </si>
   <si>
-    <t>箭雨对被灼烧的敌人造成伤害提高%extra_dmg_pct%%%</t>
+    <r>
+      <t>箭雨对被灼烧的敌人提高%extra_dmg_pct%%%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害加成</t>
+    </r>
   </si>
   <si>
     <t>hero/drow/焚身</t>
@@ -783,7 +1075,27 @@
     <t>集火</t>
   </si>
   <si>
-    <t>多支箭矢命中相同敌人时，会额外造成%bonus_dmg%%%的伤害。上限%limit_stack%层。</t>
+    <r>
+      <t>多支箭矢命中相同敌人时，每一支箭额外提升%bonus_dmg%%%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害加成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。上限%limit_stack%层。</t>
+    </r>
   </si>
   <si>
     <t>drow_3b_b</t>
@@ -804,7 +1116,7 @@
     <t>急冻</t>
   </si>
   <si>
-    <t>箭雨技能赋予冰元素效果，伤害变为冰元素伤害。额外增加%bonus_arrow%支箭。</t>
+    <t>箭雨技能赋予冰元素效果，变为冰元素伤害。额外增加%bonus_arrow%支箭。</t>
   </si>
   <si>
     <t>hero/drow/急冻</t>
@@ -816,7 +1128,27 @@
     <t>全能</t>
   </si>
   <si>
-    <t>生命值大于%hp_heighest%%%时，最终伤害提升%final_dmg%%%；生命值小于%hp_heighest%%%时，最终免伤降低%final_reduction%%%。</t>
+    <r>
+      <t>生命值大于%hp_heighest%%%时，提升%final_dmg%%%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最终伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；生命值小于%hp_heighest%%%时，降低%final_reduction%%%的最终免伤</t>
+    </r>
   </si>
   <si>
     <t>hero/generic/全能</t>
@@ -831,7 +1163,7 @@
     <t>灵活</t>
   </si>
   <si>
-    <t>闪避提高%EvasionProb.Base%%%</t>
+    <t>提高%EvasionProb.Base%%%的闪避</t>
   </si>
   <si>
     <t>41|0</t>
@@ -872,7 +1204,7 @@
     <t>潜能激发</t>
   </si>
   <si>
-    <t>蓝量小于最大蓝量的%mana_low%%%时，每秒恢复5点蓝量。</t>
+    <t>蓝量小于最大蓝量的%mana_low%%%时，每秒恢复5点蓝量</t>
   </si>
   <si>
     <t>hero/generic/潜能激发</t>
@@ -887,7 +1219,7 @@
     <t>治愈</t>
   </si>
   <si>
-    <t>每过%interval%%%秒，回复%heal_maxhp_pct%%%最大生命值。</t>
+    <t>每过%interval%%%秒，回复%heal_maxhp_pct%%%最大生命值</t>
   </si>
   <si>
     <t>hero/generic/治愈</t>
@@ -923,7 +1255,7 @@
     <t>源源不断</t>
   </si>
   <si>
-    <t>使用技能《能量恢复》 时，不再是瞬间恢复，而是在%duration%秒内逐渐回复%recover_mana%点蓝量。</t>
+    <t>使用技能《能量恢复》 时，不再是瞬间恢复，而是在%duration%秒内逐渐回复%recover_mana%点蓝量</t>
   </si>
   <si>
     <t>47|0</t>
@@ -941,7 +1273,7 @@
     <t>兼收</t>
   </si>
   <si>
-    <t>使用技能《能量恢复》 时，立即回复%recover_hp_pct%%%最大生命值。</t>
+    <t>使用技能《能量恢复》 时，立即回复%recover_hp_pct%%%最大生命值</t>
   </si>
   <si>
     <t>hero/drow/兼收</t>
@@ -953,7 +1285,7 @@
     <t>迷踪步</t>
   </si>
   <si>
-    <t>获得%move_pct%%%移动速度加成，持续%duration%秒。cd：15秒,蓝耗：30</t>
+    <t>获得%move_pct%%%移动速度加成，持续%duration%秒</t>
   </si>
   <si>
     <t>drow_4b</t>
@@ -977,7 +1309,7 @@
     <t>娴熟</t>
   </si>
   <si>
-    <t>迷踪步的cd缩减%ability_cd_reduce%秒。</t>
+    <t>迷踪步的cd缩减%ability_cd_reduce%秒</t>
   </si>
   <si>
     <t>50|0</t>
@@ -992,7 +1324,7 @@
     <t>相位</t>
   </si>
   <si>
-    <t>迷踪步获得相位效果，可以穿越单位。</t>
+    <t>迷踪步获得相位效果，可以穿越单位</t>
   </si>
   <si>
     <t>hero/drow/相位</t>
@@ -1001,7 +1333,27 @@
     <t>尖锐</t>
   </si>
   <si>
-    <t>造成的伤害提高%DamageBonusMul.Base%%%，同时受到的伤害也会提高%DmgReductionPct.Base%%%</t>
+    <r>
+      <t>提高%DamageBonusMul.Base%%%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害加成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，同时受到的伤害也会提高%DmgReductionPct.Base%%%</t>
+    </r>
   </si>
   <si>
     <t>hero/generic/尖锐</t>
@@ -1020,7 +1372,7 @@
     <t>专注</t>
   </si>
   <si>
-    <t>暴击概率提高%CriticalChance.Base%%%</t>
+    <t>提高%CriticalChance.Base%%%的暴击概率</t>
   </si>
   <si>
     <t>hero/generic/专注</t>
@@ -1052,7 +1404,7 @@
     <t>复仇</t>
   </si>
   <si>
-    <t>引燃复仇之魂，获得%dmg_bonus_pct%%%伤害加成，持续%duration%秒。</t>
+    <t>引燃复仇之魂，获得%dmg_bonus_pct%%%的伤害加成，持续%duration%秒。</t>
   </si>
   <si>
     <t>drow_5</t>
@@ -1070,7 +1422,27 @@
     <t>寒霜</t>
   </si>
   <si>
-    <t>复仇获得冰元素之力，持续期间冰元素伤害提高%bonus_value%%%，且免疫自身减速效果。</t>
+    <r>
+      <t>复仇获得冰元素之力，持续期间提高%bonus_value%%%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冰元素伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，且免疫自身减速效果</t>
+    </r>
   </si>
   <si>
     <t>hero/drow/寒霜</t>
@@ -1082,7 +1454,7 @@
     <t>追风</t>
   </si>
   <si>
-    <t>复仇获得风元素之力，攻击力提高%ad_bonus_pct%%%，攻击速度及移动速度提高%as_bonus_pct%%%。</t>
+    <t>复仇获得风元素之力，提高%ad_bonus_pct%%%的攻击力，攻击速度及移动速度提高%as_bonus_pct%%%</t>
   </si>
   <si>
     <t>hero/drow/追风</t>
@@ -1097,8 +1469,28 @@
     <t>热烈</t>
   </si>
   <si>
-    <t>复仇获得火元素之力，持续期间火元素伤害提高%bonus_value%%%，
-且所有技能蓝量消耗降低%mana_pct%%%。</t>
+    <r>
+      <t>复仇获得火元素之力，持续期间提高%bonus_value%%%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>火元素伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，
+且所有技能蓝量消耗降低%mana_pct%%%</t>
+    </r>
   </si>
   <si>
     <t>hero/drow/热烈</t>
@@ -1110,19 +1502,77 @@
     <t>单体法术</t>
   </si>
   <si>
-    <t>攻击1名敌人，造成攻击力100%的伤害，并回复10点蓝量。</t>
+    <r>
+      <t>攻击1名敌人，造成攻击力100%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基础技能伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，并回复10点蓝量。</t>
+    </r>
   </si>
   <si>
     <t>雷鸣（3/3）</t>
   </si>
   <si>
-    <t>技能赋予雷元素效果，伤害变为雷元素伤害。对目标单位及周围半径150/200/250码范围造成雷元素伤害，伤害提高40%。</t>
+    <r>
+      <t>技能赋予雷元素效果，变为雷元素伤害。对目标单位及周围半径150/200/250码范围造成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>雷元素伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，提高40%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技能基础伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
   </si>
   <si>
     <t>悲鸣（2/2）</t>
   </si>
   <si>
-    <t>雷鸣触发暴击时，会追加从天而降的雷电，造成该次雷鸣的200%/300%伤害。</t>
+    <t>雷鸣触发暴击时，会追加从天而降的雷电，造成该次雷鸣200%/300%的伤害。</t>
   </si>
   <si>
     <t>引雷（2/2）</t>
@@ -1134,13 +1584,33 @@
     <t>寒风波（3/3）</t>
   </si>
   <si>
-    <t>技能赋予冰元素效果，伤害变为冰元素伤害。技能命中敌人时，会分散给周围至多3个单位，伤害提高25%/35%/50%。（判定范围目标周围半径150码）</t>
+    <r>
+      <t>技能赋予冰元素效果，变为冰元素伤害。技能命中敌人时，会分散给周围至多3个单位，提高25%/35%/50%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技能基础伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（判定范围目标周围半径150码）</t>
+    </r>
   </si>
   <si>
     <t>凛冽（2/2)</t>
   </si>
   <si>
-    <t>分散单位提升至4/5。</t>
+    <t>分散单位增加1/2</t>
   </si>
   <si>
     <t>霜冻（2/2）</t>
@@ -1152,8 +1622,19 @@
     <t>炎龙（3/3）</t>
   </si>
   <si>
-    <t>技能赋予火元素效果，伤害变为火元素伤害。
-向前方发出一条炎龙，对一条路径上（宽100码，长500码）的敌人造成伤害，伤害提高20%/30%/40%。</t>
+    <r>
+      <t>技能赋予火元素效果，变为火元素伤害。
+向前方发出一条炎龙，对一条路径上（宽100码，长500码）的敌人造成伤害，提高20%/30%/40%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基础技能伤害</t>
+    </r>
   </si>
   <si>
     <t>龙啸（2/2）</t>
@@ -1165,7 +1646,27 @@
     <t>龙印（1/1)</t>
   </si>
   <si>
-    <t>在5秒内每额外受到一次炎龙伤害，该次炎龙伤害提高25%。</t>
+    <r>
+      <t>在5秒内每额外受到一次炎龙伤害，该次炎龙提高25%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害加成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">2技能可选技能：
@@ -1173,69 +1674,151 @@
 </t>
   </si>
   <si>
-    <t>在自身650码距离生成一种随机元素（风、雷、冰、火四个之中一个），对触碰到的敌人造成对应元素伤害。
-伤害系数：攻击力120%/140%/160%/180%/240%·对应元素伤害
+    <r>
+      <t>在自身650码距离生成一种随机元素（风、雷、冰、火四个之中一个），对触碰到的敌人造成对应元素伤害。
+伤害系数：攻击力120%/140%/160%/180%/240%·对应元素的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基础技能伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 伤害间隔：1.0s
 蓝量消耗：30
 持续时间：8秒
 cd：10秒</t>
+    </r>
   </si>
   <si>
     <t>炎爆（3/3）</t>
   </si>
   <si>
-    <t>每5秒生成一颗火球环绕自身，触碰到敌人时爆炸造成范围火元素伤害，伤害提升50%。爆炸范围150码。火球上限3/4/5个。
+    <r>
+      <t>每5秒生成一颗火球环绕自身，触碰到敌人时爆炸造成范围火元素伤害，提升50%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基础技能伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。爆炸范围150码。火球上限3/4/5个。
 持续时间10秒或触碰到敌人消失。
 蓝量消耗：10（每生成一次火球消耗10点）
 （爆炸范围以敌人为中心）</t>
+    </r>
   </si>
   <si>
     <t>烈炎（2/2）</t>
   </si>
   <si>
-    <t>火球生成时间间隔减少1/2秒。</t>
+    <t>火球生成时间间隔减少1/2秒</t>
   </si>
   <si>
     <t>炽热（1/1）</t>
   </si>
   <si>
-    <t>火球不再因为爆炸消失，火球持续时间延长至15秒。</t>
+    <t>火球不再因为爆炸消失，火球持续时间延长至15秒</t>
   </si>
   <si>
     <t>霜降（3/3）</t>
   </si>
   <si>
-    <t>生成一枚常驻的冰块，缠绕周围，对触碰到的敌人造成冰元素伤害。伤害提升30%/40%/50%。</t>
+    <r>
+      <t>生成一枚常驻的冰块，缠绕周围，对触碰到的敌人造成冰元素伤害。提升30%/40%/50%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基础技能伤害</t>
+    </r>
   </si>
   <si>
     <t>零度（2/2）</t>
   </si>
   <si>
-    <t>冰块数量增加至2/3枚。</t>
+    <t>冰块数量增加至2/3枚</t>
   </si>
   <si>
     <t>永冻（1/1）</t>
   </si>
   <si>
-    <t>触碰到冰块的敌人强制冻结1秒。</t>
+    <t>触碰到冰块的敌人强制冻结1秒</t>
   </si>
   <si>
     <t>2技能可选技能：
 雷电屏障（5/5）</t>
   </si>
   <si>
-    <t>每过12秒生成一次抵挡3次伤害的屏障，受到攻击时会对攻击者造成高额伤害。
-伤害系数：攻击力120%/140%/160%/180%/240%·雷元素伤害
+    <r>
+      <t>每过12秒生成一次抵挡3次伤害的屏障，受到攻击时会对攻击者造成高额伤害。
+伤害系数：攻击力120%/140%/160%/180%/240%·雷元素的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基础技能伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 cd：12秒
 持续时间:8秒
 蓝量消耗：30</t>
+    </r>
   </si>
   <si>
     <t>感电线圈（3/3）</t>
   </si>
   <si>
-    <t>在自身700码处生成一个雷电线圈，对触碰到的敌人造成雷元素伤害。
-线圈伤害间隔1.0s，伤害提升40%/70%/100%。</t>
+    <r>
+      <t>在自身700码处生成一个雷电线圈，对触碰到的敌人造成雷元素伤害。
+线圈伤害间隔1.0s，提升40%/70%/100%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基础技能伤害</t>
+    </r>
   </si>
   <si>
     <t>Ring</t>
@@ -1244,7 +1827,18 @@
     <t>磁暴（2/2）</t>
   </si>
   <si>
-    <t>对相同敌人造成的后续伤害，每次递增5%/10%。</t>
+    <r>
+      <t>对相同敌人造成的后续伤害时，每次提高5%/10%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害加成</t>
+    </r>
   </si>
   <si>
     <t>控雷（2/2）</t>
@@ -1257,8 +1851,19 @@
     <t>极寒冰圈（3/3）</t>
   </si>
   <si>
-    <t>在自身550码处生成一个寒冰线圈，对触碰到的敌人造成冰元素伤害。
-线圈伤害间隔1.0s，伤害提升30%/50%/70%。</t>
+    <r>
+      <t>在自身550码处生成一个寒冰线圈，对触碰到的敌人造成冰元素伤害。
+线圈伤害间隔1.0s，提升30%/50%/70%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技能基础伤害</t>
+    </r>
   </si>
   <si>
     <t>急冻（2/2）</t>
@@ -1278,74 +1883,196 @@
 元素轰炸(5/5)</t>
   </si>
   <si>
-    <t>吟唱施法，吟唱3秒后在自身1000码范围内随机位置生成数个元素爆炸，对范围内敌人造成伤害。
+    <r>
+      <t>吟唱施法，吟唱3秒后在自身1000码范围内随机位置生成数个元素爆炸，对范围内敌人造成伤害。
 蓝量消耗：35
 cd：18秒
-伤害系数：攻击力300%·对应元素伤害
+伤害系数：攻击力300%·对应元素的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基础技能伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 生成元素数量：3/4/5/6/8
 爆炸范围：半径200码</t>
+    </r>
   </si>
   <si>
     <t>陨石雨（3/3）</t>
   </si>
   <si>
-    <t>吟唱3秒，召唤3枚陨石雨打击向自身范围1000码内随机敌军，对目标及周围单位造成范围火元素伤害，伤害提高50%/70%/100%。
+    <r>
+      <t>吟唱3秒，召唤3枚陨石雨打击向自身范围1000码内随机敌军，对目标及周围单位造成范围火元素伤害，提高50%/70%/100%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基础技能伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 cd：12秒
 伤害范围：目标半径200码</t>
+    </r>
   </si>
   <si>
     <t>火种（1/1）</t>
   </si>
   <si>
     <t>一颗陨石雨打击地面时，会在原地留下一枚火种。
-（火种为半径25码的小圆圈）</t>
+（火种为直径25码的小圆圈）</t>
   </si>
   <si>
     <t>引爆（2/2）</t>
   </si>
   <si>
-    <t>陨石雨造成伤害时若波及到火种，则会引爆火种，再造成一次范围伤害。
+    <r>
+      <t>陨石雨造成伤害时若波及到火种，则会引爆火种，再造成一次范围伤害
 伤害范围：半径200码/300码。
-伤害系数：攻击力200%·火元素伤害</t>
+伤害系数：攻击力200%·火元素的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基础技能伤害</t>
+    </r>
   </si>
   <si>
     <t>焚天（2/2）</t>
   </si>
   <si>
-    <t>陨石雨对3秒内被陨石雨命中过目标造成伤害时，伤害提高50%/100%。</t>
+    <r>
+      <t>陨石雨对3秒内被陨石雨命中过目标造成伤害时，提高50%/100%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害加成</t>
+    </r>
   </si>
   <si>
     <t>奔雷领域（3/3）</t>
   </si>
   <si>
-    <t>吟唱8秒，吟唱期间自身直径750码范围内开启电闪雷鸣，对范围内的敌人造成持续的雷元素打击，每秒造成攻击力320%/330%/350%的雷元素伤害。
+    <r>
+      <t>吟唱8秒，吟唱期间自身直径750码范围内开启电闪雷鸣，对范围内的敌人造成持续的雷元素打击，每秒造成攻击力320%/330%/350%的雷元素的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基础技能伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 cd：15秒（吟唱完毕再进入cd）</t>
+    </r>
   </si>
   <si>
     <t>雷云（2/2）</t>
   </si>
   <si>
-    <t>吟唱期间生成1/2朵雷云，雷云会随机打击1名敌人每次造成攻击力125%的雷元素伤害。
+    <r>
+      <t>吟唱期间生成1/2朵雷云，雷云会随机打击1名敌人每次造成攻击力125%的雷元素的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基础技能伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 雷云攻击间隔：1.5秒
 雷云攻击范围：等于奔雷领域范围。</t>
+    </r>
   </si>
   <si>
     <t>低压（1/1）</t>
   </si>
   <si>
-    <t>对引雷区域的敌人造成的伤害翻倍。</t>
+    <t>对引雷区域的敌人造成的伤害翻倍</t>
   </si>
   <si>
     <t>3技能可选技能：
 法阵(5/5)</t>
   </si>
   <si>
-    <t>以自身为中心召唤法阵，对法阵内敌人造成持续伤害。
+    <r>
+      <t>以自身为中心召唤法阵，对法阵内敌人造成持续伤害
 cd：30秒
 蓝量消耗：50
 持续时间：8/9/10/12/15秒
-伤害系数：攻击力350%·每秒
+伤害系数：攻击力350%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基础技能伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>·每秒
 作用范围：自身半径600码</t>
+    </r>
   </si>
   <si>
     <t>Aoe|Dot</t>
@@ -1354,11 +2081,31 @@
     <t>极寒领域（3/3）</t>
   </si>
   <si>
-    <t>自身为中心召唤法阵，对法阵内的敌人造成持续的冰元素伤害，伤害提升40%/70%/100%。
+    <r>
+      <t>自身为中心召唤法阵，对法阵内的敌人造成持续的冰元素伤害，提升40%/70%/100%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基础技能伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 cd：25秒
 蓝量消耗：40
 持续时间：与 法阵 技能相同
 作用范围：自身半径600码</t>
+    </r>
   </si>
   <si>
     <t>冰尘（1/1）</t>
@@ -1371,24 +2118,44 @@
 </t>
   </si>
   <si>
-    <t>以自身为中心召唤法阵，对法阵内的敌人造成持续的暗元素伤害，伤害提升10%/20%/30%。
+    <r>
+      <t>以自身为中心召唤法阵，对法阵内的敌人造成持续的暗元素伤害，提升10%/20%/30%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基础技能伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 cd：20秒
 蓝量消耗：25
 持续时间：8秒
 作用范围：自身半径600码</t>
+    </r>
   </si>
   <si>
     <t>至暗（1/1）</t>
   </si>
   <si>
-    <t>处于阵法内的敌人元素抗性降低50%，但自身每秒扣除最大生命值的5%。</t>
+    <t>处于阵法内的敌人元素抗性降低50%，但自身每秒扣除最大生命值的5%</t>
   </si>
   <si>
     <t>3技能-被动技能
 全能（3/3）</t>
   </si>
   <si>
-    <t>生命值大于50%时，最终伤害提升5%/10%/15%；生命值小于50%时，最终免伤降低5%/10%/15%。</t>
+    <t>生命值大于50%时，提升5%/10%/15%的最终伤害；生命值小于50%时，降低5%/10%/15%的最终免伤</t>
   </si>
   <si>
     <t>凌弱（5/5）</t>
@@ -1400,32 +2167,43 @@
     <t>潜能激发（2/2）</t>
   </si>
   <si>
-    <t>蓝量小于最大蓝量的20%/30%时，每秒恢复5点蓝量。</t>
+    <t>蓝量小于最大蓝量的20%/30%时，每秒恢复5点蓝量</t>
   </si>
   <si>
     <t>治愈（2/2）</t>
   </si>
   <si>
-    <t>每过5秒，回复4%/8%最大生命值。</t>
+    <t>每过5秒，回复4%/8%最大生命值</t>
   </si>
   <si>
     <t>惩恶（5/5）</t>
   </si>
   <si>
-    <t>对非精英怪单位伤害提高10%/20%/30%/40%/50%。</t>
+    <r>
+      <t>对非精英怪单位提高10%/20%/30%/40%/50%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害加成</t>
+    </r>
   </si>
   <si>
     <t>节俭（5/5）</t>
   </si>
   <si>
-    <t>技能蓝耗降低10%/20%/30%/40%/50%。</t>
+    <t>技能蓝耗降低10%/20%/30%/40%/50%</t>
   </si>
   <si>
     <t>4技能可选技能：
 充沛（3/3)</t>
   </si>
   <si>
-    <t>最大蓝量提升50/70/100点。</t>
+    <t>最大蓝量提升50/70/100点</t>
   </si>
   <si>
     <t>增益型</t>
@@ -1434,13 +2212,24 @@
     <t>能量补充（2/2）</t>
   </si>
   <si>
-    <t>每秒回复蓝量5/10点。</t>
+    <t>每秒回复蓝量5/10点</t>
   </si>
   <si>
     <t>聪慧（1/1）</t>
   </si>
   <si>
-    <t>每消耗1点蓝量提高该次技能伤害1%。</t>
+    <r>
+      <t>每消耗1点蓝量提高该次技能1%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技能强度</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">4技能可选技能：
@@ -1448,7 +2237,7 @@
 </t>
   </si>
   <si>
-    <t>开启状态，技能cd减少50%，蓝量消耗减少50%，持续5/8/12秒。
+    <t>开启状态，技能cd减少50%，蓝量消耗减少50%，持续5/8/12秒
 cd：40秒</t>
   </si>
   <si>
@@ -1458,33 +2247,84 @@
     <t>狂暴（1/1）</t>
   </si>
   <si>
-    <t>盈能模式cd降低15秒。</t>
+    <t>盈能模式基础cd降低15秒</t>
   </si>
   <si>
     <t>4技能-被动技能
 尖锐（3/3）</t>
   </si>
   <si>
-    <t>造成的伤害提高15%/20%/25%，同时受到的伤害也会提高15%。</t>
+    <r>
+      <t>提高15%/20%/25%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害加成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，同时受到的伤害也会提高15%</t>
+    </r>
   </si>
   <si>
     <t>精通（5/5）</t>
   </si>
   <si>
-    <t>全元素伤害提高5%/7.5%/10%/12.5%/15%</t>
+    <r>
+      <t>提高5%/7.5%/10%/12.5%/15%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全元素伤害</t>
+    </r>
   </si>
   <si>
     <t>贯通(3/3)</t>
   </si>
   <si>
-    <t>暴击时，3秒内造成伤害提高10%/20%/30%。(不可套娃）</t>
+    <r>
+      <t>暴击时，3秒内提高10%/20%/30%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害加成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。(不可套娃）</t>
+    </r>
   </si>
   <si>
     <t>5技能：
 奥术分身（1/1）</t>
   </si>
   <si>
-    <t>召唤一个分身，分身只会模仿本体释放的技能，但只会造成25%的伤害。
+    <t>召唤一个分身，分身只会模仿本体释放的技能，但只会造成25%的伤害
 cd：80秒
 持续时间：20秒</t>
   </si>
@@ -1495,25 +2335,25 @@
     <t>冰语（1/1）</t>
   </si>
   <si>
-    <t>分身获得冰元素之力，模仿冰元素技能时伤害提升至50%，且冰元素伤害提高50%。</t>
+    <t>分身获得冰元素之力，模仿冰元素技能时伤害提升至50%，且提高50%的冰元素伤害</t>
   </si>
   <si>
     <t>雷临（1/1）</t>
   </si>
   <si>
-    <t>分身获得雷元素之力，模仿雷元素技能时伤害提升至50%，且分身持续期间，所有技能冷却时间减少50%。</t>
+    <t>分身获得雷元素之力，模仿雷元素技能时伤害提升至50%，且分身持续期间，所有技能冷却时间减少50%</t>
   </si>
   <si>
     <t>火烬（1/1）</t>
   </si>
   <si>
-    <t>分身获得火元素之力，模仿火元素技能时伤害提升至100%。</t>
+    <t>分身获得火元素之力，模仿火元素技能时伤害提升至100%</t>
   </si>
   <si>
     <t>暗影（1/1）</t>
   </si>
   <si>
-    <t>分身获得暗元素之力，模仿任意技能均结算为暗元素伤害。</t>
+    <t>分身获得暗元素之力，模仿任意技能均结算为暗元素伤害</t>
   </si>
 </sst>
 </file>
@@ -1526,7 +2366,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1690,6 +2530,12 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="36">
@@ -2188,7 +3034,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2220,30 +3066,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3463,36 +4285,36 @@
     </dxf>
   </dxfs>
   <tableStyles count="9" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{AE0C0E54-B523-4846-A04D-5E89C0081209}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{FFB56CBE-955E-4991-BA78-9FEBF364F0BB}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{DF84A022-2B0F-4F0C-819D-0070A17D3C04}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{5782CAB6-6334-475C-9C31-BD9D5BCE925D}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{4412B092-59BF-468E-ADAD-82BC1C770366}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{B23541F4-DE81-4D6D-9A3D-44BE82B3EE93}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{E190AF9E-DE20-45EF-AB3F-DE6B80A67E90}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{31B98429-C44A-4825-80E8-897152FF69B1}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{66ED7703-DF61-44BB-8725-428B1E5B5854}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{A00FEE44-1C15-4464-83B1-71F1788F7020}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{72653178-F4BE-498E-BC49-1EA071213E26}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{E5521947-F36E-4B64-AE11-BC4A5C9AE0C6}">
       <tableStyleElement type="wholeTable" dxfId="28"/>
       <tableStyleElement type="headerRow" dxfId="27"/>
       <tableStyleElement type="totalRow" dxfId="26"/>
@@ -3504,7 +4326,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="20"/>
       <tableStyleElement type="lastTotalCell" dxfId="19"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{BF4F2EAA-5F7D-4ABA-8C7A-BFC1A1C7DA3A}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{71C2F96B-8E3C-4084-8232-9FC532DA0121}">
       <tableStyleElement type="wholeTable" dxfId="40"/>
       <tableStyleElement type="headerRow" dxfId="39"/>
       <tableStyleElement type="totalRow" dxfId="38"/>
@@ -3518,7 +4340,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="30"/>
       <tableStyleElement type="lastTotalCell" dxfId="29"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{30D249AF-9A04-4035-96D3-6A34CB0A9A46}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{0802C305-24F6-481C-8657-E5606F446A33}">
       <tableStyleElement type="wholeTable" dxfId="47"/>
       <tableStyleElement type="headerRow" dxfId="46"/>
       <tableStyleElement type="totalRow" dxfId="45"/>
@@ -3527,7 +4349,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="42"/>
       <tableStyleElement type="firstColumnStripe" dxfId="41"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{C032E1E0-4318-4113-A35F-4FDA9945FA1F}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{E3025674-A83A-4DCD-A314-BB7EAF85E802}">
       <tableStyleElement type="wholeTable" dxfId="52"/>
       <tableStyleElement type="headerRow" dxfId="51"/>
       <tableStyleElement type="totalRow" dxfId="50"/>
@@ -3838,10 +4660,10 @@
   <sheetPr/>
   <dimension ref="A1:AC115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A52" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C56" sqref="C56"/>
+      <selection pane="topRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4051,7 +4873,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" ht="39" customHeight="1" spans="1:29">
+    <row r="3" ht="50.25" spans="1:29">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -4311,7 +5133,7 @@
       <c r="AB6" s="9"/>
       <c r="AC6" s="9"/>
     </row>
-    <row r="7" ht="39" customHeight="1" spans="1:29">
+    <row r="7" ht="50.25" spans="1:29">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -4691,7 +5513,7 @@
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
     </row>
-    <row r="13" ht="22.5" customHeight="1" spans="1:29">
+    <row r="13" ht="17.25" spans="1:29">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -4754,7 +5576,7 @@
       <c r="AB13" s="7"/>
       <c r="AC13" s="7"/>
     </row>
-    <row r="14" ht="39" customHeight="1" spans="1:29">
+    <row r="14" ht="33.75" spans="1:29">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -4884,7 +5706,7 @@
       <c r="AB15" s="7"/>
       <c r="AC15" s="7"/>
     </row>
-    <row r="16" ht="22.5" customHeight="1" spans="1:29">
+    <row r="16" ht="33.75" spans="1:29">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -5014,7 +5836,7 @@
       <c r="AB17" s="7"/>
       <c r="AC17" s="7"/>
     </row>
-    <row r="18" ht="39" customHeight="1" spans="1:29">
+    <row r="18" ht="33.75" spans="1:29">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -5081,7 +5903,7 @@
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
     </row>
-    <row r="19" ht="22.5" customHeight="1" spans="1:29">
+    <row r="19" ht="33.75" spans="1:29">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -5465,7 +6287,7 @@
       <c r="AB24" s="9"/>
       <c r="AC24" s="9"/>
     </row>
-    <row r="25" ht="22.5" customHeight="1" spans="1:29">
+    <row r="25" ht="33.75" spans="1:29">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -5589,7 +6411,7 @@
       <c r="AB26" s="9"/>
       <c r="AC26" s="9"/>
     </row>
-    <row r="27" ht="22.5" customHeight="1" spans="1:29">
+    <row r="27" ht="33.75" spans="1:29">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -5774,7 +6596,7 @@
       <c r="AB29" s="7"/>
       <c r="AC29" s="7"/>
     </row>
-    <row r="30" customFormat="1" ht="39" customHeight="1" spans="1:29">
+    <row r="30" customFormat="1" ht="50.25" spans="1:29">
       <c r="A30" s="9">
         <v>29</v>
       </c>
@@ -6101,7 +6923,7 @@
       <c r="AB34" s="9"/>
       <c r="AC34" s="9"/>
     </row>
-    <row r="35" customFormat="1" ht="39" customHeight="1" spans="1:29">
+    <row r="35" customFormat="1" ht="50.25" spans="1:29">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -6168,7 +6990,7 @@
       <c r="AB35" s="7"/>
       <c r="AC35" s="7"/>
     </row>
-    <row r="36" customFormat="1" ht="39" customHeight="1" spans="1:29">
+    <row r="36" customFormat="1" ht="50.25" spans="1:29">
       <c r="A36" s="9">
         <v>35</v>
       </c>
@@ -6237,7 +7059,7 @@
       <c r="AB36" s="9"/>
       <c r="AC36" s="9"/>
     </row>
-    <row r="37" customFormat="1" ht="22.5" customHeight="1" spans="1:29">
+    <row r="37" customFormat="1" ht="33.75" spans="1:29">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -6428,7 +7250,7 @@
       <c r="AB39" s="7"/>
       <c r="AC39" s="7"/>
     </row>
-    <row r="40" customFormat="1" ht="55.5" customHeight="1" spans="1:29">
+    <row r="40" customFormat="1" ht="50.25" spans="1:29">
       <c r="A40" s="9">
         <v>39</v>
       </c>
@@ -6483,7 +7305,7 @@
       <c r="T40" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="U40" s="12"/>
+      <c r="U40" s="9"/>
       <c r="V40" s="9"/>
       <c r="W40" s="9"/>
       <c r="X40" s="9"/>
@@ -6542,7 +7364,7 @@
       <c r="R41" s="7"/>
       <c r="S41" s="7"/>
       <c r="T41" s="7"/>
-      <c r="U41" s="14"/>
+      <c r="U41" s="7"/>
       <c r="V41" s="7"/>
       <c r="W41" s="7"/>
       <c r="X41" s="7"/>
@@ -6554,7 +7376,7 @@
       <c r="AB41" s="7"/>
       <c r="AC41" s="7"/>
     </row>
-    <row r="42" customFormat="1" ht="22.5" customHeight="1" spans="1:29">
+    <row r="42" customFormat="1" ht="17.25" spans="1:29">
       <c r="A42" s="9">
         <v>41</v>
       </c>
@@ -6605,7 +7427,7 @@
       </c>
       <c r="S42" s="9"/>
       <c r="T42" s="9"/>
-      <c r="U42" s="12"/>
+      <c r="U42" s="9"/>
       <c r="V42" s="9"/>
       <c r="W42" s="9"/>
       <c r="X42" s="9"/>
@@ -6615,7 +7437,7 @@
       <c r="AB42" s="9"/>
       <c r="AC42" s="9"/>
     </row>
-    <row r="43" customFormat="1" ht="22.5" customHeight="1" spans="1:29">
+    <row r="43" customFormat="1" ht="33.75" spans="1:29">
       <c r="A43" s="7">
         <v>42</v>
       </c>
@@ -6666,7 +7488,7 @@
       </c>
       <c r="S43" s="7"/>
       <c r="T43" s="7"/>
-      <c r="U43" s="14"/>
+      <c r="U43" s="7"/>
       <c r="V43" s="7"/>
       <c r="W43" s="7"/>
       <c r="X43" s="7"/>
@@ -6676,7 +7498,7 @@
       <c r="AB43" s="7"/>
       <c r="AC43" s="7"/>
     </row>
-    <row r="44" customFormat="1" ht="22.5" customHeight="1" spans="1:29">
+    <row r="44" customFormat="1" ht="33.75" spans="1:29">
       <c r="A44" s="9">
         <v>43</v>
       </c>
@@ -6729,7 +7551,7 @@
         <v>278</v>
       </c>
       <c r="T44" s="9"/>
-      <c r="U44" s="12"/>
+      <c r="U44" s="9"/>
       <c r="V44" s="9"/>
       <c r="W44" s="9"/>
       <c r="X44" s="9"/>
@@ -7664,7 +8486,7 @@
       <c r="AB59" s="9"/>
       <c r="AC59" s="9"/>
     </row>
-    <row r="60" ht="22.5" customHeight="1" spans="1:29">
+    <row r="60" ht="33.75" spans="1:29">
       <c r="A60" s="7"/>
       <c r="B60" s="8" t="s">
         <v>351</v>
@@ -7685,8 +8507,8 @@
       <c r="H60" s="7">
         <v>1</v>
       </c>
-      <c r="I60" s="15"/>
-      <c r="J60" s="15"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
       <c r="K60" s="7"/>
       <c r="L60" s="7">
         <v>1</v>
@@ -7717,7 +8539,7 @@
       <c r="AB60" s="7"/>
       <c r="AC60" s="7"/>
     </row>
-    <row r="61" ht="39" customHeight="1" spans="1:29">
+    <row r="61" ht="50.25" spans="1:29">
       <c r="A61" s="9"/>
       <c r="B61" s="10" t="s">
         <v>353</v>
@@ -7725,33 +8547,33 @@
       <c r="C61" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="D61" s="11"/>
+      <c r="D61" s="10"/>
       <c r="E61" s="9">
         <v>101</v>
       </c>
-      <c r="F61" s="12">
-        <v>1</v>
-      </c>
-      <c r="G61" s="12">
+      <c r="F61" s="9">
+        <v>1</v>
+      </c>
+      <c r="G61" s="9">
         <v>1</v>
       </c>
       <c r="H61" s="9">
         <v>1</v>
       </c>
-      <c r="I61" s="16">
+      <c r="I61" s="9">
         <v>3</v>
       </c>
       <c r="J61" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="K61" s="12"/>
-      <c r="L61" s="12">
+      <c r="K61" s="9"/>
+      <c r="L61" s="9">
         <v>2</v>
       </c>
-      <c r="M61" s="12"/>
-      <c r="N61" s="12"/>
-      <c r="O61" s="12"/>
-      <c r="P61" s="17"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="10"/>
       <c r="Q61" s="9"/>
       <c r="R61" s="9"/>
       <c r="S61" s="9"/>
@@ -7774,29 +8596,29 @@
       <c r="C62" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="D62" s="13"/>
+      <c r="D62" s="8"/>
       <c r="E62" s="7">
         <v>101</v>
       </c>
-      <c r="F62" s="14">
-        <v>1</v>
-      </c>
-      <c r="G62" s="14">
+      <c r="F62" s="7">
+        <v>1</v>
+      </c>
+      <c r="G62" s="7">
         <v>0</v>
       </c>
       <c r="H62" s="7">
         <v>1</v>
       </c>
-      <c r="I62" s="15"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="14"/>
-      <c r="L62" s="14">
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7">
         <v>3</v>
       </c>
-      <c r="M62" s="14"/>
-      <c r="N62" s="14"/>
-      <c r="O62" s="14"/>
-      <c r="P62" s="18"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="8"/>
       <c r="Q62" s="7"/>
       <c r="R62" s="7"/>
       <c r="S62" s="7"/>
@@ -7819,29 +8641,29 @@
       <c r="C63" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="D63" s="11"/>
+      <c r="D63" s="10"/>
       <c r="E63" s="9">
         <v>101</v>
       </c>
-      <c r="F63" s="12">
-        <v>1</v>
-      </c>
-      <c r="G63" s="12">
+      <c r="F63" s="9">
+        <v>1</v>
+      </c>
+      <c r="G63" s="9">
         <v>0</v>
       </c>
       <c r="H63" s="9">
         <v>1</v>
       </c>
-      <c r="I63" s="16"/>
-      <c r="J63" s="16"/>
-      <c r="K63" s="12"/>
-      <c r="L63" s="12">
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9">
         <v>3</v>
       </c>
-      <c r="M63" s="12"/>
-      <c r="N63" s="12"/>
-      <c r="O63" s="12"/>
-      <c r="P63" s="17"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="10"/>
       <c r="Q63" s="9"/>
       <c r="R63" s="9"/>
       <c r="S63" s="9"/>
@@ -7864,33 +8686,33 @@
       <c r="C64" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="D64" s="13"/>
+      <c r="D64" s="8"/>
       <c r="E64" s="7">
         <v>101</v>
       </c>
-      <c r="F64" s="14">
-        <v>1</v>
-      </c>
-      <c r="G64" s="14">
+      <c r="F64" s="7">
+        <v>1</v>
+      </c>
+      <c r="G64" s="7">
         <v>1</v>
       </c>
       <c r="H64" s="7">
         <v>1</v>
       </c>
-      <c r="I64" s="15">
+      <c r="I64" s="7">
         <v>2</v>
       </c>
       <c r="J64" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K64" s="14"/>
-      <c r="L64" s="14">
+      <c r="K64" s="7"/>
+      <c r="L64" s="7">
         <v>2</v>
       </c>
-      <c r="M64" s="14"/>
-      <c r="N64" s="14"/>
-      <c r="O64" s="14"/>
-      <c r="P64" s="18"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
+      <c r="P64" s="8"/>
       <c r="Q64" s="7"/>
       <c r="R64" s="7"/>
       <c r="S64" s="7"/>
@@ -7913,29 +8735,29 @@
       <c r="C65" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="D65" s="11"/>
+      <c r="D65" s="10"/>
       <c r="E65" s="9">
         <v>101</v>
       </c>
-      <c r="F65" s="12">
-        <v>1</v>
-      </c>
-      <c r="G65" s="12">
+      <c r="F65" s="9">
+        <v>1</v>
+      </c>
+      <c r="G65" s="9">
         <v>0</v>
       </c>
       <c r="H65" s="9">
         <v>1</v>
       </c>
-      <c r="I65" s="16"/>
-      <c r="J65" s="16"/>
-      <c r="K65" s="12"/>
-      <c r="L65" s="12">
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9">
         <v>3</v>
       </c>
-      <c r="M65" s="12"/>
-      <c r="N65" s="12"/>
-      <c r="O65" s="12"/>
-      <c r="P65" s="17"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="10"/>
       <c r="Q65" s="9"/>
       <c r="R65" s="9"/>
       <c r="S65" s="9"/>
@@ -7958,29 +8780,29 @@
       <c r="C66" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="D66" s="13"/>
+      <c r="D66" s="8"/>
       <c r="E66" s="7">
         <v>101</v>
       </c>
-      <c r="F66" s="14">
-        <v>1</v>
-      </c>
-      <c r="G66" s="14">
+      <c r="F66" s="7">
+        <v>1</v>
+      </c>
+      <c r="G66" s="7">
         <v>0</v>
       </c>
       <c r="H66" s="7">
         <v>1</v>
       </c>
-      <c r="I66" s="15"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="14"/>
-      <c r="L66" s="14">
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7">
         <v>3</v>
       </c>
-      <c r="M66" s="14"/>
-      <c r="N66" s="14"/>
-      <c r="O66" s="14"/>
-      <c r="P66" s="18"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
+      <c r="P66" s="8"/>
       <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
       <c r="S66" s="7"/>
@@ -8003,33 +8825,33 @@
       <c r="C67" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="D67" s="11"/>
+      <c r="D67" s="10"/>
       <c r="E67" s="9">
         <v>101</v>
       </c>
-      <c r="F67" s="12">
-        <v>1</v>
-      </c>
-      <c r="G67" s="12">
+      <c r="F67" s="9">
+        <v>1</v>
+      </c>
+      <c r="G67" s="9">
         <v>1</v>
       </c>
       <c r="H67" s="9">
         <v>1</v>
       </c>
-      <c r="I67" s="16">
+      <c r="I67" s="9">
         <v>1</v>
       </c>
       <c r="J67" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="K67" s="12"/>
-      <c r="L67" s="12">
+      <c r="K67" s="9"/>
+      <c r="L67" s="9">
         <v>2</v>
       </c>
-      <c r="M67" s="12"/>
-      <c r="N67" s="12"/>
-      <c r="O67" s="12"/>
-      <c r="P67" s="17"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="9"/>
+      <c r="P67" s="10"/>
       <c r="Q67" s="9"/>
       <c r="R67" s="9"/>
       <c r="S67" s="9"/>
@@ -8052,29 +8874,29 @@
       <c r="C68" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="D68" s="13"/>
+      <c r="D68" s="8"/>
       <c r="E68" s="7">
         <v>101</v>
       </c>
-      <c r="F68" s="14">
-        <v>1</v>
-      </c>
-      <c r="G68" s="14">
+      <c r="F68" s="7">
+        <v>1</v>
+      </c>
+      <c r="G68" s="7">
         <v>0</v>
       </c>
       <c r="H68" s="7">
         <v>1</v>
       </c>
-      <c r="I68" s="15"/>
-      <c r="J68" s="15"/>
-      <c r="K68" s="14"/>
-      <c r="L68" s="14">
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7">
         <v>3</v>
       </c>
-      <c r="M68" s="14"/>
-      <c r="N68" s="14"/>
-      <c r="O68" s="14"/>
-      <c r="P68" s="18"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7"/>
+      <c r="P68" s="8"/>
       <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
       <c r="S68" s="7"/>
@@ -8089,7 +8911,7 @@
       <c r="AB68" s="7"/>
       <c r="AC68" s="7"/>
     </row>
-    <row r="69" ht="22.5" customHeight="1" spans="1:29">
+    <row r="69" ht="33.75" spans="1:29">
       <c r="A69" s="9"/>
       <c r="B69" s="10" t="s">
         <v>369</v>
@@ -8097,29 +8919,29 @@
       <c r="C69" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="D69" s="11"/>
+      <c r="D69" s="10"/>
       <c r="E69" s="9">
         <v>101</v>
       </c>
-      <c r="F69" s="12">
-        <v>1</v>
-      </c>
-      <c r="G69" s="12">
+      <c r="F69" s="9">
+        <v>1</v>
+      </c>
+      <c r="G69" s="9">
         <v>0</v>
       </c>
       <c r="H69" s="9">
         <v>1</v>
       </c>
-      <c r="I69" s="16"/>
-      <c r="J69" s="16"/>
-      <c r="K69" s="12"/>
-      <c r="L69" s="12">
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9">
         <v>4</v>
       </c>
-      <c r="M69" s="12"/>
-      <c r="N69" s="12"/>
-      <c r="O69" s="12"/>
-      <c r="P69" s="17"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+      <c r="O69" s="9"/>
+      <c r="P69" s="10"/>
       <c r="Q69" s="9"/>
       <c r="R69" s="9"/>
       <c r="S69" s="9"/>
@@ -8142,29 +8964,29 @@
       <c r="C70" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="D70" s="13"/>
+      <c r="D70" s="8"/>
       <c r="E70" s="7">
         <v>101</v>
       </c>
-      <c r="F70" s="14">
+      <c r="F70" s="7">
         <v>2</v>
       </c>
-      <c r="G70" s="14">
+      <c r="G70" s="7">
         <v>1</v>
       </c>
       <c r="H70" s="7">
         <v>1</v>
       </c>
-      <c r="I70" s="15"/>
+      <c r="I70" s="7"/>
       <c r="J70" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K70" s="14"/>
-      <c r="L70" s="14"/>
-      <c r="M70" s="14"/>
-      <c r="N70" s="14"/>
-      <c r="O70" s="14"/>
-      <c r="P70" s="18"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="7"/>
+      <c r="O70" s="7"/>
+      <c r="P70" s="8"/>
       <c r="Q70" s="7"/>
       <c r="R70" s="7"/>
       <c r="S70" s="7"/>
@@ -8179,7 +9001,7 @@
       <c r="AB70" s="7"/>
       <c r="AC70" s="7"/>
     </row>
-    <row r="71" ht="88.5" customHeight="1" spans="1:29">
+    <row r="71" ht="99.75" spans="1:29">
       <c r="A71" s="9"/>
       <c r="B71" s="10" t="s">
         <v>373</v>
@@ -8187,31 +9009,31 @@
       <c r="C71" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="D71" s="11"/>
+      <c r="D71" s="10"/>
       <c r="E71" s="9">
         <v>101</v>
       </c>
-      <c r="F71" s="12">
+      <c r="F71" s="9">
         <v>2</v>
       </c>
-      <c r="G71" s="12">
+      <c r="G71" s="9">
         <v>1</v>
       </c>
       <c r="H71" s="9">
         <v>1</v>
       </c>
-      <c r="I71" s="16">
+      <c r="I71" s="9">
         <v>1</v>
       </c>
       <c r="J71" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="K71" s="12"/>
-      <c r="L71" s="12"/>
-      <c r="M71" s="12"/>
-      <c r="N71" s="12"/>
-      <c r="O71" s="12"/>
-      <c r="P71" s="17"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="9"/>
+      <c r="O71" s="9"/>
+      <c r="P71" s="10"/>
       <c r="Q71" s="9"/>
       <c r="R71" s="9"/>
       <c r="S71" s="9"/>
@@ -8234,27 +9056,27 @@
       <c r="C72" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="D72" s="13"/>
+      <c r="D72" s="8"/>
       <c r="E72" s="7">
         <v>101</v>
       </c>
-      <c r="F72" s="14">
+      <c r="F72" s="7">
         <v>2</v>
       </c>
-      <c r="G72" s="14">
+      <c r="G72" s="7">
         <v>0</v>
       </c>
       <c r="H72" s="7">
         <v>1</v>
       </c>
-      <c r="I72" s="15"/>
-      <c r="J72" s="15"/>
-      <c r="K72" s="14"/>
-      <c r="L72" s="14"/>
-      <c r="M72" s="14"/>
-      <c r="N72" s="14"/>
-      <c r="O72" s="14"/>
-      <c r="P72" s="18"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7"/>
+      <c r="P72" s="8"/>
       <c r="Q72" s="7"/>
       <c r="R72" s="7"/>
       <c r="S72" s="7"/>
@@ -8277,27 +9099,27 @@
       <c r="C73" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="D73" s="11"/>
+      <c r="D73" s="10"/>
       <c r="E73" s="9">
         <v>101</v>
       </c>
-      <c r="F73" s="12">
+      <c r="F73" s="9">
         <v>2</v>
       </c>
-      <c r="G73" s="12">
+      <c r="G73" s="9">
         <v>0</v>
       </c>
       <c r="H73" s="9">
         <v>1</v>
       </c>
-      <c r="I73" s="16"/>
-      <c r="J73" s="16"/>
-      <c r="K73" s="12"/>
-      <c r="L73" s="12"/>
-      <c r="M73" s="12"/>
-      <c r="N73" s="12"/>
-      <c r="O73" s="12"/>
-      <c r="P73" s="17"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
+      <c r="N73" s="9"/>
+      <c r="O73" s="9"/>
+      <c r="P73" s="10"/>
       <c r="Q73" s="9"/>
       <c r="R73" s="9"/>
       <c r="S73" s="9"/>
@@ -8320,29 +9142,29 @@
       <c r="C74" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="D74" s="13"/>
+      <c r="D74" s="8"/>
       <c r="E74" s="7">
         <v>101</v>
       </c>
-      <c r="F74" s="14">
+      <c r="F74" s="7">
         <v>2</v>
       </c>
-      <c r="G74" s="14">
+      <c r="G74" s="7">
         <v>1</v>
       </c>
       <c r="H74" s="7">
         <v>1</v>
       </c>
-      <c r="I74" s="15">
+      <c r="I74" s="7">
         <v>2</v>
       </c>
-      <c r="J74" s="15"/>
-      <c r="K74" s="14"/>
-      <c r="L74" s="14"/>
-      <c r="M74" s="14"/>
-      <c r="N74" s="14"/>
-      <c r="O74" s="14"/>
-      <c r="P74" s="18"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7"/>
+      <c r="O74" s="7"/>
+      <c r="P74" s="8"/>
       <c r="Q74" s="7"/>
       <c r="R74" s="7"/>
       <c r="S74" s="7"/>
@@ -8365,27 +9187,27 @@
       <c r="C75" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="D75" s="11"/>
+      <c r="D75" s="10"/>
       <c r="E75" s="9">
         <v>101</v>
       </c>
-      <c r="F75" s="12">
+      <c r="F75" s="9">
         <v>2</v>
       </c>
-      <c r="G75" s="12">
+      <c r="G75" s="9">
         <v>0</v>
       </c>
       <c r="H75" s="9">
         <v>1</v>
       </c>
-      <c r="I75" s="16"/>
-      <c r="J75" s="16"/>
-      <c r="K75" s="12"/>
-      <c r="L75" s="12"/>
-      <c r="M75" s="12"/>
-      <c r="N75" s="12"/>
-      <c r="O75" s="12"/>
-      <c r="P75" s="17"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
+      <c r="O75" s="9"/>
+      <c r="P75" s="10"/>
       <c r="Q75" s="9"/>
       <c r="R75" s="9"/>
       <c r="S75" s="9"/>
@@ -8408,27 +9230,27 @@
       <c r="C76" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="D76" s="13"/>
+      <c r="D76" s="8"/>
       <c r="E76" s="7">
         <v>101</v>
       </c>
-      <c r="F76" s="14">
+      <c r="F76" s="7">
         <v>2</v>
       </c>
-      <c r="G76" s="14">
+      <c r="G76" s="7">
         <v>0</v>
       </c>
       <c r="H76" s="7">
         <v>1</v>
       </c>
-      <c r="I76" s="15"/>
-      <c r="J76" s="15"/>
-      <c r="K76" s="14"/>
-      <c r="L76" s="14"/>
-      <c r="M76" s="14"/>
-      <c r="N76" s="14"/>
-      <c r="O76" s="14"/>
-      <c r="P76" s="18"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
+      <c r="O76" s="7"/>
+      <c r="P76" s="8"/>
       <c r="Q76" s="7"/>
       <c r="R76" s="7"/>
       <c r="S76" s="7"/>
@@ -8443,7 +9265,7 @@
       <c r="AB76" s="7"/>
       <c r="AC76" s="7"/>
     </row>
-    <row r="77" ht="105" customHeight="1" spans="1:29">
+    <row r="77" ht="116.25" spans="1:29">
       <c r="A77" s="9"/>
       <c r="B77" s="10" t="s">
         <v>385</v>
@@ -8451,29 +9273,29 @@
       <c r="C77" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="D77" s="11"/>
+      <c r="D77" s="10"/>
       <c r="E77" s="9">
         <v>101</v>
       </c>
-      <c r="F77" s="12">
+      <c r="F77" s="9">
         <v>2</v>
       </c>
-      <c r="G77" s="12">
+      <c r="G77" s="9">
         <v>1</v>
       </c>
       <c r="H77" s="9">
         <v>1</v>
       </c>
-      <c r="I77" s="16">
+      <c r="I77" s="9">
         <v>3</v>
       </c>
-      <c r="J77" s="16"/>
-      <c r="K77" s="12"/>
-      <c r="L77" s="12"/>
-      <c r="M77" s="12"/>
-      <c r="N77" s="12"/>
-      <c r="O77" s="12"/>
-      <c r="P77" s="17"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="9"/>
+      <c r="O77" s="9"/>
+      <c r="P77" s="10"/>
       <c r="Q77" s="9"/>
       <c r="R77" s="9"/>
       <c r="S77" s="9"/>
@@ -8496,29 +9318,29 @@
       <c r="C78" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="D78" s="13"/>
+      <c r="D78" s="8"/>
       <c r="E78" s="7">
         <v>101</v>
       </c>
-      <c r="F78" s="14">
+      <c r="F78" s="7">
         <v>2</v>
       </c>
-      <c r="G78" s="14">
+      <c r="G78" s="7">
         <v>1</v>
       </c>
       <c r="H78" s="7">
         <v>1</v>
       </c>
-      <c r="I78" s="15"/>
+      <c r="I78" s="7"/>
       <c r="J78" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="K78" s="14"/>
-      <c r="L78" s="14"/>
-      <c r="M78" s="14"/>
-      <c r="N78" s="14"/>
-      <c r="O78" s="14"/>
-      <c r="P78" s="18"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="7"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="7"/>
+      <c r="O78" s="7"/>
+      <c r="P78" s="8"/>
       <c r="Q78" s="7"/>
       <c r="R78" s="7"/>
       <c r="S78" s="7"/>
@@ -8533,7 +9355,7 @@
       <c r="AB78" s="7"/>
       <c r="AC78" s="7"/>
     </row>
-    <row r="79" ht="22.5" customHeight="1" spans="1:29">
+    <row r="79" ht="33.75" spans="1:29">
       <c r="A79" s="9"/>
       <c r="B79" s="10" t="s">
         <v>390</v>
@@ -8541,29 +9363,29 @@
       <c r="C79" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="D79" s="11"/>
+      <c r="D79" s="10"/>
       <c r="E79" s="9">
         <v>101</v>
       </c>
-      <c r="F79" s="12">
+      <c r="F79" s="9">
         <v>2</v>
       </c>
-      <c r="G79" s="12">
+      <c r="G79" s="9">
         <v>0</v>
       </c>
       <c r="H79" s="9">
         <v>1</v>
       </c>
-      <c r="I79" s="16"/>
+      <c r="I79" s="9"/>
       <c r="J79" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="K79" s="12"/>
-      <c r="L79" s="12"/>
-      <c r="M79" s="12"/>
-      <c r="N79" s="12"/>
-      <c r="O79" s="12"/>
-      <c r="P79" s="17"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
+      <c r="O79" s="9"/>
+      <c r="P79" s="10"/>
       <c r="Q79" s="9"/>
       <c r="R79" s="9"/>
       <c r="S79" s="9"/>
@@ -8578,7 +9400,7 @@
       <c r="AB79" s="9"/>
       <c r="AC79" s="9"/>
     </row>
-    <row r="80" ht="39" customHeight="1" spans="1:29">
+    <row r="80" ht="50.25" spans="1:29">
       <c r="A80" s="7"/>
       <c r="B80" s="8" t="s">
         <v>392</v>
@@ -8586,27 +9408,27 @@
       <c r="C80" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="D80" s="13"/>
+      <c r="D80" s="8"/>
       <c r="E80" s="7">
         <v>101</v>
       </c>
-      <c r="F80" s="14">
+      <c r="F80" s="7">
         <v>2</v>
       </c>
-      <c r="G80" s="14">
+      <c r="G80" s="7">
         <v>0</v>
       </c>
       <c r="H80" s="7">
         <v>1</v>
       </c>
-      <c r="I80" s="15"/>
-      <c r="J80" s="15"/>
-      <c r="K80" s="14"/>
-      <c r="L80" s="14"/>
-      <c r="M80" s="14"/>
-      <c r="N80" s="14"/>
-      <c r="O80" s="14"/>
-      <c r="P80" s="18"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="7"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="7"/>
+      <c r="O80" s="7"/>
+      <c r="P80" s="8"/>
       <c r="Q80" s="7"/>
       <c r="R80" s="7"/>
       <c r="S80" s="7"/>
@@ -8629,31 +9451,31 @@
       <c r="C81" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="D81" s="11"/>
+      <c r="D81" s="10"/>
       <c r="E81" s="9">
         <v>101</v>
       </c>
-      <c r="F81" s="12">
+      <c r="F81" s="9">
         <v>2</v>
       </c>
-      <c r="G81" s="12">
+      <c r="G81" s="9">
         <v>1</v>
       </c>
       <c r="H81" s="9">
         <v>1</v>
       </c>
-      <c r="I81" s="16">
+      <c r="I81" s="9">
         <v>2</v>
       </c>
       <c r="J81" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="K81" s="12"/>
-      <c r="L81" s="12"/>
-      <c r="M81" s="12"/>
-      <c r="N81" s="12"/>
-      <c r="O81" s="12"/>
-      <c r="P81" s="17"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="9"/>
+      <c r="O81" s="9"/>
+      <c r="P81" s="10"/>
       <c r="Q81" s="9"/>
       <c r="R81" s="9"/>
       <c r="S81" s="9"/>
@@ -8676,27 +9498,27 @@
       <c r="C82" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="D82" s="13"/>
+      <c r="D82" s="8"/>
       <c r="E82" s="7">
         <v>101</v>
       </c>
-      <c r="F82" s="14">
+      <c r="F82" s="7">
         <v>2</v>
       </c>
-      <c r="G82" s="14">
+      <c r="G82" s="7">
         <v>0</v>
       </c>
       <c r="H82" s="7">
         <v>1</v>
       </c>
-      <c r="I82" s="15"/>
-      <c r="J82" s="15"/>
-      <c r="K82" s="14"/>
-      <c r="L82" s="14"/>
-      <c r="M82" s="14"/>
-      <c r="N82" s="14"/>
-      <c r="O82" s="14"/>
-      <c r="P82" s="18"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="7"/>
+      <c r="M82" s="7"/>
+      <c r="N82" s="7"/>
+      <c r="O82" s="7"/>
+      <c r="P82" s="8"/>
       <c r="Q82" s="7"/>
       <c r="R82" s="7"/>
       <c r="S82" s="7"/>
@@ -8719,27 +9541,27 @@
       <c r="C83" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="D83" s="11"/>
+      <c r="D83" s="10"/>
       <c r="E83" s="9">
         <v>101</v>
       </c>
-      <c r="F83" s="12">
+      <c r="F83" s="9">
         <v>2</v>
       </c>
-      <c r="G83" s="12">
+      <c r="G83" s="9">
         <v>0</v>
       </c>
       <c r="H83" s="9">
         <v>1</v>
       </c>
-      <c r="I83" s="16"/>
-      <c r="J83" s="16"/>
-      <c r="K83" s="12"/>
-      <c r="L83" s="12"/>
-      <c r="M83" s="12"/>
-      <c r="N83" s="12"/>
-      <c r="O83" s="12"/>
-      <c r="P83" s="17"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="9"/>
+      <c r="N83" s="9"/>
+      <c r="O83" s="9"/>
+      <c r="P83" s="10"/>
       <c r="Q83" s="9"/>
       <c r="R83" s="9"/>
       <c r="S83" s="9"/>
@@ -8762,29 +9584,29 @@
       <c r="C84" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="D84" s="13"/>
+      <c r="D84" s="8"/>
       <c r="E84" s="7">
         <v>101</v>
       </c>
-      <c r="F84" s="14">
+      <c r="F84" s="7">
         <v>3</v>
       </c>
-      <c r="G84" s="14">
+      <c r="G84" s="7">
         <v>1</v>
       </c>
       <c r="H84" s="7">
         <v>1</v>
       </c>
-      <c r="I84" s="15"/>
+      <c r="I84" s="7"/>
       <c r="J84" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K84" s="14"/>
-      <c r="L84" s="14"/>
-      <c r="M84" s="14"/>
-      <c r="N84" s="14"/>
-      <c r="O84" s="14"/>
-      <c r="P84" s="18"/>
+      <c r="K84" s="7"/>
+      <c r="L84" s="7"/>
+      <c r="M84" s="7"/>
+      <c r="N84" s="7"/>
+      <c r="O84" s="7"/>
+      <c r="P84" s="8"/>
       <c r="Q84" s="7"/>
       <c r="R84" s="7"/>
       <c r="S84" s="7"/>
@@ -8799,7 +9621,7 @@
       <c r="AB84" s="7"/>
       <c r="AC84" s="7"/>
     </row>
-    <row r="85" ht="72" customHeight="1" spans="1:29">
+    <row r="85" ht="83.25" spans="1:29">
       <c r="A85" s="9"/>
       <c r="B85" s="10" t="s">
         <v>402</v>
@@ -8807,31 +9629,31 @@
       <c r="C85" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="D85" s="11"/>
+      <c r="D85" s="10"/>
       <c r="E85" s="9">
         <v>101</v>
       </c>
-      <c r="F85" s="12">
+      <c r="F85" s="9">
         <v>3</v>
       </c>
-      <c r="G85" s="12">
+      <c r="G85" s="9">
         <v>1</v>
       </c>
       <c r="H85" s="9">
         <v>1</v>
       </c>
-      <c r="I85" s="16">
+      <c r="I85" s="9">
         <v>1</v>
       </c>
       <c r="J85" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="K85" s="12"/>
-      <c r="L85" s="12"/>
-      <c r="M85" s="12"/>
-      <c r="N85" s="12"/>
-      <c r="O85" s="12"/>
-      <c r="P85" s="17"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="9"/>
+      <c r="N85" s="9"/>
+      <c r="O85" s="9"/>
+      <c r="P85" s="10"/>
       <c r="Q85" s="9"/>
       <c r="R85" s="9"/>
       <c r="S85" s="9"/>
@@ -8846,7 +9668,7 @@
       <c r="AB85" s="9"/>
       <c r="AC85" s="9"/>
     </row>
-    <row r="86" ht="39" customHeight="1" spans="1:29">
+    <row r="86" ht="33.75" spans="1:29">
       <c r="A86" s="7"/>
       <c r="B86" s="8" t="s">
         <v>404</v>
@@ -8854,27 +9676,27 @@
       <c r="C86" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="D86" s="13"/>
+      <c r="D86" s="8"/>
       <c r="E86" s="7">
         <v>101</v>
       </c>
-      <c r="F86" s="14">
+      <c r="F86" s="7">
         <v>3</v>
       </c>
-      <c r="G86" s="14">
+      <c r="G86" s="7">
         <v>0</v>
       </c>
       <c r="H86" s="7">
         <v>1</v>
       </c>
-      <c r="I86" s="15"/>
-      <c r="J86" s="15"/>
-      <c r="K86" s="14"/>
-      <c r="L86" s="14"/>
-      <c r="M86" s="14"/>
-      <c r="N86" s="14"/>
-      <c r="O86" s="14"/>
-      <c r="P86" s="18"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
+      <c r="N86" s="7"/>
+      <c r="O86" s="7"/>
+      <c r="P86" s="8"/>
       <c r="Q86" s="7"/>
       <c r="R86" s="7"/>
       <c r="S86" s="7"/>
@@ -8897,27 +9719,27 @@
       <c r="C87" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="D87" s="11"/>
+      <c r="D87" s="10"/>
       <c r="E87" s="9">
         <v>101</v>
       </c>
-      <c r="F87" s="12">
+      <c r="F87" s="9">
         <v>3</v>
       </c>
-      <c r="G87" s="12">
+      <c r="G87" s="9">
         <v>0</v>
       </c>
       <c r="H87" s="9">
         <v>1</v>
       </c>
-      <c r="I87" s="16"/>
-      <c r="J87" s="16"/>
-      <c r="K87" s="12"/>
-      <c r="L87" s="12"/>
-      <c r="M87" s="12"/>
-      <c r="N87" s="12"/>
-      <c r="O87" s="12"/>
-      <c r="P87" s="17"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c r="L87" s="9"/>
+      <c r="M87" s="9"/>
+      <c r="N87" s="9"/>
+      <c r="O87" s="9"/>
+      <c r="P87" s="10"/>
       <c r="Q87" s="9"/>
       <c r="R87" s="9"/>
       <c r="S87" s="9"/>
@@ -8940,27 +9762,27 @@
       <c r="C88" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="D88" s="13"/>
+      <c r="D88" s="8"/>
       <c r="E88" s="7">
         <v>101</v>
       </c>
-      <c r="F88" s="14">
+      <c r="F88" s="7">
         <v>3</v>
       </c>
-      <c r="G88" s="14">
+      <c r="G88" s="7">
         <v>0</v>
       </c>
       <c r="H88" s="7">
         <v>1</v>
       </c>
-      <c r="I88" s="15"/>
-      <c r="J88" s="15"/>
-      <c r="K88" s="14"/>
-      <c r="L88" s="14"/>
-      <c r="M88" s="14"/>
-      <c r="N88" s="14"/>
-      <c r="O88" s="14"/>
-      <c r="P88" s="18"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7"/>
+      <c r="M88" s="7"/>
+      <c r="N88" s="7"/>
+      <c r="O88" s="7"/>
+      <c r="P88" s="8"/>
       <c r="Q88" s="7"/>
       <c r="R88" s="7"/>
       <c r="S88" s="7"/>
@@ -8983,31 +9805,31 @@
       <c r="C89" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="D89" s="11"/>
+      <c r="D89" s="10"/>
       <c r="E89" s="9">
         <v>101</v>
       </c>
-      <c r="F89" s="12">
+      <c r="F89" s="9">
         <v>3</v>
       </c>
-      <c r="G89" s="12">
+      <c r="G89" s="9">
         <v>1</v>
       </c>
       <c r="H89" s="9">
         <v>1</v>
       </c>
-      <c r="I89" s="16">
+      <c r="I89" s="9">
         <v>3</v>
       </c>
       <c r="J89" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="K89" s="12"/>
-      <c r="L89" s="12"/>
-      <c r="M89" s="12"/>
-      <c r="N89" s="12"/>
-      <c r="O89" s="12"/>
-      <c r="P89" s="17"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="9"/>
+      <c r="M89" s="9"/>
+      <c r="N89" s="9"/>
+      <c r="O89" s="9"/>
+      <c r="P89" s="10"/>
       <c r="Q89" s="9"/>
       <c r="R89" s="9"/>
       <c r="S89" s="9"/>
@@ -9030,27 +9852,27 @@
       <c r="C90" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="D90" s="13"/>
+      <c r="D90" s="8"/>
       <c r="E90" s="7">
         <v>101</v>
       </c>
-      <c r="F90" s="14">
+      <c r="F90" s="7">
         <v>3</v>
       </c>
-      <c r="G90" s="14">
+      <c r="G90" s="7">
         <v>0</v>
       </c>
       <c r="H90" s="7">
         <v>1</v>
       </c>
-      <c r="I90" s="15"/>
-      <c r="J90" s="15"/>
-      <c r="K90" s="14"/>
-      <c r="L90" s="14"/>
-      <c r="M90" s="14"/>
-      <c r="N90" s="14"/>
-      <c r="O90" s="14"/>
-      <c r="P90" s="18"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="7"/>
+      <c r="L90" s="7"/>
+      <c r="M90" s="7"/>
+      <c r="N90" s="7"/>
+      <c r="O90" s="7"/>
+      <c r="P90" s="8"/>
       <c r="Q90" s="7"/>
       <c r="R90" s="7"/>
       <c r="S90" s="7"/>
@@ -9073,27 +9895,27 @@
       <c r="C91" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="D91" s="11"/>
+      <c r="D91" s="10"/>
       <c r="E91" s="9">
         <v>101</v>
       </c>
-      <c r="F91" s="12">
+      <c r="F91" s="9">
         <v>3</v>
       </c>
-      <c r="G91" s="12">
+      <c r="G91" s="9">
         <v>0</v>
       </c>
       <c r="H91" s="9">
         <v>1</v>
       </c>
-      <c r="I91" s="16"/>
-      <c r="J91" s="16"/>
-      <c r="K91" s="12"/>
-      <c r="L91" s="12"/>
-      <c r="M91" s="12"/>
-      <c r="N91" s="12"/>
-      <c r="O91" s="12"/>
-      <c r="P91" s="17"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="9"/>
+      <c r="N91" s="9"/>
+      <c r="O91" s="9"/>
+      <c r="P91" s="10"/>
       <c r="Q91" s="9"/>
       <c r="R91" s="9"/>
       <c r="S91" s="9"/>
@@ -9116,29 +9938,29 @@
       <c r="C92" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="D92" s="13"/>
+      <c r="D92" s="8"/>
       <c r="E92" s="7">
         <v>101</v>
       </c>
-      <c r="F92" s="14">
+      <c r="F92" s="7">
         <v>3</v>
       </c>
-      <c r="G92" s="14">
+      <c r="G92" s="7">
         <v>1</v>
       </c>
       <c r="H92" s="7">
         <v>1</v>
       </c>
-      <c r="I92" s="15"/>
+      <c r="I92" s="7"/>
       <c r="J92" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="K92" s="14"/>
-      <c r="L92" s="14"/>
-      <c r="M92" s="14"/>
-      <c r="N92" s="14"/>
-      <c r="O92" s="14"/>
-      <c r="P92" s="18"/>
+      <c r="K92" s="7"/>
+      <c r="L92" s="7"/>
+      <c r="M92" s="7"/>
+      <c r="N92" s="7"/>
+      <c r="O92" s="7"/>
+      <c r="P92" s="8"/>
       <c r="Q92" s="7"/>
       <c r="R92" s="7"/>
       <c r="S92" s="7"/>
@@ -9161,29 +9983,29 @@
       <c r="C93" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="D93" s="11"/>
+      <c r="D93" s="10"/>
       <c r="E93" s="9">
         <v>101</v>
       </c>
-      <c r="F93" s="12">
+      <c r="F93" s="9">
         <v>3</v>
       </c>
-      <c r="G93" s="12">
+      <c r="G93" s="9">
         <v>1</v>
       </c>
       <c r="H93" s="9">
         <v>1</v>
       </c>
-      <c r="I93" s="16">
+      <c r="I93" s="9">
         <v>2</v>
       </c>
-      <c r="J93" s="16"/>
-      <c r="K93" s="12"/>
-      <c r="L93" s="12"/>
-      <c r="M93" s="12"/>
-      <c r="N93" s="12"/>
-      <c r="O93" s="12"/>
-      <c r="P93" s="17"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c r="L93" s="9"/>
+      <c r="M93" s="9"/>
+      <c r="N93" s="9"/>
+      <c r="O93" s="9"/>
+      <c r="P93" s="10"/>
       <c r="Q93" s="9"/>
       <c r="R93" s="9"/>
       <c r="S93" s="9"/>
@@ -9206,27 +10028,27 @@
       <c r="C94" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="D94" s="13"/>
+      <c r="D94" s="8"/>
       <c r="E94" s="7">
         <v>101</v>
       </c>
-      <c r="F94" s="14">
+      <c r="F94" s="7">
         <v>3</v>
       </c>
-      <c r="G94" s="14">
+      <c r="G94" s="7">
         <v>0</v>
       </c>
       <c r="H94" s="7">
         <v>1</v>
       </c>
-      <c r="I94" s="15"/>
-      <c r="J94" s="15"/>
-      <c r="K94" s="14"/>
-      <c r="L94" s="14"/>
-      <c r="M94" s="14"/>
-      <c r="N94" s="14"/>
-      <c r="O94" s="14"/>
-      <c r="P94" s="18"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
+      <c r="K94" s="7"/>
+      <c r="L94" s="7"/>
+      <c r="M94" s="7"/>
+      <c r="N94" s="7"/>
+      <c r="O94" s="7"/>
+      <c r="P94" s="8"/>
       <c r="Q94" s="7"/>
       <c r="R94" s="7"/>
       <c r="S94" s="7"/>
@@ -9249,29 +10071,29 @@
       <c r="C95" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="D95" s="11"/>
+      <c r="D95" s="10"/>
       <c r="E95" s="9">
         <v>101</v>
       </c>
-      <c r="F95" s="12">
+      <c r="F95" s="9">
         <v>3</v>
       </c>
-      <c r="G95" s="12">
+      <c r="G95" s="9">
         <v>1</v>
       </c>
       <c r="H95" s="9">
         <v>1</v>
       </c>
-      <c r="I95" s="16">
+      <c r="I95" s="9">
         <v>6</v>
       </c>
-      <c r="J95" s="16"/>
-      <c r="K95" s="12"/>
-      <c r="L95" s="12"/>
-      <c r="M95" s="12"/>
-      <c r="N95" s="12"/>
-      <c r="O95" s="12"/>
-      <c r="P95" s="17"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c r="L95" s="9"/>
+      <c r="M95" s="9"/>
+      <c r="N95" s="9"/>
+      <c r="O95" s="9"/>
+      <c r="P95" s="10"/>
       <c r="Q95" s="9"/>
       <c r="R95" s="9"/>
       <c r="S95" s="9"/>
@@ -9294,27 +10116,27 @@
       <c r="C96" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="D96" s="13"/>
+      <c r="D96" s="8"/>
       <c r="E96" s="7">
         <v>101</v>
       </c>
-      <c r="F96" s="14">
+      <c r="F96" s="7">
         <v>3</v>
       </c>
-      <c r="G96" s="14">
+      <c r="G96" s="7">
         <v>0</v>
       </c>
       <c r="H96" s="7">
         <v>1</v>
       </c>
-      <c r="I96" s="15"/>
-      <c r="J96" s="15"/>
-      <c r="K96" s="14"/>
-      <c r="L96" s="14"/>
-      <c r="M96" s="14"/>
-      <c r="N96" s="14"/>
-      <c r="O96" s="14"/>
-      <c r="P96" s="18"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="7"/>
+      <c r="K96" s="7"/>
+      <c r="L96" s="7"/>
+      <c r="M96" s="7"/>
+      <c r="N96" s="7"/>
+      <c r="O96" s="7"/>
+      <c r="P96" s="8"/>
       <c r="Q96" s="7"/>
       <c r="R96" s="7"/>
       <c r="S96" s="7"/>
@@ -9337,27 +10159,27 @@
       <c r="C97" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="D97" s="11"/>
+      <c r="D97" s="10"/>
       <c r="E97" s="9">
         <v>101</v>
       </c>
-      <c r="F97" s="12">
+      <c r="F97" s="9">
         <v>3</v>
       </c>
-      <c r="G97" s="12">
+      <c r="G97" s="9">
         <v>0</v>
       </c>
       <c r="H97" s="9">
         <v>1</v>
       </c>
-      <c r="I97" s="16"/>
-      <c r="J97" s="16"/>
-      <c r="K97" s="12"/>
-      <c r="L97" s="12"/>
-      <c r="M97" s="12"/>
-      <c r="N97" s="12"/>
-      <c r="O97" s="12"/>
-      <c r="P97" s="17"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c r="L97" s="9"/>
+      <c r="M97" s="9"/>
+      <c r="N97" s="9"/>
+      <c r="O97" s="9"/>
+      <c r="P97" s="10"/>
       <c r="Q97" s="9"/>
       <c r="R97" s="9"/>
       <c r="S97" s="9"/>
@@ -9380,27 +10202,27 @@
       <c r="C98" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="D98" s="13"/>
+      <c r="D98" s="8"/>
       <c r="E98" s="7">
         <v>101</v>
       </c>
-      <c r="F98" s="14">
+      <c r="F98" s="7">
         <v>3</v>
       </c>
-      <c r="G98" s="14">
+      <c r="G98" s="7">
         <v>0</v>
       </c>
       <c r="H98" s="7">
         <v>1</v>
       </c>
-      <c r="I98" s="15"/>
-      <c r="J98" s="15"/>
-      <c r="K98" s="14"/>
-      <c r="L98" s="14"/>
-      <c r="M98" s="14"/>
-      <c r="N98" s="14"/>
-      <c r="O98" s="14"/>
-      <c r="P98" s="18"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="7"/>
+      <c r="K98" s="7"/>
+      <c r="L98" s="7"/>
+      <c r="M98" s="7"/>
+      <c r="N98" s="7"/>
+      <c r="O98" s="7"/>
+      <c r="P98" s="8"/>
       <c r="Q98" s="7"/>
       <c r="R98" s="7"/>
       <c r="S98" s="7"/>
@@ -9423,27 +10245,27 @@
       <c r="C99" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="D99" s="11"/>
+      <c r="D99" s="10"/>
       <c r="E99" s="9">
         <v>101</v>
       </c>
-      <c r="F99" s="12">
+      <c r="F99" s="9">
         <v>3</v>
       </c>
-      <c r="G99" s="12">
+      <c r="G99" s="9">
         <v>0</v>
       </c>
       <c r="H99" s="9">
         <v>1</v>
       </c>
-      <c r="I99" s="16"/>
-      <c r="J99" s="16"/>
-      <c r="K99" s="12"/>
-      <c r="L99" s="12"/>
-      <c r="M99" s="12"/>
-      <c r="N99" s="12"/>
-      <c r="O99" s="12"/>
-      <c r="P99" s="17"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c r="L99" s="9"/>
+      <c r="M99" s="9"/>
+      <c r="N99" s="9"/>
+      <c r="O99" s="9"/>
+      <c r="P99" s="10"/>
       <c r="Q99" s="9"/>
       <c r="R99" s="9"/>
       <c r="S99" s="9"/>
@@ -9466,27 +10288,27 @@
       <c r="C100" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="D100" s="13"/>
+      <c r="D100" s="8"/>
       <c r="E100" s="7">
         <v>101</v>
       </c>
-      <c r="F100" s="14">
+      <c r="F100" s="7">
         <v>3</v>
       </c>
-      <c r="G100" s="14">
+      <c r="G100" s="7">
         <v>0</v>
       </c>
       <c r="H100" s="7">
         <v>1</v>
       </c>
-      <c r="I100" s="15"/>
-      <c r="J100" s="15"/>
-      <c r="K100" s="14"/>
-      <c r="L100" s="14"/>
-      <c r="M100" s="14"/>
-      <c r="N100" s="14"/>
-      <c r="O100" s="14"/>
-      <c r="P100" s="18"/>
+      <c r="I100" s="7"/>
+      <c r="J100" s="7"/>
+      <c r="K100" s="7"/>
+      <c r="L100" s="7"/>
+      <c r="M100" s="7"/>
+      <c r="N100" s="7"/>
+      <c r="O100" s="7"/>
+      <c r="P100" s="8"/>
       <c r="Q100" s="7"/>
       <c r="R100" s="7"/>
       <c r="S100" s="7"/>
@@ -9501,7 +10323,7 @@
       <c r="AB100" s="7"/>
       <c r="AC100" s="7"/>
     </row>
-    <row r="101" ht="22.5" customHeight="1" spans="1:29">
+    <row r="101" ht="17.25" spans="1:29">
       <c r="A101" s="9"/>
       <c r="B101" s="10" t="s">
         <v>435</v>
@@ -9509,27 +10331,27 @@
       <c r="C101" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="D101" s="11"/>
+      <c r="D101" s="10"/>
       <c r="E101" s="9">
         <v>101</v>
       </c>
-      <c r="F101" s="12">
+      <c r="F101" s="9">
         <v>3</v>
       </c>
-      <c r="G101" s="12">
+      <c r="G101" s="9">
         <v>0</v>
       </c>
       <c r="H101" s="9">
         <v>1</v>
       </c>
-      <c r="I101" s="16"/>
-      <c r="J101" s="16"/>
-      <c r="K101" s="12"/>
-      <c r="L101" s="12"/>
-      <c r="M101" s="12"/>
-      <c r="N101" s="12"/>
-      <c r="O101" s="12"/>
-      <c r="P101" s="17"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c r="L101" s="9"/>
+      <c r="M101" s="9"/>
+      <c r="N101" s="9"/>
+      <c r="O101" s="9"/>
+      <c r="P101" s="10"/>
       <c r="Q101" s="9"/>
       <c r="R101" s="9"/>
       <c r="S101" s="9"/>
@@ -9552,27 +10374,27 @@
       <c r="C102" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="D102" s="13"/>
+      <c r="D102" s="8"/>
       <c r="E102" s="7">
         <v>101</v>
       </c>
-      <c r="F102" s="14">
+      <c r="F102" s="7">
         <v>3</v>
       </c>
-      <c r="G102" s="14">
+      <c r="G102" s="7">
         <v>0</v>
       </c>
       <c r="H102" s="7">
         <v>1</v>
       </c>
-      <c r="I102" s="15"/>
-      <c r="J102" s="15"/>
-      <c r="K102" s="14"/>
-      <c r="L102" s="14"/>
-      <c r="M102" s="14"/>
-      <c r="N102" s="14"/>
-      <c r="O102" s="14"/>
-      <c r="P102" s="18"/>
+      <c r="I102" s="7"/>
+      <c r="J102" s="7"/>
+      <c r="K102" s="7"/>
+      <c r="L102" s="7"/>
+      <c r="M102" s="7"/>
+      <c r="N102" s="7"/>
+      <c r="O102" s="7"/>
+      <c r="P102" s="8"/>
       <c r="Q102" s="7"/>
       <c r="R102" s="7"/>
       <c r="S102" s="7"/>
@@ -9595,31 +10417,31 @@
       <c r="C103" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="D103" s="11"/>
+      <c r="D103" s="10"/>
       <c r="E103" s="9">
         <v>101</v>
       </c>
-      <c r="F103" s="12">
+      <c r="F103" s="9">
         <v>4</v>
       </c>
-      <c r="G103" s="12">
+      <c r="G103" s="9">
         <v>0</v>
       </c>
       <c r="H103" s="9">
         <v>1</v>
       </c>
-      <c r="I103" s="16">
+      <c r="I103" s="9">
         <v>3</v>
       </c>
       <c r="J103" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="K103" s="12"/>
-      <c r="L103" s="12"/>
-      <c r="M103" s="12"/>
-      <c r="N103" s="12"/>
-      <c r="O103" s="12"/>
-      <c r="P103" s="17"/>
+      <c r="K103" s="9"/>
+      <c r="L103" s="9"/>
+      <c r="M103" s="9"/>
+      <c r="N103" s="9"/>
+      <c r="O103" s="9"/>
+      <c r="P103" s="10"/>
       <c r="Q103" s="9"/>
       <c r="R103" s="9"/>
       <c r="S103" s="9"/>
@@ -9642,27 +10464,27 @@
       <c r="C104" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="D104" s="13"/>
+      <c r="D104" s="8"/>
       <c r="E104" s="7">
         <v>101</v>
       </c>
-      <c r="F104" s="14">
+      <c r="F104" s="7">
         <v>4</v>
       </c>
-      <c r="G104" s="14">
+      <c r="G104" s="7">
         <v>0</v>
       </c>
       <c r="H104" s="7">
         <v>1</v>
       </c>
-      <c r="I104" s="15"/>
-      <c r="J104" s="15"/>
-      <c r="K104" s="14"/>
-      <c r="L104" s="14"/>
-      <c r="M104" s="14"/>
-      <c r="N104" s="14"/>
-      <c r="O104" s="14"/>
-      <c r="P104" s="18"/>
+      <c r="I104" s="7"/>
+      <c r="J104" s="7"/>
+      <c r="K104" s="7"/>
+      <c r="L104" s="7"/>
+      <c r="M104" s="7"/>
+      <c r="N104" s="7"/>
+      <c r="O104" s="7"/>
+      <c r="P104" s="8"/>
       <c r="Q104" s="7"/>
       <c r="R104" s="7"/>
       <c r="S104" s="7"/>
@@ -9685,27 +10507,27 @@
       <c r="C105" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="D105" s="11"/>
+      <c r="D105" s="10"/>
       <c r="E105" s="9">
         <v>101</v>
       </c>
-      <c r="F105" s="12">
+      <c r="F105" s="9">
         <v>4</v>
       </c>
-      <c r="G105" s="12">
+      <c r="G105" s="9">
         <v>0</v>
       </c>
       <c r="H105" s="9">
         <v>1</v>
       </c>
-      <c r="I105" s="16"/>
-      <c r="J105" s="16"/>
-      <c r="K105" s="12"/>
-      <c r="L105" s="12"/>
-      <c r="M105" s="12"/>
-      <c r="N105" s="12"/>
-      <c r="O105" s="12"/>
-      <c r="P105" s="17"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c r="L105" s="9"/>
+      <c r="M105" s="9"/>
+      <c r="N105" s="9"/>
+      <c r="O105" s="9"/>
+      <c r="P105" s="10"/>
       <c r="Q105" s="9"/>
       <c r="R105" s="9"/>
       <c r="S105" s="9"/>
@@ -9728,29 +10550,29 @@
       <c r="C106" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="D106" s="13"/>
+      <c r="D106" s="8"/>
       <c r="E106" s="7">
         <v>101</v>
       </c>
-      <c r="F106" s="14">
+      <c r="F106" s="7">
         <v>4</v>
       </c>
-      <c r="G106" s="14">
+      <c r="G106" s="7">
         <v>1</v>
       </c>
       <c r="H106" s="7">
         <v>1</v>
       </c>
-      <c r="I106" s="15"/>
+      <c r="I106" s="7"/>
       <c r="J106" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="K106" s="14"/>
-      <c r="L106" s="14"/>
-      <c r="M106" s="14"/>
-      <c r="N106" s="14"/>
-      <c r="O106" s="14"/>
-      <c r="P106" s="18"/>
+      <c r="K106" s="7"/>
+      <c r="L106" s="7"/>
+      <c r="M106" s="7"/>
+      <c r="N106" s="7"/>
+      <c r="O106" s="7"/>
+      <c r="P106" s="8"/>
       <c r="Q106" s="7"/>
       <c r="R106" s="7"/>
       <c r="S106" s="7"/>
@@ -9773,27 +10595,27 @@
       <c r="C107" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="D107" s="11"/>
+      <c r="D107" s="10"/>
       <c r="E107" s="9">
         <v>101</v>
       </c>
-      <c r="F107" s="12">
+      <c r="F107" s="9">
         <v>4</v>
       </c>
-      <c r="G107" s="12">
+      <c r="G107" s="9">
         <v>0</v>
       </c>
       <c r="H107" s="9">
         <v>1</v>
       </c>
-      <c r="I107" s="16"/>
-      <c r="J107" s="16"/>
-      <c r="K107" s="12"/>
-      <c r="L107" s="12"/>
-      <c r="M107" s="12"/>
-      <c r="N107" s="12"/>
-      <c r="O107" s="12"/>
-      <c r="P107" s="17"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c r="L107" s="9"/>
+      <c r="M107" s="9"/>
+      <c r="N107" s="9"/>
+      <c r="O107" s="9"/>
+      <c r="P107" s="10"/>
       <c r="Q107" s="9"/>
       <c r="R107" s="9"/>
       <c r="S107" s="9"/>
@@ -9816,27 +10638,27 @@
       <c r="C108" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="D108" s="13"/>
+      <c r="D108" s="8"/>
       <c r="E108" s="7">
         <v>101</v>
       </c>
-      <c r="F108" s="14">
+      <c r="F108" s="7">
         <v>4</v>
       </c>
-      <c r="G108" s="14">
+      <c r="G108" s="7">
         <v>0</v>
       </c>
       <c r="H108" s="7">
         <v>1</v>
       </c>
-      <c r="I108" s="15"/>
-      <c r="J108" s="15"/>
-      <c r="K108" s="14"/>
-      <c r="L108" s="14"/>
-      <c r="M108" s="14"/>
-      <c r="N108" s="14"/>
-      <c r="O108" s="14"/>
-      <c r="P108" s="18"/>
+      <c r="I108" s="7"/>
+      <c r="J108" s="7"/>
+      <c r="K108" s="7"/>
+      <c r="L108" s="7"/>
+      <c r="M108" s="7"/>
+      <c r="N108" s="7"/>
+      <c r="O108" s="7"/>
+      <c r="P108" s="8"/>
       <c r="Q108" s="7"/>
       <c r="R108" s="7"/>
       <c r="S108" s="7"/>
@@ -9859,27 +10681,27 @@
       <c r="C109" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="D109" s="11"/>
+      <c r="D109" s="10"/>
       <c r="E109" s="9">
         <v>101</v>
       </c>
-      <c r="F109" s="12">
+      <c r="F109" s="9">
         <v>4</v>
       </c>
-      <c r="G109" s="12">
+      <c r="G109" s="9">
         <v>0</v>
       </c>
       <c r="H109" s="9">
         <v>1</v>
       </c>
-      <c r="I109" s="16"/>
-      <c r="J109" s="16"/>
-      <c r="K109" s="12"/>
-      <c r="L109" s="12"/>
-      <c r="M109" s="12"/>
-      <c r="N109" s="12"/>
-      <c r="O109" s="12"/>
-      <c r="P109" s="17"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c r="L109" s="9"/>
+      <c r="M109" s="9"/>
+      <c r="N109" s="9"/>
+      <c r="O109" s="9"/>
+      <c r="P109" s="10"/>
       <c r="Q109" s="9"/>
       <c r="R109" s="9"/>
       <c r="S109" s="9"/>
@@ -9894,7 +10716,7 @@
       <c r="AB109" s="9"/>
       <c r="AC109" s="9"/>
     </row>
-    <row r="110" ht="22.5" customHeight="1" spans="1:29">
+    <row r="110" ht="33.75" spans="1:29">
       <c r="A110" s="7"/>
       <c r="B110" s="8" t="s">
         <v>455</v>
@@ -9902,27 +10724,27 @@
       <c r="C110" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="D110" s="13"/>
+      <c r="D110" s="8"/>
       <c r="E110" s="7">
         <v>101</v>
       </c>
-      <c r="F110" s="14">
+      <c r="F110" s="7">
         <v>4</v>
       </c>
-      <c r="G110" s="14">
+      <c r="G110" s="7">
         <v>0</v>
       </c>
       <c r="H110" s="7">
         <v>1</v>
       </c>
-      <c r="I110" s="15"/>
-      <c r="J110" s="15"/>
-      <c r="K110" s="14"/>
-      <c r="L110" s="14"/>
-      <c r="M110" s="14"/>
-      <c r="N110" s="14"/>
-      <c r="O110" s="14"/>
-      <c r="P110" s="18"/>
+      <c r="I110" s="7"/>
+      <c r="J110" s="7"/>
+      <c r="K110" s="7"/>
+      <c r="L110" s="7"/>
+      <c r="M110" s="7"/>
+      <c r="N110" s="7"/>
+      <c r="O110" s="7"/>
+      <c r="P110" s="8"/>
       <c r="Q110" s="7"/>
       <c r="R110" s="7"/>
       <c r="S110" s="7"/>
@@ -9945,29 +10767,29 @@
       <c r="C111" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="D111" s="11"/>
+      <c r="D111" s="10"/>
       <c r="E111" s="9">
         <v>101</v>
       </c>
-      <c r="F111" s="12">
+      <c r="F111" s="9">
         <v>5</v>
       </c>
-      <c r="G111" s="12">
+      <c r="G111" s="9">
         <v>1</v>
       </c>
       <c r="H111" s="9">
         <v>1</v>
       </c>
-      <c r="I111" s="16"/>
+      <c r="I111" s="9"/>
       <c r="J111" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="K111" s="12"/>
-      <c r="L111" s="12"/>
-      <c r="M111" s="12"/>
-      <c r="N111" s="12"/>
-      <c r="O111" s="12"/>
-      <c r="P111" s="17"/>
+      <c r="K111" s="9"/>
+      <c r="L111" s="9"/>
+      <c r="M111" s="9"/>
+      <c r="N111" s="9"/>
+      <c r="O111" s="9"/>
+      <c r="P111" s="10"/>
       <c r="Q111" s="9"/>
       <c r="R111" s="9"/>
       <c r="S111" s="9"/>
@@ -9990,29 +10812,29 @@
       <c r="C112" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="D112" s="13"/>
+      <c r="D112" s="8"/>
       <c r="E112" s="7">
         <v>101</v>
       </c>
-      <c r="F112" s="14">
+      <c r="F112" s="7">
         <v>5</v>
       </c>
-      <c r="G112" s="14">
+      <c r="G112" s="7">
         <v>0</v>
       </c>
       <c r="H112" s="7">
         <v>1</v>
       </c>
-      <c r="I112" s="15">
+      <c r="I112" s="7">
         <v>2</v>
       </c>
-      <c r="J112" s="15"/>
-      <c r="K112" s="14"/>
-      <c r="L112" s="14"/>
-      <c r="M112" s="14"/>
-      <c r="N112" s="14"/>
-      <c r="O112" s="14"/>
-      <c r="P112" s="18"/>
+      <c r="J112" s="7"/>
+      <c r="K112" s="7"/>
+      <c r="L112" s="7"/>
+      <c r="M112" s="7"/>
+      <c r="N112" s="7"/>
+      <c r="O112" s="7"/>
+      <c r="P112" s="8"/>
       <c r="Q112" s="7"/>
       <c r="R112" s="7"/>
       <c r="S112" s="7"/>
@@ -10035,29 +10857,29 @@
       <c r="C113" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="D113" s="11"/>
+      <c r="D113" s="10"/>
       <c r="E113" s="9">
         <v>101</v>
       </c>
-      <c r="F113" s="12">
+      <c r="F113" s="9">
         <v>5</v>
       </c>
-      <c r="G113" s="12">
+      <c r="G113" s="9">
         <v>0</v>
       </c>
       <c r="H113" s="9">
         <v>1</v>
       </c>
-      <c r="I113" s="16">
+      <c r="I113" s="9">
         <v>3</v>
       </c>
-      <c r="J113" s="16"/>
-      <c r="K113" s="12"/>
-      <c r="L113" s="12"/>
-      <c r="M113" s="12"/>
-      <c r="N113" s="12"/>
-      <c r="O113" s="12"/>
-      <c r="P113" s="17"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c r="L113" s="9"/>
+      <c r="M113" s="9"/>
+      <c r="N113" s="9"/>
+      <c r="O113" s="9"/>
+      <c r="P113" s="10"/>
       <c r="Q113" s="9"/>
       <c r="R113" s="9"/>
       <c r="S113" s="9"/>
@@ -10080,29 +10902,29 @@
       <c r="C114" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="D114" s="13"/>
+      <c r="D114" s="8"/>
       <c r="E114" s="7">
         <v>101</v>
       </c>
-      <c r="F114" s="14">
+      <c r="F114" s="7">
         <v>5</v>
       </c>
-      <c r="G114" s="14">
+      <c r="G114" s="7">
         <v>0</v>
       </c>
       <c r="H114" s="7">
         <v>1</v>
       </c>
-      <c r="I114" s="15">
-        <v>1</v>
-      </c>
-      <c r="J114" s="15"/>
-      <c r="K114" s="14"/>
-      <c r="L114" s="14"/>
-      <c r="M114" s="14"/>
-      <c r="N114" s="14"/>
-      <c r="O114" s="14"/>
-      <c r="P114" s="18"/>
+      <c r="I114" s="7">
+        <v>1</v>
+      </c>
+      <c r="J114" s="7"/>
+      <c r="K114" s="7"/>
+      <c r="L114" s="7"/>
+      <c r="M114" s="7"/>
+      <c r="N114" s="7"/>
+      <c r="O114" s="7"/>
+      <c r="P114" s="8"/>
       <c r="Q114" s="7"/>
       <c r="R114" s="7"/>
       <c r="S114" s="7"/>
@@ -10125,29 +10947,29 @@
       <c r="C115" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="D115" s="11"/>
+      <c r="D115" s="10"/>
       <c r="E115" s="9">
         <v>101</v>
       </c>
-      <c r="F115" s="12">
+      <c r="F115" s="9">
         <v>5</v>
       </c>
-      <c r="G115" s="12">
+      <c r="G115" s="9">
         <v>0</v>
       </c>
       <c r="H115" s="9">
         <v>1</v>
       </c>
-      <c r="I115" s="16">
+      <c r="I115" s="9">
         <v>6</v>
       </c>
-      <c r="J115" s="16"/>
-      <c r="K115" s="12"/>
-      <c r="L115" s="12"/>
-      <c r="M115" s="12"/>
-      <c r="N115" s="12"/>
-      <c r="O115" s="12"/>
-      <c r="P115" s="17"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c r="L115" s="9"/>
+      <c r="M115" s="9"/>
+      <c r="N115" s="9"/>
+      <c r="O115" s="9"/>
+      <c r="P115" s="10"/>
       <c r="Q115" s="9"/>
       <c r="R115" s="9"/>
       <c r="S115" s="9"/>

--- a/excels/config/game/hero/talent_tree/talent_tree_config.xlsx
+++ b/excels/config/game/hero/talent_tree/talent_tree_config.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="525">
   <si>
     <t>下标</t>
   </si>
@@ -1713,7 +1713,7 @@
     </r>
   </si>
   <si>
-    <t>skywrath_1_a</t>
+    <t>skywrath_1a</t>
   </si>
   <si>
     <t>60|61</t>
@@ -1750,6 +1750,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>技能赋予冰元素效果，变为冰元素伤害。提高25%/35%/50%</t>
     </r>
     <r>
@@ -1772,7 +1778,7 @@
     </r>
   </si>
   <si>
-    <t>skywrath_1_b</t>
+    <t>skywrath_1b</t>
   </si>
   <si>
     <t>63|64</t>
@@ -1790,36 +1796,7 @@
     <t>凛冽</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>分散单位提升至4/5。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>分散单位增加 1/2
-——2024.9.18修改——</t>
-    </r>
+    <t>分散单位增加 1/2</t>
   </si>
   <si>
     <t>split_count_bonus 1 2</t>
@@ -1828,8 +1805,7 @@
     <t>霜冻</t>
   </si>
   <si>
-    <t>寒风波命中的冰冻状态下的敌人时，造成伤害提高2.5/5倍。
-——2024.9.3修改——</t>
+    <t>寒风波命中的冰冻状态下的敌人时，造成伤害提高2.5/5倍。</t>
   </si>
   <si>
     <t>frozen_mul 2.5 5</t>
@@ -1859,7 +1835,7 @@
     </r>
   </si>
   <si>
-    <t>skywrath_1_c</t>
+    <t>skywrath_1c</t>
   </si>
   <si>
     <t>66|67</t>
@@ -1958,6 +1934,9 @@
     </r>
   </si>
   <si>
+    <t>skywrath_2a</t>
+  </si>
+  <si>
     <t>69|72</t>
   </si>
   <si>
@@ -1995,6 +1974,9 @@
     </r>
   </si>
   <si>
+    <t>skywrath_2a_a</t>
+  </si>
+  <si>
     <t>70|0</t>
   </si>
   <si>
@@ -2017,6 +1999,9 @@
   </si>
   <si>
     <t>生成一枚常驻的冰块，缠绕周围，对触碰到的敌人造成冰元素伤害。提升30%/40%/50%基础技能伤害。</t>
+  </si>
+  <si>
+    <t>skywrath_2a_b</t>
   </si>
   <si>
     <t>73|0</t>
@@ -2102,6 +2087,9 @@
     </r>
   </si>
   <si>
+    <t>skywrath_2b</t>
+  </si>
+  <si>
     <t>76|79</t>
   </si>
   <si>
@@ -2132,6 +2120,9 @@
     </r>
   </si>
   <si>
+    <t>skywrath_2b_a</t>
+  </si>
+  <si>
     <t>77|0</t>
   </si>
   <si>
@@ -2194,6 +2185,9 @@
     </r>
   </si>
   <si>
+    <t>skywrath_2b_b</t>
+  </si>
+  <si>
     <t>80|0</t>
   </si>
   <si>
@@ -2262,6 +2256,9 @@
     </r>
   </si>
   <si>
+    <t>skywrath_3a</t>
+  </si>
+  <si>
     <t>87|91</t>
   </si>
   <si>
@@ -2300,6 +2297,9 @@
     </r>
   </si>
   <si>
+    <t>skywrath_3a_a</t>
+  </si>
+  <si>
     <t>88|0</t>
   </si>
   <si>
@@ -2405,6 +2405,9 @@
 cd：15秒
 蓝量消耗：35</t>
     </r>
+  </si>
+  <si>
+    <t>skywrath_3a_b</t>
   </si>
   <si>
     <t>92|0</t>
@@ -2490,6 +2493,9 @@
     </r>
   </si>
   <si>
+    <t>skywrath_3b</t>
+  </si>
+  <si>
     <t>95|97</t>
   </si>
   <si>
@@ -2529,6 +2535,9 @@
     </r>
   </si>
   <si>
+    <t>skywrath_3b_a</t>
+  </si>
+  <si>
     <t>96|0</t>
   </si>
   <si>
@@ -2574,6 +2583,9 @@
     </r>
   </si>
   <si>
+    <t>skywrath_3b_b</t>
+  </si>
+  <si>
     <t>98|0</t>
   </si>
   <si>
@@ -2672,6 +2684,9 @@
   </si>
   <si>
     <t>最大蓝量提升50/70/100点。</t>
+  </si>
+  <si>
+    <t>skywrath_4a</t>
   </si>
   <si>
     <t>106|0</t>
@@ -2714,6 +2729,9 @@
   <si>
     <t>开启状态，技能cd减少50%，蓝量消耗减少50%，持续5/8/12秒。
 cd：40秒</t>
+  </si>
+  <si>
+    <t>skywrath_4b</t>
   </si>
   <si>
     <t>109|0</t>
@@ -2815,6 +2833,9 @@
     <t>召唤一个分身，分身只会模仿本体释放的技能，但只会造成25%的伤害
 cd：80秒
 持续时间：20秒</t>
+  </si>
+  <si>
+    <t>skywrath_5</t>
   </si>
   <si>
     <t>114|115|116|117</t>
@@ -2876,15 +2897,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <strike/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFF0000"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
     <font>
+      <strike/>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -4979,36 +5000,36 @@
     </dxf>
   </dxfs>
   <tableStyles count="9" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{32A89CD7-0844-45A9-AD2C-4FCDB85F70A7}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{F13D7159-9DC2-4DF2-9E87-F1E722D8CD52}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{D97B5642-376C-401A-BCA1-BCF64D2493D9}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{D9883479-7CBD-4A32-83CE-E46B964310F4}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{C4F2F9B4-7E7E-4139-AD98-4507DEE5454D}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{42581DB2-1660-4E5A-AEA8-00307773D0CB}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{51193E26-618B-45C4-8E22-A66C93FEAD66}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{5B98F44F-ECAC-4319-8E10-05D252C33DB1}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{26CDC0BC-C282-436F-AD74-E346D3285741}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{1AE1C095-9501-4E12-AE60-2FBE686BF3AC}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{A19EE7DE-0C53-48E0-91E5-BCC4F2F9B203}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{ECF353DC-4A02-493F-938D-75891DFED711}">
       <tableStyleElement type="wholeTable" dxfId="28"/>
       <tableStyleElement type="headerRow" dxfId="27"/>
       <tableStyleElement type="totalRow" dxfId="26"/>
@@ -5020,7 +5041,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="20"/>
       <tableStyleElement type="lastTotalCell" dxfId="19"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{7359C292-2F78-49BA-9954-D30CAC71C08A}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{59E5546A-02E6-4651-9C75-6DE44E6705BF}">
       <tableStyleElement type="wholeTable" dxfId="40"/>
       <tableStyleElement type="headerRow" dxfId="39"/>
       <tableStyleElement type="totalRow" dxfId="38"/>
@@ -5034,7 +5055,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="30"/>
       <tableStyleElement type="lastTotalCell" dxfId="29"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{1F918FC0-17F0-4C3E-B8A6-3753ABB63DB2}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{A142C757-1BA6-43BC-9444-F78E85DB1113}">
       <tableStyleElement type="wholeTable" dxfId="47"/>
       <tableStyleElement type="headerRow" dxfId="46"/>
       <tableStyleElement type="totalRow" dxfId="45"/>
@@ -5043,7 +5064,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="42"/>
       <tableStyleElement type="firstColumnStripe" dxfId="41"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{CEE5CB9B-8F25-404D-A15B-E789A3A7C3AC}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{3B1CCFB7-3576-4DAB-9E3D-778F9233B340}">
       <tableStyleElement type="wholeTable" dxfId="52"/>
       <tableStyleElement type="headerRow" dxfId="51"/>
       <tableStyleElement type="totalRow" dxfId="50"/>
@@ -5354,10 +5375,10 @@
   <sheetPr/>
   <dimension ref="A1:AB118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="L1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="M95" sqref="M95"/>
+      <selection pane="topRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5372,7 +5393,7 @@
     <col min="8" max="8" width="10.5083333333333" style="4" customWidth="1"/>
     <col min="9" max="9" width="14.3416666666667" customWidth="1"/>
     <col min="10" max="10" width="12.0083333333333" customWidth="1"/>
-    <col min="11" max="11" width="11.5083333333333" customWidth="1"/>
+    <col min="11" max="11" width="22.75" customWidth="1"/>
     <col min="12" max="12" width="12.675" customWidth="1"/>
     <col min="13" max="13" width="24.375" customWidth="1"/>
     <col min="14" max="14" width="20.5083333333333" customWidth="1"/>
@@ -9376,7 +9397,7 @@
       <c r="B65" s="20" t="s">
         <v>376</v>
       </c>
-      <c r="C65" s="23" t="s">
+      <c r="C65" s="22" t="s">
         <v>377</v>
       </c>
       <c r="D65" s="9"/>
@@ -9651,13 +9672,13 @@
         <v>37</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>171</v>
+        <v>398</v>
       </c>
       <c r="L69" s="8">
         <v>1</v>
       </c>
       <c r="M69" s="10" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N69" s="8">
         <v>5</v>
@@ -9684,10 +9705,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="10">
@@ -9709,13 +9730,13 @@
         <v>37</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>171</v>
+        <v>402</v>
       </c>
       <c r="L70" s="10">
         <v>2</v>
       </c>
       <c r="M70" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="N70" s="10">
         <v>3</v>
@@ -9742,10 +9763,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="8">
@@ -9767,13 +9788,13 @@
         <v>37</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>171</v>
+        <v>402</v>
       </c>
       <c r="L71" s="8">
         <v>3</v>
       </c>
       <c r="M71" s="10" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="N71" s="8">
         <v>2</v>
@@ -9800,10 +9821,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="10">
@@ -9825,7 +9846,7 @@
         <v>37</v>
       </c>
       <c r="K72" s="6" t="s">
-        <v>171</v>
+        <v>402</v>
       </c>
       <c r="L72" s="10">
         <v>4</v>
@@ -9858,10 +9879,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="8">
@@ -9883,13 +9904,13 @@
         <v>37</v>
       </c>
       <c r="K73" s="6" t="s">
-        <v>171</v>
+        <v>411</v>
       </c>
       <c r="L73" s="8">
         <v>2</v>
       </c>
       <c r="M73" s="10" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="N73" s="8">
         <v>3</v>
@@ -9916,10 +9937,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>410</v>
-      </c>
-      <c r="C74" s="22" t="s">
-        <v>411</v>
+        <v>413</v>
+      </c>
+      <c r="C74" s="23" t="s">
+        <v>414</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="10">
@@ -9941,13 +9962,13 @@
         <v>37</v>
       </c>
       <c r="K74" s="6" t="s">
-        <v>171</v>
+        <v>411</v>
       </c>
       <c r="L74" s="10">
         <v>3</v>
       </c>
       <c r="M74" s="10" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="N74" s="10">
         <v>2</v>
@@ -9974,10 +9995,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="8">
@@ -9999,7 +10020,7 @@
         <v>37</v>
       </c>
       <c r="K75" s="6" t="s">
-        <v>171</v>
+        <v>411</v>
       </c>
       <c r="L75" s="8">
         <v>4</v>
@@ -10032,10 +10053,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C76" s="20" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="10">
@@ -10057,13 +10078,13 @@
         <v>37</v>
       </c>
       <c r="K76" s="6" t="s">
-        <v>171</v>
+        <v>420</v>
       </c>
       <c r="L76" s="10">
         <v>1</v>
       </c>
       <c r="M76" s="10" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="N76" s="10">
         <v>5</v>
@@ -10090,10 +10111,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="21" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="8">
@@ -10115,13 +10136,13 @@
         <v>37</v>
       </c>
       <c r="K77" s="6" t="s">
-        <v>171</v>
+        <v>424</v>
       </c>
       <c r="L77" s="8">
         <v>2</v>
       </c>
       <c r="M77" s="10" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="N77" s="8">
         <v>3</v>
@@ -10148,10 +10169,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="10">
@@ -10173,13 +10194,13 @@
         <v>37</v>
       </c>
       <c r="K78" s="6" t="s">
-        <v>171</v>
+        <v>424</v>
       </c>
       <c r="L78" s="10">
         <v>3</v>
       </c>
       <c r="M78" s="10" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="N78" s="10">
         <v>2</v>
@@ -10206,10 +10227,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="8">
@@ -10231,7 +10252,7 @@
         <v>37</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>171</v>
+        <v>424</v>
       </c>
       <c r="L79" s="8">
         <v>4</v>
@@ -10264,10 +10285,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="21" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="10">
@@ -10289,13 +10310,13 @@
         <v>37</v>
       </c>
       <c r="K80" s="6" t="s">
-        <v>171</v>
+        <v>433</v>
       </c>
       <c r="L80" s="10">
         <v>2</v>
       </c>
       <c r="M80" s="10" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="N80" s="10">
         <v>3</v>
@@ -10325,7 +10346,7 @@
         <v>250</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="8">
@@ -10347,13 +10368,13 @@
         <v>37</v>
       </c>
       <c r="K81" s="6" t="s">
-        <v>171</v>
+        <v>433</v>
       </c>
       <c r="L81" s="8">
         <v>3</v>
       </c>
       <c r="M81" s="10" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="N81" s="8">
         <v>2</v>
@@ -10380,10 +10401,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="10">
@@ -10405,7 +10426,7 @@
         <v>37</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>171</v>
+        <v>433</v>
       </c>
       <c r="L82" s="10">
         <v>4</v>
@@ -10441,7 +10462,7 @@
         <v>169</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="8">
@@ -10499,7 +10520,7 @@
         <v>179</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="10">
@@ -10557,7 +10578,7 @@
         <v>183</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="8">
@@ -10612,10 +10633,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="10">
@@ -10670,10 +10691,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="8">
@@ -10695,13 +10716,13 @@
         <v>37</v>
       </c>
       <c r="K87" s="6" t="s">
-        <v>171</v>
+        <v>446</v>
       </c>
       <c r="L87" s="8">
         <v>1</v>
       </c>
       <c r="M87" s="10" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="N87" s="8">
         <v>5</v>
@@ -10728,10 +10749,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="D88" s="11"/>
       <c r="E88" s="10">
@@ -10753,13 +10774,13 @@
         <v>37</v>
       </c>
       <c r="K88" s="6" t="s">
-        <v>171</v>
+        <v>450</v>
       </c>
       <c r="L88" s="10">
         <v>2</v>
       </c>
       <c r="M88" s="10" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="N88" s="10">
         <v>3</v>
@@ -10786,10 +10807,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="8">
@@ -10811,13 +10832,13 @@
         <v>37</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>171</v>
+        <v>450</v>
       </c>
       <c r="L89" s="8">
         <v>3</v>
       </c>
       <c r="M89" s="10" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="N89" s="8">
         <v>1</v>
@@ -10844,10 +10865,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="10">
@@ -10869,13 +10890,13 @@
         <v>37</v>
       </c>
       <c r="K90" s="6" t="s">
-        <v>171</v>
+        <v>450</v>
       </c>
       <c r="L90" s="10">
         <v>4</v>
       </c>
       <c r="M90" s="10" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="N90" s="10">
         <v>2</v>
@@ -10902,10 +10923,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="8">
@@ -10927,7 +10948,7 @@
         <v>37</v>
       </c>
       <c r="K91" s="6" t="s">
-        <v>171</v>
+        <v>450</v>
       </c>
       <c r="L91" s="8">
         <v>5</v>
@@ -10960,10 +10981,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="25" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="10">
@@ -10985,13 +11006,13 @@
         <v>37</v>
       </c>
       <c r="K92" s="6" t="s">
-        <v>171</v>
+        <v>462</v>
       </c>
       <c r="L92" s="10">
         <v>2</v>
       </c>
       <c r="M92" s="10" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="N92" s="10">
         <v>3</v>
@@ -11018,10 +11039,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="8">
@@ -11043,13 +11064,13 @@
         <v>37</v>
       </c>
       <c r="K93" s="6" t="s">
-        <v>171</v>
+        <v>462</v>
       </c>
       <c r="L93" s="8">
         <v>3</v>
       </c>
       <c r="M93" s="10" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="N93" s="8">
         <v>2</v>
@@ -11076,10 +11097,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="10">
@@ -11101,7 +11122,7 @@
         <v>37</v>
       </c>
       <c r="K94" s="6" t="s">
-        <v>171</v>
+        <v>462</v>
       </c>
       <c r="L94" s="10">
         <v>4</v>
@@ -11134,10 +11155,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="C95" s="20" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="D95" s="9"/>
       <c r="E95" s="8">
@@ -11159,13 +11180,13 @@
         <v>37</v>
       </c>
       <c r="K95" s="6" t="s">
-        <v>171</v>
+        <v>471</v>
       </c>
       <c r="L95" s="8">
         <v>1</v>
       </c>
       <c r="M95" s="10" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="N95" s="8">
         <v>5</v>
@@ -11192,10 +11213,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="25" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="C96" s="20" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="D96" s="11"/>
       <c r="E96" s="10">
@@ -11217,13 +11238,13 @@
         <v>37</v>
       </c>
       <c r="K96" s="6" t="s">
-        <v>171</v>
+        <v>475</v>
       </c>
       <c r="L96" s="10">
         <v>2</v>
       </c>
       <c r="M96" s="10" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="N96" s="10">
         <v>3</v>
@@ -11250,10 +11271,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="C97" s="20" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="8">
@@ -11275,7 +11296,7 @@
         <v>37</v>
       </c>
       <c r="K97" s="6" t="s">
-        <v>171</v>
+        <v>475</v>
       </c>
       <c r="L97" s="8">
         <v>3</v>
@@ -11308,10 +11329,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="25" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="D98" s="11"/>
       <c r="E98" s="10">
@@ -11333,13 +11354,13 @@
         <v>37</v>
       </c>
       <c r="K98" s="6" t="s">
-        <v>171</v>
+        <v>481</v>
       </c>
       <c r="L98" s="10">
         <v>2</v>
       </c>
       <c r="M98" s="10" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="N98" s="10">
         <v>3</v>
@@ -11366,10 +11387,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="C99" s="20" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="8">
@@ -11391,7 +11412,7 @@
         <v>37</v>
       </c>
       <c r="K99" s="6" t="s">
-        <v>171</v>
+        <v>481</v>
       </c>
       <c r="L99" s="8">
         <v>3</v>
@@ -11427,7 +11448,7 @@
         <v>254</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="10">
@@ -11485,7 +11506,7 @@
         <v>268</v>
       </c>
       <c r="C101" s="20" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="8">
@@ -11543,7 +11564,7 @@
         <v>272</v>
       </c>
       <c r="C102" s="20" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="10">
@@ -11601,7 +11622,7 @@
         <v>277</v>
       </c>
       <c r="C103" s="20" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="8">
@@ -11656,10 +11677,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="10">
@@ -11714,10 +11735,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="C105" s="20" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="8">
@@ -11772,10 +11793,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="21" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="C106" s="20" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="D106" s="11"/>
       <c r="E106" s="10">
@@ -11797,13 +11818,13 @@
         <v>37</v>
       </c>
       <c r="K106" s="6" t="s">
-        <v>171</v>
+        <v>495</v>
       </c>
       <c r="L106" s="10">
         <v>1</v>
       </c>
       <c r="M106" s="10" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="N106" s="10">
         <v>3</v>
@@ -11830,10 +11851,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="C107" s="20" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="D107" s="9"/>
       <c r="E107" s="8">
@@ -11855,13 +11876,13 @@
         <v>37</v>
       </c>
       <c r="K107" s="6" t="s">
-        <v>171</v>
+        <v>495</v>
       </c>
       <c r="L107" s="8">
         <v>2</v>
       </c>
       <c r="M107" s="10" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="N107" s="8">
         <v>2</v>
@@ -11888,10 +11909,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="C108" s="20" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="D108" s="11"/>
       <c r="E108" s="10">
@@ -11913,7 +11934,7 @@
         <v>37</v>
       </c>
       <c r="K108" s="6" t="s">
-        <v>171</v>
+        <v>495</v>
       </c>
       <c r="L108" s="10">
         <v>3</v>
@@ -11946,10 +11967,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="25" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="C109" s="20" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="8">
@@ -11971,13 +11992,13 @@
         <v>37</v>
       </c>
       <c r="K109" s="6" t="s">
-        <v>171</v>
+        <v>504</v>
       </c>
       <c r="L109" s="8">
         <v>1</v>
       </c>
       <c r="M109" s="10" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="N109" s="8">
         <v>3</v>
@@ -12004,10 +12025,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
       <c r="C110" s="20" t="s">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="10">
@@ -12029,7 +12050,7 @@
         <v>37</v>
       </c>
       <c r="K110" s="6" t="s">
-        <v>171</v>
+        <v>504</v>
       </c>
       <c r="L110" s="10">
         <v>2</v>
@@ -12065,7 +12086,7 @@
         <v>315</v>
       </c>
       <c r="C111" s="20" t="s">
-        <v>494</v>
+        <v>508</v>
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="8">
@@ -12120,10 +12141,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>495</v>
+        <v>509</v>
       </c>
       <c r="C112" s="20" t="s">
-        <v>496</v>
+        <v>510</v>
       </c>
       <c r="D112" s="11"/>
       <c r="E112" s="10">
@@ -12178,10 +12199,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="C113" s="20" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="8">
@@ -12236,10 +12257,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="25" t="s">
-        <v>499</v>
+        <v>513</v>
       </c>
       <c r="C114" s="20" t="s">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="D114" s="11"/>
       <c r="E114" s="10">
@@ -12261,13 +12282,13 @@
         <v>37</v>
       </c>
       <c r="K114" s="6" t="s">
-        <v>171</v>
+        <v>515</v>
       </c>
       <c r="L114" s="10">
         <v>1</v>
       </c>
       <c r="M114" s="10" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="N114" s="10">
         <v>1</v>
@@ -12294,10 +12315,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="C115" s="20" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="D115" s="11"/>
       <c r="E115" s="10">
@@ -12319,7 +12340,7 @@
         <v>37</v>
       </c>
       <c r="K115" s="6" t="s">
-        <v>171</v>
+        <v>515</v>
       </c>
       <c r="L115" s="10">
         <v>2</v>
@@ -12352,10 +12373,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="C116" s="20" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="10">
@@ -12377,7 +12398,7 @@
         <v>37</v>
       </c>
       <c r="K116" s="6" t="s">
-        <v>171</v>
+        <v>515</v>
       </c>
       <c r="L116" s="10">
         <v>2</v>
@@ -12410,10 +12431,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="C117" s="20" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="D117" s="11"/>
       <c r="E117" s="10">
@@ -12435,7 +12456,7 @@
         <v>37</v>
       </c>
       <c r="K117" s="6" t="s">
-        <v>171</v>
+        <v>515</v>
       </c>
       <c r="L117" s="10">
         <v>2</v>
@@ -12468,10 +12489,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="26" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="C118" s="26" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="10">
@@ -12493,7 +12514,7 @@
         <v>37</v>
       </c>
       <c r="K118" s="6" t="s">
-        <v>171</v>
+        <v>515</v>
       </c>
       <c r="L118" s="10">
         <v>2</v>

--- a/excels/config/game/hero/talent_tree/talent_tree_config.xlsx
+++ b/excels/config/game/hero/talent_tree/talent_tree_config.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="533">
   <si>
     <t>下标</t>
   </si>
@@ -1678,7 +1678,7 @@
     <t>skywrath_1</t>
   </si>
   <si>
-    <t>59|62</t>
+    <t>59|62|65</t>
   </si>
   <si>
     <t>雷鸣</t>
@@ -1731,7 +1731,7 @@
     <t>雷鸣触发暴击时，会追加从天而降的雷电，造成该次雷鸣的200%/300%伤害。</t>
   </si>
   <si>
-    <t>base_bonus_mul 200</t>
+    <t>base_bonus_mul 200 300</t>
   </si>
   <si>
     <t>引雷</t>
@@ -1744,6 +1744,9 @@
   </si>
   <si>
     <t>yl_radius 250</t>
+  </si>
+  <si>
+    <t>yl_duration 3</t>
   </si>
   <si>
     <t>寒风波</t>
@@ -1980,6 +1983,21 @@
     <t>70|0</t>
   </si>
   <si>
+    <t>base_bonus 50</t>
+  </si>
+  <si>
+    <t>bz_radius 150</t>
+  </si>
+  <si>
+    <t>fb_count 3 4 5</t>
+  </si>
+  <si>
+    <t>fb_duration 10</t>
+  </si>
+  <si>
+    <t>fb_interval 5</t>
+  </si>
+  <si>
     <t>烈炎</t>
   </si>
   <si>
@@ -1989,10 +2007,16 @@
     <t>71|0</t>
   </si>
   <si>
+    <t>reduce_interval 1 2</t>
+  </si>
+  <si>
     <t>炽热</t>
   </si>
   <si>
-    <t>火球不再因为爆炸消失，火球持续时间延长至15秒。</t>
+    <t>火球不再因为爆炸消失，火球持续时间延长5秒。</t>
+  </si>
+  <si>
+    <t>fb_duration_bonus 5</t>
   </si>
   <si>
     <t>霜降</t>
@@ -5372,13 +5396,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AB118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D4" sqref="D4"/>
+      <selection pane="topRight" activeCell="M60" sqref="M60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5403,7 +5427,8 @@
     <col min="18" max="18" width="24.3416666666667" style="4" customWidth="1"/>
     <col min="19" max="19" width="22.3416666666667" style="4" customWidth="1"/>
     <col min="20" max="20" width="15.5" style="4" customWidth="1"/>
-    <col min="21" max="22" width="4.24166666666667" style="4" customWidth="1"/>
+    <col min="21" max="21" width="16.875" style="4" customWidth="1"/>
+    <col min="22" max="22" width="17.375" style="4" customWidth="1"/>
     <col min="23" max="23" width="6.675" style="4" customWidth="1"/>
     <col min="24" max="24" width="15.3416666666667" style="4" customWidth="1"/>
     <col min="25" max="25" width="27.8416666666667" style="4" customWidth="1"/>
@@ -5496,7 +5521,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:28">
+    <row r="2" s="1" customFormat="1" ht="18.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
@@ -5582,7 +5607,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" ht="51.5" customHeight="1" spans="1:28">
+    <row r="3" ht="51.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -5644,7 +5669,7 @@
       <c r="AA3" s="8"/>
       <c r="AB3" s="8"/>
     </row>
-    <row r="4" ht="51.5" customHeight="1" spans="1:28">
+    <row r="4" ht="51.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -5706,7 +5731,7 @@
       <c r="AA4" s="10"/>
       <c r="AB4" s="10"/>
     </row>
-    <row r="5" ht="35" customHeight="1" spans="1:28">
+    <row r="5" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -5768,7 +5793,7 @@
       <c r="AA5" s="8"/>
       <c r="AB5" s="8"/>
     </row>
-    <row r="6" ht="35" customHeight="1" spans="1:28">
+    <row r="6" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -5830,7 +5855,7 @@
       <c r="AA6" s="10"/>
       <c r="AB6" s="10"/>
     </row>
-    <row r="7" ht="51.5" customHeight="1" spans="1:28">
+    <row r="7" ht="51.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -5890,7 +5915,7 @@
       <c r="AA7" s="8"/>
       <c r="AB7" s="8"/>
     </row>
-    <row r="8" ht="35" customHeight="1" spans="1:28">
+    <row r="8" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -5950,7 +5975,7 @@
       <c r="AA8" s="10"/>
       <c r="AB8" s="10"/>
     </row>
-    <row r="9" ht="18.5" customHeight="1" spans="1:28">
+    <row r="9" ht="18.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -6010,7 +6035,7 @@
       <c r="AA9" s="8"/>
       <c r="AB9" s="8"/>
     </row>
-    <row r="10" ht="35" customHeight="1" spans="1:28">
+    <row r="10" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -6070,7 +6095,7 @@
       <c r="AA10" s="10"/>
       <c r="AB10" s="10"/>
     </row>
-    <row r="11" ht="35" customHeight="1" spans="1:28">
+    <row r="11" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -6130,7 +6155,7 @@
       <c r="AA11" s="8"/>
       <c r="AB11" s="8"/>
     </row>
-    <row r="12" ht="35" customHeight="1" spans="1:28">
+    <row r="12" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -6192,7 +6217,7 @@
       <c r="AA12" s="10"/>
       <c r="AB12" s="10"/>
     </row>
-    <row r="13" ht="18.5" customHeight="1" spans="1:28">
+    <row r="13" ht="18.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -6252,7 +6277,7 @@
       <c r="AA13" s="8"/>
       <c r="AB13" s="8"/>
     </row>
-    <row r="14" ht="51.5" customHeight="1" spans="1:28">
+    <row r="14" ht="51.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -6316,7 +6341,7 @@
       <c r="AA14" s="10"/>
       <c r="AB14" s="10"/>
     </row>
-    <row r="15" ht="35" customHeight="1" spans="1:28">
+    <row r="15" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -6376,7 +6401,7 @@
       <c r="AA15" s="8"/>
       <c r="AB15" s="8"/>
     </row>
-    <row r="16" ht="35" customHeight="1" spans="1:28">
+    <row r="16" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -6436,7 +6461,7 @@
       <c r="AA16" s="10"/>
       <c r="AB16" s="10"/>
     </row>
-    <row r="17" ht="18.5" customHeight="1" spans="1:28">
+    <row r="17" ht="18.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -6500,7 +6525,7 @@
       <c r="AA17" s="8"/>
       <c r="AB17" s="8"/>
     </row>
-    <row r="18" ht="51.5" customHeight="1" spans="1:28">
+    <row r="18" ht="51.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -6564,7 +6589,7 @@
       <c r="AA18" s="10"/>
       <c r="AB18" s="10"/>
     </row>
-    <row r="19" ht="35" customHeight="1" spans="1:28">
+    <row r="19" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -6626,7 +6651,7 @@
       <c r="AA19" s="8"/>
       <c r="AB19" s="8"/>
     </row>
-    <row r="20" ht="35" customHeight="1" spans="1:28">
+    <row r="20" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -6686,7 +6711,7 @@
       <c r="AA20" s="10"/>
       <c r="AB20" s="10"/>
     </row>
-    <row r="21" ht="18.5" customHeight="1" spans="1:28">
+    <row r="21" ht="18.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -6746,7 +6771,7 @@
       <c r="AA21" s="8"/>
       <c r="AB21" s="8"/>
     </row>
-    <row r="22" ht="35" customHeight="1" spans="1:28">
+    <row r="22" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -6808,7 +6833,7 @@
       <c r="AA22" s="10"/>
       <c r="AB22" s="10"/>
     </row>
-    <row r="23" ht="35" customHeight="1" spans="1:28">
+    <row r="23" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -6868,7 +6893,7 @@
       <c r="AA23" s="8"/>
       <c r="AB23" s="8"/>
     </row>
-    <row r="24" ht="51.5" customHeight="1" spans="1:28">
+    <row r="24" ht="51.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A24" s="10">
         <v>23</v>
       </c>
@@ -6930,7 +6955,7 @@
       <c r="AA24" s="10"/>
       <c r="AB24" s="10"/>
     </row>
-    <row r="25" ht="35" customHeight="1" spans="1:28">
+    <row r="25" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -6990,7 +7015,7 @@
       <c r="AA25" s="8"/>
       <c r="AB25" s="8"/>
     </row>
-    <row r="26" ht="51.5" customHeight="1" spans="1:28">
+    <row r="26" ht="51.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A26" s="10">
         <v>25</v>
       </c>
@@ -7050,7 +7075,7 @@
       <c r="AA26" s="10"/>
       <c r="AB26" s="10"/>
     </row>
-    <row r="27" ht="35" customHeight="1" spans="1:28">
+    <row r="27" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -7112,7 +7137,7 @@
       <c r="AA27" s="8"/>
       <c r="AB27" s="8"/>
     </row>
-    <row r="28" ht="51.5" customHeight="1" spans="1:28">
+    <row r="28" ht="51.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A28" s="10">
         <v>27</v>
       </c>
@@ -7172,7 +7197,7 @@
       <c r="AA28" s="10"/>
       <c r="AB28" s="10"/>
     </row>
-    <row r="29" ht="51.5" customHeight="1" spans="1:28">
+    <row r="29" ht="51.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -7232,7 +7257,7 @@
       <c r="AA29" s="8"/>
       <c r="AB29" s="8"/>
     </row>
-    <row r="30" customFormat="1" ht="51.5" customHeight="1" spans="1:28">
+    <row r="30" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A30" s="10">
         <v>29</v>
       </c>
@@ -7296,7 +7321,7 @@
       <c r="AA30" s="10"/>
       <c r="AB30" s="10"/>
     </row>
-    <row r="31" customFormat="1" ht="18.5" customHeight="1" spans="1:28">
+    <row r="31" customFormat="1" ht="18.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -7356,7 +7381,7 @@
       <c r="AA31" s="8"/>
       <c r="AB31" s="8"/>
     </row>
-    <row r="32" customFormat="1" ht="51.5" customHeight="1" spans="1:28">
+    <row r="32" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A32" s="10">
         <v>31</v>
       </c>
@@ -7420,7 +7445,7 @@
       <c r="AA32" s="10"/>
       <c r="AB32" s="10"/>
     </row>
-    <row r="33" customFormat="1" ht="35" customHeight="1" spans="1:28">
+    <row r="33" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A33" s="8">
         <v>32</v>
       </c>
@@ -7480,7 +7505,7 @@
       <c r="AA33" s="8"/>
       <c r="AB33" s="8"/>
     </row>
-    <row r="34" customFormat="1" ht="84.5" customHeight="1" spans="1:28">
+    <row r="34" customFormat="1" ht="84.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A34" s="10">
         <v>33</v>
       </c>
@@ -7544,7 +7569,7 @@
       <c r="AA34" s="10"/>
       <c r="AB34" s="10"/>
     </row>
-    <row r="35" customFormat="1" ht="51.5" customHeight="1" spans="1:28">
+    <row r="35" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A35" s="8">
         <v>34</v>
       </c>
@@ -7608,7 +7633,7 @@
       <c r="AA35" s="8"/>
       <c r="AB35" s="8"/>
     </row>
-    <row r="36" customFormat="1" ht="51.5" customHeight="1" spans="1:28">
+    <row r="36" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A36" s="10">
         <v>35</v>
       </c>
@@ -7674,7 +7699,7 @@
       <c r="AA36" s="10"/>
       <c r="AB36" s="10"/>
     </row>
-    <row r="37" customFormat="1" ht="35" customHeight="1" spans="1:28">
+    <row r="37" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A37" s="8">
         <v>36</v>
       </c>
@@ -7734,7 +7759,7 @@
       <c r="AA37" s="8"/>
       <c r="AB37" s="8"/>
     </row>
-    <row r="38" customFormat="1" ht="35" customHeight="1" spans="1:28">
+    <row r="38" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A38" s="10">
         <v>37</v>
       </c>
@@ -7796,7 +7821,7 @@
       <c r="AA38" s="10"/>
       <c r="AB38" s="10"/>
     </row>
-    <row r="39" customFormat="1" ht="35" customHeight="1" spans="1:28">
+    <row r="39" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A39" s="8">
         <v>38</v>
       </c>
@@ -7856,7 +7881,7 @@
       <c r="AA39" s="8"/>
       <c r="AB39" s="8"/>
     </row>
-    <row r="40" customFormat="1" ht="51.5" customHeight="1" spans="1:28">
+    <row r="40" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A40" s="10">
         <v>39</v>
       </c>
@@ -7920,7 +7945,7 @@
       <c r="AA40" s="10"/>
       <c r="AB40" s="10"/>
     </row>
-    <row r="41" customFormat="1" ht="51.5" customHeight="1" spans="1:28">
+    <row r="41" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A41" s="8">
         <v>40</v>
       </c>
@@ -7980,7 +8005,7 @@
       <c r="AA41" s="8"/>
       <c r="AB41" s="8"/>
     </row>
-    <row r="42" customFormat="1" ht="35" customHeight="1" spans="1:28">
+    <row r="42" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A42" s="10">
         <v>41</v>
       </c>
@@ -8040,7 +8065,7 @@
       <c r="AA42" s="10"/>
       <c r="AB42" s="10"/>
     </row>
-    <row r="43" customFormat="1" ht="35" customHeight="1" spans="1:28">
+    <row r="43" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A43" s="8">
         <v>42</v>
       </c>
@@ -8100,7 +8125,7 @@
       <c r="AA43" s="8"/>
       <c r="AB43" s="8"/>
     </row>
-    <row r="44" customFormat="1" ht="35" customHeight="1" spans="1:28">
+    <row r="44" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A44" s="10">
         <v>43</v>
       </c>
@@ -8162,7 +8187,7 @@
       <c r="AA44" s="10"/>
       <c r="AB44" s="10"/>
     </row>
-    <row r="45" customFormat="1" ht="35" customHeight="1" spans="1:28">
+    <row r="45" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A45" s="8">
         <v>44</v>
       </c>
@@ -8224,7 +8249,7 @@
       <c r="AA45" s="8"/>
       <c r="AB45" s="8"/>
     </row>
-    <row r="46" customFormat="1" ht="35" customHeight="1" spans="1:28">
+    <row r="46" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A46" s="10">
         <v>45</v>
       </c>
@@ -8286,7 +8311,7 @@
       <c r="AA46" s="10"/>
       <c r="AB46" s="10"/>
     </row>
-    <row r="47" customFormat="1" ht="35" customHeight="1" spans="1:28">
+    <row r="47" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A47" s="8">
         <v>46</v>
       </c>
@@ -8348,7 +8373,7 @@
       <c r="AA47" s="8"/>
       <c r="AB47" s="8"/>
     </row>
-    <row r="48" customFormat="1" ht="35" customHeight="1" spans="1:28">
+    <row r="48" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A48" s="10">
         <v>47</v>
       </c>
@@ -8408,7 +8433,7 @@
       <c r="AA48" s="10"/>
       <c r="AB48" s="10"/>
     </row>
-    <row r="49" customFormat="1" ht="35" customHeight="1" spans="1:28">
+    <row r="49" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A49" s="8">
         <v>48</v>
       </c>
@@ -8472,7 +8497,7 @@
       <c r="AA49" s="8"/>
       <c r="AB49" s="8"/>
     </row>
-    <row r="50" customFormat="1" ht="18.5" customHeight="1" spans="1:28">
+    <row r="50" customFormat="1" ht="18.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A50" s="10">
         <v>49</v>
       </c>
@@ -8532,7 +8557,7 @@
       <c r="AA50" s="10"/>
       <c r="AB50" s="10"/>
     </row>
-    <row r="51" customFormat="1" ht="18.5" customHeight="1" spans="1:28">
+    <row r="51" customFormat="1" ht="18.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A51" s="8">
         <v>50</v>
       </c>
@@ -8590,7 +8615,7 @@
       <c r="AA51" s="8"/>
       <c r="AB51" s="8"/>
     </row>
-    <row r="52" customFormat="1" ht="51.5" customHeight="1" spans="1:28">
+    <row r="52" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A52" s="10">
         <v>51</v>
       </c>
@@ -8652,7 +8677,7 @@
       <c r="AA52" s="10"/>
       <c r="AB52" s="10"/>
     </row>
-    <row r="53" customFormat="1" ht="51.5" customHeight="1" spans="1:28">
+    <row r="53" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A53" s="8">
         <v>52</v>
       </c>
@@ -8712,7 +8737,7 @@
       <c r="AA53" s="8"/>
       <c r="AB53" s="8"/>
     </row>
-    <row r="54" customFormat="1" ht="35" customHeight="1" spans="1:28">
+    <row r="54" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A54" s="10">
         <v>53</v>
       </c>
@@ -8776,7 +8801,7 @@
       <c r="AA54" s="10"/>
       <c r="AB54" s="10"/>
     </row>
-    <row r="55" customFormat="1" ht="35" customHeight="1" spans="1:28">
+    <row r="55" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A55" s="8">
         <v>54</v>
       </c>
@@ -8838,7 +8863,7 @@
       <c r="AA55" s="8"/>
       <c r="AB55" s="8"/>
     </row>
-    <row r="56" customFormat="1" ht="35" customHeight="1" spans="1:28">
+    <row r="56" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A56" s="10">
         <v>55</v>
       </c>
@@ -8898,7 +8923,7 @@
       <c r="AA56" s="10"/>
       <c r="AB56" s="10"/>
     </row>
-    <row r="57" customFormat="1" ht="35" customHeight="1" spans="1:28">
+    <row r="57" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A57" s="8">
         <v>56</v>
       </c>
@@ -8960,7 +8985,7 @@
       <c r="AA57" s="8"/>
       <c r="AB57" s="8"/>
     </row>
-    <row r="58" customFormat="1" ht="51.5" customHeight="1" spans="1:28">
+    <row r="58" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A58" s="12">
         <v>57</v>
       </c>
@@ -9255,7 +9280,9 @@
       <c r="R62" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="S62" s="10"/>
+      <c r="S62" s="10" t="s">
+        <v>366</v>
+      </c>
       <c r="T62" s="10"/>
       <c r="U62" s="10"/>
       <c r="V62" s="10"/>
@@ -9271,10 +9298,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="8">
@@ -9296,13 +9323,13 @@
         <v>37</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L63" s="8">
         <v>2</v>
       </c>
       <c r="M63" s="10" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N63" s="8">
         <v>3</v>
@@ -9312,13 +9339,13 @@
       </c>
       <c r="P63" s="8"/>
       <c r="Q63" s="8" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="R63" s="8" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="S63" s="8" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="T63" s="8"/>
       <c r="U63" s="8"/>
@@ -9335,10 +9362,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="10">
@@ -9360,7 +9387,7 @@
         <v>37</v>
       </c>
       <c r="K64" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L64" s="10">
         <v>3</v>
@@ -9376,7 +9403,7 @@
       </c>
       <c r="P64" s="10"/>
       <c r="Q64" s="10" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="R64" s="10"/>
       <c r="S64" s="10"/>
@@ -9395,10 +9422,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="8">
@@ -9420,7 +9447,7 @@
         <v>37</v>
       </c>
       <c r="K65" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L65" s="8">
         <v>3</v>
@@ -9436,7 +9463,7 @@
       </c>
       <c r="P65" s="8"/>
       <c r="Q65" s="8" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="R65" s="8"/>
       <c r="S65" s="8"/>
@@ -9455,10 +9482,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="10">
@@ -9480,13 +9507,13 @@
         <v>37</v>
       </c>
       <c r="K66" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L66" s="10">
         <v>2</v>
       </c>
       <c r="M66" s="10" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N66" s="10">
         <v>3</v>
@@ -9496,16 +9523,16 @@
       </c>
       <c r="P66" s="10"/>
       <c r="Q66" s="8" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="R66" s="10" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="S66" s="10" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="T66" s="10" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="U66" s="10"/>
       <c r="V66" s="10"/>
@@ -9521,10 +9548,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="8">
@@ -9546,7 +9573,7 @@
         <v>37</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L67" s="8">
         <v>3</v>
@@ -9562,10 +9589,10 @@
       </c>
       <c r="P67" s="8"/>
       <c r="Q67" s="8" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="R67" s="8" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="S67" s="8"/>
       <c r="T67" s="8"/>
@@ -9583,10 +9610,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="10">
@@ -9608,7 +9635,7 @@
         <v>37</v>
       </c>
       <c r="K68" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L68" s="10">
         <v>4</v>
@@ -9624,13 +9651,13 @@
       </c>
       <c r="P68" s="10"/>
       <c r="Q68" s="10" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="R68" s="10" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="S68" s="10" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="T68" s="10"/>
       <c r="U68" s="10"/>
@@ -9647,10 +9674,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="8">
@@ -9672,13 +9699,13 @@
         <v>37</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L69" s="8">
         <v>1</v>
       </c>
       <c r="M69" s="10" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N69" s="8">
         <v>5</v>
@@ -9687,7 +9714,9 @@
         <v>347</v>
       </c>
       <c r="P69" s="8"/>
-      <c r="Q69" s="8"/>
+      <c r="Q69" s="8" t="s">
+        <v>136</v>
+      </c>
       <c r="R69" s="8"/>
       <c r="S69" s="8"/>
       <c r="T69" s="8"/>
@@ -9705,10 +9734,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="10">
@@ -9730,13 +9759,13 @@
         <v>37</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L70" s="10">
         <v>2</v>
       </c>
       <c r="M70" s="10" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N70" s="10">
         <v>3</v>
@@ -9745,11 +9774,21 @@
         <v>347</v>
       </c>
       <c r="P70" s="10"/>
-      <c r="Q70" s="10"/>
-      <c r="R70" s="10"/>
-      <c r="S70" s="10"/>
-      <c r="T70" s="10"/>
-      <c r="U70" s="10"/>
+      <c r="Q70" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="R70" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="S70" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="T70" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="U70" s="10" t="s">
+        <v>409</v>
+      </c>
       <c r="V70" s="10"/>
       <c r="W70" s="10"/>
       <c r="X70" s="10"/>
@@ -9763,10 +9802,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="8">
@@ -9788,13 +9827,13 @@
         <v>37</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L71" s="8">
         <v>3</v>
       </c>
       <c r="M71" s="10" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="N71" s="8">
         <v>2</v>
@@ -9803,7 +9842,9 @@
         <v>347</v>
       </c>
       <c r="P71" s="8"/>
-      <c r="Q71" s="8"/>
+      <c r="Q71" s="8" t="s">
+        <v>413</v>
+      </c>
       <c r="R71" s="8"/>
       <c r="S71" s="8"/>
       <c r="T71" s="8"/>
@@ -9821,10 +9862,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="10">
@@ -9846,7 +9887,7 @@
         <v>37</v>
       </c>
       <c r="K72" s="6" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L72" s="10">
         <v>4</v>
@@ -9861,7 +9902,9 @@
         <v>347</v>
       </c>
       <c r="P72" s="10"/>
-      <c r="Q72" s="10"/>
+      <c r="Q72" s="10" t="s">
+        <v>416</v>
+      </c>
       <c r="R72" s="10"/>
       <c r="S72" s="10"/>
       <c r="T72" s="10"/>
@@ -9879,10 +9922,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="8">
@@ -9904,13 +9947,13 @@
         <v>37</v>
       </c>
       <c r="K73" s="6" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="L73" s="8">
         <v>2</v>
       </c>
       <c r="M73" s="10" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="N73" s="8">
         <v>3</v>
@@ -9937,10 +9980,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="C74" s="23" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="10">
@@ -9962,13 +10005,13 @@
         <v>37</v>
       </c>
       <c r="K74" s="6" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="L74" s="10">
         <v>3</v>
       </c>
       <c r="M74" s="10" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="N74" s="10">
         <v>2</v>
@@ -9995,10 +10038,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="8">
@@ -10020,7 +10063,7 @@
         <v>37</v>
       </c>
       <c r="K75" s="6" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="L75" s="8">
         <v>4</v>
@@ -10053,10 +10096,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="C76" s="20" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="10">
@@ -10078,13 +10121,13 @@
         <v>37</v>
       </c>
       <c r="K76" s="6" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="L76" s="10">
         <v>1</v>
       </c>
       <c r="M76" s="10" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="N76" s="10">
         <v>5</v>
@@ -10111,10 +10154,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="21" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="8">
@@ -10136,13 +10179,13 @@
         <v>37</v>
       </c>
       <c r="K77" s="6" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="L77" s="8">
         <v>2</v>
       </c>
       <c r="M77" s="10" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="N77" s="8">
         <v>3</v>
@@ -10169,10 +10212,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="10">
@@ -10194,13 +10237,13 @@
         <v>37</v>
       </c>
       <c r="K78" s="6" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="L78" s="10">
         <v>3</v>
       </c>
       <c r="M78" s="10" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="N78" s="10">
         <v>2</v>
@@ -10227,10 +10270,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="8">
@@ -10252,7 +10295,7 @@
         <v>37</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="L79" s="8">
         <v>4</v>
@@ -10285,10 +10328,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="21" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="10">
@@ -10310,13 +10353,13 @@
         <v>37</v>
       </c>
       <c r="K80" s="6" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="L80" s="10">
         <v>2</v>
       </c>
       <c r="M80" s="10" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="N80" s="10">
         <v>3</v>
@@ -10346,7 +10389,7 @@
         <v>250</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="8">
@@ -10368,13 +10411,13 @@
         <v>37</v>
       </c>
       <c r="K81" s="6" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="L81" s="8">
         <v>3</v>
       </c>
       <c r="M81" s="10" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="N81" s="8">
         <v>2</v>
@@ -10401,10 +10444,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="10">
@@ -10426,7 +10469,7 @@
         <v>37</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="L82" s="10">
         <v>4</v>
@@ -10462,7 +10505,7 @@
         <v>169</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="8">
@@ -10520,7 +10563,7 @@
         <v>179</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="10">
@@ -10578,7 +10621,7 @@
         <v>183</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="8">
@@ -10633,10 +10676,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="10">
@@ -10691,10 +10734,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="8">
@@ -10716,13 +10759,13 @@
         <v>37</v>
       </c>
       <c r="K87" s="6" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="L87" s="8">
         <v>1</v>
       </c>
       <c r="M87" s="10" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="N87" s="8">
         <v>5</v>
@@ -10749,10 +10792,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="D88" s="11"/>
       <c r="E88" s="10">
@@ -10774,13 +10817,13 @@
         <v>37</v>
       </c>
       <c r="K88" s="6" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="L88" s="10">
         <v>2</v>
       </c>
       <c r="M88" s="10" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="N88" s="10">
         <v>3</v>
@@ -10807,10 +10850,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="8">
@@ -10832,13 +10875,13 @@
         <v>37</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="L89" s="8">
         <v>3</v>
       </c>
       <c r="M89" s="10" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="N89" s="8">
         <v>1</v>
@@ -10865,10 +10908,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="10">
@@ -10890,13 +10933,13 @@
         <v>37</v>
       </c>
       <c r="K90" s="6" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="L90" s="10">
         <v>4</v>
       </c>
       <c r="M90" s="10" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="N90" s="10">
         <v>2</v>
@@ -10923,10 +10966,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="8">
@@ -10948,7 +10991,7 @@
         <v>37</v>
       </c>
       <c r="K91" s="6" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="L91" s="8">
         <v>5</v>
@@ -10981,10 +11024,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="25" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="10">
@@ -11006,13 +11049,13 @@
         <v>37</v>
       </c>
       <c r="K92" s="6" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="L92" s="10">
         <v>2</v>
       </c>
       <c r="M92" s="10" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="N92" s="10">
         <v>3</v>
@@ -11039,10 +11082,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="8">
@@ -11064,13 +11107,13 @@
         <v>37</v>
       </c>
       <c r="K93" s="6" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="L93" s="8">
         <v>3</v>
       </c>
       <c r="M93" s="10" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="N93" s="8">
         <v>2</v>
@@ -11097,10 +11140,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="10">
@@ -11122,7 +11165,7 @@
         <v>37</v>
       </c>
       <c r="K94" s="6" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="L94" s="10">
         <v>4</v>
@@ -11155,10 +11198,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="C95" s="20" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="D95" s="9"/>
       <c r="E95" s="8">
@@ -11180,13 +11223,13 @@
         <v>37</v>
       </c>
       <c r="K95" s="6" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="L95" s="8">
         <v>1</v>
       </c>
       <c r="M95" s="10" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="N95" s="8">
         <v>5</v>
@@ -11213,10 +11256,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="25" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="C96" s="20" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="D96" s="11"/>
       <c r="E96" s="10">
@@ -11238,13 +11281,13 @@
         <v>37</v>
       </c>
       <c r="K96" s="6" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="L96" s="10">
         <v>2</v>
       </c>
       <c r="M96" s="10" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="N96" s="10">
         <v>3</v>
@@ -11271,10 +11314,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="C97" s="20" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="8">
@@ -11296,7 +11339,7 @@
         <v>37</v>
       </c>
       <c r="K97" s="6" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="L97" s="8">
         <v>3</v>
@@ -11329,10 +11372,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="25" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="D98" s="11"/>
       <c r="E98" s="10">
@@ -11354,13 +11397,13 @@
         <v>37</v>
       </c>
       <c r="K98" s="6" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="L98" s="10">
         <v>2</v>
       </c>
       <c r="M98" s="10" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="N98" s="10">
         <v>3</v>
@@ -11387,10 +11430,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="C99" s="20" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="8">
@@ -11412,7 +11455,7 @@
         <v>37</v>
       </c>
       <c r="K99" s="6" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="L99" s="8">
         <v>3</v>
@@ -11448,7 +11491,7 @@
         <v>254</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="10">
@@ -11506,7 +11549,7 @@
         <v>268</v>
       </c>
       <c r="C101" s="20" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="8">
@@ -11564,7 +11607,7 @@
         <v>272</v>
       </c>
       <c r="C102" s="20" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="10">
@@ -11622,7 +11665,7 @@
         <v>277</v>
       </c>
       <c r="C103" s="20" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="8">
@@ -11677,10 +11720,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="10">
@@ -11735,10 +11778,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="C105" s="20" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="8">
@@ -11793,10 +11836,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="21" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="C106" s="20" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="D106" s="11"/>
       <c r="E106" s="10">
@@ -11818,13 +11861,13 @@
         <v>37</v>
       </c>
       <c r="K106" s="6" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="L106" s="10">
         <v>1</v>
       </c>
       <c r="M106" s="10" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="N106" s="10">
         <v>3</v>
@@ -11851,10 +11894,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="C107" s="20" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="D107" s="9"/>
       <c r="E107" s="8">
@@ -11876,13 +11919,13 @@
         <v>37</v>
       </c>
       <c r="K107" s="6" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="L107" s="8">
         <v>2</v>
       </c>
       <c r="M107" s="10" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="N107" s="8">
         <v>2</v>
@@ -11909,10 +11952,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="C108" s="20" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="D108" s="11"/>
       <c r="E108" s="10">
@@ -11934,7 +11977,7 @@
         <v>37</v>
       </c>
       <c r="K108" s="6" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="L108" s="10">
         <v>3</v>
@@ -11967,10 +12010,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="25" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="C109" s="20" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="8">
@@ -11992,13 +12035,13 @@
         <v>37</v>
       </c>
       <c r="K109" s="6" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="L109" s="8">
         <v>1</v>
       </c>
       <c r="M109" s="10" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="N109" s="8">
         <v>3</v>
@@ -12025,10 +12068,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="C110" s="20" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="10">
@@ -12050,7 +12093,7 @@
         <v>37</v>
       </c>
       <c r="K110" s="6" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="L110" s="10">
         <v>2</v>
@@ -12086,7 +12129,7 @@
         <v>315</v>
       </c>
       <c r="C111" s="20" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="8">
@@ -12141,10 +12184,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="C112" s="20" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="D112" s="11"/>
       <c r="E112" s="10">
@@ -12199,10 +12242,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="C113" s="20" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="8">
@@ -12257,10 +12300,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="25" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="C114" s="20" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="D114" s="11"/>
       <c r="E114" s="10">
@@ -12282,13 +12325,13 @@
         <v>37</v>
       </c>
       <c r="K114" s="6" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="L114" s="10">
         <v>1</v>
       </c>
       <c r="M114" s="10" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="N114" s="10">
         <v>1</v>
@@ -12315,10 +12358,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="C115" s="20" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="D115" s="11"/>
       <c r="E115" s="10">
@@ -12340,7 +12383,7 @@
         <v>37</v>
       </c>
       <c r="K115" s="6" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="L115" s="10">
         <v>2</v>
@@ -12373,10 +12416,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="C116" s="20" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="10">
@@ -12398,7 +12441,7 @@
         <v>37</v>
       </c>
       <c r="K116" s="6" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="L116" s="10">
         <v>2</v>
@@ -12431,10 +12474,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="C117" s="20" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="D117" s="11"/>
       <c r="E117" s="10">
@@ -12456,7 +12499,7 @@
         <v>37</v>
       </c>
       <c r="K117" s="6" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="L117" s="10">
         <v>2</v>
@@ -12489,10 +12532,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="26" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="C118" s="26" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="10">
@@ -12514,7 +12557,7 @@
         <v>37</v>
       </c>
       <c r="K118" s="6" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="L118" s="10">
         <v>2</v>
@@ -12544,6 +12587,11 @@
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AB118" etc:filterBottomFollowUsedRange="0">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="101"/>
+      </filters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="G$1:G$1048576">

--- a/excels/config/game/hero/talent_tree/talent_tree_config.xlsx
+++ b/excels/config/game/hero/talent_tree/talent_tree_config.xlsx
@@ -618,13 +618,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>连续射击命中被减速的敌人时，有12%概率发生冰爆，对范围300码敌人造成攻击力%base_value%%%的</t>
+      <t>连续射击命中被减速的敌人时，有%chance%%%概率发生冰爆，对范围%radius%码敌人造成攻击力%base_value%%%的</t>
     </r>
     <r>
       <rPr>
@@ -5024,36 +5018,36 @@
     </dxf>
   </dxfs>
   <tableStyles count="9" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{F13D7159-9DC2-4DF2-9E87-F1E722D8CD52}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{A84095E0-0568-4AEB-8744-C049BA580625}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{D9883479-7CBD-4A32-83CE-E46B964310F4}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{75BE3FC2-E19D-4F0C-B3C5-6D1E3358D80A}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{42581DB2-1660-4E5A-AEA8-00307773D0CB}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{661F6071-E733-4785-8866-9D5156A06863}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{5B98F44F-ECAC-4319-8E10-05D252C33DB1}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{7044E162-8F33-42B4-9F40-292884B37790}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{1AE1C095-9501-4E12-AE60-2FBE686BF3AC}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{B64E9BAC-7091-4326-99E8-B4324D73A4ED}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{ECF353DC-4A02-493F-938D-75891DFED711}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{1D10A849-0D4C-4A38-B077-1490E60912A6}">
       <tableStyleElement type="wholeTable" dxfId="28"/>
       <tableStyleElement type="headerRow" dxfId="27"/>
       <tableStyleElement type="totalRow" dxfId="26"/>
@@ -5065,7 +5059,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="20"/>
       <tableStyleElement type="lastTotalCell" dxfId="19"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{59E5546A-02E6-4651-9C75-6DE44E6705BF}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{27513CED-5E2F-44D7-82B8-7B305F75A7F8}">
       <tableStyleElement type="wholeTable" dxfId="40"/>
       <tableStyleElement type="headerRow" dxfId="39"/>
       <tableStyleElement type="totalRow" dxfId="38"/>
@@ -5079,7 +5073,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="30"/>
       <tableStyleElement type="lastTotalCell" dxfId="29"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{A142C757-1BA6-43BC-9444-F78E85DB1113}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{2BB108D7-705E-4EDC-8DE5-6C8F1C09DD8D}">
       <tableStyleElement type="wholeTable" dxfId="47"/>
       <tableStyleElement type="headerRow" dxfId="46"/>
       <tableStyleElement type="totalRow" dxfId="45"/>
@@ -5088,7 +5082,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="42"/>
       <tableStyleElement type="firstColumnStripe" dxfId="41"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{3B1CCFB7-3576-4DAB-9E3D-778F9233B340}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{A70C6FA5-B97F-4BE5-B899-6A211E001C12}">
       <tableStyleElement type="wholeTable" dxfId="52"/>
       <tableStyleElement type="headerRow" dxfId="51"/>
       <tableStyleElement type="totalRow" dxfId="50"/>
@@ -5396,13 +5390,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:AB118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="L1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="P1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="M60" sqref="M60"/>
+      <selection pane="topRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5521,7 +5515,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="18.5" hidden="1" customHeight="1" spans="1:28">
+    <row r="2" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:28">
       <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
@@ -5607,7 +5601,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" ht="51.5" hidden="1" customHeight="1" spans="1:28">
+    <row r="3" ht="51.5" customHeight="1" spans="1:28">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -5669,7 +5663,7 @@
       <c r="AA3" s="8"/>
       <c r="AB3" s="8"/>
     </row>
-    <row r="4" ht="51.5" hidden="1" customHeight="1" spans="1:28">
+    <row r="4" ht="51.5" customHeight="1" spans="1:28">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -5731,7 +5725,7 @@
       <c r="AA4" s="10"/>
       <c r="AB4" s="10"/>
     </row>
-    <row r="5" ht="35" hidden="1" customHeight="1" spans="1:28">
+    <row r="5" ht="35" customHeight="1" spans="1:28">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -5793,7 +5787,7 @@
       <c r="AA5" s="8"/>
       <c r="AB5" s="8"/>
     </row>
-    <row r="6" ht="35" hidden="1" customHeight="1" spans="1:28">
+    <row r="6" ht="35" customHeight="1" spans="1:28">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -5855,7 +5849,7 @@
       <c r="AA6" s="10"/>
       <c r="AB6" s="10"/>
     </row>
-    <row r="7" ht="51.5" hidden="1" customHeight="1" spans="1:28">
+    <row r="7" ht="51.5" customHeight="1" spans="1:28">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -5915,7 +5909,7 @@
       <c r="AA7" s="8"/>
       <c r="AB7" s="8"/>
     </row>
-    <row r="8" ht="35" hidden="1" customHeight="1" spans="1:28">
+    <row r="8" ht="35" customHeight="1" spans="1:28">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -5975,7 +5969,7 @@
       <c r="AA8" s="10"/>
       <c r="AB8" s="10"/>
     </row>
-    <row r="9" ht="18.5" hidden="1" customHeight="1" spans="1:28">
+    <row r="9" ht="18.5" customHeight="1" spans="1:28">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -6035,7 +6029,7 @@
       <c r="AA9" s="8"/>
       <c r="AB9" s="8"/>
     </row>
-    <row r="10" ht="35" hidden="1" customHeight="1" spans="1:28">
+    <row r="10" ht="35" customHeight="1" spans="1:28">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -6095,7 +6089,7 @@
       <c r="AA10" s="10"/>
       <c r="AB10" s="10"/>
     </row>
-    <row r="11" ht="35" hidden="1" customHeight="1" spans="1:28">
+    <row r="11" ht="35" customHeight="1" spans="1:28">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -6155,7 +6149,7 @@
       <c r="AA11" s="8"/>
       <c r="AB11" s="8"/>
     </row>
-    <row r="12" ht="35" hidden="1" customHeight="1" spans="1:28">
+    <row r="12" ht="35" customHeight="1" spans="1:28">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -6217,7 +6211,7 @@
       <c r="AA12" s="10"/>
       <c r="AB12" s="10"/>
     </row>
-    <row r="13" ht="18.5" hidden="1" customHeight="1" spans="1:28">
+    <row r="13" ht="18.5" customHeight="1" spans="1:28">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -6277,7 +6271,7 @@
       <c r="AA13" s="8"/>
       <c r="AB13" s="8"/>
     </row>
-    <row r="14" ht="51.5" hidden="1" customHeight="1" spans="1:28">
+    <row r="14" ht="51.5" customHeight="1" spans="1:28">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -6341,7 +6335,7 @@
       <c r="AA14" s="10"/>
       <c r="AB14" s="10"/>
     </row>
-    <row r="15" ht="35" hidden="1" customHeight="1" spans="1:28">
+    <row r="15" ht="35" customHeight="1" spans="1:28">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -6401,7 +6395,7 @@
       <c r="AA15" s="8"/>
       <c r="AB15" s="8"/>
     </row>
-    <row r="16" ht="35" hidden="1" customHeight="1" spans="1:28">
+    <row r="16" ht="35" customHeight="1" spans="1:28">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -6461,7 +6455,7 @@
       <c r="AA16" s="10"/>
       <c r="AB16" s="10"/>
     </row>
-    <row r="17" ht="18.5" hidden="1" customHeight="1" spans="1:28">
+    <row r="17" ht="18.5" customHeight="1" spans="1:28">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -6525,7 +6519,7 @@
       <c r="AA17" s="8"/>
       <c r="AB17" s="8"/>
     </row>
-    <row r="18" ht="51.5" hidden="1" customHeight="1" spans="1:28">
+    <row r="18" ht="51.5" customHeight="1" spans="1:28">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -6589,7 +6583,7 @@
       <c r="AA18" s="10"/>
       <c r="AB18" s="10"/>
     </row>
-    <row r="19" ht="35" hidden="1" customHeight="1" spans="1:28">
+    <row r="19" ht="35" customHeight="1" spans="1:28">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -6651,7 +6645,7 @@
       <c r="AA19" s="8"/>
       <c r="AB19" s="8"/>
     </row>
-    <row r="20" ht="35" hidden="1" customHeight="1" spans="1:28">
+    <row r="20" ht="35" customHeight="1" spans="1:28">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -6711,7 +6705,7 @@
       <c r="AA20" s="10"/>
       <c r="AB20" s="10"/>
     </row>
-    <row r="21" ht="18.5" hidden="1" customHeight="1" spans="1:28">
+    <row r="21" ht="18.5" customHeight="1" spans="1:28">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -6771,7 +6765,7 @@
       <c r="AA21" s="8"/>
       <c r="AB21" s="8"/>
     </row>
-    <row r="22" ht="35" hidden="1" customHeight="1" spans="1:28">
+    <row r="22" ht="35" customHeight="1" spans="1:28">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -6833,7 +6827,7 @@
       <c r="AA22" s="10"/>
       <c r="AB22" s="10"/>
     </row>
-    <row r="23" ht="35" hidden="1" customHeight="1" spans="1:28">
+    <row r="23" ht="35" customHeight="1" spans="1:28">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -6893,7 +6887,7 @@
       <c r="AA23" s="8"/>
       <c r="AB23" s="8"/>
     </row>
-    <row r="24" ht="51.5" hidden="1" customHeight="1" spans="1:28">
+    <row r="24" ht="51.5" customHeight="1" spans="1:28">
       <c r="A24" s="10">
         <v>23</v>
       </c>
@@ -6955,7 +6949,7 @@
       <c r="AA24" s="10"/>
       <c r="AB24" s="10"/>
     </row>
-    <row r="25" ht="35" hidden="1" customHeight="1" spans="1:28">
+    <row r="25" ht="35" customHeight="1" spans="1:28">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -7015,7 +7009,7 @@
       <c r="AA25" s="8"/>
       <c r="AB25" s="8"/>
     </row>
-    <row r="26" ht="51.5" hidden="1" customHeight="1" spans="1:28">
+    <row r="26" ht="51.5" customHeight="1" spans="1:28">
       <c r="A26" s="10">
         <v>25</v>
       </c>
@@ -7075,7 +7069,7 @@
       <c r="AA26" s="10"/>
       <c r="AB26" s="10"/>
     </row>
-    <row r="27" ht="35" hidden="1" customHeight="1" spans="1:28">
+    <row r="27" ht="35" customHeight="1" spans="1:28">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -7137,7 +7131,7 @@
       <c r="AA27" s="8"/>
       <c r="AB27" s="8"/>
     </row>
-    <row r="28" ht="51.5" hidden="1" customHeight="1" spans="1:28">
+    <row r="28" ht="51.5" customHeight="1" spans="1:28">
       <c r="A28" s="10">
         <v>27</v>
       </c>
@@ -7197,7 +7191,7 @@
       <c r="AA28" s="10"/>
       <c r="AB28" s="10"/>
     </row>
-    <row r="29" ht="51.5" hidden="1" customHeight="1" spans="1:28">
+    <row r="29" ht="51.5" customHeight="1" spans="1:28">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -7257,7 +7251,7 @@
       <c r="AA29" s="8"/>
       <c r="AB29" s="8"/>
     </row>
-    <row r="30" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:28">
+    <row r="30" customFormat="1" ht="51.5" customHeight="1" spans="1:28">
       <c r="A30" s="10">
         <v>29</v>
       </c>
@@ -7321,7 +7315,7 @@
       <c r="AA30" s="10"/>
       <c r="AB30" s="10"/>
     </row>
-    <row r="31" customFormat="1" ht="18.5" hidden="1" customHeight="1" spans="1:28">
+    <row r="31" customFormat="1" ht="18.5" customHeight="1" spans="1:28">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -7381,7 +7375,7 @@
       <c r="AA31" s="8"/>
       <c r="AB31" s="8"/>
     </row>
-    <row r="32" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:28">
+    <row r="32" customFormat="1" ht="51.5" customHeight="1" spans="1:28">
       <c r="A32" s="10">
         <v>31</v>
       </c>
@@ -7445,7 +7439,7 @@
       <c r="AA32" s="10"/>
       <c r="AB32" s="10"/>
     </row>
-    <row r="33" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
+    <row r="33" customFormat="1" ht="35" customHeight="1" spans="1:28">
       <c r="A33" s="8">
         <v>32</v>
       </c>
@@ -7505,7 +7499,7 @@
       <c r="AA33" s="8"/>
       <c r="AB33" s="8"/>
     </row>
-    <row r="34" customFormat="1" ht="84.5" hidden="1" customHeight="1" spans="1:28">
+    <row r="34" customFormat="1" ht="84.5" customHeight="1" spans="1:28">
       <c r="A34" s="10">
         <v>33</v>
       </c>
@@ -7569,7 +7563,7 @@
       <c r="AA34" s="10"/>
       <c r="AB34" s="10"/>
     </row>
-    <row r="35" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:28">
+    <row r="35" customFormat="1" ht="51.5" customHeight="1" spans="1:28">
       <c r="A35" s="8">
         <v>34</v>
       </c>
@@ -7633,7 +7627,7 @@
       <c r="AA35" s="8"/>
       <c r="AB35" s="8"/>
     </row>
-    <row r="36" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:28">
+    <row r="36" customFormat="1" ht="51.5" customHeight="1" spans="1:28">
       <c r="A36" s="10">
         <v>35</v>
       </c>
@@ -7699,7 +7693,7 @@
       <c r="AA36" s="10"/>
       <c r="AB36" s="10"/>
     </row>
-    <row r="37" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
+    <row r="37" customFormat="1" ht="35" customHeight="1" spans="1:28">
       <c r="A37" s="8">
         <v>36</v>
       </c>
@@ -7759,7 +7753,7 @@
       <c r="AA37" s="8"/>
       <c r="AB37" s="8"/>
     </row>
-    <row r="38" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
+    <row r="38" customFormat="1" ht="35" customHeight="1" spans="1:28">
       <c r="A38" s="10">
         <v>37</v>
       </c>
@@ -7821,7 +7815,7 @@
       <c r="AA38" s="10"/>
       <c r="AB38" s="10"/>
     </row>
-    <row r="39" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
+    <row r="39" customFormat="1" ht="35" customHeight="1" spans="1:28">
       <c r="A39" s="8">
         <v>38</v>
       </c>
@@ -7881,7 +7875,7 @@
       <c r="AA39" s="8"/>
       <c r="AB39" s="8"/>
     </row>
-    <row r="40" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:28">
+    <row r="40" customFormat="1" ht="51.5" customHeight="1" spans="1:28">
       <c r="A40" s="10">
         <v>39</v>
       </c>
@@ -7945,7 +7939,7 @@
       <c r="AA40" s="10"/>
       <c r="AB40" s="10"/>
     </row>
-    <row r="41" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:28">
+    <row r="41" customFormat="1" ht="51.5" customHeight="1" spans="1:28">
       <c r="A41" s="8">
         <v>40</v>
       </c>
@@ -8005,7 +7999,7 @@
       <c r="AA41" s="8"/>
       <c r="AB41" s="8"/>
     </row>
-    <row r="42" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
+    <row r="42" customFormat="1" ht="35" customHeight="1" spans="1:28">
       <c r="A42" s="10">
         <v>41</v>
       </c>
@@ -8065,7 +8059,7 @@
       <c r="AA42" s="10"/>
       <c r="AB42" s="10"/>
     </row>
-    <row r="43" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
+    <row r="43" customFormat="1" ht="35" customHeight="1" spans="1:28">
       <c r="A43" s="8">
         <v>42</v>
       </c>
@@ -8125,7 +8119,7 @@
       <c r="AA43" s="8"/>
       <c r="AB43" s="8"/>
     </row>
-    <row r="44" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
+    <row r="44" customFormat="1" ht="35" customHeight="1" spans="1:28">
       <c r="A44" s="10">
         <v>43</v>
       </c>
@@ -8187,7 +8181,7 @@
       <c r="AA44" s="10"/>
       <c r="AB44" s="10"/>
     </row>
-    <row r="45" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
+    <row r="45" customFormat="1" ht="35" customHeight="1" spans="1:28">
       <c r="A45" s="8">
         <v>44</v>
       </c>
@@ -8249,7 +8243,7 @@
       <c r="AA45" s="8"/>
       <c r="AB45" s="8"/>
     </row>
-    <row r="46" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
+    <row r="46" customFormat="1" ht="35" customHeight="1" spans="1:28">
       <c r="A46" s="10">
         <v>45</v>
       </c>
@@ -8311,7 +8305,7 @@
       <c r="AA46" s="10"/>
       <c r="AB46" s="10"/>
     </row>
-    <row r="47" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
+    <row r="47" customFormat="1" ht="35" customHeight="1" spans="1:28">
       <c r="A47" s="8">
         <v>46</v>
       </c>
@@ -8373,7 +8367,7 @@
       <c r="AA47" s="8"/>
       <c r="AB47" s="8"/>
     </row>
-    <row r="48" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
+    <row r="48" customFormat="1" ht="35" customHeight="1" spans="1:28">
       <c r="A48" s="10">
         <v>47</v>
       </c>
@@ -8433,7 +8427,7 @@
       <c r="AA48" s="10"/>
       <c r="AB48" s="10"/>
     </row>
-    <row r="49" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
+    <row r="49" customFormat="1" ht="35" customHeight="1" spans="1:28">
       <c r="A49" s="8">
         <v>48</v>
       </c>
@@ -8497,7 +8491,7 @@
       <c r="AA49" s="8"/>
       <c r="AB49" s="8"/>
     </row>
-    <row r="50" customFormat="1" ht="18.5" hidden="1" customHeight="1" spans="1:28">
+    <row r="50" customFormat="1" ht="18.5" customHeight="1" spans="1:28">
       <c r="A50" s="10">
         <v>49</v>
       </c>
@@ -8557,7 +8551,7 @@
       <c r="AA50" s="10"/>
       <c r="AB50" s="10"/>
     </row>
-    <row r="51" customFormat="1" ht="18.5" hidden="1" customHeight="1" spans="1:28">
+    <row r="51" customFormat="1" ht="18.5" customHeight="1" spans="1:28">
       <c r="A51" s="8">
         <v>50</v>
       </c>
@@ -8615,7 +8609,7 @@
       <c r="AA51" s="8"/>
       <c r="AB51" s="8"/>
     </row>
-    <row r="52" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:28">
+    <row r="52" customFormat="1" ht="51.5" customHeight="1" spans="1:28">
       <c r="A52" s="10">
         <v>51</v>
       </c>
@@ -8677,7 +8671,7 @@
       <c r="AA52" s="10"/>
       <c r="AB52" s="10"/>
     </row>
-    <row r="53" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:28">
+    <row r="53" customFormat="1" ht="51.5" customHeight="1" spans="1:28">
       <c r="A53" s="8">
         <v>52</v>
       </c>
@@ -8737,7 +8731,7 @@
       <c r="AA53" s="8"/>
       <c r="AB53" s="8"/>
     </row>
-    <row r="54" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
+    <row r="54" customFormat="1" ht="35" customHeight="1" spans="1:28">
       <c r="A54" s="10">
         <v>53</v>
       </c>
@@ -8801,7 +8795,7 @@
       <c r="AA54" s="10"/>
       <c r="AB54" s="10"/>
     </row>
-    <row r="55" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
+    <row r="55" customFormat="1" ht="35" customHeight="1" spans="1:28">
       <c r="A55" s="8">
         <v>54</v>
       </c>
@@ -8863,7 +8857,7 @@
       <c r="AA55" s="8"/>
       <c r="AB55" s="8"/>
     </row>
-    <row r="56" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
+    <row r="56" customFormat="1" ht="35" customHeight="1" spans="1:28">
       <c r="A56" s="10">
         <v>55</v>
       </c>
@@ -8923,7 +8917,7 @@
       <c r="AA56" s="10"/>
       <c r="AB56" s="10"/>
     </row>
-    <row r="57" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
+    <row r="57" customFormat="1" ht="35" customHeight="1" spans="1:28">
       <c r="A57" s="8">
         <v>56</v>
       </c>
@@ -8985,7 +8979,7 @@
       <c r="AA57" s="8"/>
       <c r="AB57" s="8"/>
     </row>
-    <row r="58" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:28">
+    <row r="58" customFormat="1" ht="51.5" customHeight="1" spans="1:28">
       <c r="A58" s="12">
         <v>57</v>
       </c>
@@ -12587,11 +12581,6 @@
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AB118" etc:filterBottomFollowUsedRange="0">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="101"/>
-      </filters>
-    </filterColumn>
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="G$1:G$1048576">

--- a/excels/config/game/hero/talent_tree/talent_tree_config.xlsx
+++ b/excels/config/game/hero/talent_tree/talent_tree_config.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="548">
   <si>
     <t>下标</t>
   </si>
@@ -74,6 +74,9 @@
     <t>天赋图标</t>
   </si>
   <si>
+    <t>kv1</t>
+  </si>
+  <si>
     <t>结束</t>
   </si>
   <si>
@@ -618,6 +621,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>连续射击命中被减速的敌人时，有%chance%%%概率发生冰爆，对范围%radius%码敌人造成攻击力%base_value%%%的</t>
     </r>
     <r>
@@ -2025,48 +2034,28 @@
     <t>73|0</t>
   </si>
   <si>
+    <t>base_bonus 30 40 50</t>
+  </si>
+  <si>
     <t>零度</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>冰块数量增加至2/3枚</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>冰块数量增加1/2枚。
-——2024.9.18修改——</t>
-    </r>
+    <t>冰块数量增加1/2枚。</t>
   </si>
   <si>
     <t>74|0</t>
   </si>
   <si>
+    <t>count 1 2</t>
+  </si>
+  <si>
     <t>永冻</t>
   </si>
   <si>
     <t>触碰到冰块的敌人强制冻结1秒。</t>
+  </si>
+  <si>
+    <t>frozen_duration 1</t>
   </si>
   <si>
     <t>雷电屏障</t>
@@ -2144,6 +2133,15 @@
     <t>77|0</t>
   </si>
   <si>
+    <t>bonus_base 40 70 100</t>
+  </si>
+  <si>
+    <t>ring_distance 700</t>
+  </si>
+  <si>
+    <t>ring_duration 8</t>
+  </si>
+  <si>
     <t>磁暴</t>
   </si>
   <si>
@@ -2170,10 +2168,19 @@
     <t>78|0</t>
   </si>
   <si>
+    <t>stack_bonus_dmg 5 10</t>
+  </si>
+  <si>
     <t>控雷</t>
   </si>
   <si>
     <t>每8/6秒再内圈450码位置再生成一个相同电圈，持续5秒。</t>
+  </si>
+  <si>
+    <t>interval 8 6</t>
+  </si>
+  <si>
+    <t>ring_distance 450</t>
   </si>
   <si>
     <t>极寒冰圈</t>
@@ -2209,10 +2216,19 @@
     <t>80|0</t>
   </si>
   <si>
+    <t>bonus_base 30 50 70</t>
+  </si>
+  <si>
+    <t>ring_distance 550</t>
+  </si>
+  <si>
     <t>冰元素技能减速效果增加 20%/47%</t>
   </si>
   <si>
     <t>81|0</t>
+  </si>
+  <si>
+    <t>value 20 47</t>
   </si>
   <si>
     <t>冷气</t>
@@ -2225,7 +2241,13 @@
     <t>攻击力提高4%/8%/12%/16%/20%</t>
   </si>
   <si>
+    <t>value 4 8 12 16 20</t>
+  </si>
+  <si>
     <t>移动速度提高5%/7.5%/10%/12.5%/15%</t>
+  </si>
+  <si>
+    <t>value 5 7.5 10 12.5 15</t>
   </si>
   <si>
     <t>生命值提高4%/8%/12%/16%/20%</t>
@@ -2893,7 +2915,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2917,13 +2939,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -3080,12 +3095,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF00B0F0"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="10"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -3586,13 +3595,16 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3601,122 +3613,119 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3786,9 +3795,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3798,7 +3804,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5018,36 +5024,36 @@
     </dxf>
   </dxfs>
   <tableStyles count="9" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{A84095E0-0568-4AEB-8744-C049BA580625}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{CD49649A-9212-4EA9-99BB-20AC438F01DB}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{75BE3FC2-E19D-4F0C-B3C5-6D1E3358D80A}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{A8CB5307-9B73-469E-B443-5751B7B099FA}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{661F6071-E733-4785-8866-9D5156A06863}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{D2B1830A-4807-4C60-B625-88766839A545}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{7044E162-8F33-42B4-9F40-292884B37790}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{829D3D90-8BC3-463B-BFAB-F07A34320250}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{B64E9BAC-7091-4326-99E8-B4324D73A4ED}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{C5B69821-1785-4A5A-9903-3C068680B72C}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{1D10A849-0D4C-4A38-B077-1490E60912A6}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{91108CB8-D5CE-4DAC-B776-605A58784756}">
       <tableStyleElement type="wholeTable" dxfId="28"/>
       <tableStyleElement type="headerRow" dxfId="27"/>
       <tableStyleElement type="totalRow" dxfId="26"/>
@@ -5059,7 +5065,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="20"/>
       <tableStyleElement type="lastTotalCell" dxfId="19"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{27513CED-5E2F-44D7-82B8-7B305F75A7F8}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{B95507CF-794C-4A50-AF9A-14E5DE2E084F}">
       <tableStyleElement type="wholeTable" dxfId="40"/>
       <tableStyleElement type="headerRow" dxfId="39"/>
       <tableStyleElement type="totalRow" dxfId="38"/>
@@ -5073,7 +5079,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="30"/>
       <tableStyleElement type="lastTotalCell" dxfId="29"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{2BB108D7-705E-4EDC-8DE5-6C8F1C09DD8D}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{78324376-B591-4812-8660-E70251C4F2B8}">
       <tableStyleElement type="wholeTable" dxfId="47"/>
       <tableStyleElement type="headerRow" dxfId="46"/>
       <tableStyleElement type="totalRow" dxfId="45"/>
@@ -5082,7 +5088,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="42"/>
       <tableStyleElement type="firstColumnStripe" dxfId="41"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{A70C6FA5-B97F-4BE5-B899-6A211E001C12}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{1169CA94-C385-42D5-B586-E02A995E08ED}">
       <tableStyleElement type="wholeTable" dxfId="52"/>
       <tableStyleElement type="headerRow" dxfId="51"/>
       <tableStyleElement type="totalRow" dxfId="50"/>
@@ -5390,13 +5396,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AB118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="P1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="O1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C18" sqref="C18"/>
+      <selection pane="topRight" activeCell="R77" sqref="R77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5478,8 +5484,8 @@
       <c r="P1" s="5">
         <v>0</v>
       </c>
-      <c r="Q1" s="5">
-        <v>1</v>
+      <c r="Q1" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="R1" s="5">
         <v>2</v>
@@ -5497,10 +5503,10 @@
         <v>6</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y1" s="5">
         <v>1</v>
@@ -5512,57 +5518,57 @@
         <v>3</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:28">
+    <row r="2" s="1" customFormat="1" ht="18.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A2" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q2" s="6">
         <v>1</v>
@@ -5583,10 +5589,10 @@
         <v>6</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Y2" s="7">
         <v>1</v>
@@ -5598,18 +5604,18 @@
         <v>3</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="3" ht="51.5" customHeight="1" spans="1:28">
+    <row r="3" ht="51.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A3" s="8">
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="8">
@@ -5628,29 +5634,29 @@
         <v>0</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L3" s="8">
         <v>1</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N3" s="8">
         <v>1</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P3" s="8"/>
       <c r="Q3" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S3" s="8"/>
       <c r="T3" s="8"/>
@@ -5663,15 +5669,15 @@
       <c r="AA3" s="8"/>
       <c r="AB3" s="8"/>
     </row>
-    <row r="4" ht="51.5" customHeight="1" spans="1:28">
+    <row r="4" ht="51.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A4" s="10">
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="10">
@@ -5690,29 +5696,29 @@
         <v>1</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L4" s="10">
         <v>2</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N4" s="10">
         <v>3</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P4" s="10"/>
       <c r="Q4" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R4" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S4" s="10"/>
       <c r="T4" s="10"/>
@@ -5725,15 +5731,15 @@
       <c r="AA4" s="10"/>
       <c r="AB4" s="10"/>
     </row>
-    <row r="5" ht="35" customHeight="1" spans="1:28">
+    <row r="5" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A5" s="8">
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="8">
@@ -5752,29 +5758,29 @@
         <v>0</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L5" s="8">
         <v>3</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N5" s="8">
         <v>2</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P5" s="8"/>
       <c r="Q5" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
@@ -5787,15 +5793,15 @@
       <c r="AA5" s="8"/>
       <c r="AB5" s="8"/>
     </row>
-    <row r="6" ht="35" customHeight="1" spans="1:28">
+    <row r="6" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A6" s="10">
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="10">
@@ -5814,29 +5820,29 @@
         <v>0</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L6" s="10">
         <v>3</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N6" s="10">
         <v>2</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P6" s="10"/>
       <c r="Q6" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R6" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S6" s="10"/>
       <c r="T6" s="10"/>
@@ -5849,15 +5855,15 @@
       <c r="AA6" s="10"/>
       <c r="AB6" s="10"/>
     </row>
-    <row r="7" ht="51.5" customHeight="1" spans="1:28">
+    <row r="7" ht="51.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A7" s="8">
         <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="8">
@@ -5876,26 +5882,26 @@
         <v>4</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L7" s="8">
         <v>2</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N7" s="8">
         <v>3</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
@@ -5909,15 +5915,15 @@
       <c r="AA7" s="8"/>
       <c r="AB7" s="8"/>
     </row>
-    <row r="8" ht="35" customHeight="1" spans="1:28">
+    <row r="8" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A8" s="10">
         <v>6</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="10">
@@ -5936,26 +5942,26 @@
         <v>0</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L8" s="10">
         <v>3</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N8" s="10">
         <v>2</v>
       </c>
       <c r="O8" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P8" s="10"/>
       <c r="Q8" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
@@ -5969,15 +5975,15 @@
       <c r="AA8" s="10"/>
       <c r="AB8" s="10"/>
     </row>
-    <row r="9" ht="18.5" customHeight="1" spans="1:28">
+    <row r="9" ht="18.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="8">
@@ -5996,26 +6002,26 @@
         <v>0</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L9" s="8">
         <v>2</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N9" s="8">
         <v>3</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P9" s="8"/>
       <c r="Q9" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
@@ -6029,15 +6035,15 @@
       <c r="AA9" s="8"/>
       <c r="AB9" s="8"/>
     </row>
-    <row r="10" ht="35" customHeight="1" spans="1:28">
+    <row r="10" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A10" s="10">
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="10">
@@ -6056,26 +6062,26 @@
         <v>2</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L10" s="10">
         <v>3</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N10" s="10">
         <v>2</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P10" s="10"/>
       <c r="Q10" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R10" s="10"/>
       <c r="S10" s="10"/>
@@ -6089,15 +6095,15 @@
       <c r="AA10" s="10"/>
       <c r="AB10" s="10"/>
     </row>
-    <row r="11" ht="35" customHeight="1" spans="1:28">
+    <row r="11" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A11" s="8">
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="8">
@@ -6116,26 +6122,26 @@
         <v>0</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L11" s="8">
         <v>3</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N11" s="8">
         <v>2</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P11" s="8"/>
       <c r="Q11" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
@@ -6149,15 +6155,15 @@
       <c r="AA11" s="8"/>
       <c r="AB11" s="8"/>
     </row>
-    <row r="12" ht="35" customHeight="1" spans="1:28">
+    <row r="12" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A12" s="10">
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="10">
@@ -6176,29 +6182,29 @@
         <v>0</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L12" s="10">
         <v>1</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N12" s="10">
         <v>5</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P12" s="10"/>
       <c r="Q12" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="R12" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
@@ -6211,15 +6217,15 @@
       <c r="AA12" s="10"/>
       <c r="AB12" s="10"/>
     </row>
-    <row r="13" ht="18.5" customHeight="1" spans="1:28">
+    <row r="13" ht="18.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A13" s="8">
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="8">
@@ -6238,26 +6244,26 @@
         <v>0</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L13" s="8">
         <v>2</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N13" s="8">
         <v>3</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P13" s="8"/>
       <c r="Q13" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
@@ -6271,15 +6277,15 @@
       <c r="AA13" s="8"/>
       <c r="AB13" s="8"/>
     </row>
-    <row r="14" ht="51.5" customHeight="1" spans="1:28">
+    <row r="14" ht="51.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A14" s="10">
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="10">
@@ -6298,32 +6304,32 @@
         <v>0</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L14" s="10">
         <v>3</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N14" s="10">
         <v>3</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P14" s="10"/>
       <c r="Q14" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="R14" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="S14" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="T14" s="10"/>
       <c r="U14" s="10"/>
@@ -6335,15 +6341,15 @@
       <c r="AA14" s="10"/>
       <c r="AB14" s="10"/>
     </row>
-    <row r="15" ht="35" customHeight="1" spans="1:28">
+    <row r="15" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A15" s="8">
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="8">
@@ -6362,26 +6368,26 @@
         <v>4</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L15" s="8">
         <v>4</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N15" s="8">
         <v>2</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P15" s="8"/>
       <c r="Q15" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
@@ -6395,15 +6401,15 @@
       <c r="AA15" s="8"/>
       <c r="AB15" s="8"/>
     </row>
-    <row r="16" ht="35" customHeight="1" spans="1:28">
+    <row r="16" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A16" s="10">
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="10">
@@ -6422,26 +6428,26 @@
         <v>0</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L16" s="10">
         <v>2</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N16" s="10">
         <v>3</v>
       </c>
       <c r="O16" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P16" s="10"/>
       <c r="Q16" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="R16" s="10"/>
       <c r="S16" s="10"/>
@@ -6455,18 +6461,18 @@
       <c r="AA16" s="10"/>
       <c r="AB16" s="10"/>
     </row>
-    <row r="17" ht="18.5" customHeight="1" spans="1:28">
+    <row r="17" ht="18.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A17" s="8">
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E17" s="8">
         <v>6</v>
@@ -6484,29 +6490,29 @@
         <v>2</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L17" s="8">
         <v>3</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N17" s="8">
         <v>2</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P17" s="8"/>
       <c r="Q17" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="R17" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="S17" s="8"/>
       <c r="T17" s="8"/>
@@ -6519,15 +6525,15 @@
       <c r="AA17" s="8"/>
       <c r="AB17" s="8"/>
     </row>
-    <row r="18" ht="51.5" customHeight="1" spans="1:28">
+    <row r="18" ht="51.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A18" s="10">
         <v>17</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="10">
@@ -6546,32 +6552,32 @@
         <v>0</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L18" s="10">
         <v>4</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N18" s="10">
         <v>3</v>
       </c>
       <c r="O18" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P18" s="10"/>
       <c r="Q18" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="R18" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="S18" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="T18" s="10"/>
       <c r="U18" s="10"/>
@@ -6583,15 +6589,15 @@
       <c r="AA18" s="10"/>
       <c r="AB18" s="10"/>
     </row>
-    <row r="19" ht="35" customHeight="1" spans="1:28">
+    <row r="19" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A19" s="8">
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="8">
@@ -6610,29 +6616,29 @@
         <v>0</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L19" s="8">
         <v>1</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N19" s="8">
         <v>5</v>
       </c>
       <c r="O19" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P19" s="8"/>
       <c r="Q19" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R19" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="S19" s="8"/>
       <c r="T19" s="8"/>
@@ -6645,15 +6651,15 @@
       <c r="AA19" s="8"/>
       <c r="AB19" s="8"/>
     </row>
-    <row r="20" ht="35" customHeight="1" spans="1:28">
+    <row r="20" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A20" s="10">
         <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="10">
@@ -6672,26 +6678,26 @@
         <v>1</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L20" s="10">
         <v>2</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N20" s="10">
         <v>3</v>
       </c>
       <c r="O20" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P20" s="10"/>
       <c r="Q20" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="R20" s="10"/>
       <c r="S20" s="10"/>
@@ -6705,15 +6711,15 @@
       <c r="AA20" s="10"/>
       <c r="AB20" s="10"/>
     </row>
-    <row r="21" ht="18.5" customHeight="1" spans="1:28">
+    <row r="21" ht="18.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A21" s="8">
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="8">
@@ -6732,26 +6738,26 @@
         <v>0</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L21" s="8">
         <v>3</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N21" s="8">
         <v>2</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P21" s="8"/>
       <c r="Q21" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="R21" s="8"/>
       <c r="S21" s="8"/>
@@ -6765,15 +6771,15 @@
       <c r="AA21" s="8"/>
       <c r="AB21" s="8"/>
     </row>
-    <row r="22" ht="35" customHeight="1" spans="1:28">
+    <row r="22" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A22" s="10">
         <v>21</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="10">
@@ -6792,29 +6798,29 @@
         <v>0</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L22" s="10">
         <v>4</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N22" s="10">
         <v>3</v>
       </c>
       <c r="O22" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P22" s="10"/>
       <c r="Q22" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="R22" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="S22" s="10"/>
       <c r="T22" s="10"/>
@@ -6827,15 +6833,15 @@
       <c r="AA22" s="10"/>
       <c r="AB22" s="10"/>
     </row>
-    <row r="23" ht="35" customHeight="1" spans="1:28">
+    <row r="23" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A23" s="8">
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="8">
@@ -6854,26 +6860,26 @@
         <v>2</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L23" s="8">
         <v>2</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N23" s="8">
         <v>3</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P23" s="8"/>
       <c r="Q23" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="R23" s="8"/>
       <c r="S23" s="8"/>
@@ -6887,15 +6893,15 @@
       <c r="AA23" s="8"/>
       <c r="AB23" s="8"/>
     </row>
-    <row r="24" ht="51.5" customHeight="1" spans="1:28">
+    <row r="24" ht="51.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A24" s="10">
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="10">
@@ -6914,29 +6920,29 @@
         <v>0</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L24" s="10">
         <v>3</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N24" s="10">
         <v>2</v>
       </c>
       <c r="O24" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P24" s="10"/>
       <c r="Q24" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="R24" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="S24" s="10"/>
       <c r="T24" s="10"/>
@@ -6949,15 +6955,15 @@
       <c r="AA24" s="10"/>
       <c r="AB24" s="10"/>
     </row>
-    <row r="25" ht="35" customHeight="1" spans="1:28">
+    <row r="25" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A25" s="8">
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="8">
@@ -6976,26 +6982,26 @@
         <v>0</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L25" s="8">
         <v>4</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N25" s="8">
         <v>3</v>
       </c>
       <c r="O25" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P25" s="8"/>
       <c r="Q25" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="R25" s="8"/>
       <c r="S25" s="8"/>
@@ -7009,15 +7015,15 @@
       <c r="AA25" s="8"/>
       <c r="AB25" s="8"/>
     </row>
-    <row r="26" ht="51.5" customHeight="1" spans="1:28">
+    <row r="26" ht="51.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A26" s="10">
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="10">
@@ -7036,22 +7042,22 @@
         <v>0</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L26" s="10">
         <v>99</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N26" s="10">
         <v>5</v>
       </c>
       <c r="O26" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P26" s="10"/>
       <c r="Q26" s="10"/>
@@ -7063,21 +7069,21 @@
       <c r="W26" s="10"/>
       <c r="X26" s="10"/>
       <c r="Y26" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z26" s="10"/>
       <c r="AA26" s="10"/>
       <c r="AB26" s="10"/>
     </row>
-    <row r="27" ht="35" customHeight="1" spans="1:28">
+    <row r="27" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A27" s="8">
         <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="8">
@@ -7096,29 +7102,29 @@
         <v>0</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L27" s="8">
         <v>99</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N27" s="8">
         <v>5</v>
       </c>
       <c r="O27" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P27" s="8"/>
       <c r="Q27" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="R27" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="S27" s="8"/>
       <c r="T27" s="8"/>
@@ -7131,15 +7137,15 @@
       <c r="AA27" s="8"/>
       <c r="AB27" s="8"/>
     </row>
-    <row r="28" ht="51.5" customHeight="1" spans="1:28">
+    <row r="28" ht="51.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A28" s="10">
         <v>27</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="10">
@@ -7158,22 +7164,22 @@
         <v>0</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L28" s="10">
         <v>99</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N28" s="10">
         <v>5</v>
       </c>
       <c r="O28" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
@@ -7185,21 +7191,21 @@
       <c r="W28" s="10"/>
       <c r="X28" s="10"/>
       <c r="Y28" s="11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Z28" s="10"/>
       <c r="AA28" s="10"/>
       <c r="AB28" s="10"/>
     </row>
-    <row r="29" ht="51.5" customHeight="1" spans="1:28">
+    <row r="29" ht="51.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A29" s="8">
         <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="8">
@@ -7218,22 +7224,22 @@
         <v>0</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L29" s="8">
         <v>99</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N29" s="8">
         <v>5</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P29" s="8"/>
       <c r="Q29" s="8"/>
@@ -7245,21 +7251,21 @@
       <c r="W29" s="8"/>
       <c r="X29" s="8"/>
       <c r="Y29" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Z29" s="8"/>
       <c r="AA29" s="8"/>
       <c r="AB29" s="8"/>
     </row>
-    <row r="30" customFormat="1" ht="51.5" customHeight="1" spans="1:28">
+    <row r="30" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A30" s="10">
         <v>29</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="10">
@@ -7278,32 +7284,32 @@
         <v>0</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L30" s="10">
         <v>1</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N30" s="10">
         <v>5</v>
       </c>
       <c r="O30" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P30" s="10"/>
       <c r="Q30" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="R30" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="S30" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="T30" s="10"/>
       <c r="U30" s="10"/>
@@ -7315,15 +7321,15 @@
       <c r="AA30" s="10"/>
       <c r="AB30" s="10"/>
     </row>
-    <row r="31" customFormat="1" ht="18.5" customHeight="1" spans="1:28">
+    <row r="31" customFormat="1" ht="18.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A31" s="8">
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="8">
@@ -7342,26 +7348,26 @@
         <v>0</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L31" s="8">
         <v>2</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N31" s="8">
         <v>2</v>
       </c>
       <c r="O31" s="9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P31" s="8"/>
       <c r="Q31" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="R31" s="8"/>
       <c r="S31" s="8"/>
@@ -7375,15 +7381,15 @@
       <c r="AA31" s="8"/>
       <c r="AB31" s="8"/>
     </row>
-    <row r="32" customFormat="1" ht="51.5" customHeight="1" spans="1:28">
+    <row r="32" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A32" s="10">
         <v>31</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="10">
@@ -7402,29 +7408,29 @@
         <v>4</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L32" s="10">
         <v>3</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N32" s="10">
         <v>2</v>
       </c>
       <c r="O32" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P32" s="10"/>
       <c r="Q32" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="R32" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="S32" s="10"/>
       <c r="T32" s="10"/>
@@ -7433,21 +7439,21 @@
       <c r="W32" s="10"/>
       <c r="X32" s="10"/>
       <c r="Y32" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Z32" s="10"/>
       <c r="AA32" s="10"/>
       <c r="AB32" s="10"/>
     </row>
-    <row r="33" customFormat="1" ht="35" customHeight="1" spans="1:28">
+    <row r="33" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A33" s="8">
         <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="8">
@@ -7466,26 +7472,26 @@
         <v>2</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L33" s="8">
         <v>2</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N33" s="8">
         <v>2</v>
       </c>
       <c r="O33" s="9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P33" s="8"/>
       <c r="Q33" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="R33" s="8"/>
       <c r="S33" s="8"/>
@@ -7499,15 +7505,15 @@
       <c r="AA33" s="8"/>
       <c r="AB33" s="8"/>
     </row>
-    <row r="34" customFormat="1" ht="84.5" customHeight="1" spans="1:28">
+    <row r="34" customFormat="1" ht="84.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A34" s="10">
         <v>33</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="10">
@@ -7526,32 +7532,32 @@
         <v>0</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L34" s="10">
         <v>3</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N34" s="10">
         <v>3</v>
       </c>
       <c r="O34" s="11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P34" s="10"/>
       <c r="Q34" s="10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="R34" s="10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="S34" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="T34" s="10"/>
       <c r="U34" s="10"/>
@@ -7563,15 +7569,15 @@
       <c r="AA34" s="10"/>
       <c r="AB34" s="10"/>
     </row>
-    <row r="35" customFormat="1" ht="51.5" customHeight="1" spans="1:28">
+    <row r="35" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A35" s="8">
         <v>34</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="8">
@@ -7590,32 +7596,32 @@
         <v>0</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L35" s="8">
         <v>1</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N35" s="8">
         <v>5</v>
       </c>
       <c r="O35" s="9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P35" s="8"/>
       <c r="Q35" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="R35" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="S35" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="T35" s="8"/>
       <c r="U35" s="8"/>
@@ -7627,18 +7633,18 @@
       <c r="AA35" s="8"/>
       <c r="AB35" s="8"/>
     </row>
-    <row r="36" customFormat="1" ht="51.5" customHeight="1" spans="1:28">
+    <row r="36" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A36" s="10">
         <v>35</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E36" s="10">
         <v>6</v>
@@ -7656,32 +7662,32 @@
         <v>1</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L36" s="10">
         <v>2</v>
       </c>
       <c r="M36" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N36" s="10">
         <v>2</v>
       </c>
       <c r="O36" s="11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P36" s="10"/>
       <c r="Q36" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="R36" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="S36" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="T36" s="10"/>
       <c r="U36" s="10"/>
@@ -7693,15 +7699,15 @@
       <c r="AA36" s="10"/>
       <c r="AB36" s="10"/>
     </row>
-    <row r="37" customFormat="1" ht="35" customHeight="1" spans="1:28">
+    <row r="37" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A37" s="8">
         <v>36</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="8">
@@ -7720,26 +7726,26 @@
         <v>0</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L37" s="8">
         <v>3</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N37" s="8">
         <v>2</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P37" s="8"/>
       <c r="Q37" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="R37" s="8"/>
       <c r="S37" s="8"/>
@@ -7753,15 +7759,15 @@
       <c r="AA37" s="8"/>
       <c r="AB37" s="8"/>
     </row>
-    <row r="38" customFormat="1" ht="35" customHeight="1" spans="1:28">
+    <row r="38" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A38" s="10">
         <v>37</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="10">
@@ -7780,29 +7786,29 @@
         <v>0</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L38" s="10">
         <v>2</v>
       </c>
       <c r="M38" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N38" s="10">
         <v>3</v>
       </c>
       <c r="O38" s="11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P38" s="10"/>
       <c r="Q38" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="R38" s="10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="S38" s="10"/>
       <c r="T38" s="10"/>
@@ -7815,15 +7821,15 @@
       <c r="AA38" s="10"/>
       <c r="AB38" s="10"/>
     </row>
-    <row r="39" customFormat="1" ht="35" customHeight="1" spans="1:28">
+    <row r="39" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A39" s="8">
         <v>38</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="8">
@@ -7842,26 +7848,26 @@
         <v>2</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L39" s="8">
         <v>3</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N39" s="8">
         <v>2</v>
       </c>
       <c r="O39" s="9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P39" s="8"/>
       <c r="Q39" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="R39" s="8"/>
       <c r="S39" s="8"/>
@@ -7875,15 +7881,15 @@
       <c r="AA39" s="8"/>
       <c r="AB39" s="8"/>
     </row>
-    <row r="40" customFormat="1" ht="51.5" customHeight="1" spans="1:28">
+    <row r="40" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A40" s="10">
         <v>39</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="10">
@@ -7902,32 +7908,32 @@
         <v>0</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L40" s="10">
         <v>99</v>
       </c>
       <c r="M40" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N40" s="10">
         <v>3</v>
       </c>
       <c r="O40" s="11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P40" s="10"/>
       <c r="Q40" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="R40" s="10" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="S40" s="10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="T40" s="10"/>
       <c r="U40" s="10"/>
@@ -7939,15 +7945,15 @@
       <c r="AA40" s="10"/>
       <c r="AB40" s="10"/>
     </row>
-    <row r="41" customFormat="1" ht="51.5" customHeight="1" spans="1:28">
+    <row r="41" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A41" s="8">
         <v>40</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="8">
@@ -7966,22 +7972,22 @@
         <v>0</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L41" s="8">
         <v>99</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N41" s="8">
         <v>5</v>
       </c>
       <c r="O41" s="9" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P41" s="8"/>
       <c r="Q41" s="8"/>
@@ -7993,21 +7999,21 @@
       <c r="W41" s="8"/>
       <c r="X41" s="8"/>
       <c r="Y41" s="9" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Z41" s="8"/>
       <c r="AA41" s="8"/>
       <c r="AB41" s="8"/>
     </row>
-    <row r="42" customFormat="1" ht="35" customHeight="1" spans="1:28">
+    <row r="42" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A42" s="10">
         <v>41</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="10">
@@ -8026,26 +8032,26 @@
         <v>0</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L42" s="10">
         <v>99</v>
       </c>
       <c r="M42" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N42" s="10">
         <v>3</v>
       </c>
       <c r="O42" s="11" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P42" s="10"/>
       <c r="Q42" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="R42" s="10"/>
       <c r="S42" s="10"/>
@@ -8059,15 +8065,15 @@
       <c r="AA42" s="10"/>
       <c r="AB42" s="10"/>
     </row>
-    <row r="43" customFormat="1" ht="35" customHeight="1" spans="1:28">
+    <row r="43" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A43" s="8">
         <v>42</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="8">
@@ -8086,26 +8092,26 @@
         <v>0</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L43" s="8">
         <v>99</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N43" s="8">
         <v>5</v>
       </c>
       <c r="O43" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P43" s="8"/>
       <c r="Q43" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="R43" s="8"/>
       <c r="S43" s="8"/>
@@ -8119,15 +8125,15 @@
       <c r="AA43" s="8"/>
       <c r="AB43" s="8"/>
     </row>
-    <row r="44" customFormat="1" ht="35" customHeight="1" spans="1:28">
+    <row r="44" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A44" s="10">
         <v>43</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="10">
@@ -8146,29 +8152,29 @@
         <v>0</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L44" s="10">
         <v>99</v>
       </c>
       <c r="M44" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N44" s="10">
         <v>2</v>
       </c>
       <c r="O44" s="11" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P44" s="10"/>
       <c r="Q44" s="10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="R44" s="10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="S44" s="10"/>
       <c r="T44" s="10"/>
@@ -8181,15 +8187,15 @@
       <c r="AA44" s="10"/>
       <c r="AB44" s="10"/>
     </row>
-    <row r="45" customFormat="1" ht="35" customHeight="1" spans="1:28">
+    <row r="45" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A45" s="8">
         <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="8">
@@ -8208,29 +8214,29 @@
         <v>0</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L45" s="8">
         <v>99</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N45" s="8">
         <v>2</v>
       </c>
       <c r="O45" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P45" s="8"/>
       <c r="Q45" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="R45" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="S45" s="8"/>
       <c r="T45" s="8"/>
@@ -8243,15 +8249,15 @@
       <c r="AA45" s="8"/>
       <c r="AB45" s="8"/>
     </row>
-    <row r="46" customFormat="1" ht="35" customHeight="1" spans="1:28">
+    <row r="46" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A46" s="10">
         <v>45</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="10">
@@ -8270,29 +8276,29 @@
         <v>0</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L46" s="10">
         <v>1</v>
       </c>
       <c r="M46" s="10" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N46" s="10">
         <v>3</v>
       </c>
       <c r="O46" s="11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P46" s="10"/>
       <c r="Q46" s="10" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="R46" s="10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="S46" s="10"/>
       <c r="T46" s="10"/>
@@ -8305,15 +8311,15 @@
       <c r="AA46" s="10"/>
       <c r="AB46" s="10"/>
     </row>
-    <row r="47" customFormat="1" ht="35" customHeight="1" spans="1:28">
+    <row r="47" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A47" s="8">
         <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="8">
@@ -8332,29 +8338,29 @@
         <v>6</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L47" s="8">
         <v>2</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N47" s="8">
         <v>2</v>
       </c>
       <c r="O47" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P47" s="8"/>
       <c r="Q47" s="8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="R47" s="8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="S47" s="8"/>
       <c r="T47" s="8"/>
@@ -8367,15 +8373,15 @@
       <c r="AA47" s="8"/>
       <c r="AB47" s="8"/>
     </row>
-    <row r="48" customFormat="1" ht="35" customHeight="1" spans="1:28">
+    <row r="48" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A48" s="10">
         <v>47</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="10">
@@ -8394,26 +8400,26 @@
         <v>6</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L48" s="10">
         <v>3</v>
       </c>
       <c r="M48" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N48" s="10">
         <v>2</v>
       </c>
       <c r="O48" s="11" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P48" s="10"/>
       <c r="Q48" s="10" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="R48" s="10"/>
       <c r="S48" s="10"/>
@@ -8427,15 +8433,15 @@
       <c r="AA48" s="10"/>
       <c r="AB48" s="10"/>
     </row>
-    <row r="49" customFormat="1" ht="35" customHeight="1" spans="1:28">
+    <row r="49" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A49" s="8">
         <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="8">
@@ -8454,32 +8460,32 @@
         <v>0</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L49" s="8">
         <v>1</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N49" s="8">
         <v>3</v>
       </c>
       <c r="O49" s="9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P49" s="8"/>
       <c r="Q49" s="8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="R49" s="8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="S49" s="8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="T49" s="8"/>
       <c r="U49" s="8"/>
@@ -8491,15 +8497,15 @@
       <c r="AA49" s="8"/>
       <c r="AB49" s="8"/>
     </row>
-    <row r="50" customFormat="1" ht="18.5" customHeight="1" spans="1:28">
+    <row r="50" customFormat="1" ht="18.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A50" s="10">
         <v>49</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="10">
@@ -8518,26 +8524,26 @@
         <v>0</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L50" s="10">
         <v>2</v>
       </c>
       <c r="M50" s="10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N50" s="10">
         <v>2</v>
       </c>
       <c r="O50" s="11" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P50" s="10"/>
       <c r="Q50" s="10" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R50" s="10"/>
       <c r="S50" s="10"/>
@@ -8551,15 +8557,15 @@
       <c r="AA50" s="10"/>
       <c r="AB50" s="10"/>
     </row>
-    <row r="51" customFormat="1" ht="18.5" customHeight="1" spans="1:28">
+    <row r="51" customFormat="1" ht="18.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A51" s="8">
         <v>50</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="8">
@@ -8578,22 +8584,22 @@
         <v>0</v>
       </c>
       <c r="J51" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L51" s="8">
         <v>3</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N51" s="8">
         <v>1</v>
       </c>
       <c r="O51" s="9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P51" s="8"/>
       <c r="Q51" s="8"/>
@@ -8609,15 +8615,15 @@
       <c r="AA51" s="8"/>
       <c r="AB51" s="8"/>
     </row>
-    <row r="52" customFormat="1" ht="51.5" customHeight="1" spans="1:28">
+    <row r="52" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A52" s="10">
         <v>51</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="10">
@@ -8636,22 +8642,22 @@
         <v>0</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L52" s="10">
         <v>99</v>
       </c>
       <c r="M52" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N52" s="10">
         <v>3</v>
       </c>
       <c r="O52" s="11" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P52" s="10"/>
       <c r="Q52" s="10"/>
@@ -8663,23 +8669,23 @@
       <c r="W52" s="10"/>
       <c r="X52" s="10"/>
       <c r="Y52" s="11" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Z52" s="10" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AA52" s="10"/>
       <c r="AB52" s="10"/>
     </row>
-    <row r="53" customFormat="1" ht="51.5" customHeight="1" spans="1:28">
+    <row r="53" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A53" s="8">
         <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="8">
@@ -8698,22 +8704,22 @@
         <v>0</v>
       </c>
       <c r="J53" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L53" s="8">
         <v>99</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N53" s="8">
         <v>5</v>
       </c>
       <c r="O53" s="9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P53" s="8"/>
       <c r="Q53" s="8"/>
@@ -8725,21 +8731,21 @@
       <c r="W53" s="8"/>
       <c r="X53" s="8"/>
       <c r="Y53" s="9" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Z53" s="8"/>
       <c r="AA53" s="8"/>
       <c r="AB53" s="8"/>
     </row>
-    <row r="54" customFormat="1" ht="35" customHeight="1" spans="1:28">
+    <row r="54" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A54" s="10">
         <v>53</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="10">
@@ -8758,32 +8764,32 @@
         <v>0</v>
       </c>
       <c r="J54" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K54" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L54" s="10">
         <v>99</v>
       </c>
       <c r="M54" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N54" s="10">
         <v>3</v>
       </c>
       <c r="O54" s="11" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P54" s="10"/>
       <c r="Q54" s="10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="R54" s="10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="S54" s="10" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="T54" s="10"/>
       <c r="U54" s="10"/>
@@ -8795,15 +8801,15 @@
       <c r="AA54" s="10"/>
       <c r="AB54" s="10"/>
     </row>
-    <row r="55" customFormat="1" ht="35" customHeight="1" spans="1:28">
+    <row r="55" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A55" s="8">
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="8">
@@ -8822,29 +8828,29 @@
         <v>0</v>
       </c>
       <c r="J55" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L55" s="8">
         <v>1</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N55" s="8">
         <v>1</v>
       </c>
       <c r="O55" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P55" s="8"/>
       <c r="Q55" s="8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="R55" s="8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="S55" s="8"/>
       <c r="T55" s="8"/>
@@ -8857,15 +8863,15 @@
       <c r="AA55" s="8"/>
       <c r="AB55" s="8"/>
     </row>
-    <row r="56" customFormat="1" ht="35" customHeight="1" spans="1:28">
+    <row r="56" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A56" s="10">
         <v>55</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="10">
@@ -8884,26 +8890,26 @@
         <v>2</v>
       </c>
       <c r="J56" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L56" s="10">
         <v>2</v>
       </c>
       <c r="M56" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N56" s="10">
         <v>1</v>
       </c>
       <c r="O56" s="11" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="P56" s="10"/>
       <c r="Q56" s="10" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="R56" s="10"/>
       <c r="S56" s="10"/>
@@ -8917,15 +8923,15 @@
       <c r="AA56" s="10"/>
       <c r="AB56" s="10"/>
     </row>
-    <row r="57" customFormat="1" ht="35" customHeight="1" spans="1:28">
+    <row r="57" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:28">
       <c r="A57" s="8">
         <v>56</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="8">
@@ -8944,29 +8950,29 @@
         <v>4</v>
       </c>
       <c r="J57" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K57" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L57" s="8">
         <v>2</v>
       </c>
       <c r="M57" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N57" s="8">
         <v>1</v>
       </c>
       <c r="O57" s="9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P57" s="8"/>
       <c r="Q57" s="8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="R57" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="S57" s="8"/>
       <c r="T57" s="8"/>
@@ -8979,15 +8985,15 @@
       <c r="AA57" s="8"/>
       <c r="AB57" s="8"/>
     </row>
-    <row r="58" customFormat="1" ht="51.5" customHeight="1" spans="1:28">
+    <row r="58" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:28">
       <c r="A58" s="12">
         <v>57</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="12">
@@ -9006,29 +9012,29 @@
         <v>1</v>
       </c>
       <c r="J58" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K58" s="12" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L58" s="12">
         <v>2</v>
       </c>
       <c r="M58" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N58" s="12">
         <v>1</v>
       </c>
       <c r="O58" s="13" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P58" s="12"/>
       <c r="Q58" s="12" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="R58" s="12" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="S58" s="12"/>
       <c r="T58" s="12"/>
@@ -9046,10 +9052,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D59" s="16"/>
       <c r="E59" s="17">
@@ -9066,29 +9072,29 @@
       </c>
       <c r="I59" s="17"/>
       <c r="J59" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L59" s="8">
         <v>1</v>
       </c>
       <c r="M59" s="8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N59" s="8">
         <v>1</v>
       </c>
       <c r="O59" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P59" s="17"/>
       <c r="Q59" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R59" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S59" s="17"/>
       <c r="T59" s="17"/>
@@ -9106,10 +9112,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D60" s="7"/>
       <c r="E60" s="6">
@@ -9128,29 +9134,29 @@
         <v>0</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L60" s="6">
         <v>2</v>
       </c>
       <c r="M60" s="6" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N60" s="6">
         <v>3</v>
       </c>
       <c r="O60" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P60" s="6"/>
       <c r="Q60" s="6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="R60" s="6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="S60" s="6"/>
       <c r="T60" s="6"/>
@@ -9168,10 +9174,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="8">
@@ -9190,26 +9196,26 @@
         <v>0</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K61" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L61" s="8">
         <v>3</v>
       </c>
       <c r="M61" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N61" s="8">
         <v>2</v>
       </c>
       <c r="O61" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P61" s="8"/>
       <c r="Q61" s="8" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="R61" s="8"/>
       <c r="S61" s="8"/>
@@ -9228,10 +9234,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="10">
@@ -9250,32 +9256,32 @@
         <v>0</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K62" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L62" s="10">
         <v>3</v>
       </c>
       <c r="M62" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N62" s="10">
         <v>2</v>
       </c>
       <c r="O62" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P62" s="10"/>
       <c r="Q62" s="10" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="R62" s="10" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="S62" s="10" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="T62" s="10"/>
       <c r="U62" s="10"/>
@@ -9292,10 +9298,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="8">
@@ -9314,32 +9320,32 @@
         <v>0</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L63" s="8">
         <v>2</v>
       </c>
       <c r="M63" s="10" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N63" s="8">
         <v>3</v>
       </c>
       <c r="O63" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P63" s="8"/>
       <c r="Q63" s="8" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="R63" s="8" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="S63" s="8" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="T63" s="8"/>
       <c r="U63" s="8"/>
@@ -9356,10 +9362,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="10">
@@ -9378,26 +9384,26 @@
         <v>0</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K64" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L64" s="10">
         <v>3</v>
       </c>
       <c r="M64" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N64" s="10">
         <v>2</v>
       </c>
       <c r="O64" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P64" s="10"/>
       <c r="Q64" s="10" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="R64" s="10"/>
       <c r="S64" s="10"/>
@@ -9416,10 +9422,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="8">
@@ -9438,26 +9444,26 @@
         <v>0</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K65" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L65" s="8">
         <v>3</v>
       </c>
       <c r="M65" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N65" s="8">
         <v>2</v>
       </c>
       <c r="O65" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P65" s="8"/>
       <c r="Q65" s="8" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="R65" s="8"/>
       <c r="S65" s="8"/>
@@ -9476,10 +9482,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="10">
@@ -9498,35 +9504,35 @@
         <v>0</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K66" s="6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L66" s="10">
         <v>2</v>
       </c>
       <c r="M66" s="10" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N66" s="10">
         <v>3</v>
       </c>
       <c r="O66" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P66" s="10"/>
       <c r="Q66" s="8" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="R66" s="10" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="S66" s="10" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="T66" s="10" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="U66" s="10"/>
       <c r="V66" s="10"/>
@@ -9542,10 +9548,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="8">
@@ -9564,29 +9570,29 @@
         <v>0</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L67" s="8">
         <v>3</v>
       </c>
       <c r="M67" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N67" s="8">
         <v>2</v>
       </c>
       <c r="O67" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P67" s="8"/>
       <c r="Q67" s="8" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="R67" s="8" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="S67" s="8"/>
       <c r="T67" s="8"/>
@@ -9604,10 +9610,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="10">
@@ -9626,32 +9632,32 @@
         <v>0</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K68" s="6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L68" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M68" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N68" s="10">
         <v>1</v>
       </c>
       <c r="O68" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P68" s="10"/>
       <c r="Q68" s="10" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="R68" s="10" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="S68" s="10" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T68" s="10"/>
       <c r="U68" s="10"/>
@@ -9668,10 +9674,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="8">
@@ -9690,26 +9696,26 @@
         <v>0</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L69" s="8">
         <v>1</v>
       </c>
       <c r="M69" s="10" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N69" s="8">
         <v>5</v>
       </c>
       <c r="O69" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P69" s="8"/>
       <c r="Q69" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R69" s="8"/>
       <c r="S69" s="8"/>
@@ -9728,10 +9734,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="10">
@@ -9750,38 +9756,38 @@
         <v>0</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L70" s="10">
         <v>2</v>
       </c>
       <c r="M70" s="10" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N70" s="10">
         <v>3</v>
       </c>
       <c r="O70" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P70" s="10"/>
       <c r="Q70" s="10" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="R70" s="10" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="S70" s="10" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="T70" s="10" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="U70" s="10" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="V70" s="10"/>
       <c r="W70" s="10"/>
@@ -9796,10 +9802,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="8">
@@ -9818,26 +9824,26 @@
         <v>0</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L71" s="8">
         <v>3</v>
       </c>
       <c r="M71" s="10" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N71" s="8">
         <v>2</v>
       </c>
       <c r="O71" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P71" s="8"/>
       <c r="Q71" s="8" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="R71" s="8"/>
       <c r="S71" s="8"/>
@@ -9856,10 +9862,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="10">
@@ -9878,26 +9884,26 @@
         <v>0</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K72" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L72" s="10">
         <v>4</v>
       </c>
       <c r="M72" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N72" s="10">
         <v>1</v>
       </c>
       <c r="O72" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P72" s="10"/>
       <c r="Q72" s="10" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="R72" s="10"/>
       <c r="S72" s="10"/>
@@ -9916,10 +9922,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="8">
@@ -9938,25 +9944,27 @@
         <v>0</v>
       </c>
       <c r="J73" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K73" s="6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L73" s="8">
         <v>2</v>
       </c>
       <c r="M73" s="10" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N73" s="8">
         <v>3</v>
       </c>
       <c r="O73" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P73" s="8"/>
-      <c r="Q73" s="8"/>
+      <c r="Q73" s="8" t="s">
+        <v>422</v>
+      </c>
       <c r="R73" s="8"/>
       <c r="S73" s="8"/>
       <c r="T73" s="8"/>
@@ -9974,10 +9982,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>421</v>
-      </c>
-      <c r="C74" s="23" t="s">
-        <v>422</v>
+        <v>423</v>
+      </c>
+      <c r="C74" s="22" t="s">
+        <v>424</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="10">
@@ -9996,25 +10004,27 @@
         <v>0</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K74" s="6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L74" s="10">
         <v>3</v>
       </c>
       <c r="M74" s="10" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="N74" s="10">
         <v>2</v>
       </c>
       <c r="O74" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P74" s="10"/>
-      <c r="Q74" s="10"/>
+      <c r="Q74" s="10" t="s">
+        <v>426</v>
+      </c>
       <c r="R74" s="10"/>
       <c r="S74" s="10"/>
       <c r="T74" s="10"/>
@@ -10032,10 +10042,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="8">
@@ -10054,25 +10064,27 @@
         <v>0</v>
       </c>
       <c r="J75" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K75" s="6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L75" s="8">
         <v>4</v>
       </c>
       <c r="M75" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N75" s="8">
         <v>1</v>
       </c>
       <c r="O75" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P75" s="8"/>
-      <c r="Q75" s="8"/>
+      <c r="Q75" s="8" t="s">
+        <v>429</v>
+      </c>
       <c r="R75" s="8"/>
       <c r="S75" s="8"/>
       <c r="T75" s="8"/>
@@ -10090,10 +10102,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C76" s="20" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="10">
@@ -10112,25 +10124,27 @@
         <v>0</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K76" s="6" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="L76" s="10">
         <v>1</v>
       </c>
       <c r="M76" s="10" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="N76" s="10">
         <v>5</v>
       </c>
       <c r="O76" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P76" s="10"/>
-      <c r="Q76" s="10"/>
+      <c r="Q76" s="10" t="s">
+        <v>137</v>
+      </c>
       <c r="R76" s="10"/>
       <c r="S76" s="10"/>
       <c r="T76" s="10"/>
@@ -10148,10 +10162,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="21" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="8">
@@ -10170,27 +10184,33 @@
         <v>0</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K77" s="6" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="L77" s="8">
         <v>2</v>
       </c>
       <c r="M77" s="10" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="N77" s="8">
         <v>3</v>
       </c>
       <c r="O77" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P77" s="8"/>
-      <c r="Q77" s="8"/>
-      <c r="R77" s="8"/>
-      <c r="S77" s="8"/>
+      <c r="Q77" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="R77" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="S77" s="8" t="s">
+        <v>440</v>
+      </c>
       <c r="T77" s="8"/>
       <c r="U77" s="8"/>
       <c r="V77" s="8"/>
@@ -10206,10 +10226,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="10">
@@ -10228,25 +10248,27 @@
         <v>0</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K78" s="6" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="L78" s="10">
         <v>3</v>
       </c>
       <c r="M78" s="10" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="N78" s="10">
         <v>2</v>
       </c>
       <c r="O78" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P78" s="10"/>
-      <c r="Q78" s="10"/>
+      <c r="Q78" s="10" t="s">
+        <v>444</v>
+      </c>
       <c r="R78" s="10"/>
       <c r="S78" s="10"/>
       <c r="T78" s="10"/>
@@ -10264,10 +10286,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="8">
@@ -10286,27 +10308,33 @@
         <v>0</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="L79" s="8">
         <v>4</v>
       </c>
       <c r="M79" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N79" s="8">
         <v>2</v>
       </c>
       <c r="O79" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P79" s="8"/>
-      <c r="Q79" s="8"/>
-      <c r="R79" s="8"/>
-      <c r="S79" s="8"/>
+      <c r="Q79" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="R79" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="S79" s="8" t="s">
+        <v>440</v>
+      </c>
       <c r="T79" s="8"/>
       <c r="U79" s="8"/>
       <c r="V79" s="8"/>
@@ -10322,10 +10350,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="21" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="10">
@@ -10344,27 +10372,33 @@
         <v>0</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K80" s="6" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="L80" s="10">
         <v>2</v>
       </c>
       <c r="M80" s="10" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="N80" s="10">
         <v>3</v>
       </c>
       <c r="O80" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P80" s="10"/>
-      <c r="Q80" s="10"/>
-      <c r="R80" s="10"/>
-      <c r="S80" s="10"/>
+      <c r="Q80" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="R80" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="S80" s="10" t="s">
+        <v>440</v>
+      </c>
       <c r="T80" s="10"/>
       <c r="U80" s="10"/>
       <c r="V80" s="10"/>
@@ -10380,10 +10414,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="8">
@@ -10402,25 +10436,27 @@
         <v>0</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K81" s="6" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="L81" s="8">
         <v>3</v>
       </c>
       <c r="M81" s="10" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="N81" s="8">
         <v>2</v>
       </c>
       <c r="O81" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P81" s="8"/>
-      <c r="Q81" s="8"/>
+      <c r="Q81" s="8" t="s">
+        <v>457</v>
+      </c>
       <c r="R81" s="8"/>
       <c r="S81" s="8"/>
       <c r="T81" s="8"/>
@@ -10438,10 +10474,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="10">
@@ -10460,22 +10496,22 @@
         <v>0</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="L82" s="10">
         <v>4</v>
       </c>
       <c r="M82" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N82" s="10">
         <v>2</v>
       </c>
       <c r="O82" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P82" s="10"/>
       <c r="Q82" s="10"/>
@@ -10495,11 +10531,11 @@
       <c r="A83" s="10">
         <v>82</v>
       </c>
-      <c r="B83" s="24" t="s">
-        <v>169</v>
+      <c r="B83" s="23" t="s">
+        <v>170</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="8">
@@ -10518,25 +10554,27 @@
         <v>0</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L83" s="8">
         <v>99</v>
       </c>
       <c r="M83" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N83" s="8">
         <v>5</v>
       </c>
       <c r="O83" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P83" s="8"/>
-      <c r="Q83" s="8"/>
+      <c r="Q83" s="8" t="s">
+        <v>461</v>
+      </c>
       <c r="R83" s="8"/>
       <c r="S83" s="8"/>
       <c r="T83" s="8"/>
@@ -10554,10 +10592,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="10">
@@ -10576,25 +10614,27 @@
         <v>0</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K84" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L84" s="10">
         <v>99</v>
       </c>
       <c r="M84" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N84" s="10">
         <v>5</v>
       </c>
       <c r="O84" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P84" s="10"/>
-      <c r="Q84" s="10"/>
+      <c r="Q84" s="10" t="s">
+        <v>463</v>
+      </c>
       <c r="R84" s="10"/>
       <c r="S84" s="10"/>
       <c r="T84" s="10"/>
@@ -10612,10 +10652,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="8">
@@ -10634,22 +10674,22 @@
         <v>0</v>
       </c>
       <c r="J85" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L85" s="8">
         <v>99</v>
       </c>
       <c r="M85" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N85" s="8">
         <v>5</v>
       </c>
       <c r="O85" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P85" s="8"/>
       <c r="Q85" s="8"/>
@@ -10670,10 +10710,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="10">
@@ -10692,22 +10732,22 @@
         <v>0</v>
       </c>
       <c r="J86" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K86" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L86" s="10">
         <v>99</v>
       </c>
       <c r="M86" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N86" s="10">
         <v>3</v>
       </c>
       <c r="O86" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P86" s="10"/>
       <c r="Q86" s="10"/>
@@ -10727,11 +10767,11 @@
       <c r="A87" s="10">
         <v>86</v>
       </c>
-      <c r="B87" s="25" t="s">
-        <v>452</v>
+      <c r="B87" s="24" t="s">
+        <v>467</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="8">
@@ -10750,22 +10790,22 @@
         <v>0</v>
       </c>
       <c r="J87" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K87" s="6" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="L87" s="8">
         <v>1</v>
       </c>
       <c r="M87" s="10" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="N87" s="8">
         <v>5</v>
       </c>
       <c r="O87" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P87" s="8"/>
       <c r="Q87" s="8"/>
@@ -10785,11 +10825,11 @@
       <c r="A88" s="10">
         <v>87</v>
       </c>
-      <c r="B88" s="25" t="s">
-        <v>456</v>
+      <c r="B88" s="24" t="s">
+        <v>471</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="D88" s="11"/>
       <c r="E88" s="10">
@@ -10808,22 +10848,22 @@
         <v>0</v>
       </c>
       <c r="J88" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K88" s="6" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="L88" s="10">
         <v>2</v>
       </c>
       <c r="M88" s="10" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="N88" s="10">
         <v>3</v>
       </c>
       <c r="O88" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P88" s="10"/>
       <c r="Q88" s="10"/>
@@ -10844,10 +10884,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="8">
@@ -10866,22 +10906,22 @@
         <v>0</v>
       </c>
       <c r="J89" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="L89" s="8">
         <v>3</v>
       </c>
       <c r="M89" s="10" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="N89" s="8">
         <v>1</v>
       </c>
       <c r="O89" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P89" s="8"/>
       <c r="Q89" s="8"/>
@@ -10902,10 +10942,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="10">
@@ -10924,22 +10964,22 @@
         <v>0</v>
       </c>
       <c r="J90" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K90" s="6" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="L90" s="10">
         <v>4</v>
       </c>
       <c r="M90" s="10" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="N90" s="10">
         <v>2</v>
       </c>
       <c r="O90" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P90" s="10"/>
       <c r="Q90" s="10"/>
@@ -10960,10 +11000,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="8">
@@ -10982,22 +11022,22 @@
         <v>0</v>
       </c>
       <c r="J91" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K91" s="6" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="L91" s="8">
         <v>5</v>
       </c>
       <c r="M91" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N91" s="8">
         <v>2</v>
       </c>
       <c r="O91" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P91" s="8"/>
       <c r="Q91" s="8"/>
@@ -11017,11 +11057,11 @@
       <c r="A92" s="10">
         <v>91</v>
       </c>
-      <c r="B92" s="25" t="s">
-        <v>468</v>
+      <c r="B92" s="24" t="s">
+        <v>483</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="10">
@@ -11040,22 +11080,22 @@
         <v>0</v>
       </c>
       <c r="J92" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K92" s="6" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="L92" s="10">
         <v>2</v>
       </c>
       <c r="M92" s="10" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="N92" s="10">
         <v>3</v>
       </c>
       <c r="O92" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P92" s="10"/>
       <c r="Q92" s="10"/>
@@ -11076,10 +11116,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="8">
@@ -11098,22 +11138,22 @@
         <v>0</v>
       </c>
       <c r="J93" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K93" s="6" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="L93" s="8">
         <v>3</v>
       </c>
       <c r="M93" s="10" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="N93" s="8">
         <v>2</v>
       </c>
       <c r="O93" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P93" s="8"/>
       <c r="Q93" s="8"/>
@@ -11134,10 +11174,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="10">
@@ -11156,22 +11196,22 @@
         <v>0</v>
       </c>
       <c r="J94" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K94" s="6" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="L94" s="10">
         <v>4</v>
       </c>
       <c r="M94" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N94" s="10">
         <v>1</v>
       </c>
       <c r="O94" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P94" s="10"/>
       <c r="Q94" s="10"/>
@@ -11191,11 +11231,11 @@
       <c r="A95" s="10">
         <v>94</v>
       </c>
-      <c r="B95" s="25" t="s">
-        <v>477</v>
+      <c r="B95" s="24" t="s">
+        <v>492</v>
       </c>
       <c r="C95" s="20" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="D95" s="9"/>
       <c r="E95" s="8">
@@ -11214,22 +11254,22 @@
         <v>0</v>
       </c>
       <c r="J95" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K95" s="6" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="L95" s="8">
         <v>1</v>
       </c>
       <c r="M95" s="10" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="N95" s="8">
         <v>5</v>
       </c>
       <c r="O95" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P95" s="8"/>
       <c r="Q95" s="8"/>
@@ -11249,11 +11289,11 @@
       <c r="A96" s="10">
         <v>95</v>
       </c>
-      <c r="B96" s="25" t="s">
-        <v>481</v>
+      <c r="B96" s="24" t="s">
+        <v>496</v>
       </c>
       <c r="C96" s="20" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="D96" s="11"/>
       <c r="E96" s="10">
@@ -11272,22 +11312,22 @@
         <v>0</v>
       </c>
       <c r="J96" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K96" s="6" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="L96" s="10">
         <v>2</v>
       </c>
       <c r="M96" s="10" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="N96" s="10">
         <v>3</v>
       </c>
       <c r="O96" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P96" s="10"/>
       <c r="Q96" s="10"/>
@@ -11308,10 +11348,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="C97" s="20" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="8">
@@ -11330,22 +11370,22 @@
         <v>0</v>
       </c>
       <c r="J97" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K97" s="6" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="L97" s="8">
         <v>3</v>
       </c>
       <c r="M97" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N97" s="8">
         <v>1</v>
       </c>
       <c r="O97" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P97" s="8"/>
       <c r="Q97" s="8"/>
@@ -11365,11 +11405,11 @@
       <c r="A98" s="10">
         <v>97</v>
       </c>
-      <c r="B98" s="25" t="s">
-        <v>487</v>
+      <c r="B98" s="24" t="s">
+        <v>502</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="D98" s="11"/>
       <c r="E98" s="10">
@@ -11388,22 +11428,22 @@
         <v>0</v>
       </c>
       <c r="J98" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K98" s="6" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="L98" s="10">
         <v>2</v>
       </c>
       <c r="M98" s="10" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="N98" s="10">
         <v>3</v>
       </c>
       <c r="O98" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P98" s="10"/>
       <c r="Q98" s="10"/>
@@ -11424,10 +11464,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="C99" s="20" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="8">
@@ -11446,22 +11486,22 @@
         <v>0</v>
       </c>
       <c r="J99" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K99" s="6" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="L99" s="8">
         <v>3</v>
       </c>
       <c r="M99" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N99" s="8">
         <v>1</v>
       </c>
       <c r="O99" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P99" s="8"/>
       <c r="Q99" s="8"/>
@@ -11482,10 +11522,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="10">
@@ -11504,22 +11544,22 @@
         <v>0</v>
       </c>
       <c r="J100" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K100" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L100" s="10">
         <v>99</v>
       </c>
       <c r="M100" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N100" s="10">
         <v>3</v>
       </c>
       <c r="O100" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P100" s="10"/>
       <c r="Q100" s="10"/>
@@ -11540,10 +11580,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C101" s="20" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="8">
@@ -11562,22 +11602,22 @@
         <v>0</v>
       </c>
       <c r="J101" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K101" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L101" s="10">
         <v>99</v>
       </c>
       <c r="M101" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N101" s="8">
         <v>5</v>
       </c>
       <c r="O101" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P101" s="8"/>
       <c r="Q101" s="8"/>
@@ -11598,10 +11638,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C102" s="20" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="10">
@@ -11620,22 +11660,22 @@
         <v>0</v>
       </c>
       <c r="J102" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K102" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L102" s="10">
         <v>99</v>
       </c>
       <c r="M102" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N102" s="10">
         <v>2</v>
       </c>
       <c r="O102" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P102" s="10"/>
       <c r="Q102" s="10"/>
@@ -11656,10 +11696,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C103" s="20" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="8">
@@ -11678,22 +11718,22 @@
         <v>0</v>
       </c>
       <c r="J103" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K103" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L103" s="10">
         <v>99</v>
       </c>
       <c r="M103" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N103" s="8">
         <v>2</v>
       </c>
       <c r="O103" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P103" s="8"/>
       <c r="Q103" s="8"/>
@@ -11714,10 +11754,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="10">
@@ -11736,22 +11776,22 @@
         <v>0</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K104" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L104" s="10">
         <v>99</v>
       </c>
       <c r="M104" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N104" s="10">
         <v>5</v>
       </c>
       <c r="O104" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P104" s="10"/>
       <c r="Q104" s="10"/>
@@ -11772,10 +11812,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="C105" s="20" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="8">
@@ -11794,22 +11834,22 @@
         <v>0</v>
       </c>
       <c r="J105" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K105" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L105" s="10">
         <v>99</v>
       </c>
       <c r="M105" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N105" s="8">
         <v>5</v>
       </c>
       <c r="O105" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P105" s="8"/>
       <c r="Q105" s="8"/>
@@ -11830,10 +11870,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="21" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="C106" s="20" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="D106" s="11"/>
       <c r="E106" s="10">
@@ -11852,22 +11892,22 @@
         <v>0</v>
       </c>
       <c r="J106" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K106" s="6" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="L106" s="10">
         <v>1</v>
       </c>
       <c r="M106" s="10" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="N106" s="10">
         <v>3</v>
       </c>
       <c r="O106" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P106" s="10"/>
       <c r="Q106" s="10"/>
@@ -11888,10 +11928,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="C107" s="20" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="D107" s="9"/>
       <c r="E107" s="8">
@@ -11910,22 +11950,22 @@
         <v>0</v>
       </c>
       <c r="J107" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K107" s="6" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="L107" s="8">
         <v>2</v>
       </c>
       <c r="M107" s="10" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="N107" s="8">
         <v>2</v>
       </c>
       <c r="O107" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P107" s="8"/>
       <c r="Q107" s="8"/>
@@ -11946,10 +11986,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="C108" s="20" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="D108" s="11"/>
       <c r="E108" s="10">
@@ -11968,22 +12008,22 @@
         <v>0</v>
       </c>
       <c r="J108" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K108" s="6" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="L108" s="10">
         <v>3</v>
       </c>
       <c r="M108" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N108" s="10">
         <v>1</v>
       </c>
       <c r="O108" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P108" s="10"/>
       <c r="Q108" s="10"/>
@@ -12003,11 +12043,11 @@
       <c r="A109" s="10">
         <v>108</v>
       </c>
-      <c r="B109" s="25" t="s">
-        <v>510</v>
+      <c r="B109" s="24" t="s">
+        <v>525</v>
       </c>
       <c r="C109" s="20" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="8">
@@ -12026,22 +12066,22 @@
         <v>0</v>
       </c>
       <c r="J109" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K109" s="6" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="L109" s="8">
         <v>1</v>
       </c>
       <c r="M109" s="10" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="N109" s="8">
         <v>3</v>
       </c>
       <c r="O109" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P109" s="8"/>
       <c r="Q109" s="8"/>
@@ -12062,10 +12102,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="C110" s="20" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="10">
@@ -12084,22 +12124,22 @@
         <v>0</v>
       </c>
       <c r="J110" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K110" s="6" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="L110" s="10">
         <v>2</v>
       </c>
       <c r="M110" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N110" s="10">
         <v>1</v>
       </c>
       <c r="O110" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P110" s="10"/>
       <c r="Q110" s="10"/>
@@ -12120,10 +12160,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="20" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C111" s="20" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="8">
@@ -12142,22 +12182,22 @@
         <v>0</v>
       </c>
       <c r="J111" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K111" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L111" s="8">
         <v>99</v>
       </c>
       <c r="M111" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N111" s="8">
         <v>3</v>
       </c>
       <c r="O111" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P111" s="8"/>
       <c r="Q111" s="8"/>
@@ -12178,10 +12218,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="C112" s="20" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="D112" s="11"/>
       <c r="E112" s="10">
@@ -12200,22 +12240,22 @@
         <v>0</v>
       </c>
       <c r="J112" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K112" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L112" s="8">
         <v>99</v>
       </c>
       <c r="M112" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N112" s="10">
         <v>5</v>
       </c>
       <c r="O112" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P112" s="10"/>
       <c r="Q112" s="10"/>
@@ -12236,10 +12276,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="C113" s="20" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="8">
@@ -12258,22 +12298,22 @@
         <v>0</v>
       </c>
       <c r="J113" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K113" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L113" s="8">
         <v>99</v>
       </c>
       <c r="M113" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N113" s="8">
         <v>3</v>
       </c>
       <c r="O113" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P113" s="8"/>
       <c r="Q113" s="8"/>
@@ -12293,11 +12333,11 @@
       <c r="A114" s="10">
         <v>113</v>
       </c>
-      <c r="B114" s="25" t="s">
-        <v>521</v>
+      <c r="B114" s="24" t="s">
+        <v>536</v>
       </c>
       <c r="C114" s="20" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="D114" s="11"/>
       <c r="E114" s="10">
@@ -12316,22 +12356,22 @@
         <v>0</v>
       </c>
       <c r="J114" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K114" s="6" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="L114" s="10">
         <v>1</v>
       </c>
       <c r="M114" s="10" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="N114" s="10">
         <v>1</v>
       </c>
       <c r="O114" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P114" s="10"/>
       <c r="Q114" s="10"/>
@@ -12352,10 +12392,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="C115" s="20" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="D115" s="11"/>
       <c r="E115" s="10">
@@ -12374,22 +12414,22 @@
         <v>0</v>
       </c>
       <c r="J115" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K115" s="6" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="L115" s="10">
         <v>2</v>
       </c>
       <c r="M115" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N115" s="10">
         <v>1</v>
       </c>
       <c r="O115" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P115" s="10"/>
       <c r="Q115" s="10"/>
@@ -12403,17 +12443,17 @@
       <c r="Y115" s="11"/>
       <c r="Z115" s="10"/>
       <c r="AA115" s="10"/>
-      <c r="AB115" s="27"/>
+      <c r="AB115" s="26"/>
     </row>
     <row r="116" ht="35" customHeight="1" spans="1:28">
       <c r="A116" s="10">
         <v>115</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="C116" s="20" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="10">
@@ -12432,22 +12472,22 @@
         <v>0</v>
       </c>
       <c r="J116" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K116" s="6" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="L116" s="10">
         <v>2</v>
       </c>
       <c r="M116" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N116" s="10">
         <v>1</v>
       </c>
       <c r="O116" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P116" s="10"/>
       <c r="Q116" s="10"/>
@@ -12461,17 +12501,17 @@
       <c r="Y116" s="11"/>
       <c r="Z116" s="10"/>
       <c r="AA116" s="10"/>
-      <c r="AB116" s="27"/>
+      <c r="AB116" s="26"/>
     </row>
     <row r="117" ht="35" customHeight="1" spans="1:28">
       <c r="A117" s="10">
         <v>116</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="C117" s="20" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="D117" s="11"/>
       <c r="E117" s="10">
@@ -12490,22 +12530,22 @@
         <v>0</v>
       </c>
       <c r="J117" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K117" s="6" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="L117" s="10">
         <v>2</v>
       </c>
       <c r="M117" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N117" s="10">
         <v>1</v>
       </c>
       <c r="O117" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P117" s="10"/>
       <c r="Q117" s="10"/>
@@ -12519,17 +12559,17 @@
       <c r="Y117" s="11"/>
       <c r="Z117" s="10"/>
       <c r="AA117" s="10"/>
-      <c r="AB117" s="27"/>
+      <c r="AB117" s="26"/>
     </row>
     <row r="118" ht="35" customHeight="1" spans="1:28">
       <c r="A118" s="10">
         <v>117</v>
       </c>
-      <c r="B118" s="26" t="s">
-        <v>531</v>
-      </c>
-      <c r="C118" s="26" t="s">
-        <v>532</v>
+      <c r="B118" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="C118" s="25" t="s">
+        <v>547</v>
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="10">
@@ -12548,22 +12588,22 @@
         <v>0</v>
       </c>
       <c r="J118" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K118" s="6" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="L118" s="10">
         <v>2</v>
       </c>
       <c r="M118" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N118" s="10">
         <v>1</v>
       </c>
       <c r="O118" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P118" s="10"/>
       <c r="Q118" s="10"/>
@@ -12577,10 +12617,15 @@
       <c r="Y118" s="11"/>
       <c r="Z118" s="10"/>
       <c r="AA118" s="10"/>
-      <c r="AB118" s="27"/>
+      <c r="AB118" s="26"/>
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AB118" etc:filterBottomFollowUsedRange="0">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="101"/>
+      </filters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="G$1:G$1048576">

--- a/excels/config/game/hero/talent_tree/talent_tree_config.xlsx
+++ b/excels/config/game/hero/talent_tree/talent_tree_config.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="582">
   <si>
     <t>下标</t>
   </si>
@@ -2120,10 +2120,7 @@
         <rFont val="Microsoft YaHei"/>
         <charset val="134"/>
       </rPr>
-      <t>技能基础伤害
-cd：12秒
-持续时间:8秒
-蓝量消耗：30</t>
+      <t>技能基础伤害</t>
     </r>
   </si>
   <si>
@@ -2181,6 +2178,9 @@
   </si>
   <si>
     <t>ring_distance 450</t>
+  </si>
+  <si>
+    <t>ring_duration 5</t>
   </si>
   <si>
     <t>极寒冰圈</t>
@@ -2203,10 +2203,7 @@
         <rFont val="Microsoft YaHei"/>
         <charset val="134"/>
       </rPr>
-      <t>技能基础伤害
-cd：12秒
-持续时间:8秒
-蓝量消耗：30</t>
+      <t>技能基础伤害</t>
     </r>
   </si>
   <si>
@@ -2238,6 +2235,15 @@
 冷气效果：受到冰元素伤害提高10%。</t>
   </si>
   <si>
+    <t>lq_stack 5 10</t>
+  </si>
+  <si>
+    <t>lq_duration 5</t>
+  </si>
+  <si>
+    <t>lq_value 10</t>
+  </si>
+  <si>
     <t>攻击力提高4%/8%/12%/16%/20%</t>
   </si>
   <si>
@@ -2259,6 +2265,9 @@
     <t>无视元素抗性5%/7.5%/10%</t>
   </si>
   <si>
+    <t>value 5 7.5 10</t>
+  </si>
+  <si>
     <t>元素轰炸</t>
   </si>
   <si>
@@ -2269,7 +2278,7 @@
         <rFont val="Microsoft YaHei"/>
         <charset val="134"/>
       </rPr>
-      <t>吟唱施法，吟唱3秒后在自身1000码范围内随机位置生成数个元素爆炸，对范围内敌人造成伤害。
+      <t>吟唱施法，吟唱3秒后在自身1000码范围内每波随机位置生成数个元素爆炸，对范围内敌人造成伤害,持续3波
 蓝量消耗：35
 cd：18秒
 伤害系数：攻击力300%·对应元素</t>
@@ -2291,7 +2300,7 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-生成元素数量：3/4/5/6/8
+每波生成元素数量：3/4/5/6/8
 爆炸范围：半径200码</t>
     </r>
   </si>
@@ -2300,6 +2309,24 @@
   </si>
   <si>
     <t>87|91</t>
+  </si>
+  <si>
+    <t>base_value 300</t>
+  </si>
+  <si>
+    <t>channel 3</t>
+  </si>
+  <si>
+    <t>range 1000</t>
+  </si>
+  <si>
+    <t>explosion_count 3 4 5 6 8</t>
+  </si>
+  <si>
+    <t>explosion_radius 200</t>
+  </si>
+  <si>
+    <t>max_wave 3</t>
   </si>
   <si>
     <t>陨石雨</t>
@@ -2343,6 +2370,15 @@
     <t>88|0</t>
   </si>
   <si>
+    <t>bonus_base 50 70 100</t>
+  </si>
+  <si>
+    <t>meteor_count 3</t>
+  </si>
+  <si>
+    <t>radius 200</t>
+  </si>
+  <si>
     <t>火种</t>
   </si>
   <si>
@@ -2351,6 +2387,12 @@
   </si>
   <si>
     <t>89|0</t>
+  </si>
+  <si>
+    <t>tinder_duration 30</t>
+  </si>
+  <si>
+    <t>tinder_radius 25</t>
   </si>
   <si>
     <t>引爆</t>
@@ -2381,6 +2423,12 @@
     <t>90|0</t>
   </si>
   <si>
+    <t>tinder_damage 200</t>
+  </si>
+  <si>
+    <t>explosion_radius 200 300</t>
+  </si>
+  <si>
     <t>焚天</t>
   </si>
   <si>
@@ -2411,6 +2459,12 @@
       </rPr>
       <t>。</t>
     </r>
+  </si>
+  <si>
+    <t>meteor_duration 3</t>
+  </si>
+  <si>
+    <t>meteor_bonus 50 100</t>
   </si>
   <si>
     <t>奔雷领域</t>
@@ -2453,6 +2507,12 @@
     <t>92|0</t>
   </si>
   <si>
+    <t>base_value 320 330 350</t>
+  </si>
+  <si>
+    <t>channel 8</t>
+  </si>
+  <si>
     <t>雷云</t>
   </si>
   <si>
@@ -2490,10 +2550,22 @@
     <t>93|0</t>
   </si>
   <si>
+    <t>thundercloud_dmg 125</t>
+  </si>
+  <si>
+    <t>thundercloud_count 1 2</t>
+  </si>
+  <si>
+    <t>thundercloud_interval 1.5</t>
+  </si>
+  <si>
     <t>低压</t>
   </si>
   <si>
     <t>对引雷区域的敌人造成的伤害翻倍。</t>
+  </si>
+  <si>
+    <t>yinlei_mul 2</t>
   </si>
   <si>
     <t>法阵</t>
@@ -2539,6 +2611,15 @@
     <t>95|97</t>
   </si>
   <si>
+    <t>base_value 350</t>
+  </si>
+  <si>
+    <t>fazhen_duration 8 9 10 12 15</t>
+  </si>
+  <si>
+    <t>fazhen_radius 600</t>
+  </si>
+  <si>
     <t>极寒领域</t>
   </si>
   <si>
@@ -2587,6 +2668,9 @@
     <t>极寒领域cd减少10秒。</t>
   </si>
   <si>
+    <t>reduce_cd 10</t>
+  </si>
+  <si>
     <t>死亡空间</t>
   </si>
   <si>
@@ -2629,10 +2713,23 @@
     <t>98|0</t>
   </si>
   <si>
+    <t>bonus_base 10 20 30</t>
+  </si>
+  <si>
+    <t>fazhen_duration 8</t>
+  </si>
+  <si>
     <t>至暗</t>
   </si>
   <si>
-    <t>处于阵法内的敌人元素抗性降低50%，但自身每1秒扣除最大生命值的5%。</t>
+    <t>处于阵法内的敌人元素抗性降低50%，但自身每1秒扣除最大生命值的5%。
+真实伤害,不吃减免,血量少于5%则直接死亡</t>
+  </si>
+  <si>
+    <t>element_resist -50</t>
+  </si>
+  <si>
+    <t>reduc_max_hppct 5</t>
   </si>
   <si>
     <r>
@@ -5024,36 +5121,36 @@
     </dxf>
   </dxfs>
   <tableStyles count="9" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{CD49649A-9212-4EA9-99BB-20AC438F01DB}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{2EF7B934-3318-422C-A4D3-6298298BAD88}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{A8CB5307-9B73-469E-B443-5751B7B099FA}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{E3E7164A-369C-4B81-BEC6-D7DBAF29DDE4}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{D2B1830A-4807-4C60-B625-88766839A545}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{3B6C1D16-7F59-409B-8D9E-C4DE3C61ED17}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{829D3D90-8BC3-463B-BFAB-F07A34320250}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{F9AEC47F-0E29-43A9-861A-5704F7181F88}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{C5B69821-1785-4A5A-9903-3C068680B72C}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{6D40E40E-9E9D-4B61-9705-4317FF715B29}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{91108CB8-D5CE-4DAC-B776-605A58784756}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{F064CB64-B5A9-4191-9108-83429862172A}">
       <tableStyleElement type="wholeTable" dxfId="28"/>
       <tableStyleElement type="headerRow" dxfId="27"/>
       <tableStyleElement type="totalRow" dxfId="26"/>
@@ -5065,7 +5162,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="20"/>
       <tableStyleElement type="lastTotalCell" dxfId="19"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{B95507CF-794C-4A50-AF9A-14E5DE2E084F}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{1E360997-FA3B-49A4-A04C-BBF33598D39B}">
       <tableStyleElement type="wholeTable" dxfId="40"/>
       <tableStyleElement type="headerRow" dxfId="39"/>
       <tableStyleElement type="totalRow" dxfId="38"/>
@@ -5079,7 +5176,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="30"/>
       <tableStyleElement type="lastTotalCell" dxfId="29"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{78324376-B591-4812-8660-E70251C4F2B8}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{7F267D38-DB71-48E2-B7E4-241C20D6C3C8}">
       <tableStyleElement type="wholeTable" dxfId="47"/>
       <tableStyleElement type="headerRow" dxfId="46"/>
       <tableStyleElement type="totalRow" dxfId="45"/>
@@ -5088,7 +5185,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="42"/>
       <tableStyleElement type="firstColumnStripe" dxfId="41"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{1169CA94-C385-42D5-B586-E02A995E08ED}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{A2A5CC9A-D6CB-41C1-A466-4C9553921157}">
       <tableStyleElement type="wholeTable" dxfId="52"/>
       <tableStyleElement type="headerRow" dxfId="51"/>
       <tableStyleElement type="totalRow" dxfId="50"/>
@@ -5399,10 +5496,10 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AB118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="O1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="P1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="R77" sqref="R77"/>
+      <selection pane="topRight" activeCell="S88" sqref="S88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5426,8 +5523,8 @@
     <col min="17" max="17" width="28.3416666666667" style="4" customWidth="1"/>
     <col min="18" max="18" width="24.3416666666667" style="4" customWidth="1"/>
     <col min="19" max="19" width="22.3416666666667" style="4" customWidth="1"/>
-    <col min="20" max="20" width="15.5" style="4" customWidth="1"/>
-    <col min="21" max="21" width="16.875" style="4" customWidth="1"/>
+    <col min="20" max="20" width="28.875" style="4" customWidth="1"/>
+    <col min="21" max="21" width="18.5" style="4" customWidth="1"/>
     <col min="22" max="22" width="17.375" style="4" customWidth="1"/>
     <col min="23" max="23" width="6.675" style="4" customWidth="1"/>
     <col min="24" max="24" width="15.3416666666667" style="4" customWidth="1"/>
@@ -10333,7 +10430,7 @@
         <v>448</v>
       </c>
       <c r="S79" s="8" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="T79" s="8"/>
       <c r="U79" s="8"/>
@@ -10350,10 +10447,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="21" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="10">
@@ -10375,13 +10472,13 @@
         <v>38</v>
       </c>
       <c r="K80" s="6" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L80" s="10">
         <v>2</v>
       </c>
       <c r="M80" s="10" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N80" s="10">
         <v>3</v>
@@ -10391,10 +10488,10 @@
       </c>
       <c r="P80" s="10"/>
       <c r="Q80" s="10" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="R80" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="S80" s="10" t="s">
         <v>440</v>
@@ -10417,7 +10514,7 @@
         <v>251</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="8">
@@ -10439,13 +10536,13 @@
         <v>38</v>
       </c>
       <c r="K81" s="6" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L81" s="8">
         <v>3</v>
       </c>
       <c r="M81" s="10" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N81" s="8">
         <v>2</v>
@@ -10455,7 +10552,7 @@
       </c>
       <c r="P81" s="8"/>
       <c r="Q81" s="8" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="R81" s="8"/>
       <c r="S81" s="8"/>
@@ -10474,10 +10571,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="10">
@@ -10499,7 +10596,7 @@
         <v>38</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L82" s="10">
         <v>4</v>
@@ -10514,9 +10611,15 @@
         <v>348</v>
       </c>
       <c r="P82" s="10"/>
-      <c r="Q82" s="10"/>
-      <c r="R82" s="10"/>
-      <c r="S82" s="10"/>
+      <c r="Q82" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="R82" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="S82" s="10" t="s">
+        <v>463</v>
+      </c>
       <c r="T82" s="10"/>
       <c r="U82" s="10"/>
       <c r="V82" s="10"/>
@@ -10535,7 +10638,7 @@
         <v>170</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="8">
@@ -10573,7 +10676,7 @@
       </c>
       <c r="P83" s="8"/>
       <c r="Q83" s="8" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="R83" s="8"/>
       <c r="S83" s="8"/>
@@ -10595,7 +10698,7 @@
         <v>180</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="10">
@@ -10633,7 +10736,7 @@
       </c>
       <c r="P84" s="10"/>
       <c r="Q84" s="10" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="R84" s="10"/>
       <c r="S84" s="10"/>
@@ -10655,7 +10758,7 @@
         <v>184</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="8">
@@ -10692,7 +10795,9 @@
         <v>348</v>
       </c>
       <c r="P85" s="8"/>
-      <c r="Q85" s="8"/>
+      <c r="Q85" s="8" t="s">
+        <v>465</v>
+      </c>
       <c r="R85" s="8"/>
       <c r="S85" s="8"/>
       <c r="T85" s="8"/>
@@ -10710,10 +10815,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="10">
@@ -10750,7 +10855,9 @@
         <v>348</v>
       </c>
       <c r="P86" s="10"/>
-      <c r="Q86" s="10"/>
+      <c r="Q86" s="10" t="s">
+        <v>471</v>
+      </c>
       <c r="R86" s="10"/>
       <c r="S86" s="10"/>
       <c r="T86" s="10"/>
@@ -10768,10 +10875,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="24" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="8">
@@ -10793,13 +10900,13 @@
         <v>38</v>
       </c>
       <c r="K87" s="6" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="L87" s="8">
         <v>1</v>
       </c>
       <c r="M87" s="10" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="N87" s="8">
         <v>5</v>
@@ -10808,12 +10915,24 @@
         <v>348</v>
       </c>
       <c r="P87" s="8"/>
-      <c r="Q87" s="8"/>
-      <c r="R87" s="8"/>
-      <c r="S87" s="8"/>
-      <c r="T87" s="8"/>
-      <c r="U87" s="8"/>
-      <c r="V87" s="8"/>
+      <c r="Q87" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="R87" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="S87" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="T87" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="U87" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="V87" s="8" t="s">
+        <v>481</v>
+      </c>
       <c r="W87" s="8"/>
       <c r="X87" s="8"/>
       <c r="Y87" s="9"/>
@@ -10826,10 +10945,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="24" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="D88" s="11"/>
       <c r="E88" s="10">
@@ -10851,13 +10970,13 @@
         <v>38</v>
       </c>
       <c r="K88" s="6" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="L88" s="10">
         <v>2</v>
       </c>
       <c r="M88" s="10" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="N88" s="10">
         <v>3</v>
@@ -10866,10 +10985,18 @@
         <v>348</v>
       </c>
       <c r="P88" s="10"/>
-      <c r="Q88" s="10"/>
-      <c r="R88" s="10"/>
-      <c r="S88" s="10"/>
-      <c r="T88" s="10"/>
+      <c r="Q88" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="R88" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="S88" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="T88" s="10" t="s">
+        <v>488</v>
+      </c>
       <c r="U88" s="10"/>
       <c r="V88" s="10"/>
       <c r="W88" s="10"/>
@@ -10884,10 +11011,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="8">
@@ -10909,13 +11036,13 @@
         <v>38</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="L89" s="8">
         <v>3</v>
       </c>
       <c r="M89" s="10" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="N89" s="8">
         <v>1</v>
@@ -10924,8 +11051,12 @@
         <v>348</v>
       </c>
       <c r="P89" s="8"/>
-      <c r="Q89" s="8"/>
-      <c r="R89" s="8"/>
+      <c r="Q89" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="R89" s="8" t="s">
+        <v>493</v>
+      </c>
       <c r="S89" s="8"/>
       <c r="T89" s="8"/>
       <c r="U89" s="8"/>
@@ -10942,10 +11073,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="10">
@@ -10967,13 +11098,13 @@
         <v>38</v>
       </c>
       <c r="K90" s="6" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="L90" s="10">
         <v>4</v>
       </c>
       <c r="M90" s="10" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="N90" s="10">
         <v>2</v>
@@ -10982,8 +11113,12 @@
         <v>348</v>
       </c>
       <c r="P90" s="10"/>
-      <c r="Q90" s="10"/>
-      <c r="R90" s="10"/>
+      <c r="Q90" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="R90" s="10" t="s">
+        <v>498</v>
+      </c>
       <c r="S90" s="10"/>
       <c r="T90" s="10"/>
       <c r="U90" s="10"/>
@@ -11000,10 +11135,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>481</v>
+        <v>499</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="8">
@@ -11025,7 +11160,7 @@
         <v>38</v>
       </c>
       <c r="K91" s="6" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="L91" s="8">
         <v>5</v>
@@ -11040,8 +11175,12 @@
         <v>348</v>
       </c>
       <c r="P91" s="8"/>
-      <c r="Q91" s="8"/>
-      <c r="R91" s="8"/>
+      <c r="Q91" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="R91" s="8" t="s">
+        <v>502</v>
+      </c>
       <c r="S91" s="8"/>
       <c r="T91" s="8"/>
       <c r="U91" s="8"/>
@@ -11053,15 +11192,15 @@
       <c r="AA91" s="8"/>
       <c r="AB91" s="8"/>
     </row>
-    <row r="92" ht="84.5" customHeight="1" spans="1:28">
+    <row r="92" ht="99.75" spans="1:28">
       <c r="A92" s="10">
         <v>91</v>
       </c>
       <c r="B92" s="24" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="10">
@@ -11083,13 +11222,13 @@
         <v>38</v>
       </c>
       <c r="K92" s="6" t="s">
-        <v>485</v>
+        <v>505</v>
       </c>
       <c r="L92" s="10">
         <v>2</v>
       </c>
       <c r="M92" s="10" t="s">
-        <v>486</v>
+        <v>506</v>
       </c>
       <c r="N92" s="10">
         <v>3</v>
@@ -11098,10 +11237,18 @@
         <v>348</v>
       </c>
       <c r="P92" s="10"/>
-      <c r="Q92" s="10"/>
-      <c r="R92" s="10"/>
-      <c r="S92" s="10"/>
-      <c r="T92" s="10"/>
+      <c r="Q92" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="R92" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="S92" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="T92" s="10" t="s">
+        <v>195</v>
+      </c>
       <c r="U92" s="10"/>
       <c r="V92" s="10"/>
       <c r="W92" s="10"/>
@@ -11111,15 +11258,15 @@
       <c r="AA92" s="10"/>
       <c r="AB92" s="10"/>
     </row>
-    <row r="93" ht="68" customHeight="1" spans="1:28">
+    <row r="93" ht="66.75" spans="1:28">
       <c r="A93" s="10">
         <v>92</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>487</v>
+        <v>509</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>488</v>
+        <v>510</v>
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="8">
@@ -11141,13 +11288,13 @@
         <v>38</v>
       </c>
       <c r="K93" s="6" t="s">
-        <v>485</v>
+        <v>505</v>
       </c>
       <c r="L93" s="8">
         <v>3</v>
       </c>
       <c r="M93" s="10" t="s">
-        <v>489</v>
+        <v>511</v>
       </c>
       <c r="N93" s="8">
         <v>2</v>
@@ -11156,9 +11303,15 @@
         <v>348</v>
       </c>
       <c r="P93" s="8"/>
-      <c r="Q93" s="8"/>
-      <c r="R93" s="8"/>
-      <c r="S93" s="8"/>
+      <c r="Q93" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="R93" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="S93" s="8" t="s">
+        <v>514</v>
+      </c>
       <c r="T93" s="8"/>
       <c r="U93" s="8"/>
       <c r="V93" s="8"/>
@@ -11174,10 +11327,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>490</v>
+        <v>515</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>491</v>
+        <v>516</v>
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="10">
@@ -11199,7 +11352,7 @@
         <v>38</v>
       </c>
       <c r="K94" s="6" t="s">
-        <v>485</v>
+        <v>505</v>
       </c>
       <c r="L94" s="10">
         <v>4</v>
@@ -11214,7 +11367,9 @@
         <v>348</v>
       </c>
       <c r="P94" s="10"/>
-      <c r="Q94" s="10"/>
+      <c r="Q94" s="10" t="s">
+        <v>517</v>
+      </c>
       <c r="R94" s="10"/>
       <c r="S94" s="10"/>
       <c r="T94" s="10"/>
@@ -11232,10 +11387,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="24" t="s">
-        <v>492</v>
+        <v>518</v>
       </c>
       <c r="C95" s="20" t="s">
-        <v>493</v>
+        <v>519</v>
       </c>
       <c r="D95" s="9"/>
       <c r="E95" s="8">
@@ -11257,13 +11412,13 @@
         <v>38</v>
       </c>
       <c r="K95" s="6" t="s">
-        <v>494</v>
+        <v>520</v>
       </c>
       <c r="L95" s="8">
         <v>1</v>
       </c>
       <c r="M95" s="10" t="s">
-        <v>495</v>
+        <v>521</v>
       </c>
       <c r="N95" s="8">
         <v>5</v>
@@ -11272,9 +11427,15 @@
         <v>348</v>
       </c>
       <c r="P95" s="8"/>
-      <c r="Q95" s="8"/>
-      <c r="R95" s="8"/>
-      <c r="S95" s="8"/>
+      <c r="Q95" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="R95" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="S95" s="8" t="s">
+        <v>524</v>
+      </c>
       <c r="T95" s="8"/>
       <c r="U95" s="8"/>
       <c r="V95" s="8"/>
@@ -11290,10 +11451,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="24" t="s">
-        <v>496</v>
+        <v>525</v>
       </c>
       <c r="C96" s="20" t="s">
-        <v>497</v>
+        <v>526</v>
       </c>
       <c r="D96" s="11"/>
       <c r="E96" s="10">
@@ -11315,13 +11476,13 @@
         <v>38</v>
       </c>
       <c r="K96" s="6" t="s">
-        <v>498</v>
+        <v>527</v>
       </c>
       <c r="L96" s="10">
         <v>2</v>
       </c>
       <c r="M96" s="10" t="s">
-        <v>499</v>
+        <v>528</v>
       </c>
       <c r="N96" s="10">
         <v>3</v>
@@ -11330,7 +11491,9 @@
         <v>348</v>
       </c>
       <c r="P96" s="10"/>
-      <c r="Q96" s="10"/>
+      <c r="Q96" s="10" t="s">
+        <v>438</v>
+      </c>
       <c r="R96" s="10"/>
       <c r="S96" s="10"/>
       <c r="T96" s="10"/>
@@ -11348,10 +11511,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>500</v>
+        <v>529</v>
       </c>
       <c r="C97" s="20" t="s">
-        <v>501</v>
+        <v>530</v>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="8">
@@ -11373,7 +11536,7 @@
         <v>38</v>
       </c>
       <c r="K97" s="6" t="s">
-        <v>498</v>
+        <v>527</v>
       </c>
       <c r="L97" s="8">
         <v>3</v>
@@ -11388,7 +11551,9 @@
         <v>348</v>
       </c>
       <c r="P97" s="8"/>
-      <c r="Q97" s="8"/>
+      <c r="Q97" s="8" t="s">
+        <v>531</v>
+      </c>
       <c r="R97" s="8"/>
       <c r="S97" s="8"/>
       <c r="T97" s="8"/>
@@ -11406,10 +11571,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="24" t="s">
-        <v>502</v>
+        <v>532</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>503</v>
+        <v>533</v>
       </c>
       <c r="D98" s="11"/>
       <c r="E98" s="10">
@@ -11431,13 +11596,13 @@
         <v>38</v>
       </c>
       <c r="K98" s="6" t="s">
-        <v>504</v>
+        <v>534</v>
       </c>
       <c r="L98" s="10">
         <v>2</v>
       </c>
       <c r="M98" s="10" t="s">
-        <v>505</v>
+        <v>535</v>
       </c>
       <c r="N98" s="10">
         <v>3</v>
@@ -11446,8 +11611,12 @@
         <v>348</v>
       </c>
       <c r="P98" s="10"/>
-      <c r="Q98" s="10"/>
-      <c r="R98" s="10"/>
+      <c r="Q98" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="R98" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="S98" s="10"/>
       <c r="T98" s="10"/>
       <c r="U98" s="10"/>
@@ -11459,15 +11628,15 @@
       <c r="AA98" s="10"/>
       <c r="AB98" s="10"/>
     </row>
-    <row r="99" ht="35" customHeight="1" spans="1:28">
+    <row r="99" ht="50.25" spans="1:28">
       <c r="A99" s="10">
         <v>98</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>506</v>
+        <v>538</v>
       </c>
       <c r="C99" s="20" t="s">
-        <v>507</v>
+        <v>539</v>
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="8">
@@ -11489,7 +11658,7 @@
         <v>38</v>
       </c>
       <c r="K99" s="6" t="s">
-        <v>504</v>
+        <v>534</v>
       </c>
       <c r="L99" s="8">
         <v>3</v>
@@ -11504,8 +11673,12 @@
         <v>348</v>
       </c>
       <c r="P99" s="8"/>
-      <c r="Q99" s="8"/>
-      <c r="R99" s="8"/>
+      <c r="Q99" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="R99" s="8" t="s">
+        <v>541</v>
+      </c>
       <c r="S99" s="8"/>
       <c r="T99" s="8"/>
       <c r="U99" s="8"/>
@@ -11525,7 +11698,7 @@
         <v>255</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>508</v>
+        <v>542</v>
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="10">
@@ -11583,7 +11756,7 @@
         <v>269</v>
       </c>
       <c r="C101" s="20" t="s">
-        <v>509</v>
+        <v>543</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="8">
@@ -11641,7 +11814,7 @@
         <v>273</v>
       </c>
       <c r="C102" s="20" t="s">
-        <v>510</v>
+        <v>544</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="10">
@@ -11699,7 +11872,7 @@
         <v>278</v>
       </c>
       <c r="C103" s="20" t="s">
-        <v>511</v>
+        <v>545</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="8">
@@ -11754,10 +11927,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>512</v>
+        <v>546</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>513</v>
+        <v>547</v>
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="10">
@@ -11812,10 +11985,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>514</v>
+        <v>548</v>
       </c>
       <c r="C105" s="20" t="s">
-        <v>515</v>
+        <v>549</v>
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="8">
@@ -11870,10 +12043,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="21" t="s">
-        <v>516</v>
+        <v>550</v>
       </c>
       <c r="C106" s="20" t="s">
-        <v>517</v>
+        <v>551</v>
       </c>
       <c r="D106" s="11"/>
       <c r="E106" s="10">
@@ -11895,13 +12068,13 @@
         <v>38</v>
       </c>
       <c r="K106" s="6" t="s">
-        <v>518</v>
+        <v>552</v>
       </c>
       <c r="L106" s="10">
         <v>1</v>
       </c>
       <c r="M106" s="10" t="s">
-        <v>519</v>
+        <v>553</v>
       </c>
       <c r="N106" s="10">
         <v>3</v>
@@ -11928,10 +12101,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>520</v>
+        <v>554</v>
       </c>
       <c r="C107" s="20" t="s">
-        <v>521</v>
+        <v>555</v>
       </c>
       <c r="D107" s="9"/>
       <c r="E107" s="8">
@@ -11953,13 +12126,13 @@
         <v>38</v>
       </c>
       <c r="K107" s="6" t="s">
-        <v>518</v>
+        <v>552</v>
       </c>
       <c r="L107" s="8">
         <v>2</v>
       </c>
       <c r="M107" s="10" t="s">
-        <v>522</v>
+        <v>556</v>
       </c>
       <c r="N107" s="8">
         <v>2</v>
@@ -11986,10 +12159,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>523</v>
+        <v>557</v>
       </c>
       <c r="C108" s="20" t="s">
-        <v>524</v>
+        <v>558</v>
       </c>
       <c r="D108" s="11"/>
       <c r="E108" s="10">
@@ -12011,7 +12184,7 @@
         <v>38</v>
       </c>
       <c r="K108" s="6" t="s">
-        <v>518</v>
+        <v>552</v>
       </c>
       <c r="L108" s="10">
         <v>3</v>
@@ -12044,10 +12217,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="24" t="s">
-        <v>525</v>
+        <v>559</v>
       </c>
       <c r="C109" s="20" t="s">
-        <v>526</v>
+        <v>560</v>
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="8">
@@ -12069,13 +12242,13 @@
         <v>38</v>
       </c>
       <c r="K109" s="6" t="s">
-        <v>527</v>
+        <v>561</v>
       </c>
       <c r="L109" s="8">
         <v>1</v>
       </c>
       <c r="M109" s="10" t="s">
-        <v>528</v>
+        <v>562</v>
       </c>
       <c r="N109" s="8">
         <v>3</v>
@@ -12102,10 +12275,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>529</v>
+        <v>563</v>
       </c>
       <c r="C110" s="20" t="s">
-        <v>530</v>
+        <v>564</v>
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="10">
@@ -12127,7 +12300,7 @@
         <v>38</v>
       </c>
       <c r="K110" s="6" t="s">
-        <v>527</v>
+        <v>561</v>
       </c>
       <c r="L110" s="10">
         <v>2</v>
@@ -12163,7 +12336,7 @@
         <v>316</v>
       </c>
       <c r="C111" s="20" t="s">
-        <v>531</v>
+        <v>565</v>
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="8">
@@ -12218,10 +12391,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>532</v>
+        <v>566</v>
       </c>
       <c r="C112" s="20" t="s">
-        <v>533</v>
+        <v>567</v>
       </c>
       <c r="D112" s="11"/>
       <c r="E112" s="10">
@@ -12276,10 +12449,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>534</v>
+        <v>568</v>
       </c>
       <c r="C113" s="20" t="s">
-        <v>535</v>
+        <v>569</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="8">
@@ -12334,10 +12507,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="24" t="s">
-        <v>536</v>
+        <v>570</v>
       </c>
       <c r="C114" s="20" t="s">
-        <v>537</v>
+        <v>571</v>
       </c>
       <c r="D114" s="11"/>
       <c r="E114" s="10">
@@ -12359,13 +12532,13 @@
         <v>38</v>
       </c>
       <c r="K114" s="6" t="s">
-        <v>538</v>
+        <v>572</v>
       </c>
       <c r="L114" s="10">
         <v>1</v>
       </c>
       <c r="M114" s="10" t="s">
-        <v>539</v>
+        <v>573</v>
       </c>
       <c r="N114" s="10">
         <v>1</v>
@@ -12392,10 +12565,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>540</v>
+        <v>574</v>
       </c>
       <c r="C115" s="20" t="s">
-        <v>541</v>
+        <v>575</v>
       </c>
       <c r="D115" s="11"/>
       <c r="E115" s="10">
@@ -12417,7 +12590,7 @@
         <v>38</v>
       </c>
       <c r="K115" s="6" t="s">
-        <v>538</v>
+        <v>572</v>
       </c>
       <c r="L115" s="10">
         <v>2</v>
@@ -12450,10 +12623,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>542</v>
+        <v>576</v>
       </c>
       <c r="C116" s="20" t="s">
-        <v>543</v>
+        <v>577</v>
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="10">
@@ -12475,7 +12648,7 @@
         <v>38</v>
       </c>
       <c r="K116" s="6" t="s">
-        <v>538</v>
+        <v>572</v>
       </c>
       <c r="L116" s="10">
         <v>2</v>
@@ -12508,10 +12681,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>544</v>
+        <v>578</v>
       </c>
       <c r="C117" s="20" t="s">
-        <v>545</v>
+        <v>579</v>
       </c>
       <c r="D117" s="11"/>
       <c r="E117" s="10">
@@ -12533,7 +12706,7 @@
         <v>38</v>
       </c>
       <c r="K117" s="6" t="s">
-        <v>538</v>
+        <v>572</v>
       </c>
       <c r="L117" s="10">
         <v>2</v>
@@ -12566,10 +12739,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="25" t="s">
-        <v>546</v>
+        <v>580</v>
       </c>
       <c r="C118" s="25" t="s">
-        <v>547</v>
+        <v>581</v>
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="10">
@@ -12591,7 +12764,7 @@
         <v>38</v>
       </c>
       <c r="K118" s="6" t="s">
-        <v>538</v>
+        <v>572</v>
       </c>
       <c r="L118" s="10">
         <v>2</v>
@@ -12622,9 +12795,9 @@
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AB118" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="4">
-      <filters>
-        <filter val="101"/>
-      </filters>
+      <customFilters>
+        <customFilter operator="equal" val="101"/>
+      </customFilters>
     </filterColumn>
     <extLst/>
   </autoFilter>

--- a/excels/config/game/hero/talent_tree/talent_tree_config.xlsx
+++ b/excels/config/game/hero/talent_tree/talent_tree_config.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="662">
   <si>
     <t>下标</t>
   </si>
@@ -1107,7 +1107,7 @@
     <t>mana_pct 50</t>
   </si>
   <si>
-    <t>单体法术</t>
+    <t>魔法飞弹</t>
   </si>
   <si>
     <t>攻击1名敌人，造成攻击力100%的技能基础伤害，并回复10点蓝量。</t>
@@ -1119,6 +1119,9 @@
     <t>59|62|65</t>
   </si>
   <si>
+    <t>hero/skywrath/魔法飞弹</t>
+  </si>
+  <si>
     <t>雷鸣</t>
   </si>
   <si>
@@ -1131,6 +1134,9 @@
     <t>60|61</t>
   </si>
   <si>
+    <t>hero/skywrath/雷鸣</t>
+  </si>
+  <si>
     <t>base_bonus 40</t>
   </si>
   <si>
@@ -1143,6 +1149,9 @@
     <t>雷鸣触发暴击时，会追加从天而降的雷电，造成该次雷鸣的200%/300%伤害。</t>
   </si>
   <si>
+    <t>hero/skywrath/悲鸣</t>
+  </si>
+  <si>
     <t>base_bonus_mul 200 300</t>
   </si>
   <si>
@@ -1152,6 +1161,9 @@
     <t>雷鸣造成伤害时会在区域留下250范围的引雷区持续3秒，引雷区域的单位受到雷元素伤害增加50%/100%。</t>
   </si>
   <si>
+    <t>hero/skywrath/引雷</t>
+  </si>
+  <si>
     <t>yl_thunder_bonus 50 100</t>
   </si>
   <si>
@@ -1173,6 +1185,9 @@
     <t>63|64</t>
   </si>
   <si>
+    <t>hero/skywrath/寒风波</t>
+  </si>
+  <si>
     <t>base_bonus 25 35 50</t>
   </si>
   <si>
@@ -1188,6 +1203,9 @@
     <t>分散单位增加 1/2</t>
   </si>
   <si>
+    <t>hero/skywrath/凛冽</t>
+  </si>
+  <si>
     <t>split_count_bonus 1 2</t>
   </si>
   <si>
@@ -1195,6 +1213,9 @@
   </si>
   <si>
     <t>寒风波命中的冰冻状态下的敌人时，造成伤害提高2.5/5倍。</t>
+  </si>
+  <si>
+    <t>hero/skywrath/霜冻</t>
   </si>
   <si>
     <t>frozen_mul 2.5 5</t>
@@ -1213,6 +1234,9 @@
     <t>66|67</t>
   </si>
   <si>
+    <t>hero/skywrath/炎龙</t>
+  </si>
+  <si>
     <t>base_bonus 20 30 40</t>
   </si>
   <si>
@@ -1231,6 +1255,9 @@
     <t>蓄力4/3秒（可用移动打断蓄力即可释放），向同一个方向发出4/6条炎龙。</t>
   </si>
   <si>
+    <t>hero/skywrath/龙哮</t>
+  </si>
+  <si>
     <t>channel 4 3</t>
   </si>
   <si>
@@ -1241,6 +1268,9 @@
   </si>
   <si>
     <t>单位受到炎龙伤害，下次收到炎龙伤害提高25%,,可叠加,最多持续5秒</t>
+  </si>
+  <si>
+    <t>hero/skywrath/龙印</t>
   </si>
   <si>
     <t>ylong_stack_dmg 25</t>
@@ -1263,6 +1293,9 @@
   </si>
   <si>
     <t>69|72</t>
+  </si>
+  <si>
+    <t>hero/skywrath/元素缭绕</t>
   </si>
   <si>
     <t>radius 650</t>
@@ -1282,6 +1315,9 @@
     <t>70|0</t>
   </si>
   <si>
+    <t>hero/skywrath/炎爆</t>
+  </si>
+  <si>
     <t>base_bonus 50</t>
   </si>
   <si>
@@ -1306,6 +1342,9 @@
     <t>71|0</t>
   </si>
   <si>
+    <t>hero/skywrath/烈炎</t>
+  </si>
+  <si>
     <t>reduce_interval 1 2</t>
   </si>
   <si>
@@ -1315,6 +1354,9 @@
     <t>火球不再因为爆炸消失，火球持续时间延长5秒。</t>
   </si>
   <si>
+    <t>hero/skywrath/炽热</t>
+  </si>
+  <si>
     <t>fb_duration_bonus 5</t>
   </si>
   <si>
@@ -1330,6 +1372,9 @@
     <t>73|0</t>
   </si>
   <si>
+    <t>hero/skywrath/霜降</t>
+  </si>
+  <si>
     <t>base_bonus 30 40 50</t>
   </si>
   <si>
@@ -1342,6 +1387,9 @@
     <t>74|0</t>
   </si>
   <si>
+    <t>hero/skywrath/零度</t>
+  </si>
+  <si>
     <t>count 1 2</t>
   </si>
   <si>
@@ -1349,6 +1397,9 @@
   </si>
   <si>
     <t>触碰到冰块的敌人强制冻结1秒。</t>
+  </si>
+  <si>
+    <t>hero/skywrath/永冻</t>
   </si>
   <si>
     <t>frozen_duration 1</t>
@@ -1370,6 +1421,9 @@
     <t>76|79</t>
   </si>
   <si>
+    <t>hero/skywrath/雷电屏障</t>
+  </si>
+  <si>
     <t>感电线圈</t>
   </si>
   <si>
@@ -1377,12 +1431,18 @@
 线圈伤害间隔1.0s，额外提升40%/70%/100%的技能基础伤害</t>
   </si>
   <si>
+    <t>Ring</t>
+  </si>
+  <si>
     <t>skywrath_2b_a</t>
   </si>
   <si>
     <t>77|0</t>
   </si>
   <si>
+    <t>hero/skywrath/感电线圈_</t>
+  </si>
+  <si>
     <t>bonus_base 40 70 100</t>
   </si>
   <si>
@@ -1401,6 +1461,9 @@
     <t>78|0</t>
   </si>
   <si>
+    <t>hero/skywrath/磁暴</t>
+  </si>
+  <si>
     <t>stack_bonus_dmg 5 10</t>
   </si>
   <si>
@@ -1408,6 +1471,9 @@
   </si>
   <si>
     <t>每8/6秒再内圈450码位置再生成一个相同电圈，持续5秒。</t>
+  </si>
+  <si>
+    <t>hero/skywrath/控雷</t>
   </si>
   <si>
     <t>interval 8 6</t>
@@ -1432,6 +1498,9 @@
     <t>80|0</t>
   </si>
   <si>
+    <t>hero/skywrath/极寒冰圈</t>
+  </si>
+  <si>
     <t>bonus_base 30 50 70</t>
   </si>
   <si>
@@ -1442,6 +1511,9 @@
   </si>
   <si>
     <t>81|0</t>
+  </si>
+  <si>
+    <t>hero/skywrath/急冻</t>
   </si>
   <si>
     <t>value 20 47</t>
@@ -1454,6 +1526,9 @@
 冷气效果：受到冰元素伤害提高10%。</t>
   </si>
   <si>
+    <t>hero/skywrath/冷气</t>
+  </si>
+  <si>
     <t>lq_stack 5 10</t>
   </si>
   <si>
@@ -1482,6 +1557,9 @@
   </si>
   <si>
     <t>无视元素抗性5%/7.5%/10%</t>
+  </si>
+  <si>
+    <t>hero/generic/邪神</t>
   </si>
   <si>
     <t>value 5 7.5 10</t>
@@ -1504,6 +1582,9 @@
     <t>87|91</t>
   </si>
   <si>
+    <t>hero/skywrath/元素轰炸</t>
+  </si>
+  <si>
     <t>base_value 100 120 140 160 180</t>
   </si>
   <si>
@@ -1537,6 +1618,9 @@
     <t>88|0</t>
   </si>
   <si>
+    <t>hero/skywrath/陨石雨</t>
+  </si>
+  <si>
     <t>bonus_base 50 70 100</t>
   </si>
   <si>
@@ -1554,6 +1638,9 @@
   </si>
   <si>
     <t>89|0</t>
+  </si>
+  <si>
+    <t>hero/skywrath/火种</t>
   </si>
   <si>
     <t>tinder_duration 30</t>
@@ -1573,6 +1660,9 @@
     <t>90|0</t>
   </si>
   <si>
+    <t>hero/skywrath/引爆</t>
+  </si>
+  <si>
     <t>tinder_damage 200</t>
   </si>
   <si>
@@ -1583,6 +1673,9 @@
   </si>
   <si>
     <t>陨石雨对3秒内被陨石雨命中过目标造成伤害时，提高50%/100%伤害加成。</t>
+  </si>
+  <si>
+    <t>hero/skywrath/焚天</t>
   </si>
   <si>
     <t>meteor_duration 3</t>
@@ -1605,6 +1698,9 @@
     <t>92|0</t>
   </si>
   <si>
+    <t>hero/skywrath/奔雷领域</t>
+  </si>
+  <si>
     <t>bonus_base 20 40 60</t>
   </si>
   <si>
@@ -1622,6 +1718,9 @@
     <t>93|0</t>
   </si>
   <si>
+    <t>hero/skywrath/雷云</t>
+  </si>
+  <si>
     <t>thundercloud_dmg 125</t>
   </si>
   <si>
@@ -1635,6 +1734,9 @@
   </si>
   <si>
     <t>对引雷区域的敌人造成的伤害翻倍。</t>
+  </si>
+  <si>
+    <t>hero/skywrath/低压</t>
   </si>
   <si>
     <t>yinlei_mul 2</t>
@@ -1655,6 +1757,9 @@
     <t>95|97</t>
   </si>
   <si>
+    <t>hero/skywrath/法阵</t>
+  </si>
+  <si>
     <t>base_value 350</t>
   </si>
   <si>
@@ -1678,6 +1783,9 @@
     <t>96|0</t>
   </si>
   <si>
+    <t>hero/skywrath/极寒领域</t>
+  </si>
+  <si>
     <t>jihan_radius 600</t>
   </si>
   <si>
@@ -1685,6 +1793,9 @@
   </si>
   <si>
     <t>极寒领域cd减少10秒。</t>
+  </si>
+  <si>
+    <t>hero/skywrath/冰尘</t>
   </si>
   <si>
     <t>reduce_cd 10</t>
@@ -1704,6 +1815,9 @@
     <t>98|0</t>
   </si>
   <si>
+    <t>hero/skywrath/死亡空间</t>
+  </si>
+  <si>
     <t>bonus_base 10 20 30</t>
   </si>
   <si>
@@ -1720,6 +1834,9 @@
 真实伤害,不吃减免,血量少于5%则直接死亡</t>
   </si>
   <si>
+    <t>hero/skywrath/至暗</t>
+  </si>
+  <si>
     <t>element_resist -50</t>
   </si>
   <si>
@@ -1729,21 +1846,45 @@
     <t>生命值大于50%时，提升5%/10%/15%的最终伤害；生命值小于50%时，降低5%/10%/15%的伤害减免。</t>
   </si>
   <si>
+    <t>value1 5 10 15</t>
+  </si>
+  <si>
+    <t>value2 5 10 15</t>
+  </si>
+  <si>
     <t>对被减速的敌人造成伤害时，暴击概率提高5%/10%/15%/20%/25%</t>
   </si>
   <si>
+    <t>value 5 10 15 20 25</t>
+  </si>
+  <si>
     <t>蓝量小于最大蓝量的20%/30%时，每秒恢复5点蓝量。</t>
   </si>
   <si>
+    <t>mana_most 20 30</t>
+  </si>
+  <si>
+    <t>value 5</t>
+  </si>
+  <si>
     <t>每过5秒，回复4%/8%最大生命值。</t>
   </si>
   <si>
+    <t>timer 5</t>
+  </si>
+  <si>
+    <t>hp_max 4 8</t>
+  </si>
+  <si>
     <t>惩恶</t>
   </si>
   <si>
     <t>对非精英怪单位提高10%/20%/30%/40%/50%伤害加成。</t>
   </si>
   <si>
+    <t>hero/generic/惩恶</t>
+  </si>
+  <si>
     <t>节俭</t>
   </si>
   <si>
@@ -1762,6 +1903,12 @@
     <t>106|0</t>
   </si>
   <si>
+    <t>hero/skywrath/充沛</t>
+  </si>
+  <si>
+    <t>value 50 70 100</t>
+  </si>
+  <si>
     <t>能量补充</t>
   </si>
   <si>
@@ -1771,10 +1918,25 @@
     <t>107|0</t>
   </si>
   <si>
-    <t>聪慧（1/1）</t>
-  </si>
-  <si>
-    <t>技能释放时每消耗1点蓝量提高该次技能1%的技能强度</t>
+    <t>hero/skywrath/能量补充</t>
+  </si>
+  <si>
+    <t>value 5 10</t>
+  </si>
+  <si>
+    <t>聪慧</t>
+  </si>
+  <si>
+    <t>技能释放时每消耗1点蓝量提高该技能1%的伤害加成</t>
+  </si>
+  <si>
+    <t>hero/skywrath/聪慧</t>
+  </si>
+  <si>
+    <t>value 1</t>
+  </si>
+  <si>
+    <t>power 1</t>
   </si>
   <si>
     <t>盈能模式</t>
@@ -1790,12 +1952,30 @@
     <t>109|0</t>
   </si>
   <si>
+    <t>hero/skywrath/盈能模式</t>
+  </si>
+  <si>
+    <t>cd_value 50</t>
+  </si>
+  <si>
+    <t>mana_value 50</t>
+  </si>
+  <si>
+    <t>duration 5 8 12</t>
+  </si>
+  <si>
     <t>狂暴</t>
   </si>
   <si>
     <t>盈能模式cd降低15秒。</t>
   </si>
   <si>
+    <t>hero/skywrath/狂暴</t>
+  </si>
+  <si>
+    <t>reduce_cd 15</t>
+  </si>
+  <si>
     <t>提高15%/20%/25%的伤害加成，同时受到的伤害也会提高15%。</t>
   </si>
   <si>
@@ -1805,10 +1985,19 @@
     <t>提高5%/7.5%/10%/12.5%/15%的全元素伤害</t>
   </si>
   <si>
+    <t>hero/generic/精通</t>
+  </si>
+  <si>
     <t>贯通</t>
   </si>
   <si>
     <t>暴击时，3秒内提高10%/20%/30%的伤害加成。</t>
+  </si>
+  <si>
+    <t>hero/generic/贯通</t>
+  </si>
+  <si>
+    <t>value 10 20 30</t>
   </si>
   <si>
     <t>奥术分身</t>
@@ -1819,34 +2008,73 @@
 持续时间：20秒</t>
   </si>
   <si>
+    <t>Summon</t>
+  </si>
+  <si>
     <t>skywrath_5</t>
   </si>
   <si>
     <t>114|115|116|117</t>
   </si>
   <si>
+    <t>hero/skywrath/奥术分身</t>
+  </si>
+  <si>
+    <t>duration 20</t>
+  </si>
+  <si>
+    <t>image_dmg 25</t>
+  </si>
+  <si>
     <t>冰语</t>
   </si>
   <si>
     <t>分身获得冰元素之力，模仿冰元素技能时伤害额外提升25%，且提高50%的冰元素伤害</t>
   </si>
   <si>
+    <t>hero/skywrath/奥术分身1</t>
+  </si>
+  <si>
+    <t>bonus_ice 50</t>
+  </si>
+  <si>
+    <t>image_dmg_bonus 25</t>
+  </si>
+  <si>
     <t>雷临</t>
   </si>
   <si>
     <t>分身获得雷元素之力，模仿雷元素技能时伤害额外提升25%，且分身持续期间，所有技能冷却时间减少50%</t>
   </si>
   <si>
+    <t>hero/skywrath/奥术分身2</t>
+  </si>
+  <si>
+    <t>reduce_cd_pct 50</t>
+  </si>
+  <si>
     <t>火烬</t>
   </si>
   <si>
     <t>分身获得火元素之力，模仿火元素技能时伤害额外提升75%</t>
   </si>
   <si>
+    <t>hero/skywrath/奥术分身3</t>
+  </si>
+  <si>
+    <t>bonus_fire 75</t>
+  </si>
+  <si>
     <t>暗影</t>
   </si>
   <si>
     <t>分身获得暗元素之力，模仿任意技能均结算为暗元素伤害。</t>
+  </si>
+  <si>
+    <t>hero/skywrath/奥术分身4</t>
+  </si>
+  <si>
+    <t>shadow 1</t>
   </si>
 </sst>
 </file>
@@ -3786,36 +4014,36 @@
     </dxf>
   </dxfs>
   <tableStyles count="9" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{2EF7B934-3318-422C-A4D3-6298298BAD88}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{486B3DD3-CDE6-4ABD-A1FF-9211C7DDC02D}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{E3E7164A-369C-4B81-BEC6-D7DBAF29DDE4}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{777A90A0-DF71-4926-8666-C1A09943D6C7}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{3B6C1D16-7F59-409B-8D9E-C4DE3C61ED17}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{5FC2B620-E08F-4CAE-8063-FECD5B99348A}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{F9AEC47F-0E29-43A9-861A-5704F7181F88}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{0C416D8B-30E1-4BDC-969E-A1304ACC4BA5}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{6D40E40E-9E9D-4B61-9705-4317FF715B29}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{5ECAF851-1A9E-4C2B-9206-1AE0B29791AF}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{F064CB64-B5A9-4191-9108-83429862172A}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{1EFC3742-81F7-44F0-96C1-192E5BE0EAA2}">
       <tableStyleElement type="wholeTable" dxfId="28"/>
       <tableStyleElement type="headerRow" dxfId="27"/>
       <tableStyleElement type="totalRow" dxfId="26"/>
@@ -3827,7 +4055,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="20"/>
       <tableStyleElement type="lastTotalCell" dxfId="19"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{1E360997-FA3B-49A4-A04C-BBF33598D39B}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{3D4E639A-5845-4100-81B7-B9E958CBC745}">
       <tableStyleElement type="wholeTable" dxfId="40"/>
       <tableStyleElement type="headerRow" dxfId="39"/>
       <tableStyleElement type="totalRow" dxfId="38"/>
@@ -3841,7 +4069,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="30"/>
       <tableStyleElement type="lastTotalCell" dxfId="29"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{7F267D38-DB71-48E2-B7E4-241C20D6C3C8}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{D9173431-F386-4FA6-A9FB-70C6A1012571}">
       <tableStyleElement type="wholeTable" dxfId="47"/>
       <tableStyleElement type="headerRow" dxfId="46"/>
       <tableStyleElement type="totalRow" dxfId="45"/>
@@ -3850,7 +4078,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="42"/>
       <tableStyleElement type="firstColumnStripe" dxfId="41"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{A2A5CC9A-D6CB-41C1-A466-4C9553921157}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{93E25D79-FA55-4770-9676-3ECEC30B48B2}">
       <tableStyleElement type="wholeTable" dxfId="52"/>
       <tableStyleElement type="headerRow" dxfId="51"/>
       <tableStyleElement type="totalRow" dxfId="50"/>
@@ -4158,13 +4386,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:AC118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="R98" sqref="R98"/>
+      <selection pane="topRight" activeCell="K96" sqref="K96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4284,7 +4512,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="18.5" hidden="1" customHeight="1" spans="1:29">
+    <row r="2" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:29">
       <c r="A2" s="6" t="s">
         <v>18</v>
       </c>
@@ -4373,7 +4601,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" ht="51.5" hidden="1" customHeight="1" spans="1:29">
+    <row r="3" ht="51.5" customHeight="1" spans="1:29">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -4438,7 +4666,7 @@
       <c r="AB3" s="8"/>
       <c r="AC3" s="8"/>
     </row>
-    <row r="4" ht="51.5" hidden="1" customHeight="1" spans="1:29">
+    <row r="4" ht="51.5" customHeight="1" spans="1:29">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -4503,7 +4731,7 @@
       <c r="AB4" s="10"/>
       <c r="AC4" s="10"/>
     </row>
-    <row r="5" ht="35" hidden="1" customHeight="1" spans="1:29">
+    <row r="5" ht="35" customHeight="1" spans="1:29">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -4568,7 +4796,7 @@
       <c r="AB5" s="8"/>
       <c r="AC5" s="8"/>
     </row>
-    <row r="6" ht="35" hidden="1" customHeight="1" spans="1:29">
+    <row r="6" ht="35" customHeight="1" spans="1:29">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -4633,7 +4861,7 @@
       <c r="AB6" s="10"/>
       <c r="AC6" s="10"/>
     </row>
-    <row r="7" ht="68" hidden="1" customHeight="1" spans="1:29">
+    <row r="7" ht="68" customHeight="1" spans="1:29">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -4696,7 +4924,7 @@
       <c r="AB7" s="8"/>
       <c r="AC7" s="8"/>
     </row>
-    <row r="8" ht="35" hidden="1" customHeight="1" spans="1:29">
+    <row r="8" ht="35" customHeight="1" spans="1:29">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -4759,7 +4987,7 @@
       <c r="AB8" s="10"/>
       <c r="AC8" s="10"/>
     </row>
-    <row r="9" ht="18.5" hidden="1" customHeight="1" spans="1:29">
+    <row r="9" ht="18.5" customHeight="1" spans="1:29">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -4822,7 +5050,7 @@
       <c r="AB9" s="8"/>
       <c r="AC9" s="8"/>
     </row>
-    <row r="10" ht="35" hidden="1" customHeight="1" spans="1:29">
+    <row r="10" ht="35" customHeight="1" spans="1:29">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -4885,7 +5113,7 @@
       <c r="AB10" s="10"/>
       <c r="AC10" s="10"/>
     </row>
-    <row r="11" ht="35" hidden="1" customHeight="1" spans="1:29">
+    <row r="11" ht="35" customHeight="1" spans="1:29">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -4948,7 +5176,7 @@
       <c r="AB11" s="8"/>
       <c r="AC11" s="8"/>
     </row>
-    <row r="12" ht="35" hidden="1" customHeight="1" spans="1:29">
+    <row r="12" ht="35" customHeight="1" spans="1:29">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -5013,7 +5241,7 @@
       <c r="AB12" s="10"/>
       <c r="AC12" s="10"/>
     </row>
-    <row r="13" ht="18.5" hidden="1" customHeight="1" spans="1:29">
+    <row r="13" ht="18.5" customHeight="1" spans="1:29">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -5076,7 +5304,7 @@
       <c r="AB13" s="8"/>
       <c r="AC13" s="8"/>
     </row>
-    <row r="14" ht="51.5" hidden="1" customHeight="1" spans="1:29">
+    <row r="14" ht="51.5" customHeight="1" spans="1:29">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -5143,7 +5371,7 @@
       <c r="AB14" s="10"/>
       <c r="AC14" s="10"/>
     </row>
-    <row r="15" ht="35" hidden="1" customHeight="1" spans="1:29">
+    <row r="15" ht="35" customHeight="1" spans="1:29">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -5206,7 +5434,7 @@
       <c r="AB15" s="8"/>
       <c r="AC15" s="8"/>
     </row>
-    <row r="16" ht="35" hidden="1" customHeight="1" spans="1:29">
+    <row r="16" ht="35" customHeight="1" spans="1:29">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -5269,7 +5497,7 @@
       <c r="AB16" s="10"/>
       <c r="AC16" s="10"/>
     </row>
-    <row r="17" ht="18.5" hidden="1" customHeight="1" spans="1:29">
+    <row r="17" ht="18.5" customHeight="1" spans="1:29">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -5336,7 +5564,7 @@
       <c r="AB17" s="8"/>
       <c r="AC17" s="8"/>
     </row>
-    <row r="18" ht="68" hidden="1" customHeight="1" spans="1:29">
+    <row r="18" ht="68" customHeight="1" spans="1:29">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -5403,7 +5631,7 @@
       <c r="AB18" s="10"/>
       <c r="AC18" s="10"/>
     </row>
-    <row r="19" ht="35" hidden="1" customHeight="1" spans="1:29">
+    <row r="19" ht="35" customHeight="1" spans="1:29">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -5468,7 +5696,7 @@
       <c r="AB19" s="8"/>
       <c r="AC19" s="8"/>
     </row>
-    <row r="20" ht="51.5" hidden="1" customHeight="1" spans="1:29">
+    <row r="20" ht="51.5" customHeight="1" spans="1:29">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -5531,7 +5759,7 @@
       <c r="AB20" s="10"/>
       <c r="AC20" s="10"/>
     </row>
-    <row r="21" ht="18.5" hidden="1" customHeight="1" spans="1:29">
+    <row r="21" ht="18.5" customHeight="1" spans="1:29">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -5594,7 +5822,7 @@
       <c r="AB21" s="8"/>
       <c r="AC21" s="8"/>
     </row>
-    <row r="22" ht="35" hidden="1" customHeight="1" spans="1:29">
+    <row r="22" ht="35" customHeight="1" spans="1:29">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -5659,7 +5887,7 @@
       <c r="AB22" s="10"/>
       <c r="AC22" s="10"/>
     </row>
-    <row r="23" ht="35" hidden="1" customHeight="1" spans="1:29">
+    <row r="23" ht="35" customHeight="1" spans="1:29">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -5722,7 +5950,7 @@
       <c r="AB23" s="8"/>
       <c r="AC23" s="8"/>
     </row>
-    <row r="24" ht="51.5" hidden="1" customHeight="1" spans="1:29">
+    <row r="24" ht="51.5" customHeight="1" spans="1:29">
       <c r="A24" s="10">
         <v>23</v>
       </c>
@@ -5787,7 +6015,7 @@
       <c r="AB24" s="10"/>
       <c r="AC24" s="10"/>
     </row>
-    <row r="25" ht="35" hidden="1" customHeight="1" spans="1:29">
+    <row r="25" ht="35" customHeight="1" spans="1:29">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -5850,7 +6078,7 @@
       <c r="AB25" s="8"/>
       <c r="AC25" s="8"/>
     </row>
-    <row r="26" ht="51.5" hidden="1" customHeight="1" spans="1:29">
+    <row r="26" ht="51.5" customHeight="1" spans="1:29">
       <c r="A26" s="10">
         <v>25</v>
       </c>
@@ -5913,7 +6141,7 @@
       <c r="AB26" s="10"/>
       <c r="AC26" s="10"/>
     </row>
-    <row r="27" ht="35" hidden="1" customHeight="1" spans="1:29">
+    <row r="27" ht="35" customHeight="1" spans="1:29">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -5978,7 +6206,7 @@
       <c r="AB27" s="8"/>
       <c r="AC27" s="8"/>
     </row>
-    <row r="28" ht="51.5" hidden="1" customHeight="1" spans="1:29">
+    <row r="28" ht="51.5" customHeight="1" spans="1:29">
       <c r="A28" s="10">
         <v>27</v>
       </c>
@@ -6041,7 +6269,7 @@
       <c r="AB28" s="10"/>
       <c r="AC28" s="10"/>
     </row>
-    <row r="29" ht="51.5" hidden="1" customHeight="1" spans="1:29">
+    <row r="29" ht="51.5" customHeight="1" spans="1:29">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -6104,7 +6332,7 @@
       <c r="AB29" s="8"/>
       <c r="AC29" s="8"/>
     </row>
-    <row r="30" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:29">
+    <row r="30" customFormat="1" ht="51.5" customHeight="1" spans="1:29">
       <c r="A30" s="10">
         <v>29</v>
       </c>
@@ -6171,7 +6399,7 @@
       <c r="AB30" s="10"/>
       <c r="AC30" s="10"/>
     </row>
-    <row r="31" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:29">
+    <row r="31" customFormat="1" ht="35" customHeight="1" spans="1:29">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -6234,7 +6462,7 @@
       <c r="AB31" s="8"/>
       <c r="AC31" s="8"/>
     </row>
-    <row r="32" customFormat="1" ht="68" hidden="1" customHeight="1" spans="1:29">
+    <row r="32" customFormat="1" ht="68" customHeight="1" spans="1:29">
       <c r="A32" s="10">
         <v>31</v>
       </c>
@@ -6301,7 +6529,7 @@
       <c r="AB32" s="10"/>
       <c r="AC32" s="10"/>
     </row>
-    <row r="33" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:29">
+    <row r="33" customFormat="1" ht="51.5" customHeight="1" spans="1:29">
       <c r="A33" s="8">
         <v>32</v>
       </c>
@@ -6364,7 +6592,7 @@
       <c r="AB33" s="8"/>
       <c r="AC33" s="8"/>
     </row>
-    <row r="34" customFormat="1" ht="101" hidden="1" customHeight="1" spans="1:29">
+    <row r="34" customFormat="1" ht="101" customHeight="1" spans="1:29">
       <c r="A34" s="10">
         <v>33</v>
       </c>
@@ -6431,7 +6659,7 @@
       <c r="AB34" s="10"/>
       <c r="AC34" s="10"/>
     </row>
-    <row r="35" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:29">
+    <row r="35" customFormat="1" ht="51.5" customHeight="1" spans="1:29">
       <c r="A35" s="8">
         <v>34</v>
       </c>
@@ -6498,7 +6726,7 @@
       <c r="AB35" s="8"/>
       <c r="AC35" s="8"/>
     </row>
-    <row r="36" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:29">
+    <row r="36" customFormat="1" ht="51.5" customHeight="1" spans="1:29">
       <c r="A36" s="10">
         <v>35</v>
       </c>
@@ -6567,7 +6795,7 @@
       <c r="AB36" s="10"/>
       <c r="AC36" s="10"/>
     </row>
-    <row r="37" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:29">
+    <row r="37" customFormat="1" ht="35" customHeight="1" spans="1:29">
       <c r="A37" s="8">
         <v>36</v>
       </c>
@@ -6630,7 +6858,7 @@
       <c r="AB37" s="8"/>
       <c r="AC37" s="8"/>
     </row>
-    <row r="38" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:29">
+    <row r="38" customFormat="1" ht="51.5" customHeight="1" spans="1:29">
       <c r="A38" s="10">
         <v>37</v>
       </c>
@@ -6695,7 +6923,7 @@
       <c r="AB38" s="10"/>
       <c r="AC38" s="10"/>
     </row>
-    <row r="39" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:29">
+    <row r="39" customFormat="1" ht="35" customHeight="1" spans="1:29">
       <c r="A39" s="8">
         <v>38</v>
       </c>
@@ -6758,7 +6986,7 @@
       <c r="AB39" s="8"/>
       <c r="AC39" s="8"/>
     </row>
-    <row r="40" customFormat="1" ht="68" hidden="1" customHeight="1" spans="1:29">
+    <row r="40" customFormat="1" ht="68" customHeight="1" spans="1:29">
       <c r="A40" s="10">
         <v>39</v>
       </c>
@@ -6825,7 +7053,7 @@
       <c r="AB40" s="10"/>
       <c r="AC40" s="10"/>
     </row>
-    <row r="41" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:29">
+    <row r="41" customFormat="1" ht="51.5" customHeight="1" spans="1:29">
       <c r="A41" s="8">
         <v>40</v>
       </c>
@@ -6888,7 +7116,7 @@
       <c r="AB41" s="8"/>
       <c r="AC41" s="8"/>
     </row>
-    <row r="42" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:29">
+    <row r="42" customFormat="1" ht="35" customHeight="1" spans="1:29">
       <c r="A42" s="10">
         <v>41</v>
       </c>
@@ -6951,7 +7179,7 @@
       <c r="AB42" s="10"/>
       <c r="AC42" s="10"/>
     </row>
-    <row r="43" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:29">
+    <row r="43" customFormat="1" ht="35" customHeight="1" spans="1:29">
       <c r="A43" s="8">
         <v>42</v>
       </c>
@@ -7014,7 +7242,7 @@
       <c r="AB43" s="8"/>
       <c r="AC43" s="8"/>
     </row>
-    <row r="44" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:29">
+    <row r="44" customFormat="1" ht="35" customHeight="1" spans="1:29">
       <c r="A44" s="10">
         <v>43</v>
       </c>
@@ -7079,7 +7307,7 @@
       <c r="AB44" s="10"/>
       <c r="AC44" s="10"/>
     </row>
-    <row r="45" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:29">
+    <row r="45" customFormat="1" ht="35" customHeight="1" spans="1:29">
       <c r="A45" s="8">
         <v>44</v>
       </c>
@@ -7144,7 +7372,7 @@
       <c r="AB45" s="8"/>
       <c r="AC45" s="8"/>
     </row>
-    <row r="46" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:29">
+    <row r="46" customFormat="1" ht="35" customHeight="1" spans="1:29">
       <c r="A46" s="10">
         <v>45</v>
       </c>
@@ -7209,7 +7437,7 @@
       <c r="AB46" s="10"/>
       <c r="AC46" s="10"/>
     </row>
-    <row r="47" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:29">
+    <row r="47" customFormat="1" ht="51.5" customHeight="1" spans="1:29">
       <c r="A47" s="8">
         <v>46</v>
       </c>
@@ -7274,7 +7502,7 @@
       <c r="AB47" s="8"/>
       <c r="AC47" s="8"/>
     </row>
-    <row r="48" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:29">
+    <row r="48" customFormat="1" ht="35" customHeight="1" spans="1:29">
       <c r="A48" s="10">
         <v>47</v>
       </c>
@@ -7337,7 +7565,7 @@
       <c r="AB48" s="10"/>
       <c r="AC48" s="10"/>
     </row>
-    <row r="49" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:29">
+    <row r="49" customFormat="1" ht="35" customHeight="1" spans="1:29">
       <c r="A49" s="8">
         <v>48</v>
       </c>
@@ -7404,7 +7632,7 @@
       <c r="AB49" s="8"/>
       <c r="AC49" s="8"/>
     </row>
-    <row r="50" customFormat="1" ht="18.5" hidden="1" customHeight="1" spans="1:29">
+    <row r="50" customFormat="1" ht="18.5" customHeight="1" spans="1:29">
       <c r="A50" s="10">
         <v>49</v>
       </c>
@@ -7467,7 +7695,7 @@
       <c r="AB50" s="10"/>
       <c r="AC50" s="10"/>
     </row>
-    <row r="51" customFormat="1" ht="18.5" hidden="1" customHeight="1" spans="1:29">
+    <row r="51" customFormat="1" ht="18.5" customHeight="1" spans="1:29">
       <c r="A51" s="8">
         <v>50</v>
       </c>
@@ -7528,7 +7756,7 @@
       <c r="AB51" s="8"/>
       <c r="AC51" s="8"/>
     </row>
-    <row r="52" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:29">
+    <row r="52" customFormat="1" ht="51.5" customHeight="1" spans="1:29">
       <c r="A52" s="10">
         <v>51</v>
       </c>
@@ -7593,7 +7821,7 @@
       <c r="AB52" s="10"/>
       <c r="AC52" s="10"/>
     </row>
-    <row r="53" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:29">
+    <row r="53" customFormat="1" ht="51.5" customHeight="1" spans="1:29">
       <c r="A53" s="8">
         <v>52</v>
       </c>
@@ -7656,7 +7884,7 @@
       <c r="AB53" s="8"/>
       <c r="AC53" s="8"/>
     </row>
-    <row r="54" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:29">
+    <row r="54" customFormat="1" ht="35" customHeight="1" spans="1:29">
       <c r="A54" s="10">
         <v>53</v>
       </c>
@@ -7723,7 +7951,7 @@
       <c r="AB54" s="10"/>
       <c r="AC54" s="10"/>
     </row>
-    <row r="55" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:29">
+    <row r="55" customFormat="1" ht="35" customHeight="1" spans="1:29">
       <c r="A55" s="8">
         <v>54</v>
       </c>
@@ -7788,7 +8016,7 @@
       <c r="AB55" s="8"/>
       <c r="AC55" s="8"/>
     </row>
-    <row r="56" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:29">
+    <row r="56" customFormat="1" ht="51.5" customHeight="1" spans="1:29">
       <c r="A56" s="10">
         <v>55</v>
       </c>
@@ -7851,7 +8079,7 @@
       <c r="AB56" s="10"/>
       <c r="AC56" s="10"/>
     </row>
-    <row r="57" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:29">
+    <row r="57" customFormat="1" ht="51.5" customHeight="1" spans="1:29">
       <c r="A57" s="8">
         <v>56</v>
       </c>
@@ -7916,7 +8144,7 @@
       <c r="AB57" s="8"/>
       <c r="AC57" s="8"/>
     </row>
-    <row r="58" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:29">
+    <row r="58" customFormat="1" ht="51.5" customHeight="1" spans="1:29">
       <c r="A58" s="10">
         <v>57</v>
       </c>
@@ -8004,7 +8232,9 @@
       <c r="H59" s="8">
         <v>1</v>
       </c>
-      <c r="I59" s="8"/>
+      <c r="I59" s="8">
+        <v>0</v>
+      </c>
       <c r="J59" s="8" t="s">
         <v>39</v>
       </c>
@@ -8024,7 +8254,7 @@
         <v>1</v>
       </c>
       <c r="P59" s="9" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="Q59" s="8"/>
       <c r="R59" s="8" t="s">
@@ -8049,10 +8279,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="10">
@@ -8068,35 +8298,35 @@
         <v>1</v>
       </c>
       <c r="I60" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="K60" s="8">
         <v>58</v>
       </c>
       <c r="L60" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M60" s="10">
         <v>2</v>
       </c>
       <c r="N60" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O60" s="10">
         <v>3</v>
       </c>
       <c r="P60" s="11" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="Q60" s="10"/>
       <c r="R60" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="S60" s="10" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="T60" s="10"/>
       <c r="U60" s="10"/>
@@ -8114,10 +8344,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="8">
@@ -8142,7 +8372,7 @@
         <v>58</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M61" s="8">
         <v>3</v>
@@ -8154,11 +8384,11 @@
         <v>2</v>
       </c>
       <c r="P61" s="9" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="Q61" s="8"/>
       <c r="R61" s="8" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="S61" s="8"/>
       <c r="T61" s="8"/>
@@ -8177,10 +8407,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="10">
@@ -8205,7 +8435,7 @@
         <v>58</v>
       </c>
       <c r="L62" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M62" s="10">
         <v>3</v>
@@ -8217,17 +8447,17 @@
         <v>2</v>
       </c>
       <c r="P62" s="11" t="s">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="Q62" s="10"/>
       <c r="R62" s="10" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="S62" s="10" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="T62" s="10" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="U62" s="10"/>
       <c r="V62" s="10"/>
@@ -8244,10 +8474,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="8">
@@ -8263,38 +8493,38 @@
         <v>1</v>
       </c>
       <c r="I63" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="K63" s="8">
         <v>58</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="M63" s="8">
         <v>2</v>
       </c>
       <c r="N63" s="8" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="O63" s="8">
         <v>3</v>
       </c>
       <c r="P63" s="9" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="Q63" s="8"/>
       <c r="R63" s="8" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="S63" s="8" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="T63" s="8" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="U63" s="8"/>
       <c r="V63" s="8"/>
@@ -8311,10 +8541,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="10">
@@ -8339,7 +8569,7 @@
         <v>58</v>
       </c>
       <c r="L64" s="10" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="M64" s="10">
         <v>3</v>
@@ -8351,11 +8581,11 @@
         <v>2</v>
       </c>
       <c r="P64" s="11" t="s">
-        <v>349</v>
+        <v>383</v>
       </c>
       <c r="Q64" s="10"/>
       <c r="R64" s="10" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="S64" s="10"/>
       <c r="T64" s="10"/>
@@ -8374,10 +8604,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="8">
@@ -8402,7 +8632,7 @@
         <v>58</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="M65" s="8">
         <v>3</v>
@@ -8414,11 +8644,11 @@
         <v>2</v>
       </c>
       <c r="P65" s="9" t="s">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="Q65" s="8"/>
       <c r="R65" s="8" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="S65" s="8"/>
       <c r="T65" s="8"/>
@@ -8437,10 +8667,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="10">
@@ -8456,41 +8686,41 @@
         <v>1</v>
       </c>
       <c r="I66" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" s="10" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="K66" s="8">
         <v>58</v>
       </c>
       <c r="L66" s="10" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="M66" s="10">
         <v>2</v>
       </c>
       <c r="N66" s="10" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="O66" s="10">
         <v>3</v>
       </c>
       <c r="P66" s="11" t="s">
-        <v>349</v>
+        <v>393</v>
       </c>
       <c r="Q66" s="10"/>
       <c r="R66" s="10" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="S66" s="10" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="T66" s="10" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="U66" s="10" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="V66" s="10"/>
       <c r="W66" s="10"/>
@@ -8506,10 +8736,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="8">
@@ -8534,7 +8764,7 @@
         <v>58</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="M67" s="8">
         <v>3</v>
@@ -8546,14 +8776,14 @@
         <v>2</v>
       </c>
       <c r="P67" s="9" t="s">
-        <v>349</v>
+        <v>400</v>
       </c>
       <c r="Q67" s="8"/>
       <c r="R67" s="8" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="S67" s="8" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="T67" s="8"/>
       <c r="U67" s="8"/>
@@ -8571,10 +8801,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="10">
@@ -8599,7 +8829,7 @@
         <v>58</v>
       </c>
       <c r="L68" s="10" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="M68" s="10">
         <v>3</v>
@@ -8611,17 +8841,17 @@
         <v>1</v>
       </c>
       <c r="P68" s="11" t="s">
-        <v>349</v>
+        <v>405</v>
       </c>
       <c r="Q68" s="10"/>
       <c r="R68" s="10" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="S68" s="10" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="T68" s="10" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="U68" s="10"/>
       <c r="V68" s="10"/>
@@ -8638,10 +8868,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="8">
@@ -8660,32 +8890,32 @@
         <v>0</v>
       </c>
       <c r="J69" s="8" t="s">
-        <v>39</v>
+        <v>191</v>
       </c>
       <c r="K69" s="8">
         <v>68</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="M69" s="8">
         <v>1</v>
       </c>
       <c r="N69" s="8" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="O69" s="8">
         <v>5</v>
       </c>
       <c r="P69" s="9" t="s">
-        <v>349</v>
+        <v>413</v>
       </c>
       <c r="Q69" s="8"/>
       <c r="R69" s="8" t="s">
         <v>138</v>
       </c>
       <c r="S69" s="8" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="T69" s="8"/>
       <c r="U69" s="8"/>
@@ -8703,10 +8933,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="10">
@@ -8722,44 +8952,44 @@
         <v>1</v>
       </c>
       <c r="I70" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" s="10" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="K70" s="8">
         <v>68</v>
       </c>
       <c r="L70" s="10" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="M70" s="10">
         <v>2</v>
       </c>
       <c r="N70" s="10" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="O70" s="10">
         <v>3</v>
       </c>
       <c r="P70" s="11" t="s">
-        <v>349</v>
+        <v>419</v>
       </c>
       <c r="Q70" s="10"/>
       <c r="R70" s="10" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="S70" s="10" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="T70" s="10" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="U70" s="10" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="V70" s="10" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="W70" s="10"/>
       <c r="X70" s="10"/>
@@ -8774,10 +9004,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="8">
@@ -8802,23 +9032,23 @@
         <v>68</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="M71" s="8">
         <v>3</v>
       </c>
       <c r="N71" s="8" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="O71" s="8">
         <v>2</v>
       </c>
       <c r="P71" s="9" t="s">
-        <v>349</v>
+        <v>428</v>
       </c>
       <c r="Q71" s="8"/>
       <c r="R71" s="8" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="S71" s="8"/>
       <c r="T71" s="8"/>
@@ -8837,10 +9067,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="10">
@@ -8865,7 +9095,7 @@
         <v>68</v>
       </c>
       <c r="L72" s="10" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="M72" s="10">
         <v>4</v>
@@ -8877,11 +9107,11 @@
         <v>1</v>
       </c>
       <c r="P72" s="11" t="s">
-        <v>349</v>
+        <v>432</v>
       </c>
       <c r="Q72" s="10"/>
       <c r="R72" s="10" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="S72" s="10"/>
       <c r="T72" s="10"/>
@@ -8900,10 +9130,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="8">
@@ -8919,7 +9149,7 @@
         <v>1</v>
       </c>
       <c r="I73" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J73" s="8" t="s">
         <v>39</v>
@@ -8928,23 +9158,23 @@
         <v>68</v>
       </c>
       <c r="L73" s="8" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="M73" s="8">
         <v>2</v>
       </c>
       <c r="N73" s="8" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="O73" s="8">
         <v>3</v>
       </c>
       <c r="P73" s="9" t="s">
-        <v>349</v>
+        <v>438</v>
       </c>
       <c r="Q73" s="8"/>
       <c r="R73" s="8" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="S73" s="8"/>
       <c r="T73" s="8"/>
@@ -8963,10 +9193,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="10">
@@ -8991,23 +9221,23 @@
         <v>68</v>
       </c>
       <c r="L74" s="10" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="M74" s="10">
         <v>3</v>
       </c>
       <c r="N74" s="10" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="O74" s="10">
         <v>2</v>
       </c>
       <c r="P74" s="11" t="s">
-        <v>349</v>
+        <v>443</v>
       </c>
       <c r="Q74" s="10"/>
       <c r="R74" s="10" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="S74" s="10"/>
       <c r="T74" s="10"/>
@@ -9026,10 +9256,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="8">
@@ -9054,7 +9284,7 @@
         <v>68</v>
       </c>
       <c r="L75" s="8" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="M75" s="8">
         <v>4</v>
@@ -9066,11 +9296,11 @@
         <v>1</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>349</v>
+        <v>447</v>
       </c>
       <c r="Q75" s="8"/>
       <c r="R75" s="8" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="S75" s="8"/>
       <c r="T75" s="8"/>
@@ -9089,10 +9319,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="10">
@@ -9117,19 +9347,19 @@
         <v>75</v>
       </c>
       <c r="L76" s="10" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="M76" s="10">
         <v>1</v>
       </c>
       <c r="N76" s="10" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="O76" s="10">
         <v>5</v>
       </c>
       <c r="P76" s="11" t="s">
-        <v>349</v>
+        <v>453</v>
       </c>
       <c r="Q76" s="10"/>
       <c r="R76" s="10" t="s">
@@ -9152,10 +9382,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>437</v>
+        <v>455</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="8">
@@ -9171,38 +9401,38 @@
         <v>1</v>
       </c>
       <c r="I77" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J77" s="8" t="s">
-        <v>39</v>
+        <v>456</v>
       </c>
       <c r="K77" s="10">
         <v>75</v>
       </c>
       <c r="L77" s="8" t="s">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="M77" s="8">
         <v>2</v>
       </c>
       <c r="N77" s="8" t="s">
-        <v>439</v>
+        <v>458</v>
       </c>
       <c r="O77" s="8">
         <v>3</v>
       </c>
       <c r="P77" s="9" t="s">
-        <v>349</v>
+        <v>459</v>
       </c>
       <c r="Q77" s="8"/>
       <c r="R77" s="8" t="s">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="S77" s="8" t="s">
-        <v>441</v>
+        <v>461</v>
       </c>
       <c r="T77" s="8" t="s">
-        <v>442</v>
+        <v>462</v>
       </c>
       <c r="U77" s="8"/>
       <c r="V77" s="8"/>
@@ -9219,10 +9449,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="10">
@@ -9241,29 +9471,29 @@
         <v>0</v>
       </c>
       <c r="J78" s="10" t="s">
-        <v>39</v>
+        <v>200</v>
       </c>
       <c r="K78" s="10">
         <v>75</v>
       </c>
       <c r="L78" s="10" t="s">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="M78" s="10">
         <v>3</v>
       </c>
       <c r="N78" s="10" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="O78" s="10">
         <v>2</v>
       </c>
       <c r="P78" s="11" t="s">
-        <v>349</v>
+        <v>466</v>
       </c>
       <c r="Q78" s="10"/>
       <c r="R78" s="10" t="s">
-        <v>446</v>
+        <v>467</v>
       </c>
       <c r="S78" s="10"/>
       <c r="T78" s="10"/>
@@ -9282,10 +9512,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>448</v>
+        <v>469</v>
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="8">
@@ -9310,7 +9540,7 @@
         <v>75</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="M79" s="8">
         <v>4</v>
@@ -9322,17 +9552,17 @@
         <v>2</v>
       </c>
       <c r="P79" s="9" t="s">
-        <v>349</v>
+        <v>470</v>
       </c>
       <c r="Q79" s="8"/>
       <c r="R79" s="8" t="s">
-        <v>449</v>
+        <v>471</v>
       </c>
       <c r="S79" s="8" t="s">
-        <v>450</v>
+        <v>472</v>
       </c>
       <c r="T79" s="8" t="s">
-        <v>451</v>
+        <v>473</v>
       </c>
       <c r="U79" s="8"/>
       <c r="V79" s="8"/>
@@ -9349,10 +9579,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>452</v>
+        <v>474</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>453</v>
+        <v>475</v>
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="10">
@@ -9368,38 +9598,38 @@
         <v>1</v>
       </c>
       <c r="I80" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J80" s="10" t="s">
-        <v>39</v>
+        <v>456</v>
       </c>
       <c r="K80" s="10">
         <v>75</v>
       </c>
       <c r="L80" s="10" t="s">
-        <v>454</v>
+        <v>476</v>
       </c>
       <c r="M80" s="10">
         <v>2</v>
       </c>
       <c r="N80" s="10" t="s">
-        <v>455</v>
+        <v>477</v>
       </c>
       <c r="O80" s="10">
         <v>3</v>
       </c>
       <c r="P80" s="11" t="s">
-        <v>349</v>
+        <v>478</v>
       </c>
       <c r="Q80" s="10"/>
       <c r="R80" s="10" t="s">
-        <v>456</v>
+        <v>479</v>
       </c>
       <c r="S80" s="10" t="s">
-        <v>457</v>
+        <v>480</v>
       </c>
       <c r="T80" s="10" t="s">
-        <v>442</v>
+        <v>462</v>
       </c>
       <c r="U80" s="10"/>
       <c r="V80" s="10"/>
@@ -9419,7 +9649,7 @@
         <v>252</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>458</v>
+        <v>481</v>
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="8">
@@ -9444,23 +9674,23 @@
         <v>75</v>
       </c>
       <c r="L81" s="8" t="s">
-        <v>454</v>
+        <v>476</v>
       </c>
       <c r="M81" s="8">
         <v>3</v>
       </c>
       <c r="N81" s="8" t="s">
-        <v>459</v>
+        <v>482</v>
       </c>
       <c r="O81" s="8">
         <v>2</v>
       </c>
       <c r="P81" s="9" t="s">
-        <v>349</v>
+        <v>483</v>
       </c>
       <c r="Q81" s="8"/>
       <c r="R81" s="8" t="s">
-        <v>460</v>
+        <v>484</v>
       </c>
       <c r="S81" s="8"/>
       <c r="T81" s="8"/>
@@ -9479,10 +9709,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>461</v>
+        <v>485</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>462</v>
+        <v>486</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="10">
@@ -9507,7 +9737,7 @@
         <v>75</v>
       </c>
       <c r="L82" s="10" t="s">
-        <v>454</v>
+        <v>476</v>
       </c>
       <c r="M82" s="10">
         <v>4</v>
@@ -9519,17 +9749,17 @@
         <v>2</v>
       </c>
       <c r="P82" s="11" t="s">
-        <v>349</v>
+        <v>487</v>
       </c>
       <c r="Q82" s="10"/>
       <c r="R82" s="10" t="s">
-        <v>463</v>
+        <v>488</v>
       </c>
       <c r="S82" s="10" t="s">
-        <v>464</v>
+        <v>489</v>
       </c>
       <c r="T82" s="10" t="s">
-        <v>465</v>
+        <v>490</v>
       </c>
       <c r="U82" s="10"/>
       <c r="V82" s="10"/>
@@ -9549,7 +9779,7 @@
         <v>171</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>466</v>
+        <v>491</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="8">
@@ -9586,11 +9816,11 @@
         <v>5</v>
       </c>
       <c r="P83" s="9" t="s">
-        <v>349</v>
+        <v>174</v>
       </c>
       <c r="Q83" s="8"/>
       <c r="R83" s="8" t="s">
-        <v>467</v>
+        <v>492</v>
       </c>
       <c r="S83" s="8"/>
       <c r="T83" s="8"/>
@@ -9612,7 +9842,7 @@
         <v>181</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>468</v>
+        <v>493</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="10">
@@ -9649,11 +9879,11 @@
         <v>5</v>
       </c>
       <c r="P84" s="11" t="s">
-        <v>349</v>
+        <v>183</v>
       </c>
       <c r="Q84" s="10"/>
       <c r="R84" s="10" t="s">
-        <v>469</v>
+        <v>494</v>
       </c>
       <c r="S84" s="10"/>
       <c r="T84" s="10"/>
@@ -9675,7 +9905,7 @@
         <v>185</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>470</v>
+        <v>495</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="8">
@@ -9712,11 +9942,11 @@
         <v>5</v>
       </c>
       <c r="P85" s="9" t="s">
-        <v>349</v>
+        <v>187</v>
       </c>
       <c r="Q85" s="8"/>
       <c r="R85" s="8" t="s">
-        <v>467</v>
+        <v>492</v>
       </c>
       <c r="S85" s="8"/>
       <c r="T85" s="8"/>
@@ -9735,10 +9965,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>471</v>
+        <v>496</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>472</v>
+        <v>497</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="10">
@@ -9775,11 +10005,11 @@
         <v>3</v>
       </c>
       <c r="P86" s="11" t="s">
-        <v>349</v>
+        <v>498</v>
       </c>
       <c r="Q86" s="10"/>
       <c r="R86" s="10" t="s">
-        <v>473</v>
+        <v>499</v>
       </c>
       <c r="S86" s="10"/>
       <c r="T86" s="10"/>
@@ -9798,10 +10028,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>474</v>
+        <v>500</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>475</v>
+        <v>501</v>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="8">
@@ -9820,44 +10050,44 @@
         <v>0</v>
       </c>
       <c r="J87" s="8" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="K87" s="8">
         <v>86</v>
       </c>
       <c r="L87" s="8" t="s">
-        <v>476</v>
+        <v>502</v>
       </c>
       <c r="M87" s="8">
         <v>1</v>
       </c>
       <c r="N87" s="8" t="s">
-        <v>477</v>
+        <v>503</v>
       </c>
       <c r="O87" s="8">
         <v>5</v>
       </c>
       <c r="P87" s="9" t="s">
-        <v>349</v>
+        <v>504</v>
       </c>
       <c r="Q87" s="8"/>
       <c r="R87" s="8" t="s">
-        <v>478</v>
+        <v>505</v>
       </c>
       <c r="S87" s="8" t="s">
-        <v>479</v>
+        <v>506</v>
       </c>
       <c r="T87" s="8" t="s">
-        <v>480</v>
+        <v>507</v>
       </c>
       <c r="U87" s="8" t="s">
-        <v>481</v>
+        <v>508</v>
       </c>
       <c r="V87" s="8" t="s">
-        <v>482</v>
+        <v>509</v>
       </c>
       <c r="W87" s="8" t="s">
-        <v>483</v>
+        <v>510</v>
       </c>
       <c r="X87" s="8"/>
       <c r="Y87" s="8"/>
@@ -9871,10 +10101,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>484</v>
+        <v>511</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>485</v>
+        <v>512</v>
       </c>
       <c r="D88" s="11"/>
       <c r="E88" s="10">
@@ -9890,41 +10120,41 @@
         <v>1</v>
       </c>
       <c r="I88" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" s="10" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="K88" s="8">
         <v>86</v>
       </c>
       <c r="L88" s="10" t="s">
-        <v>486</v>
+        <v>513</v>
       </c>
       <c r="M88" s="10">
         <v>2</v>
       </c>
       <c r="N88" s="10" t="s">
-        <v>487</v>
+        <v>514</v>
       </c>
       <c r="O88" s="10">
         <v>3</v>
       </c>
       <c r="P88" s="11" t="s">
-        <v>349</v>
+        <v>515</v>
       </c>
       <c r="Q88" s="10"/>
       <c r="R88" s="10" t="s">
-        <v>488</v>
+        <v>516</v>
       </c>
       <c r="S88" s="10" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="T88" s="10" t="s">
-        <v>480</v>
+        <v>507</v>
       </c>
       <c r="U88" s="10" t="s">
-        <v>490</v>
+        <v>518</v>
       </c>
       <c r="V88" s="10"/>
       <c r="W88" s="10"/>
@@ -9940,10 +10170,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>491</v>
+        <v>519</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>492</v>
+        <v>520</v>
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="8">
@@ -9968,26 +10198,26 @@
         <v>86</v>
       </c>
       <c r="L89" s="8" t="s">
-        <v>486</v>
+        <v>513</v>
       </c>
       <c r="M89" s="8">
         <v>3</v>
       </c>
       <c r="N89" s="8" t="s">
-        <v>493</v>
+        <v>521</v>
       </c>
       <c r="O89" s="8">
         <v>1</v>
       </c>
       <c r="P89" s="9" t="s">
-        <v>349</v>
+        <v>522</v>
       </c>
       <c r="Q89" s="8"/>
       <c r="R89" s="8" t="s">
-        <v>494</v>
+        <v>523</v>
       </c>
       <c r="S89" s="8" t="s">
-        <v>495</v>
+        <v>524</v>
       </c>
       <c r="T89" s="8"/>
       <c r="U89" s="8"/>
@@ -10005,10 +10235,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>496</v>
+        <v>525</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>497</v>
+        <v>526</v>
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="10">
@@ -10033,26 +10263,26 @@
         <v>86</v>
       </c>
       <c r="L90" s="10" t="s">
-        <v>486</v>
+        <v>513</v>
       </c>
       <c r="M90" s="10">
         <v>4</v>
       </c>
       <c r="N90" s="10" t="s">
-        <v>498</v>
+        <v>527</v>
       </c>
       <c r="O90" s="10">
         <v>2</v>
       </c>
       <c r="P90" s="11" t="s">
-        <v>349</v>
+        <v>528</v>
       </c>
       <c r="Q90" s="10"/>
       <c r="R90" s="10" t="s">
-        <v>499</v>
+        <v>529</v>
       </c>
       <c r="S90" s="10" t="s">
-        <v>500</v>
+        <v>530</v>
       </c>
       <c r="T90" s="10"/>
       <c r="U90" s="10"/>
@@ -10070,10 +10300,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>501</v>
+        <v>531</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>502</v>
+        <v>532</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="8">
@@ -10098,7 +10328,7 @@
         <v>86</v>
       </c>
       <c r="L91" s="8" t="s">
-        <v>486</v>
+        <v>513</v>
       </c>
       <c r="M91" s="8">
         <v>5</v>
@@ -10110,14 +10340,14 @@
         <v>2</v>
       </c>
       <c r="P91" s="9" t="s">
-        <v>349</v>
+        <v>533</v>
       </c>
       <c r="Q91" s="8"/>
       <c r="R91" s="8" t="s">
-        <v>503</v>
+        <v>534</v>
       </c>
       <c r="S91" s="8" t="s">
-        <v>504</v>
+        <v>535</v>
       </c>
       <c r="T91" s="8"/>
       <c r="U91" s="8"/>
@@ -10135,10 +10365,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>505</v>
+        <v>536</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>506</v>
+        <v>537</v>
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="10">
@@ -10154,35 +10384,35 @@
         <v>1</v>
       </c>
       <c r="I92" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J92" s="10" t="s">
-        <v>39</v>
+        <v>234</v>
       </c>
       <c r="K92" s="8">
         <v>86</v>
       </c>
       <c r="L92" s="10" t="s">
-        <v>507</v>
+        <v>538</v>
       </c>
       <c r="M92" s="10">
         <v>2</v>
       </c>
       <c r="N92" s="10" t="s">
-        <v>508</v>
+        <v>539</v>
       </c>
       <c r="O92" s="10">
         <v>3</v>
       </c>
       <c r="P92" s="11" t="s">
-        <v>349</v>
+        <v>540</v>
       </c>
       <c r="Q92" s="10"/>
       <c r="R92" s="10" t="s">
-        <v>509</v>
+        <v>541</v>
       </c>
       <c r="S92" s="10" t="s">
-        <v>510</v>
+        <v>542</v>
       </c>
       <c r="T92" s="10" t="s">
         <v>222</v>
@@ -10204,10 +10434,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>511</v>
+        <v>543</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>512</v>
+        <v>544</v>
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="8">
@@ -10232,29 +10462,29 @@
         <v>86</v>
       </c>
       <c r="L93" s="8" t="s">
-        <v>507</v>
+        <v>538</v>
       </c>
       <c r="M93" s="8">
         <v>3</v>
       </c>
       <c r="N93" s="8" t="s">
-        <v>513</v>
+        <v>545</v>
       </c>
       <c r="O93" s="8">
         <v>2</v>
       </c>
       <c r="P93" s="9" t="s">
-        <v>349</v>
+        <v>546</v>
       </c>
       <c r="Q93" s="8"/>
       <c r="R93" s="8" t="s">
-        <v>514</v>
+        <v>547</v>
       </c>
       <c r="S93" s="8" t="s">
-        <v>515</v>
+        <v>548</v>
       </c>
       <c r="T93" s="8" t="s">
-        <v>516</v>
+        <v>549</v>
       </c>
       <c r="U93" s="8"/>
       <c r="V93" s="8"/>
@@ -10271,10 +10501,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>517</v>
+        <v>550</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>518</v>
+        <v>551</v>
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="10">
@@ -10299,7 +10529,7 @@
         <v>86</v>
       </c>
       <c r="L94" s="10" t="s">
-        <v>507</v>
+        <v>538</v>
       </c>
       <c r="M94" s="10">
         <v>4</v>
@@ -10311,11 +10541,11 @@
         <v>1</v>
       </c>
       <c r="P94" s="11" t="s">
-        <v>349</v>
+        <v>552</v>
       </c>
       <c r="Q94" s="10"/>
       <c r="R94" s="10" t="s">
-        <v>519</v>
+        <v>553</v>
       </c>
       <c r="S94" s="10"/>
       <c r="T94" s="10"/>
@@ -10334,10 +10564,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>520</v>
+        <v>554</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>521</v>
+        <v>555</v>
       </c>
       <c r="D95" s="9"/>
       <c r="E95" s="8">
@@ -10356,35 +10586,35 @@
         <v>0</v>
       </c>
       <c r="J95" s="8" t="s">
-        <v>39</v>
+        <v>234</v>
       </c>
       <c r="K95" s="8">
         <v>94</v>
       </c>
       <c r="L95" s="8" t="s">
-        <v>522</v>
+        <v>556</v>
       </c>
       <c r="M95" s="8">
         <v>1</v>
       </c>
       <c r="N95" s="8" t="s">
-        <v>523</v>
+        <v>557</v>
       </c>
       <c r="O95" s="8">
         <v>5</v>
       </c>
       <c r="P95" s="9" t="s">
-        <v>349</v>
+        <v>558</v>
       </c>
       <c r="Q95" s="8"/>
       <c r="R95" s="8" t="s">
-        <v>524</v>
+        <v>559</v>
       </c>
       <c r="S95" s="8" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="T95" s="8" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="U95" s="8"/>
       <c r="V95" s="8"/>
@@ -10401,10 +10631,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="D96" s="11"/>
       <c r="E96" s="10">
@@ -10420,35 +10650,35 @@
         <v>1</v>
       </c>
       <c r="I96" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J96" s="10" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="K96" s="8">
         <v>94</v>
       </c>
       <c r="L96" s="10" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
       <c r="M96" s="10">
         <v>2</v>
       </c>
       <c r="N96" s="10" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
       <c r="O96" s="10">
         <v>3</v>
       </c>
       <c r="P96" s="11" t="s">
-        <v>349</v>
+        <v>566</v>
       </c>
       <c r="Q96" s="10"/>
       <c r="R96" s="10" t="s">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="S96" s="10" t="s">
-        <v>531</v>
+        <v>567</v>
       </c>
       <c r="T96" s="10"/>
       <c r="U96" s="10"/>
@@ -10466,10 +10696,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>532</v>
+        <v>568</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>533</v>
+        <v>569</v>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="8">
@@ -10494,7 +10724,7 @@
         <v>94</v>
       </c>
       <c r="L97" s="8" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
       <c r="M97" s="8">
         <v>3</v>
@@ -10506,11 +10736,11 @@
         <v>1</v>
       </c>
       <c r="P97" s="9" t="s">
-        <v>349</v>
+        <v>570</v>
       </c>
       <c r="Q97" s="8"/>
       <c r="R97" s="8" t="s">
-        <v>534</v>
+        <v>571</v>
       </c>
       <c r="S97" s="8"/>
       <c r="T97" s="8"/>
@@ -10529,10 +10759,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>535</v>
+        <v>572</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>536</v>
+        <v>573</v>
       </c>
       <c r="D98" s="11"/>
       <c r="E98" s="10">
@@ -10548,38 +10778,38 @@
         <v>1</v>
       </c>
       <c r="I98" s="10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J98" s="10" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="K98" s="8">
         <v>94</v>
       </c>
       <c r="L98" s="10" t="s">
-        <v>537</v>
+        <v>574</v>
       </c>
       <c r="M98" s="10">
         <v>2</v>
       </c>
       <c r="N98" s="10" t="s">
-        <v>538</v>
+        <v>575</v>
       </c>
       <c r="O98" s="10">
         <v>3</v>
       </c>
       <c r="P98" s="11" t="s">
-        <v>349</v>
+        <v>576</v>
       </c>
       <c r="Q98" s="10"/>
       <c r="R98" s="10" t="s">
-        <v>539</v>
+        <v>577</v>
       </c>
       <c r="S98" s="10" t="s">
-        <v>540</v>
+        <v>578</v>
       </c>
       <c r="T98" s="10" t="s">
-        <v>541</v>
+        <v>579</v>
       </c>
       <c r="U98" s="10"/>
       <c r="V98" s="10"/>
@@ -10596,10 +10826,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>542</v>
+        <v>580</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>543</v>
+        <v>581</v>
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="8">
@@ -10624,7 +10854,7 @@
         <v>94</v>
       </c>
       <c r="L99" s="8" t="s">
-        <v>537</v>
+        <v>574</v>
       </c>
       <c r="M99" s="8">
         <v>3</v>
@@ -10636,14 +10866,14 @@
         <v>1</v>
       </c>
       <c r="P99" s="9" t="s">
-        <v>349</v>
+        <v>582</v>
       </c>
       <c r="Q99" s="8"/>
       <c r="R99" s="8" t="s">
-        <v>544</v>
+        <v>583</v>
       </c>
       <c r="S99" s="8" t="s">
-        <v>545</v>
+        <v>584</v>
       </c>
       <c r="T99" s="8"/>
       <c r="U99" s="8"/>
@@ -10664,7 +10894,7 @@
         <v>256</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>546</v>
+        <v>585</v>
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="10">
@@ -10701,12 +10931,18 @@
         <v>3</v>
       </c>
       <c r="P100" s="11" t="s">
-        <v>349</v>
+        <v>258</v>
       </c>
       <c r="Q100" s="10"/>
-      <c r="R100" s="10"/>
-      <c r="S100" s="10"/>
-      <c r="T100" s="10"/>
+      <c r="R100" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="S100" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="T100" s="10" t="s">
+        <v>587</v>
+      </c>
       <c r="U100" s="10"/>
       <c r="V100" s="10"/>
       <c r="W100" s="10"/>
@@ -10725,7 +10961,7 @@
         <v>270</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>547</v>
+        <v>588</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="8">
@@ -10762,10 +10998,12 @@
         <v>5</v>
       </c>
       <c r="P101" s="9" t="s">
-        <v>349</v>
+        <v>272</v>
       </c>
       <c r="Q101" s="8"/>
-      <c r="R101" s="8"/>
+      <c r="R101" s="8" t="s">
+        <v>589</v>
+      </c>
       <c r="S101" s="8"/>
       <c r="T101" s="8"/>
       <c r="U101" s="8"/>
@@ -10786,7 +11024,7 @@
         <v>274</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>548</v>
+        <v>590</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="10">
@@ -10823,11 +11061,15 @@
         <v>2</v>
       </c>
       <c r="P102" s="11" t="s">
-        <v>349</v>
+        <v>276</v>
       </c>
       <c r="Q102" s="10"/>
-      <c r="R102" s="10"/>
-      <c r="S102" s="10"/>
+      <c r="R102" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="S102" s="10" t="s">
+        <v>592</v>
+      </c>
       <c r="T102" s="10"/>
       <c r="U102" s="10"/>
       <c r="V102" s="10"/>
@@ -10847,7 +11089,7 @@
         <v>279</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>549</v>
+        <v>593</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="8">
@@ -10884,11 +11126,15 @@
         <v>2</v>
       </c>
       <c r="P103" s="9" t="s">
-        <v>349</v>
+        <v>281</v>
       </c>
       <c r="Q103" s="8"/>
-      <c r="R103" s="8"/>
-      <c r="S103" s="8"/>
+      <c r="R103" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="S103" s="8" t="s">
+        <v>595</v>
+      </c>
       <c r="T103" s="8"/>
       <c r="U103" s="8"/>
       <c r="V103" s="8"/>
@@ -10905,10 +11151,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>550</v>
+        <v>596</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>551</v>
+        <v>597</v>
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="10">
@@ -10945,7 +11191,7 @@
         <v>5</v>
       </c>
       <c r="P104" s="11" t="s">
-        <v>349</v>
+        <v>598</v>
       </c>
       <c r="Q104" s="10"/>
       <c r="R104" s="10"/>
@@ -10966,10 +11212,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>552</v>
+        <v>599</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>553</v>
+        <v>600</v>
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="8">
@@ -11006,7 +11252,7 @@
         <v>5</v>
       </c>
       <c r="P105" s="9" t="s">
-        <v>349</v>
+        <v>149</v>
       </c>
       <c r="Q105" s="8"/>
       <c r="R105" s="8"/>
@@ -11027,10 +11273,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>554</v>
+        <v>601</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>555</v>
+        <v>602</v>
       </c>
       <c r="D106" s="11"/>
       <c r="E106" s="10">
@@ -11046,31 +11292,33 @@
         <v>1</v>
       </c>
       <c r="I106" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J106" s="10" t="s">
-        <v>39</v>
+        <v>200</v>
       </c>
       <c r="K106" s="10">
         <v>105</v>
       </c>
       <c r="L106" s="10" t="s">
-        <v>556</v>
+        <v>603</v>
       </c>
       <c r="M106" s="10">
         <v>1</v>
       </c>
       <c r="N106" s="10" t="s">
-        <v>557</v>
+        <v>604</v>
       </c>
       <c r="O106" s="10">
         <v>3</v>
       </c>
       <c r="P106" s="11" t="s">
-        <v>349</v>
+        <v>605</v>
       </c>
       <c r="Q106" s="10"/>
-      <c r="R106" s="10"/>
+      <c r="R106" s="10" t="s">
+        <v>606</v>
+      </c>
       <c r="S106" s="10"/>
       <c r="T106" s="10"/>
       <c r="U106" s="10"/>
@@ -11088,10 +11336,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>558</v>
+        <v>607</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>559</v>
+        <v>608</v>
       </c>
       <c r="D107" s="9"/>
       <c r="E107" s="8">
@@ -11116,22 +11364,24 @@
         <v>105</v>
       </c>
       <c r="L107" s="8" t="s">
-        <v>556</v>
+        <v>603</v>
       </c>
       <c r="M107" s="8">
         <v>2</v>
       </c>
       <c r="N107" s="8" t="s">
-        <v>560</v>
+        <v>609</v>
       </c>
       <c r="O107" s="8">
         <v>2</v>
       </c>
       <c r="P107" s="9" t="s">
-        <v>349</v>
+        <v>610</v>
       </c>
       <c r="Q107" s="8"/>
-      <c r="R107" s="8"/>
+      <c r="R107" s="8" t="s">
+        <v>611</v>
+      </c>
       <c r="S107" s="8"/>
       <c r="T107" s="8"/>
       <c r="U107" s="8"/>
@@ -11149,10 +11399,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>561</v>
+        <v>612</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>562</v>
+        <v>613</v>
       </c>
       <c r="D108" s="11"/>
       <c r="E108" s="10">
@@ -11177,7 +11427,7 @@
         <v>105</v>
       </c>
       <c r="L108" s="10" t="s">
-        <v>556</v>
+        <v>603</v>
       </c>
       <c r="M108" s="10">
         <v>3</v>
@@ -11189,11 +11439,15 @@
         <v>1</v>
       </c>
       <c r="P108" s="11" t="s">
-        <v>349</v>
+        <v>614</v>
       </c>
       <c r="Q108" s="10"/>
-      <c r="R108" s="10"/>
-      <c r="S108" s="10"/>
+      <c r="R108" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="S108" s="10" t="s">
+        <v>616</v>
+      </c>
       <c r="T108" s="10"/>
       <c r="U108" s="10"/>
       <c r="V108" s="10"/>
@@ -11210,10 +11464,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>563</v>
+        <v>617</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>564</v>
+        <v>618</v>
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="8">
@@ -11232,30 +11486,36 @@
         <v>0</v>
       </c>
       <c r="J109" s="8" t="s">
-        <v>39</v>
+        <v>234</v>
       </c>
       <c r="K109" s="8">
         <v>108</v>
       </c>
       <c r="L109" s="8" t="s">
-        <v>565</v>
+        <v>619</v>
       </c>
       <c r="M109" s="8">
         <v>1</v>
       </c>
       <c r="N109" s="8" t="s">
-        <v>566</v>
+        <v>620</v>
       </c>
       <c r="O109" s="8">
         <v>3</v>
       </c>
       <c r="P109" s="9" t="s">
-        <v>349</v>
+        <v>621</v>
       </c>
       <c r="Q109" s="8"/>
-      <c r="R109" s="8"/>
-      <c r="S109" s="8"/>
-      <c r="T109" s="8"/>
+      <c r="R109" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="S109" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="T109" s="8" t="s">
+        <v>624</v>
+      </c>
       <c r="U109" s="8"/>
       <c r="V109" s="8"/>
       <c r="W109" s="8"/>
@@ -11266,15 +11526,15 @@
       <c r="AB109" s="8"/>
       <c r="AC109" s="8"/>
     </row>
-    <row r="110" ht="18.5" customHeight="1" spans="1:29">
+    <row r="110" ht="17.25" spans="1:29">
       <c r="A110" s="10">
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>567</v>
+        <v>625</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>568</v>
+        <v>626</v>
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="10">
@@ -11299,7 +11559,7 @@
         <v>108</v>
       </c>
       <c r="L110" s="10" t="s">
-        <v>565</v>
+        <v>619</v>
       </c>
       <c r="M110" s="10">
         <v>2</v>
@@ -11311,10 +11571,12 @@
         <v>1</v>
       </c>
       <c r="P110" s="11" t="s">
-        <v>349</v>
+        <v>627</v>
       </c>
       <c r="Q110" s="10"/>
-      <c r="R110" s="10"/>
+      <c r="R110" s="10" t="s">
+        <v>628</v>
+      </c>
       <c r="S110" s="10"/>
       <c r="T110" s="10"/>
       <c r="U110" s="10"/>
@@ -11335,7 +11597,7 @@
         <v>317</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>569</v>
+        <v>629</v>
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="8">
@@ -11372,7 +11634,7 @@
         <v>3</v>
       </c>
       <c r="P111" s="9" t="s">
-        <v>349</v>
+        <v>319</v>
       </c>
       <c r="Q111" s="8"/>
       <c r="R111" s="8"/>
@@ -11393,10 +11655,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>570</v>
+        <v>630</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>571</v>
+        <v>631</v>
       </c>
       <c r="D112" s="11"/>
       <c r="E112" s="10">
@@ -11433,7 +11695,7 @@
         <v>5</v>
       </c>
       <c r="P112" s="11" t="s">
-        <v>349</v>
+        <v>632</v>
       </c>
       <c r="Q112" s="10"/>
       <c r="R112" s="10"/>
@@ -11454,10 +11716,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>572</v>
+        <v>633</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>573</v>
+        <v>634</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="8">
@@ -11494,10 +11756,12 @@
         <v>3</v>
       </c>
       <c r="P113" s="9" t="s">
-        <v>349</v>
+        <v>635</v>
       </c>
       <c r="Q113" s="8"/>
-      <c r="R113" s="8"/>
+      <c r="R113" s="8" t="s">
+        <v>636</v>
+      </c>
       <c r="S113" s="8"/>
       <c r="T113" s="8"/>
       <c r="U113" s="8"/>
@@ -11515,10 +11779,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>574</v>
+        <v>637</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>575</v>
+        <v>638</v>
       </c>
       <c r="D114" s="11"/>
       <c r="E114" s="10">
@@ -11537,29 +11801,33 @@
         <v>0</v>
       </c>
       <c r="J114" s="10" t="s">
-        <v>39</v>
+        <v>639</v>
       </c>
       <c r="K114" s="10">
         <v>113</v>
       </c>
       <c r="L114" s="10" t="s">
-        <v>576</v>
+        <v>640</v>
       </c>
       <c r="M114" s="10">
         <v>1</v>
       </c>
       <c r="N114" s="10" t="s">
-        <v>577</v>
+        <v>641</v>
       </c>
       <c r="O114" s="10">
         <v>1</v>
       </c>
       <c r="P114" s="11" t="s">
-        <v>349</v>
+        <v>642</v>
       </c>
       <c r="Q114" s="10"/>
-      <c r="R114" s="10"/>
-      <c r="S114" s="10"/>
+      <c r="R114" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="S114" s="10" t="s">
+        <v>644</v>
+      </c>
       <c r="T114" s="10"/>
       <c r="U114" s="10"/>
       <c r="V114" s="10"/>
@@ -11576,10 +11844,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>578</v>
+        <v>645</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>579</v>
+        <v>646</v>
       </c>
       <c r="D115" s="9"/>
       <c r="E115" s="8">
@@ -11595,7 +11863,7 @@
         <v>1</v>
       </c>
       <c r="I115" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J115" s="8" t="s">
         <v>39</v>
@@ -11604,7 +11872,7 @@
         <v>113</v>
       </c>
       <c r="L115" s="8" t="s">
-        <v>576</v>
+        <v>640</v>
       </c>
       <c r="M115" s="8">
         <v>2</v>
@@ -11616,11 +11884,15 @@
         <v>1</v>
       </c>
       <c r="P115" s="9" t="s">
-        <v>349</v>
+        <v>647</v>
       </c>
       <c r="Q115" s="8"/>
-      <c r="R115" s="8"/>
-      <c r="S115" s="8"/>
+      <c r="R115" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="S115" s="8" t="s">
+        <v>649</v>
+      </c>
       <c r="T115" s="8"/>
       <c r="U115" s="8"/>
       <c r="V115" s="8"/>
@@ -11637,10 +11909,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>580</v>
+        <v>650</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>581</v>
+        <v>651</v>
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="10">
@@ -11656,7 +11928,7 @@
         <v>1</v>
       </c>
       <c r="I116" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J116" s="10" t="s">
         <v>39</v>
@@ -11665,7 +11937,7 @@
         <v>113</v>
       </c>
       <c r="L116" s="10" t="s">
-        <v>576</v>
+        <v>640</v>
       </c>
       <c r="M116" s="10">
         <v>2</v>
@@ -11677,11 +11949,15 @@
         <v>1</v>
       </c>
       <c r="P116" s="11" t="s">
-        <v>349</v>
+        <v>652</v>
       </c>
       <c r="Q116" s="10"/>
-      <c r="R116" s="10"/>
-      <c r="S116" s="10"/>
+      <c r="R116" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="S116" s="10" t="s">
+        <v>649</v>
+      </c>
       <c r="T116" s="10"/>
       <c r="U116" s="10"/>
       <c r="V116" s="10"/>
@@ -11698,10 +11974,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>582</v>
+        <v>654</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>583</v>
+        <v>655</v>
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="8">
@@ -11717,7 +11993,7 @@
         <v>1</v>
       </c>
       <c r="I117" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" s="8" t="s">
         <v>39</v>
@@ -11726,7 +12002,7 @@
         <v>113</v>
       </c>
       <c r="L117" s="8" t="s">
-        <v>576</v>
+        <v>640</v>
       </c>
       <c r="M117" s="8">
         <v>2</v>
@@ -11738,10 +12014,12 @@
         <v>1</v>
       </c>
       <c r="P117" s="9" t="s">
-        <v>349</v>
+        <v>656</v>
       </c>
       <c r="Q117" s="8"/>
-      <c r="R117" s="8"/>
+      <c r="R117" s="8" t="s">
+        <v>657</v>
+      </c>
       <c r="S117" s="8"/>
       <c r="T117" s="8"/>
       <c r="U117" s="8"/>
@@ -11759,10 +12037,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>584</v>
+        <v>658</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>585</v>
+        <v>659</v>
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="10">
@@ -11778,7 +12056,7 @@
         <v>1</v>
       </c>
       <c r="I118" s="10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J118" s="10" t="s">
         <v>39</v>
@@ -11787,7 +12065,7 @@
         <v>113</v>
       </c>
       <c r="L118" s="10" t="s">
-        <v>576</v>
+        <v>640</v>
       </c>
       <c r="M118" s="10">
         <v>2</v>
@@ -11799,10 +12077,12 @@
         <v>1</v>
       </c>
       <c r="P118" s="11" t="s">
-        <v>349</v>
+        <v>660</v>
       </c>
       <c r="Q118" s="10"/>
-      <c r="R118" s="10"/>
+      <c r="R118" s="10" t="s">
+        <v>661</v>
+      </c>
       <c r="S118" s="10"/>
       <c r="T118" s="10"/>
       <c r="U118" s="10"/>
@@ -11817,11 +12097,6 @@
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AC118" etc:filterBottomFollowUsedRange="0">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="101"/>
-      </filters>
-    </filterColumn>
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="G$1:G$1048576">

--- a/excels/config/game/hero/talent_tree/talent_tree_config.xlsx
+++ b/excels/config/game/hero/talent_tree/talent_tree_config.xlsx
@@ -4386,11 +4386,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AC118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="K96" sqref="K96"/>
     </sheetView>
@@ -4512,7 +4512,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:29">
+    <row r="2" s="1" customFormat="1" ht="18.5" hidden="1" customHeight="1" spans="1:29">
       <c r="A2" s="6" t="s">
         <v>18</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" ht="51.5" customHeight="1" spans="1:29">
+    <row r="3" ht="51.5" hidden="1" customHeight="1" spans="1:29">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -4666,7 +4666,7 @@
       <c r="AB3" s="8"/>
       <c r="AC3" s="8"/>
     </row>
-    <row r="4" ht="51.5" customHeight="1" spans="1:29">
+    <row r="4" ht="51.5" hidden="1" customHeight="1" spans="1:29">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -4731,7 +4731,7 @@
       <c r="AB4" s="10"/>
       <c r="AC4" s="10"/>
     </row>
-    <row r="5" ht="35" customHeight="1" spans="1:29">
+    <row r="5" ht="35" hidden="1" customHeight="1" spans="1:29">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -4796,7 +4796,7 @@
       <c r="AB5" s="8"/>
       <c r="AC5" s="8"/>
     </row>
-    <row r="6" ht="35" customHeight="1" spans="1:29">
+    <row r="6" ht="35" hidden="1" customHeight="1" spans="1:29">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -4861,7 +4861,7 @@
       <c r="AB6" s="10"/>
       <c r="AC6" s="10"/>
     </row>
-    <row r="7" ht="68" customHeight="1" spans="1:29">
+    <row r="7" ht="68" hidden="1" customHeight="1" spans="1:29">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -4924,7 +4924,7 @@
       <c r="AB7" s="8"/>
       <c r="AC7" s="8"/>
     </row>
-    <row r="8" ht="35" customHeight="1" spans="1:29">
+    <row r="8" ht="35" hidden="1" customHeight="1" spans="1:29">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -4987,7 +4987,7 @@
       <c r="AB8" s="10"/>
       <c r="AC8" s="10"/>
     </row>
-    <row r="9" ht="18.5" customHeight="1" spans="1:29">
+    <row r="9" ht="18.5" hidden="1" customHeight="1" spans="1:29">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -5050,7 +5050,7 @@
       <c r="AB9" s="8"/>
       <c r="AC9" s="8"/>
     </row>
-    <row r="10" ht="35" customHeight="1" spans="1:29">
+    <row r="10" ht="35" hidden="1" customHeight="1" spans="1:29">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -5113,7 +5113,7 @@
       <c r="AB10" s="10"/>
       <c r="AC10" s="10"/>
     </row>
-    <row r="11" ht="35" customHeight="1" spans="1:29">
+    <row r="11" ht="35" hidden="1" customHeight="1" spans="1:29">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -5176,7 +5176,7 @@
       <c r="AB11" s="8"/>
       <c r="AC11" s="8"/>
     </row>
-    <row r="12" ht="35" customHeight="1" spans="1:29">
+    <row r="12" ht="35" hidden="1" customHeight="1" spans="1:29">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -5241,7 +5241,7 @@
       <c r="AB12" s="10"/>
       <c r="AC12" s="10"/>
     </row>
-    <row r="13" ht="18.5" customHeight="1" spans="1:29">
+    <row r="13" ht="18.5" hidden="1" customHeight="1" spans="1:29">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -5304,7 +5304,7 @@
       <c r="AB13" s="8"/>
       <c r="AC13" s="8"/>
     </row>
-    <row r="14" ht="51.5" customHeight="1" spans="1:29">
+    <row r="14" ht="51.5" hidden="1" customHeight="1" spans="1:29">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -5371,7 +5371,7 @@
       <c r="AB14" s="10"/>
       <c r="AC14" s="10"/>
     </row>
-    <row r="15" ht="35" customHeight="1" spans="1:29">
+    <row r="15" ht="35" hidden="1" customHeight="1" spans="1:29">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -5434,7 +5434,7 @@
       <c r="AB15" s="8"/>
       <c r="AC15" s="8"/>
     </row>
-    <row r="16" ht="35" customHeight="1" spans="1:29">
+    <row r="16" ht="35" hidden="1" customHeight="1" spans="1:29">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -5497,7 +5497,7 @@
       <c r="AB16" s="10"/>
       <c r="AC16" s="10"/>
     </row>
-    <row r="17" ht="18.5" customHeight="1" spans="1:29">
+    <row r="17" ht="18.5" hidden="1" customHeight="1" spans="1:29">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -5564,7 +5564,7 @@
       <c r="AB17" s="8"/>
       <c r="AC17" s="8"/>
     </row>
-    <row r="18" ht="68" customHeight="1" spans="1:29">
+    <row r="18" ht="68" hidden="1" customHeight="1" spans="1:29">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -5631,7 +5631,7 @@
       <c r="AB18" s="10"/>
       <c r="AC18" s="10"/>
     </row>
-    <row r="19" ht="35" customHeight="1" spans="1:29">
+    <row r="19" ht="35" hidden="1" customHeight="1" spans="1:29">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -5696,7 +5696,7 @@
       <c r="AB19" s="8"/>
       <c r="AC19" s="8"/>
     </row>
-    <row r="20" ht="51.5" customHeight="1" spans="1:29">
+    <row r="20" ht="51.5" hidden="1" customHeight="1" spans="1:29">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -5759,7 +5759,7 @@
       <c r="AB20" s="10"/>
       <c r="AC20" s="10"/>
     </row>
-    <row r="21" ht="18.5" customHeight="1" spans="1:29">
+    <row r="21" ht="18.5" hidden="1" customHeight="1" spans="1:29">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -5822,7 +5822,7 @@
       <c r="AB21" s="8"/>
       <c r="AC21" s="8"/>
     </row>
-    <row r="22" ht="35" customHeight="1" spans="1:29">
+    <row r="22" ht="35" hidden="1" customHeight="1" spans="1:29">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -5887,7 +5887,7 @@
       <c r="AB22" s="10"/>
       <c r="AC22" s="10"/>
     </row>
-    <row r="23" ht="35" customHeight="1" spans="1:29">
+    <row r="23" ht="35" hidden="1" customHeight="1" spans="1:29">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -5950,7 +5950,7 @@
       <c r="AB23" s="8"/>
       <c r="AC23" s="8"/>
     </row>
-    <row r="24" ht="51.5" customHeight="1" spans="1:29">
+    <row r="24" ht="51.5" hidden="1" customHeight="1" spans="1:29">
       <c r="A24" s="10">
         <v>23</v>
       </c>
@@ -6015,7 +6015,7 @@
       <c r="AB24" s="10"/>
       <c r="AC24" s="10"/>
     </row>
-    <row r="25" ht="35" customHeight="1" spans="1:29">
+    <row r="25" ht="35" hidden="1" customHeight="1" spans="1:29">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -6078,7 +6078,7 @@
       <c r="AB25" s="8"/>
       <c r="AC25" s="8"/>
     </row>
-    <row r="26" ht="51.5" customHeight="1" spans="1:29">
+    <row r="26" ht="51.5" hidden="1" customHeight="1" spans="1:29">
       <c r="A26" s="10">
         <v>25</v>
       </c>
@@ -6141,7 +6141,7 @@
       <c r="AB26" s="10"/>
       <c r="AC26" s="10"/>
     </row>
-    <row r="27" ht="35" customHeight="1" spans="1:29">
+    <row r="27" ht="35" hidden="1" customHeight="1" spans="1:29">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -6206,7 +6206,7 @@
       <c r="AB27" s="8"/>
       <c r="AC27" s="8"/>
     </row>
-    <row r="28" ht="51.5" customHeight="1" spans="1:29">
+    <row r="28" ht="51.5" hidden="1" customHeight="1" spans="1:29">
       <c r="A28" s="10">
         <v>27</v>
       </c>
@@ -6269,7 +6269,7 @@
       <c r="AB28" s="10"/>
       <c r="AC28" s="10"/>
     </row>
-    <row r="29" ht="51.5" customHeight="1" spans="1:29">
+    <row r="29" ht="51.5" hidden="1" customHeight="1" spans="1:29">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -6332,7 +6332,7 @@
       <c r="AB29" s="8"/>
       <c r="AC29" s="8"/>
     </row>
-    <row r="30" customFormat="1" ht="51.5" customHeight="1" spans="1:29">
+    <row r="30" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:29">
       <c r="A30" s="10">
         <v>29</v>
       </c>
@@ -6399,7 +6399,7 @@
       <c r="AB30" s="10"/>
       <c r="AC30" s="10"/>
     </row>
-    <row r="31" customFormat="1" ht="35" customHeight="1" spans="1:29">
+    <row r="31" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:29">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -6462,7 +6462,7 @@
       <c r="AB31" s="8"/>
       <c r="AC31" s="8"/>
     </row>
-    <row r="32" customFormat="1" ht="68" customHeight="1" spans="1:29">
+    <row r="32" customFormat="1" ht="68" hidden="1" customHeight="1" spans="1:29">
       <c r="A32" s="10">
         <v>31</v>
       </c>
@@ -6529,7 +6529,7 @@
       <c r="AB32" s="10"/>
       <c r="AC32" s="10"/>
     </row>
-    <row r="33" customFormat="1" ht="51.5" customHeight="1" spans="1:29">
+    <row r="33" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:29">
       <c r="A33" s="8">
         <v>32</v>
       </c>
@@ -6592,7 +6592,7 @@
       <c r="AB33" s="8"/>
       <c r="AC33" s="8"/>
     </row>
-    <row r="34" customFormat="1" ht="101" customHeight="1" spans="1:29">
+    <row r="34" customFormat="1" ht="101" hidden="1" customHeight="1" spans="1:29">
       <c r="A34" s="10">
         <v>33</v>
       </c>
@@ -6659,7 +6659,7 @@
       <c r="AB34" s="10"/>
       <c r="AC34" s="10"/>
     </row>
-    <row r="35" customFormat="1" ht="51.5" customHeight="1" spans="1:29">
+    <row r="35" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:29">
       <c r="A35" s="8">
         <v>34</v>
       </c>
@@ -6726,7 +6726,7 @@
       <c r="AB35" s="8"/>
       <c r="AC35" s="8"/>
     </row>
-    <row r="36" customFormat="1" ht="51.5" customHeight="1" spans="1:29">
+    <row r="36" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:29">
       <c r="A36" s="10">
         <v>35</v>
       </c>
@@ -6795,7 +6795,7 @@
       <c r="AB36" s="10"/>
       <c r="AC36" s="10"/>
     </row>
-    <row r="37" customFormat="1" ht="35" customHeight="1" spans="1:29">
+    <row r="37" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:29">
       <c r="A37" s="8">
         <v>36</v>
       </c>
@@ -6858,7 +6858,7 @@
       <c r="AB37" s="8"/>
       <c r="AC37" s="8"/>
     </row>
-    <row r="38" customFormat="1" ht="51.5" customHeight="1" spans="1:29">
+    <row r="38" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:29">
       <c r="A38" s="10">
         <v>37</v>
       </c>
@@ -6923,7 +6923,7 @@
       <c r="AB38" s="10"/>
       <c r="AC38" s="10"/>
     </row>
-    <row r="39" customFormat="1" ht="35" customHeight="1" spans="1:29">
+    <row r="39" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:29">
       <c r="A39" s="8">
         <v>38</v>
       </c>
@@ -6986,7 +6986,7 @@
       <c r="AB39" s="8"/>
       <c r="AC39" s="8"/>
     </row>
-    <row r="40" customFormat="1" ht="68" customHeight="1" spans="1:29">
+    <row r="40" customFormat="1" ht="68" hidden="1" customHeight="1" spans="1:29">
       <c r="A40" s="10">
         <v>39</v>
       </c>
@@ -7053,7 +7053,7 @@
       <c r="AB40" s="10"/>
       <c r="AC40" s="10"/>
     </row>
-    <row r="41" customFormat="1" ht="51.5" customHeight="1" spans="1:29">
+    <row r="41" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:29">
       <c r="A41" s="8">
         <v>40</v>
       </c>
@@ -7116,7 +7116,7 @@
       <c r="AB41" s="8"/>
       <c r="AC41" s="8"/>
     </row>
-    <row r="42" customFormat="1" ht="35" customHeight="1" spans="1:29">
+    <row r="42" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:29">
       <c r="A42" s="10">
         <v>41</v>
       </c>
@@ -7179,7 +7179,7 @@
       <c r="AB42" s="10"/>
       <c r="AC42" s="10"/>
     </row>
-    <row r="43" customFormat="1" ht="35" customHeight="1" spans="1:29">
+    <row r="43" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:29">
       <c r="A43" s="8">
         <v>42</v>
       </c>
@@ -7242,7 +7242,7 @@
       <c r="AB43" s="8"/>
       <c r="AC43" s="8"/>
     </row>
-    <row r="44" customFormat="1" ht="35" customHeight="1" spans="1:29">
+    <row r="44" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:29">
       <c r="A44" s="10">
         <v>43</v>
       </c>
@@ -7307,7 +7307,7 @@
       <c r="AB44" s="10"/>
       <c r="AC44" s="10"/>
     </row>
-    <row r="45" customFormat="1" ht="35" customHeight="1" spans="1:29">
+    <row r="45" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:29">
       <c r="A45" s="8">
         <v>44</v>
       </c>
@@ -7372,7 +7372,7 @@
       <c r="AB45" s="8"/>
       <c r="AC45" s="8"/>
     </row>
-    <row r="46" customFormat="1" ht="35" customHeight="1" spans="1:29">
+    <row r="46" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:29">
       <c r="A46" s="10">
         <v>45</v>
       </c>
@@ -7437,7 +7437,7 @@
       <c r="AB46" s="10"/>
       <c r="AC46" s="10"/>
     </row>
-    <row r="47" customFormat="1" ht="51.5" customHeight="1" spans="1:29">
+    <row r="47" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:29">
       <c r="A47" s="8">
         <v>46</v>
       </c>
@@ -7502,7 +7502,7 @@
       <c r="AB47" s="8"/>
       <c r="AC47" s="8"/>
     </row>
-    <row r="48" customFormat="1" ht="35" customHeight="1" spans="1:29">
+    <row r="48" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:29">
       <c r="A48" s="10">
         <v>47</v>
       </c>
@@ -7565,7 +7565,7 @@
       <c r="AB48" s="10"/>
       <c r="AC48" s="10"/>
     </row>
-    <row r="49" customFormat="1" ht="35" customHeight="1" spans="1:29">
+    <row r="49" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:29">
       <c r="A49" s="8">
         <v>48</v>
       </c>
@@ -7632,7 +7632,7 @@
       <c r="AB49" s="8"/>
       <c r="AC49" s="8"/>
     </row>
-    <row r="50" customFormat="1" ht="18.5" customHeight="1" spans="1:29">
+    <row r="50" customFormat="1" ht="18.5" hidden="1" customHeight="1" spans="1:29">
       <c r="A50" s="10">
         <v>49</v>
       </c>
@@ -7695,7 +7695,7 @@
       <c r="AB50" s="10"/>
       <c r="AC50" s="10"/>
     </row>
-    <row r="51" customFormat="1" ht="18.5" customHeight="1" spans="1:29">
+    <row r="51" customFormat="1" ht="18.5" hidden="1" customHeight="1" spans="1:29">
       <c r="A51" s="8">
         <v>50</v>
       </c>
@@ -7756,7 +7756,7 @@
       <c r="AB51" s="8"/>
       <c r="AC51" s="8"/>
     </row>
-    <row r="52" customFormat="1" ht="51.5" customHeight="1" spans="1:29">
+    <row r="52" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:29">
       <c r="A52" s="10">
         <v>51</v>
       </c>
@@ -7821,7 +7821,7 @@
       <c r="AB52" s="10"/>
       <c r="AC52" s="10"/>
     </row>
-    <row r="53" customFormat="1" ht="51.5" customHeight="1" spans="1:29">
+    <row r="53" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:29">
       <c r="A53" s="8">
         <v>52</v>
       </c>
@@ -7884,7 +7884,7 @@
       <c r="AB53" s="8"/>
       <c r="AC53" s="8"/>
     </row>
-    <row r="54" customFormat="1" ht="35" customHeight="1" spans="1:29">
+    <row r="54" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:29">
       <c r="A54" s="10">
         <v>53</v>
       </c>
@@ -7951,7 +7951,7 @@
       <c r="AB54" s="10"/>
       <c r="AC54" s="10"/>
     </row>
-    <row r="55" customFormat="1" ht="35" customHeight="1" spans="1:29">
+    <row r="55" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:29">
       <c r="A55" s="8">
         <v>54</v>
       </c>
@@ -8016,7 +8016,7 @@
       <c r="AB55" s="8"/>
       <c r="AC55" s="8"/>
     </row>
-    <row r="56" customFormat="1" ht="51.5" customHeight="1" spans="1:29">
+    <row r="56" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:29">
       <c r="A56" s="10">
         <v>55</v>
       </c>
@@ -8079,7 +8079,7 @@
       <c r="AB56" s="10"/>
       <c r="AC56" s="10"/>
     </row>
-    <row r="57" customFormat="1" ht="51.5" customHeight="1" spans="1:29">
+    <row r="57" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:29">
       <c r="A57" s="8">
         <v>56</v>
       </c>
@@ -8144,7 +8144,7 @@
       <c r="AB57" s="8"/>
       <c r="AC57" s="8"/>
     </row>
-    <row r="58" customFormat="1" ht="51.5" customHeight="1" spans="1:29">
+    <row r="58" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:29">
       <c r="A58" s="10">
         <v>57</v>
       </c>
@@ -12097,6 +12097,11 @@
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AC118" etc:filterBottomFollowUsedRange="0">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="101"/>
+      </filters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="G$1:G$1048576">

--- a/excels/config/game/hero/talent_tree/talent_tree_config.xlsx
+++ b/excels/config/game/hero/talent_tree/talent_tree_config.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="650">
   <si>
     <t>下标</t>
   </si>
@@ -1034,7 +1034,7 @@
     <t>追猎</t>
   </si>
   <si>
-    <t>暴击后提高%add_as_pct%%%攻速和%add_mv_pct%%%移速，持续%duration%秒。</t>
+    <t>暴击后提高%add_as_pct%攻速和%add_mv_pct%%%移速，持续%duration%秒。</t>
   </si>
   <si>
     <t>hero/generic/追猎</t>
@@ -1538,31 +1538,21 @@
     <t>lq_value 10</t>
   </si>
   <si>
-    <t>攻击力提高4%/8%/12%/16%/20%</t>
-  </si>
-  <si>
-    <t>value 4 8 12 16 20</t>
-  </si>
-  <si>
-    <t>移动速度提高5%/7.5%/10%/12.5%/15%</t>
-  </si>
-  <si>
     <t>value 5 7.5 10 12.5 15</t>
   </si>
   <si>
-    <t>生命值提高4%/8%/12%/16%/20%</t>
-  </si>
-  <si>
     <t>邪神</t>
   </si>
   <si>
-    <t>无视元素抗性5%/7.5%/10%</t>
+    <t>提高%AllElementPent.Base%%%元素穿透</t>
   </si>
   <si>
     <t>hero/generic/邪神</t>
   </si>
   <si>
-    <t>value 5 7.5 10</t>
+    <t>AllElementPent {
+"Base" "5 7.5 10"
+}</t>
   </si>
   <si>
     <t>元素轰炸</t>
@@ -1843,52 +1833,32 @@
     <t>reduc_max_hppct 5</t>
   </si>
   <si>
-    <t>生命值大于50%时，提升5%/10%/15%的最终伤害；生命值小于50%时，降低5%/10%/15%的伤害减免。</t>
-  </si>
-  <si>
-    <t>value1 5 10 15</t>
-  </si>
-  <si>
-    <t>value2 5 10 15</t>
-  </si>
-  <si>
-    <t>对被减速的敌人造成伤害时，暴击概率提高5%/10%/15%/20%/25%</t>
-  </si>
-  <si>
     <t>value 5 10 15 20 25</t>
   </si>
   <si>
-    <t>蓝量小于最大蓝量的20%/30%时，每秒恢复5点蓝量。</t>
-  </si>
-  <si>
-    <t>mana_most 20 30</t>
-  </si>
-  <si>
-    <t>value 5</t>
-  </si>
-  <si>
-    <t>每过5秒，回复4%/8%最大生命值。</t>
-  </si>
-  <si>
-    <t>timer 5</t>
-  </si>
-  <si>
-    <t>hp_max 4 8</t>
-  </si>
-  <si>
     <t>惩恶</t>
   </si>
   <si>
-    <t>对非精英怪单位提高10%/20%/30%/40%/50%伤害加成。</t>
+    <t>对非精英怪单位提高%CreatureDmgNormal.Base%%%</t>
   </si>
   <si>
     <t>hero/generic/惩恶</t>
   </si>
   <si>
+    <t>CreatureDmgNormal {
+"Base" "10 20 30 40 50"
+}</t>
+  </si>
+  <si>
     <t>节俭</t>
   </si>
   <si>
-    <t>技能蓝耗降低10%/20%/30%/40%/50%。</t>
+    <t>技能蓝耗降低%ManaCostRate%%%。</t>
+  </si>
+  <si>
+    <t>ManaCostRate {
+"Base" "-10 -20 -30 -40 -50"
+}</t>
   </si>
   <si>
     <t>充沛</t>
@@ -1976,22 +1946,24 @@
     <t>reduce_cd 15</t>
   </si>
   <si>
-    <t>提高15%/20%/25%的伤害加成，同时受到的伤害也会提高15%。</t>
-  </si>
-  <si>
     <t>精通</t>
   </si>
   <si>
-    <t>提高5%/7.5%/10%/12.5%/15%的全元素伤害</t>
+    <t>提高%AllElementDamageBonus%%%的全元素伤害</t>
   </si>
   <si>
     <t>hero/generic/精通</t>
   </si>
   <si>
+    <t>AllElementDamageBonus {
+"Base" "5 7.5 10 12.5 15"
+}</t>
+  </si>
+  <si>
     <t>贯通</t>
   </si>
   <si>
-    <t>暴击时，3秒内提高10%/20%/30%的伤害加成。</t>
+    <t>暴击时，3秒内提高%value%%%的伤害加成。</t>
   </si>
   <si>
     <t>hero/generic/贯通</t>
@@ -4014,36 +3986,36 @@
     </dxf>
   </dxfs>
   <tableStyles count="9" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{486B3DD3-CDE6-4ABD-A1FF-9211C7DDC02D}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{9A2ED049-3B75-44C7-9263-694E85DA891A}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{777A90A0-DF71-4926-8666-C1A09943D6C7}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{486CDE52-1417-4349-A707-3352C86AD459}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{5FC2B620-E08F-4CAE-8063-FECD5B99348A}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{FD9661A2-3344-460B-8673-336FC05A82B7}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{0C416D8B-30E1-4BDC-969E-A1304ACC4BA5}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{A5906C41-EF0F-4E1C-9A88-A432AE77C71E}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{5ECAF851-1A9E-4C2B-9206-1AE0B29791AF}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{5B1AEA73-BC5D-49F5-B783-4156381D83E5}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{1EFC3742-81F7-44F0-96C1-192E5BE0EAA2}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{D5CA89A5-3FE1-43C5-ADC9-FE60BEEFFA8D}">
       <tableStyleElement type="wholeTable" dxfId="28"/>
       <tableStyleElement type="headerRow" dxfId="27"/>
       <tableStyleElement type="totalRow" dxfId="26"/>
@@ -4055,7 +4027,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="20"/>
       <tableStyleElement type="lastTotalCell" dxfId="19"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{3D4E639A-5845-4100-81B7-B9E958CBC745}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{F4B0745D-4756-4385-86F0-BF939929B478}">
       <tableStyleElement type="wholeTable" dxfId="40"/>
       <tableStyleElement type="headerRow" dxfId="39"/>
       <tableStyleElement type="totalRow" dxfId="38"/>
@@ -4069,7 +4041,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="30"/>
       <tableStyleElement type="lastTotalCell" dxfId="29"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{D9173431-F386-4FA6-A9FB-70C6A1012571}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{ADD8F08E-1B24-4636-B9FD-F2EAA812BBCE}">
       <tableStyleElement type="wholeTable" dxfId="47"/>
       <tableStyleElement type="headerRow" dxfId="46"/>
       <tableStyleElement type="totalRow" dxfId="45"/>
@@ -4078,7 +4050,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="42"/>
       <tableStyleElement type="firstColumnStripe" dxfId="41"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{93E25D79-FA55-4770-9676-3ECEC30B48B2}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{90A4E263-5D63-4147-9F01-552699A23F08}">
       <tableStyleElement type="wholeTable" dxfId="52"/>
       <tableStyleElement type="headerRow" dxfId="51"/>
       <tableStyleElement type="totalRow" dxfId="50"/>
@@ -4389,10 +4361,10 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AC118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="K96" sqref="K96"/>
+      <selection pane="topRight" activeCell="O63" sqref="O63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4421,7 +4393,7 @@
     <col min="23" max="23" width="11.675" style="4" customWidth="1"/>
     <col min="24" max="24" width="5.675" style="4" customWidth="1"/>
     <col min="25" max="25" width="14.3416666666667" style="4" customWidth="1"/>
-    <col min="26" max="26" width="25.8416666666667" style="4" customWidth="1"/>
+    <col min="26" max="26" width="30.625" style="4" customWidth="1"/>
     <col min="27" max="27" width="17.8416666666667" style="4" customWidth="1"/>
     <col min="28" max="28" width="3.24166666666667" style="4" customWidth="1"/>
     <col min="29" max="29" width="3.55" style="4" customWidth="1"/>
@@ -9771,7 +9743,7 @@
       <c r="AB82" s="10"/>
       <c r="AC82" s="10"/>
     </row>
-    <row r="83" ht="18.5" customHeight="1" spans="1:29">
+    <row r="83" ht="50.25" spans="1:29">
       <c r="A83" s="8">
         <v>82</v>
       </c>
@@ -9779,7 +9751,7 @@
         <v>171</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>491</v>
+        <v>172</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="8">
@@ -9819,9 +9791,7 @@
         <v>174</v>
       </c>
       <c r="Q83" s="8"/>
-      <c r="R83" s="8" t="s">
-        <v>492</v>
-      </c>
+      <c r="R83" s="8"/>
       <c r="S83" s="8"/>
       <c r="T83" s="8"/>
       <c r="U83" s="8"/>
@@ -9829,12 +9799,14 @@
       <c r="W83" s="8"/>
       <c r="X83" s="8"/>
       <c r="Y83" s="8"/>
-      <c r="Z83" s="9"/>
+      <c r="Z83" s="9" t="s">
+        <v>175</v>
+      </c>
       <c r="AA83" s="8"/>
       <c r="AB83" s="8"/>
       <c r="AC83" s="8"/>
     </row>
-    <row r="84" ht="18.5" customHeight="1" spans="1:29">
+    <row r="84" ht="50.25" spans="1:29">
       <c r="A84" s="10">
         <v>83</v>
       </c>
@@ -9842,7 +9814,7 @@
         <v>181</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>493</v>
+        <v>182</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="10">
@@ -9883,7 +9855,7 @@
       </c>
       <c r="Q84" s="10"/>
       <c r="R84" s="10" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="S84" s="10"/>
       <c r="T84" s="10"/>
@@ -9892,12 +9864,14 @@
       <c r="W84" s="10"/>
       <c r="X84" s="10"/>
       <c r="Y84" s="10"/>
-      <c r="Z84" s="11"/>
+      <c r="Z84" s="11" t="s">
+        <v>184</v>
+      </c>
       <c r="AA84" s="10"/>
       <c r="AB84" s="10"/>
       <c r="AC84" s="10"/>
     </row>
-    <row r="85" ht="18.5" customHeight="1" spans="1:29">
+    <row r="85" ht="50.25" spans="1:29">
       <c r="A85" s="8">
         <v>84</v>
       </c>
@@ -9905,7 +9879,7 @@
         <v>185</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>495</v>
+        <v>186</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="8">
@@ -9945,9 +9919,7 @@
         <v>187</v>
       </c>
       <c r="Q85" s="8"/>
-      <c r="R85" s="8" t="s">
-        <v>492</v>
-      </c>
+      <c r="R85" s="8"/>
       <c r="S85" s="8"/>
       <c r="T85" s="8"/>
       <c r="U85" s="8"/>
@@ -9955,20 +9927,22 @@
       <c r="W85" s="8"/>
       <c r="X85" s="8"/>
       <c r="Y85" s="8"/>
-      <c r="Z85" s="9"/>
+      <c r="Z85" s="9" t="s">
+        <v>188</v>
+      </c>
       <c r="AA85" s="8"/>
       <c r="AB85" s="8"/>
       <c r="AC85" s="8"/>
     </row>
-    <row r="86" ht="18.5" customHeight="1" spans="1:29">
+    <row r="86" ht="50.25" spans="1:29">
       <c r="A86" s="10">
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="10">
@@ -10005,12 +9979,10 @@
         <v>3</v>
       </c>
       <c r="P86" s="11" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="Q86" s="10"/>
-      <c r="R86" s="10" t="s">
-        <v>499</v>
-      </c>
+      <c r="R86" s="10"/>
       <c r="S86" s="10"/>
       <c r="T86" s="10"/>
       <c r="U86" s="10"/>
@@ -10018,7 +9990,9 @@
       <c r="W86" s="10"/>
       <c r="X86" s="10"/>
       <c r="Y86" s="10"/>
-      <c r="Z86" s="11"/>
+      <c r="Z86" s="11" t="s">
+        <v>495</v>
+      </c>
       <c r="AA86" s="10"/>
       <c r="AB86" s="10"/>
       <c r="AC86" s="10"/>
@@ -10028,10 +10002,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="8">
@@ -10056,38 +10030,38 @@
         <v>86</v>
       </c>
       <c r="L87" s="8" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="M87" s="8">
         <v>1</v>
       </c>
       <c r="N87" s="8" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="O87" s="8">
         <v>5</v>
       </c>
       <c r="P87" s="9" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="Q87" s="8"/>
       <c r="R87" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="S87" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="T87" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="U87" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="V87" s="8" t="s">
         <v>505</v>
       </c>
-      <c r="S87" s="8" t="s">
+      <c r="W87" s="8" t="s">
         <v>506</v>
-      </c>
-      <c r="T87" s="8" t="s">
-        <v>507</v>
-      </c>
-      <c r="U87" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="V87" s="8" t="s">
-        <v>509</v>
-      </c>
-      <c r="W87" s="8" t="s">
-        <v>510</v>
       </c>
       <c r="X87" s="8"/>
       <c r="Y87" s="8"/>
@@ -10101,10 +10075,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D88" s="11"/>
       <c r="E88" s="10">
@@ -10129,32 +10103,32 @@
         <v>86</v>
       </c>
       <c r="L88" s="10" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="M88" s="10">
         <v>2</v>
       </c>
       <c r="N88" s="10" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="O88" s="10">
         <v>3</v>
       </c>
       <c r="P88" s="11" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="Q88" s="10"/>
       <c r="R88" s="10" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="S88" s="10" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="T88" s="10" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="U88" s="10" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="V88" s="10"/>
       <c r="W88" s="10"/>
@@ -10170,10 +10144,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="8">
@@ -10198,26 +10172,26 @@
         <v>86</v>
       </c>
       <c r="L89" s="8" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="M89" s="8">
         <v>3</v>
       </c>
       <c r="N89" s="8" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="O89" s="8">
         <v>1</v>
       </c>
       <c r="P89" s="9" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="Q89" s="8"/>
       <c r="R89" s="8" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="S89" s="8" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="T89" s="8"/>
       <c r="U89" s="8"/>
@@ -10235,10 +10209,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="10">
@@ -10263,26 +10237,26 @@
         <v>86</v>
       </c>
       <c r="L90" s="10" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="M90" s="10">
         <v>4</v>
       </c>
       <c r="N90" s="10" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="O90" s="10">
         <v>2</v>
       </c>
       <c r="P90" s="11" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="Q90" s="10"/>
       <c r="R90" s="10" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="S90" s="10" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="T90" s="10"/>
       <c r="U90" s="10"/>
@@ -10300,10 +10274,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="8">
@@ -10328,7 +10302,7 @@
         <v>86</v>
       </c>
       <c r="L91" s="8" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="M91" s="8">
         <v>5</v>
@@ -10340,14 +10314,14 @@
         <v>2</v>
       </c>
       <c r="P91" s="9" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="Q91" s="8"/>
       <c r="R91" s="8" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="S91" s="8" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="T91" s="8"/>
       <c r="U91" s="8"/>
@@ -10365,10 +10339,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="10">
@@ -10393,26 +10367,26 @@
         <v>86</v>
       </c>
       <c r="L92" s="10" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="M92" s="10">
         <v>2</v>
       </c>
       <c r="N92" s="10" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="O92" s="10">
         <v>3</v>
       </c>
       <c r="P92" s="11" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="Q92" s="10"/>
       <c r="R92" s="10" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="S92" s="10" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="T92" s="10" t="s">
         <v>222</v>
@@ -10434,10 +10408,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="8">
@@ -10462,29 +10436,29 @@
         <v>86</v>
       </c>
       <c r="L93" s="8" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="M93" s="8">
         <v>3</v>
       </c>
       <c r="N93" s="8" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="O93" s="8">
         <v>2</v>
       </c>
       <c r="P93" s="9" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="Q93" s="8"/>
       <c r="R93" s="8" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="S93" s="8" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="T93" s="8" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="U93" s="8"/>
       <c r="V93" s="8"/>
@@ -10501,10 +10475,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="10">
@@ -10529,7 +10503,7 @@
         <v>86</v>
       </c>
       <c r="L94" s="10" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="M94" s="10">
         <v>4</v>
@@ -10541,11 +10515,11 @@
         <v>1</v>
       </c>
       <c r="P94" s="11" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="Q94" s="10"/>
       <c r="R94" s="10" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="S94" s="10"/>
       <c r="T94" s="10"/>
@@ -10564,10 +10538,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D95" s="9"/>
       <c r="E95" s="8">
@@ -10592,29 +10566,29 @@
         <v>94</v>
       </c>
       <c r="L95" s="8" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="M95" s="8">
         <v>1</v>
       </c>
       <c r="N95" s="8" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="O95" s="8">
         <v>5</v>
       </c>
       <c r="P95" s="9" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="Q95" s="8"/>
       <c r="R95" s="8" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="S95" s="8" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="T95" s="8" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="U95" s="8"/>
       <c r="V95" s="8"/>
@@ -10631,10 +10605,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D96" s="11"/>
       <c r="E96" s="10">
@@ -10659,26 +10633,26 @@
         <v>94</v>
       </c>
       <c r="L96" s="10" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="M96" s="10">
         <v>2</v>
       </c>
       <c r="N96" s="10" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="O96" s="10">
         <v>3</v>
       </c>
       <c r="P96" s="11" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="Q96" s="10"/>
       <c r="R96" s="10" t="s">
         <v>460</v>
       </c>
       <c r="S96" s="10" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="T96" s="10"/>
       <c r="U96" s="10"/>
@@ -10696,10 +10670,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="8">
@@ -10724,7 +10698,7 @@
         <v>94</v>
       </c>
       <c r="L97" s="8" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="M97" s="8">
         <v>3</v>
@@ -10736,11 +10710,11 @@
         <v>1</v>
       </c>
       <c r="P97" s="9" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="Q97" s="8"/>
       <c r="R97" s="8" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="S97" s="8"/>
       <c r="T97" s="8"/>
@@ -10754,15 +10728,15 @@
       <c r="AB97" s="8"/>
       <c r="AC97" s="8"/>
     </row>
-    <row r="98" ht="117.5" customHeight="1" spans="1:29">
+    <row r="98" ht="99.75" spans="1:29">
       <c r="A98" s="10">
         <v>97</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="D98" s="11"/>
       <c r="E98" s="10">
@@ -10787,29 +10761,29 @@
         <v>94</v>
       </c>
       <c r="L98" s="10" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="M98" s="10">
         <v>2</v>
       </c>
       <c r="N98" s="10" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="O98" s="10">
         <v>3</v>
       </c>
       <c r="P98" s="11" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="Q98" s="10"/>
       <c r="R98" s="10" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="S98" s="10" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="T98" s="10" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="U98" s="10"/>
       <c r="V98" s="10"/>
@@ -10821,15 +10795,15 @@
       <c r="AB98" s="10"/>
       <c r="AC98" s="10"/>
     </row>
-    <row r="99" ht="51.5" customHeight="1" spans="1:29">
+    <row r="99" ht="50.25" spans="1:29">
       <c r="A99" s="8">
         <v>98</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="8">
@@ -10854,7 +10828,7 @@
         <v>94</v>
       </c>
       <c r="L99" s="8" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="M99" s="8">
         <v>3</v>
@@ -10866,14 +10840,14 @@
         <v>1</v>
       </c>
       <c r="P99" s="9" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="Q99" s="8"/>
       <c r="R99" s="8" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="S99" s="8" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="T99" s="8"/>
       <c r="U99" s="8"/>
@@ -10894,7 +10868,7 @@
         <v>256</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>585</v>
+        <v>257</v>
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="10">
@@ -10938,10 +10912,10 @@
         <v>155</v>
       </c>
       <c r="S100" s="10" t="s">
-        <v>586</v>
+        <v>259</v>
       </c>
       <c r="T100" s="10" t="s">
-        <v>587</v>
+        <v>260</v>
       </c>
       <c r="U100" s="10"/>
       <c r="V100" s="10"/>
@@ -10961,7 +10935,7 @@
         <v>270</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>588</v>
+        <v>271</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="8">
@@ -11002,7 +10976,7 @@
       </c>
       <c r="Q101" s="8"/>
       <c r="R101" s="8" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="S101" s="8"/>
       <c r="T101" s="8"/>
@@ -11024,7 +10998,7 @@
         <v>274</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>590</v>
+        <v>275</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="10">
@@ -11065,10 +11039,10 @@
       </c>
       <c r="Q102" s="10"/>
       <c r="R102" s="10" t="s">
-        <v>591</v>
+        <v>277</v>
       </c>
       <c r="S102" s="10" t="s">
-        <v>592</v>
+        <v>278</v>
       </c>
       <c r="T102" s="10"/>
       <c r="U102" s="10"/>
@@ -11081,7 +11055,7 @@
       <c r="AB102" s="10"/>
       <c r="AC102" s="10"/>
     </row>
-    <row r="103" ht="18.5" customHeight="1" spans="1:29">
+    <row r="103" ht="33.75" spans="1:29">
       <c r="A103" s="8">
         <v>102</v>
       </c>
@@ -11089,7 +11063,7 @@
         <v>279</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>593</v>
+        <v>280</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="8">
@@ -11130,10 +11104,10 @@
       </c>
       <c r="Q103" s="8"/>
       <c r="R103" s="8" t="s">
-        <v>594</v>
+        <v>282</v>
       </c>
       <c r="S103" s="8" t="s">
-        <v>595</v>
+        <v>283</v>
       </c>
       <c r="T103" s="8"/>
       <c r="U103" s="8"/>
@@ -11146,15 +11120,15 @@
       <c r="AB103" s="8"/>
       <c r="AC103" s="8"/>
     </row>
-    <row r="104" ht="35" customHeight="1" spans="1:29">
+    <row r="104" ht="50.25" spans="1:29">
       <c r="A104" s="10">
         <v>103</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="10">
@@ -11191,7 +11165,7 @@
         <v>5</v>
       </c>
       <c r="P104" s="11" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="Q104" s="10"/>
       <c r="R104" s="10"/>
@@ -11202,20 +11176,22 @@
       <c r="W104" s="10"/>
       <c r="X104" s="10"/>
       <c r="Y104" s="10"/>
-      <c r="Z104" s="11"/>
+      <c r="Z104" s="11" t="s">
+        <v>585</v>
+      </c>
       <c r="AA104" s="10"/>
       <c r="AB104" s="10"/>
       <c r="AC104" s="10"/>
     </row>
-    <row r="105" ht="18.5" customHeight="1" spans="1:29">
+    <row r="105" ht="50.25" spans="1:29">
       <c r="A105" s="8">
         <v>104</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="8">
@@ -11263,7 +11239,9 @@
       <c r="W105" s="8"/>
       <c r="X105" s="8"/>
       <c r="Y105" s="8"/>
-      <c r="Z105" s="9"/>
+      <c r="Z105" s="9" t="s">
+        <v>588</v>
+      </c>
       <c r="AA105" s="8"/>
       <c r="AB105" s="8"/>
       <c r="AC105" s="8"/>
@@ -11273,10 +11251,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="D106" s="11"/>
       <c r="E106" s="10">
@@ -11301,23 +11279,23 @@
         <v>105</v>
       </c>
       <c r="L106" s="10" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="M106" s="10">
         <v>1</v>
       </c>
       <c r="N106" s="10" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="O106" s="10">
         <v>3</v>
       </c>
       <c r="P106" s="11" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="Q106" s="10"/>
       <c r="R106" s="10" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="S106" s="10"/>
       <c r="T106" s="10"/>
@@ -11336,10 +11314,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="D107" s="9"/>
       <c r="E107" s="8">
@@ -11364,23 +11342,23 @@
         <v>105</v>
       </c>
       <c r="L107" s="8" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="M107" s="8">
         <v>2</v>
       </c>
       <c r="N107" s="8" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="O107" s="8">
         <v>2</v>
       </c>
       <c r="P107" s="9" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="Q107" s="8"/>
       <c r="R107" s="8" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="S107" s="8"/>
       <c r="T107" s="8"/>
@@ -11399,10 +11377,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="D108" s="11"/>
       <c r="E108" s="10">
@@ -11427,7 +11405,7 @@
         <v>105</v>
       </c>
       <c r="L108" s="10" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="M108" s="10">
         <v>3</v>
@@ -11439,14 +11417,14 @@
         <v>1</v>
       </c>
       <c r="P108" s="11" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="Q108" s="10"/>
       <c r="R108" s="10" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="S108" s="10" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="T108" s="10"/>
       <c r="U108" s="10"/>
@@ -11464,10 +11442,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="8">
@@ -11492,29 +11470,29 @@
         <v>108</v>
       </c>
       <c r="L109" s="8" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="M109" s="8">
         <v>1</v>
       </c>
       <c r="N109" s="8" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="O109" s="8">
         <v>3</v>
       </c>
       <c r="P109" s="9" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="Q109" s="8"/>
       <c r="R109" s="8" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="S109" s="8" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="T109" s="8" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="U109" s="8"/>
       <c r="V109" s="8"/>
@@ -11531,10 +11509,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="10">
@@ -11559,7 +11537,7 @@
         <v>108</v>
       </c>
       <c r="L110" s="10" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="M110" s="10">
         <v>2</v>
@@ -11571,11 +11549,11 @@
         <v>1</v>
       </c>
       <c r="P110" s="11" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="Q110" s="10"/>
       <c r="R110" s="10" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="S110" s="10"/>
       <c r="T110" s="10"/>
@@ -11589,15 +11567,15 @@
       <c r="AB110" s="10"/>
       <c r="AC110" s="10"/>
     </row>
-    <row r="111" ht="35" customHeight="1" spans="1:29">
+    <row r="111" ht="50.25" spans="1:29">
       <c r="A111" s="8">
         <v>110</v>
       </c>
       <c r="B111" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="C111" s="9" t="s">
-        <v>629</v>
+      <c r="C111" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="8">
@@ -11645,20 +11623,24 @@
       <c r="W111" s="8"/>
       <c r="X111" s="8"/>
       <c r="Y111" s="8"/>
-      <c r="Z111" s="9"/>
-      <c r="AA111" s="8"/>
+      <c r="Z111" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="AA111" s="10" t="s">
+        <v>321</v>
+      </c>
       <c r="AB111" s="8"/>
       <c r="AC111" s="8"/>
     </row>
-    <row r="112" ht="35" customHeight="1" spans="1:29">
+    <row r="112" ht="50.25" spans="1:29">
       <c r="A112" s="10">
         <v>111</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="D112" s="11"/>
       <c r="E112" s="10">
@@ -11695,7 +11677,7 @@
         <v>5</v>
       </c>
       <c r="P112" s="11" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="Q112" s="10"/>
       <c r="R112" s="10"/>
@@ -11706,7 +11688,9 @@
       <c r="W112" s="10"/>
       <c r="X112" s="10"/>
       <c r="Y112" s="10"/>
-      <c r="Z112" s="11"/>
+      <c r="Z112" s="11" t="s">
+        <v>620</v>
+      </c>
       <c r="AA112" s="10"/>
       <c r="AB112" s="10"/>
       <c r="AC112" s="10"/>
@@ -11716,10 +11700,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="8">
@@ -11756,13 +11740,15 @@
         <v>3</v>
       </c>
       <c r="P113" s="9" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="Q113" s="8"/>
       <c r="R113" s="8" t="s">
-        <v>636</v>
-      </c>
-      <c r="S113" s="8"/>
+        <v>624</v>
+      </c>
+      <c r="S113" s="8" t="s">
+        <v>108</v>
+      </c>
       <c r="T113" s="8"/>
       <c r="U113" s="8"/>
       <c r="V113" s="8"/>
@@ -11779,10 +11765,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="D114" s="11"/>
       <c r="E114" s="10">
@@ -11801,32 +11787,32 @@
         <v>0</v>
       </c>
       <c r="J114" s="10" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K114" s="10">
         <v>113</v>
       </c>
       <c r="L114" s="10" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="M114" s="10">
         <v>1</v>
       </c>
       <c r="N114" s="10" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="O114" s="10">
         <v>1</v>
       </c>
       <c r="P114" s="11" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="Q114" s="10"/>
       <c r="R114" s="10" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="S114" s="10" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="T114" s="10"/>
       <c r="U114" s="10"/>
@@ -11844,10 +11830,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="D115" s="9"/>
       <c r="E115" s="8">
@@ -11872,7 +11858,7 @@
         <v>113</v>
       </c>
       <c r="L115" s="8" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="M115" s="8">
         <v>2</v>
@@ -11884,14 +11870,14 @@
         <v>1</v>
       </c>
       <c r="P115" s="9" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="Q115" s="8"/>
       <c r="R115" s="8" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="S115" s="8" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="T115" s="8"/>
       <c r="U115" s="8"/>
@@ -11909,10 +11895,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="10">
@@ -11937,7 +11923,7 @@
         <v>113</v>
       </c>
       <c r="L116" s="10" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="M116" s="10">
         <v>2</v>
@@ -11949,14 +11935,14 @@
         <v>1</v>
       </c>
       <c r="P116" s="11" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="Q116" s="10"/>
       <c r="R116" s="10" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="S116" s="10" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="T116" s="10"/>
       <c r="U116" s="10"/>
@@ -11974,10 +11960,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="8">
@@ -12002,7 +11988,7 @@
         <v>113</v>
       </c>
       <c r="L117" s="8" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="M117" s="8">
         <v>2</v>
@@ -12014,11 +12000,11 @@
         <v>1</v>
       </c>
       <c r="P117" s="9" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="Q117" s="8"/>
       <c r="R117" s="8" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="S117" s="8"/>
       <c r="T117" s="8"/>
@@ -12037,10 +12023,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="10">
@@ -12065,7 +12051,7 @@
         <v>113</v>
       </c>
       <c r="L118" s="10" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="M118" s="10">
         <v>2</v>
@@ -12077,11 +12063,11 @@
         <v>1</v>
       </c>
       <c r="P118" s="11" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="Q118" s="10"/>
       <c r="R118" s="10" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="S118" s="10"/>
       <c r="T118" s="10"/>
@@ -12098,9 +12084,9 @@
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AC118" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="4">
-      <filters>
-        <filter val="101"/>
-      </filters>
+      <customFilters>
+        <customFilter operator="equal" val="101"/>
+      </customFilters>
     </filterColumn>
     <extLst/>
   </autoFilter>

--- a/excels/config/game/hero/talent_tree/talent_tree_config.xlsx
+++ b/excels/config/game/hero/talent_tree/talent_tree_config.xlsx
@@ -2034,7 +2034,7 @@
     <t>hero/skywrath/奥术分身3</t>
   </si>
   <si>
-    <t>bonus_fire 75</t>
+    <t>image_dmg_bonus 75</t>
   </si>
   <si>
     <t>暗影</t>
@@ -3986,36 +3986,36 @@
     </dxf>
   </dxfs>
   <tableStyles count="9" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{9A2ED049-3B75-44C7-9263-694E85DA891A}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{1699514A-A9E7-4F08-A698-E93964D3F9B2}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{486CDE52-1417-4349-A707-3352C86AD459}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{E5E41F3D-F456-429B-8E63-5B01DE101E89}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{FD9661A2-3344-460B-8673-336FC05A82B7}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{B82F2466-1852-4ADD-8F3B-3ADFB14BB9CE}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{A5906C41-EF0F-4E1C-9A88-A432AE77C71E}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{90EED8F8-042D-41FF-955F-6D8E1F46FC44}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{5B1AEA73-BC5D-49F5-B783-4156381D83E5}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{70C897A7-A66C-42B0-BE7B-18AEF5E328AE}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{D5CA89A5-3FE1-43C5-ADC9-FE60BEEFFA8D}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{948E8B2B-D967-4A4B-8DF6-E8E02341171B}">
       <tableStyleElement type="wholeTable" dxfId="28"/>
       <tableStyleElement type="headerRow" dxfId="27"/>
       <tableStyleElement type="totalRow" dxfId="26"/>
@@ -4027,7 +4027,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="20"/>
       <tableStyleElement type="lastTotalCell" dxfId="19"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{F4B0745D-4756-4385-86F0-BF939929B478}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{DE4F379B-E064-4EC3-BB7A-A4912F916E9B}">
       <tableStyleElement type="wholeTable" dxfId="40"/>
       <tableStyleElement type="headerRow" dxfId="39"/>
       <tableStyleElement type="totalRow" dxfId="38"/>
@@ -4041,7 +4041,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="30"/>
       <tableStyleElement type="lastTotalCell" dxfId="29"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{ADD8F08E-1B24-4636-B9FD-F2EAA812BBCE}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{693B0F7B-94F3-4B24-A9D3-9E12EB1F1B75}">
       <tableStyleElement type="wholeTable" dxfId="47"/>
       <tableStyleElement type="headerRow" dxfId="46"/>
       <tableStyleElement type="totalRow" dxfId="45"/>
@@ -4050,7 +4050,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="42"/>
       <tableStyleElement type="firstColumnStripe" dxfId="41"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{90A4E263-5D63-4147-9F01-552699A23F08}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{09885AE3-031F-4B88-8536-C80E3BFDFAAE}">
       <tableStyleElement type="wholeTable" dxfId="52"/>
       <tableStyleElement type="headerRow" dxfId="51"/>
       <tableStyleElement type="totalRow" dxfId="50"/>
@@ -4361,10 +4361,10 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AC118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
       <pane xSplit="3" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="O63" sqref="O63"/>
+      <selection pane="topRight" activeCell="S117" sqref="S117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/excels/config/game/hero/talent_tree/talent_tree_config.xlsx
+++ b/excels/config/game/hero/talent_tree/talent_tree_config.xlsx
@@ -4361,10 +4361,10 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AC118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="M1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="S117" sqref="S117"/>
+      <selection pane="topRight" activeCell="J66" sqref="J66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8661,7 +8661,7 @@
         <v>1</v>
       </c>
       <c r="J66" s="10" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="K66" s="8">
         <v>58</v>

--- a/excels/config/game/hero/talent_tree/talent_tree_config.xlsx
+++ b/excels/config/game/hero/talent_tree/talent_tree_config.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="650">
   <si>
     <t>下标</t>
   </si>
@@ -3986,36 +3986,36 @@
     </dxf>
   </dxfs>
   <tableStyles count="9" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{1699514A-A9E7-4F08-A698-E93964D3F9B2}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{FD334194-971F-4195-911C-A58ED83E5095}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{E5E41F3D-F456-429B-8E63-5B01DE101E89}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{D4C60BB7-667D-414E-B49B-9D2DC891C92F}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{B82F2466-1852-4ADD-8F3B-3ADFB14BB9CE}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{2F505D6C-3E31-4F09-9E47-A9F670C73894}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{90EED8F8-042D-41FF-955F-6D8E1F46FC44}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{7E6AB123-13D8-41EF-BF65-0116873EE806}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{70C897A7-A66C-42B0-BE7B-18AEF5E328AE}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{02E13803-B320-4104-9C6C-1D6F1AA2FE9E}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{948E8B2B-D967-4A4B-8DF6-E8E02341171B}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{65BD663C-705F-47CF-88BC-AD529323D2BC}">
       <tableStyleElement type="wholeTable" dxfId="28"/>
       <tableStyleElement type="headerRow" dxfId="27"/>
       <tableStyleElement type="totalRow" dxfId="26"/>
@@ -4027,7 +4027,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="20"/>
       <tableStyleElement type="lastTotalCell" dxfId="19"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{DE4F379B-E064-4EC3-BB7A-A4912F916E9B}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{DDA48F0E-A58C-4C77-B08B-A31FD1698606}">
       <tableStyleElement type="wholeTable" dxfId="40"/>
       <tableStyleElement type="headerRow" dxfId="39"/>
       <tableStyleElement type="totalRow" dxfId="38"/>
@@ -4041,7 +4041,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="30"/>
       <tableStyleElement type="lastTotalCell" dxfId="29"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{693B0F7B-94F3-4B24-A9D3-9E12EB1F1B75}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{B97654E2-E049-4776-91FA-39CB85DD4C8B}">
       <tableStyleElement type="wholeTable" dxfId="47"/>
       <tableStyleElement type="headerRow" dxfId="46"/>
       <tableStyleElement type="totalRow" dxfId="45"/>
@@ -4050,7 +4050,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="42"/>
       <tableStyleElement type="firstColumnStripe" dxfId="41"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{09885AE3-031F-4B88-8536-C80E3BFDFAAE}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{819F603E-F6C9-4686-A4A8-50402020BE5C}">
       <tableStyleElement type="wholeTable" dxfId="52"/>
       <tableStyleElement type="headerRow" dxfId="51"/>
       <tableStyleElement type="totalRow" dxfId="50"/>
@@ -4361,10 +4361,10 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AC118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="P1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="J66" sqref="J66"/>
+      <selection pane="topRight" activeCell="T69" sqref="T69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8889,7 +8889,9 @@
       <c r="S69" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="T69" s="8"/>
+      <c r="T69" s="8" t="s">
+        <v>197</v>
+      </c>
       <c r="U69" s="8"/>
       <c r="V69" s="8"/>
       <c r="W69" s="8"/>

--- a/excels/config/game/hero/talent_tree/talent_tree_config.xlsx
+++ b/excels/config/game/hero/talent_tree/talent_tree_config.xlsx
@@ -3986,36 +3986,36 @@
     </dxf>
   </dxfs>
   <tableStyles count="9" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{FD334194-971F-4195-911C-A58ED83E5095}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{7694807B-F619-44A3-BC66-3C27E044DC1D}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{D4C60BB7-667D-414E-B49B-9D2DC891C92F}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{1A52BB6B-100F-4523-9C0B-7C43779FF5F3}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{2F505D6C-3E31-4F09-9E47-A9F670C73894}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{A98899DB-91CD-4764-BA65-078F5FB0FBA5}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{7E6AB123-13D8-41EF-BF65-0116873EE806}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{C535CC6E-E1A1-4A18-BC6E-591B0F7D6F47}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{02E13803-B320-4104-9C6C-1D6F1AA2FE9E}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{CAAE826B-34D8-4268-A4C8-131D32267A77}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{65BD663C-705F-47CF-88BC-AD529323D2BC}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{94C731BA-E2AD-4160-AC57-F4153A64935F}">
       <tableStyleElement type="wholeTable" dxfId="28"/>
       <tableStyleElement type="headerRow" dxfId="27"/>
       <tableStyleElement type="totalRow" dxfId="26"/>
@@ -4027,7 +4027,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="20"/>
       <tableStyleElement type="lastTotalCell" dxfId="19"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{DDA48F0E-A58C-4C77-B08B-A31FD1698606}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{669484AE-4331-44EA-ACB4-9630DC50044C}">
       <tableStyleElement type="wholeTable" dxfId="40"/>
       <tableStyleElement type="headerRow" dxfId="39"/>
       <tableStyleElement type="totalRow" dxfId="38"/>
@@ -4041,7 +4041,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="30"/>
       <tableStyleElement type="lastTotalCell" dxfId="29"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{B97654E2-E049-4776-91FA-39CB85DD4C8B}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{610E48D1-433C-403A-BB76-CCEC3A609D59}">
       <tableStyleElement type="wholeTable" dxfId="47"/>
       <tableStyleElement type="headerRow" dxfId="46"/>
       <tableStyleElement type="totalRow" dxfId="45"/>
@@ -4050,7 +4050,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="42"/>
       <tableStyleElement type="firstColumnStripe" dxfId="41"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{819F603E-F6C9-4686-A4A8-50402020BE5C}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{FA87E994-6EAA-4B75-A18D-67DE3B20A778}">
       <tableStyleElement type="wholeTable" dxfId="52"/>
       <tableStyleElement type="headerRow" dxfId="51"/>
       <tableStyleElement type="totalRow" dxfId="50"/>
@@ -4361,10 +4361,10 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AC118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="P1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="Q1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="T69" sqref="T69"/>
+      <selection pane="topRight" activeCell="A66" sqref="$A66:$XFD66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/excels/config/game/hero/talent_tree/talent_tree_config.xlsx
+++ b/excels/config/game/hero/talent_tree/talent_tree_config.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="663">
   <si>
     <t>下标</t>
   </si>
@@ -173,7 +173,7 @@
     <t>爆炸箭</t>
   </si>
   <si>
-    <t>攻击变为%skv_aoe_radius%码范围伤害，提高%bonus_value%%%的基础技能伤害，伤害变为火元素伤害。</t>
+    <t>攻击变为%skv_aoe_radius%码范围伤害，提高%bonus_value%%%的基础技能伤害，伤害变为火元素伤害</t>
   </si>
   <si>
     <t>Aoe</t>
@@ -188,10 +188,10 @@
     <t>hero/drow/爆炸箭</t>
   </si>
   <si>
-    <t>skv_aoe_radius 300</t>
-  </si>
-  <si>
-    <t>bonus_value 40 70 120</t>
+    <t>skv_aoe_radius 150</t>
+  </si>
+  <si>
+    <t>bonus_value 20 30 50</t>
   </si>
   <si>
     <t>浓缩</t>
@@ -221,16 +221,13 @@
     <t>hero/drow/炸裂</t>
   </si>
   <si>
-    <t>skv_aoe_radius 150</t>
-  </si>
-  <si>
-    <t>burn_dmg 45 90</t>
+    <t>burn_dmg 25 50</t>
   </si>
   <si>
     <t>穿透箭</t>
   </si>
   <si>
-    <t>攻击可以穿透敌人，提高%bonus_value%%%的基础技能伤害。技能赋予风元素效果，伤害变为风元素伤害。（穿透距离不超过攻击距离）</t>
+    <t>攻击可以穿透敌人，提高%bonus_value%%%的基础技能伤害技能赋予风元素效果，伤害变为风元素伤害</t>
   </si>
   <si>
     <t>Missile</t>
@@ -245,13 +242,13 @@
     <t>hero/drow/穿透箭</t>
   </si>
   <si>
-    <t>bonus_value 30 50 90</t>
+    <t>bonus_value 15 30 50</t>
   </si>
   <si>
     <t>连射</t>
   </si>
   <si>
-    <t>穿透箭攻击时有%lianshe_chance%%%概率再射出一只箭。</t>
+    <t>穿透箭攻击时有%lianshe_chance%%%概率再射出一只箭</t>
   </si>
   <si>
     <t>hero/drow/连射</t>
@@ -263,7 +260,7 @@
     <t>分裂箭</t>
   </si>
   <si>
-    <t>攻击可以同时命中%targes%个敌人。</t>
+    <t>攻击可以同时命中%targes%个敌人</t>
   </si>
   <si>
     <t>Targeting</t>
@@ -290,7 +287,7 @@
     <t>drow_ranger/dragons_touch_ability_icons/drow_ranger_frost_arrows</t>
   </si>
   <si>
-    <t>bonus_value 150 300</t>
+    <t>bonus_value 15 30</t>
   </si>
   <si>
     <t>积蓄</t>
@@ -308,7 +305,12 @@
     <t>连续射击</t>
   </si>
   <si>
-    <t>快速射出%proj_count%支箭，每支箭造成攻击力%base_value%%%的基础技能伤害</t>
+    <t>快速射出%proj_count%支箭，每支箭造成攻击力%base_value%%%的基础技能伤害
+作用范围：750码</t>
+  </si>
+  <si>
+    <t>cd：3秒
+蓝量消耗：20</t>
   </si>
   <si>
     <t>drow_2a</t>
@@ -368,7 +370,7 @@
     <t>风箭</t>
   </si>
   <si>
-    <t>技能赋予风元素效果，伤害变为风元素伤害。增加%wind_dmg_pct%%%的风元素伤害</t>
+    <t>技能赋予风元素效果，伤害变为风元素伤害增加%wind_dmg_pct%%%的风元素伤害</t>
   </si>
   <si>
     <t>hero/drow/风箭</t>
@@ -398,7 +400,7 @@
     <t>刺骨</t>
   </si>
   <si>
-    <t>技能赋予冰元素效果，伤害变为冰元素伤害。</t>
+    <t>技能赋予冰元素效果，伤害变为冰元素伤害</t>
   </si>
   <si>
     <t>冰元素减速效果增加至%move_slow%%%</t>
@@ -440,6 +442,10 @@
     <t>散射数支箭，造成攻击力%base_value%%%的基础技能伤害</t>
   </si>
   <si>
+    <t>cd：3秒
+蓝量消耗：30</t>
+  </si>
+  <si>
     <t>drow_2b</t>
   </si>
   <si>
@@ -458,7 +464,7 @@
     <t>火力覆盖</t>
   </si>
   <si>
-    <t>散射技能赋予火元素效果，伤害变为火元素伤害。提高%bonus_value%%%的基础技能伤害</t>
+    <t>散射技能赋予火元素效果，伤害变为火元素伤害提高%bonus_value%%%的基础技能伤害</t>
   </si>
   <si>
     <t>drow_2b_a</t>
@@ -506,7 +512,7 @@
     <t>双喷</t>
   </si>
   <si>
-    <t>散射技能赋予冰元素效果，伤害变为冰元素伤害。有%chance%%%概率再次释放一次</t>
+    <t>散射技能赋予冰元素效果，伤害变为冰元素伤害有%chance%%%概率再次释放一次</t>
   </si>
   <si>
     <t>drow_2b_b</t>
@@ -524,7 +530,7 @@
     <t>重创</t>
   </si>
   <si>
-    <t>散射对距离越近的单位造成伤害越高。最近判定%closest_distance%码
+    <t>散射对距离越近的单位造成伤害越高最近判定%closest_distance%码
 至多提高%bonus_value%%%的伤害加成</t>
   </si>
   <si>
@@ -615,6 +621,10 @@
     <t>召唤一阵风暴环绕自身，每%interval%秒对触碰到风暴的敌人造成攻击力%base_value%%%的基础技能伤害，持续%duration%秒</t>
   </si>
   <si>
+    <t>cd:15秒
+蓝量消耗：20</t>
+  </si>
+  <si>
     <t>Surround</t>
   </si>
   <si>
@@ -660,7 +670,7 @@
     <t>退散</t>
   </si>
   <si>
-    <t>风暴环绕技能赋予风元素效果，变为风元素伤害。
+    <t>风暴环绕技能赋予风元素效果，变为风元素伤害
 增加%WindDamageBonus.Base%%%的风元素伤害</t>
   </si>
   <si>
@@ -681,7 +691,7 @@
     <t>冰雹</t>
   </si>
   <si>
-    <t>风暴环绕技能赋予冰元素效果，变为冰元素伤害。
+    <t>风暴环绕技能赋予冰元素效果，变为冰元素伤害
 风暴数量增加%bonus_count%个</t>
   </si>
   <si>
@@ -700,9 +710,9 @@
     <t>暴雪</t>
   </si>
   <si>
-    <t>使用风暴环绕技能之后，会记录造成的实际伤害值，并在风暴持续结束时释放一阵暴雪，暴雪的基础技能伤害为记录的实际伤害值的%record_pct%%%。
-记录上限为英雄攻击力%limit_pct%%%。
-爆炸范围：自身直径%radius%码</t>
+    <t>使用风暴环绕技能之后，会记录造成的实际伤害值，并在风暴持续结束时释放一阵暴雪，暴雪的基础技能伤害为记录的实际伤害值的%record_pct%%%
+记录上限为英雄攻击力%limit_pct%%%
+爆炸范围：%radius%码</t>
   </si>
   <si>
     <t>hero/drow/暴雪</t>
@@ -744,10 +754,10 @@
     <t>燃矢</t>
   </si>
   <si>
-    <t>1级解锁: 箭雨技能赋予火元素效果，变为火元素伤害。</t>
-  </si>
-  <si>
-    <t>2级解锁: 该技能造成强化灼烧效果,强化灼烧伤害持续时间为%burn_duration%秒，基础伤害为攻击力%burn_dmg%%%。</t>
+    <t>箭雨技能赋予火元素效果，变为火元素伤害</t>
+  </si>
+  <si>
+    <t>该技能造成强化灼烧效果,强化灼烧伤害持续时间为%burn_duration%秒，基础伤害为攻击力%burn_dmg%%%</t>
   </si>
   <si>
     <t>Dot</t>
@@ -786,7 +796,7 @@
     <t>集火</t>
   </si>
   <si>
-    <t>多支箭矢命中相同敌人时，每一支箭额外提升%bonus_dmg%%%的伤害加成。上限%limit_stack%层。</t>
+    <t>多支箭矢命中相同敌人时，每一支箭额外提升%bonus_dmg%%%的伤害加成上限%limit_stack%层</t>
   </si>
   <si>
     <t>drow_3b_b</t>
@@ -807,7 +817,7 @@
     <t>急冻</t>
   </si>
   <si>
-    <t>箭雨技能赋予冰元素效果，变为冰元素伤害。额外增加%bonus_arrow%支箭。</t>
+    <t>箭雨技能赋予冰元素效果，变为冰元素伤害额外增加%bonus_arrow%支箭</t>
   </si>
   <si>
     <t>hero/drow/急冻</t>
@@ -851,7 +861,7 @@
     <t>侥幸</t>
   </si>
   <si>
-    <t>闪避后立即回复%dogde_heal_loss%%%已损失生命值。</t>
+    <t>闪避后立即回复%dogde_heal_loss%%%已损失生命值</t>
   </si>
   <si>
     <t>hero/generic/侥幸</t>
@@ -905,7 +915,11 @@
     <t>能量恢复</t>
   </si>
   <si>
-    <t>立即回复%recover_mana%点蓝量。冷却:%ability_cd%秒</t>
+    <t>立即回复%recover_mana%点蓝量</t>
+  </si>
+  <si>
+    <t>cd：50/40/30秒
+无蓝量消耗。</t>
   </si>
   <si>
     <t>drow_4a</t>
@@ -957,6 +971,10 @@
   </si>
   <si>
     <t>获得%move_pct%%%移动速度加成，持续%duration%秒</t>
+  </si>
+  <si>
+    <t>cd：15秒
+蓝耗：30</t>
   </si>
   <si>
     <t>drow_4b</t>
@@ -1037,7 +1055,7 @@
     <t>追猎</t>
   </si>
   <si>
-    <t>暴击后提高%add_as_pct%攻速和%add_mv_pct%%%移速，持续%duration%秒。</t>
+    <t>暴击后提高%add_as_pct%攻速和%add_mv_pct%%%移速，持续%duration%秒</t>
   </si>
   <si>
     <t>hero/generic/追猎</t>
@@ -1055,7 +1073,11 @@
     <t>复仇</t>
   </si>
   <si>
-    <t>引燃复仇之魂，获得%dmg_bonus_pct%%%的伤害加成，持续%duration%秒。</t>
+    <t>引燃复仇之魂，获得%dmg_bonus_pct%%%的伤害加成，持续%duration%秒</t>
+  </si>
+  <si>
+    <t>cd：40秒
+无蓝量消耗。</t>
   </si>
   <si>
     <t>drow_5</t>
@@ -1128,7 +1150,7 @@
     <t>雷鸣</t>
   </si>
   <si>
-    <t>对目标单位及周围半径150/200/250码范围造成雷元素伤害，提高10%的技能基础伤害。</t>
+    <t>对目标单位及周围半径150/200/250码范围造成雷元素伤害，提高10%的技能基础伤害</t>
   </si>
   <si>
     <t>skywrath_1a</t>
@@ -1149,7 +1171,7 @@
     <t>悲鸣</t>
   </si>
   <si>
-    <t>雷鸣触发暴击时，会追加从天而降的雷电，造成该次雷鸣的150%/200%伤害。</t>
+    <t>雷鸣触发暴击时，会追加从天而降的雷电，造成该次雷鸣的150%/200%伤害</t>
   </si>
   <si>
     <t>hero/skywrath/悲鸣</t>
@@ -1161,7 +1183,7 @@
     <t>引雷</t>
   </si>
   <si>
-    <t>雷鸣造成伤害时会在区域留下250范围的引雷区持续3秒，引雷区域的单位受到雷元素伤害增加25%/50%。</t>
+    <t>雷鸣造成伤害时会在区域留下250范围的引雷区持续3秒，引雷区域的单位受到雷元素伤害增加25%/50%</t>
   </si>
   <si>
     <t>hero/skywrath/引雷</t>
@@ -1179,7 +1201,7 @@
     <t>寒风波</t>
   </si>
   <si>
-    <t>技能命中敌人时，会分散给周围至多3个单位，提高15%/25%/35%技能基础伤害。</t>
+    <t>技能命中敌人时，会分散给周围至多3个单位，提高15%/25%/35%技能基础伤害</t>
   </si>
   <si>
     <t>skywrath_1b</t>
@@ -1254,8 +1276,8 @@
     <t>龙啸</t>
   </si>
   <si>
-    <t>蓄力4/3秒，向同一个方向发出4/6条炎龙。
-可移动打断施法。</t>
+    <t>蓄力4/3秒，向同一个方向发出4/6条炎龙
+可移动打断施法</t>
   </si>
   <si>
     <t>hero/skywrath/龙哮</t>
@@ -1288,11 +1310,10 @@
     <t>元素缠绕</t>
   </si>
   <si>
-    <t xml:space="preserve">在自身650码距离生成一种随机元素，对触碰到的敌人造成对应元素伤害。
+    <t>在自身650码距离生成一种随机元素，对触碰到的敌人造成对应元素伤害
 伤害系数：攻击力%base_value%%%·对应元素技能基础伤害
 伤害间隔：1.0s
-持续时间：8秒
-</t>
+持续时间：8秒</t>
   </si>
   <si>
     <t>cd：10秒
@@ -1314,10 +1335,10 @@
     <t>炎爆</t>
   </si>
   <si>
-    <t xml:space="preserve">每5秒生成一颗火球环绕自身，触碰到敌人时爆炸造成范围火元素伤害，提升50%技能基础伤害。
+    <t xml:space="preserve">每5秒生成一颗火球环绕自身，触碰到敌人时爆炸造成范围火元素伤害，提升50%技能基础伤害
 爆炸范围：150码
 火球上限：3/4/5个
-持续时间10秒或触碰到敌人消失。
+持续时间10秒或触碰到敌人消失
 </t>
   </si>
   <si>
@@ -1379,7 +1400,7 @@
     <t>霜降</t>
   </si>
   <si>
-    <t>生成一枚常驻的冰块，缠绕周围，对触碰到的敌人造成冰元素伤害。提升30%/40%/50%基础技能伤害。</t>
+    <t>生成一枚常驻的冰块，缠绕周围，对触碰到的敌人造成冰元素伤害提升30%/40%/50%基础技能伤害</t>
   </si>
   <si>
     <t>skywrath_2a_b</t>
@@ -1412,7 +1433,7 @@
     <t>永冻</t>
   </si>
   <si>
-    <t>触碰到冰块的敌人强制冻结1秒。</t>
+    <t>触碰到冰块的敌人强制冻结1秒</t>
   </si>
   <si>
     <t>hero/skywrath/永冻</t>
@@ -1424,7 +1445,7 @@
     <t>雷电屏障</t>
   </si>
   <si>
-    <t>生成一次抵挡3次伤害的屏障，受到攻击时会对攻击者造成高额伤害。
+    <t>生成一次抵挡3次伤害的屏障，受到攻击时会对攻击者造成高额伤害
 伤害系数：攻击力120%/140%/160%/180%/240%·雷元素的技能基础伤害
 持续时间：8秒</t>
   </si>
@@ -1445,7 +1466,7 @@
     <t>感电线圈</t>
   </si>
   <si>
-    <t>在自身700码处生成一个雷电线圈，对触碰到的敌人造成雷元素伤害。
+    <t>在自身700码处生成一个雷电线圈，对触碰到的敌人造成雷元素伤害
 额外提25%/35%/50%的技能基础伤害
 线圈伤害间隔1.0s，持续时间8秒</t>
   </si>
@@ -1507,7 +1528,7 @@
     <t>极寒冰圈</t>
   </si>
   <si>
-    <t>在自身550码处生成一个寒冰线圈，对触碰到的敌人造成冰元素伤害。
+    <t>在自身550码处生成一个寒冰线圈，对触碰到的敌人造成冰元素伤害
 提升30%/50%/70%技能基础伤害
 线圈伤害间隔1.0s，持续时间8秒</t>
   </si>
@@ -1542,8 +1563,8 @@
     <t>冷气</t>
   </si>
   <si>
-    <t>极寒冰圈伤害敌人时，会追加一层冷气效果，冷气效果上限5/10层。持续5秒
-冷气效果：受到冰元素伤害提高10%。</t>
+    <t>极寒冰圈伤害敌人时，会追加一层冷气效果，冷气效果上限5/10层持续5秒
+冷气效果：受到冰元素伤害提高10%</t>
   </si>
   <si>
     <t>hero/skywrath/冷气</t>
@@ -1618,8 +1639,8 @@
     <t>陨石雨</t>
   </si>
   <si>
-    <t>吟唱3秒，召唤3枚陨石雨打击向自身范围1000码内随机敌军，对目标及周围单位造成范围火元素伤害，获得20%*【元素轰炸】等级的技能基础伤害。
-额外提高25%/35%/50%的技能基础伤害。
+    <t>吟唱3秒，召唤3枚陨石雨打击向自身范围1000码内随机敌军，对目标及周围单位造成范围火元素伤害，获得20%*【元素轰炸】等级的技能基础伤害
+额外提高25%/35%/50%的技能基础伤害
 伤害范围：200码</t>
   </si>
   <si>
@@ -1664,7 +1685,7 @@
   </si>
   <si>
     <t>陨石雨造成伤害时若波及到火种，则会引爆火种，再造成一次范围伤害
-伤害范围：200码/300码。
+伤害范围：200码/300码
 伤害系数：攻击力200%·火元素技能基础伤害</t>
   </si>
   <si>
@@ -1698,8 +1719,8 @@
     <t>奔雷领域</t>
   </si>
   <si>
-    <t>吟唱8秒，吟唱期间自身750码范围内开启电闪雷鸣，对范围内的所有敌人造成持续的雷元素打击，获得20%*【元素轰炸】等级的技能基础伤害。
-额外提高20%/40%/60%的技能基础伤害。</t>
+    <t>吟唱8秒，吟唱期间自身750码范围内开启电闪雷鸣，对范围内的所有敌人造成持续的雷元素打击，获得20%*【元素轰炸】等级的技能基础伤害
+额外提高20%/40%/60%的技能基础伤害</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1725,7 +1746,7 @@
     <t>雷云</t>
   </si>
   <si>
-    <t>吟唱期间生成1/2朵雷云，雷云会随机打击1名敌人每次造成攻击力125%的雷元素技能基础伤害。
+    <t>吟唱期间生成1/2朵雷云，雷云会随机打击1名敌人每次造成攻击力125%的雷元素技能基础伤害
 雷云攻击间隔：1.5秒
 雷云攻击范围：等于奔雷领域范围</t>
   </si>
@@ -1748,7 +1769,7 @@
     <t>低压</t>
   </si>
   <si>
-    <t>对引雷区域的敌人造成的伤害翻倍。</t>
+    <t>对引雷区域的敌人造成的伤害翻倍</t>
   </si>
   <si>
     <t>hero/skywrath/低压</t>
@@ -1760,7 +1781,7 @@
     <t>法阵</t>
   </si>
   <si>
-    <t>以自身为中心召唤法阵，对法阵内敌人造成持续伤害。
+    <t>以自身为中心召唤法阵，对法阵内敌人造成持续伤害
 持续时间：8/9/10/12/15秒
 伤害系数：攻击力350%的技能基础伤害·每秒
 作用范围：600码</t>
@@ -1791,7 +1812,7 @@
     <t>极寒领域</t>
   </si>
   <si>
-    <t>自身为中心召唤法阵，对法阵内的敌人造成持续的冰元素伤害，提升40%/70%/100%的技能基础伤害。
+    <t>自身为中心召唤法阵，对法阵内的敌人造成持续的冰元素伤害，提升40%/70%/100%的技能基础伤害
 持续时间：与【法阵】技能相同
 作用范围：600码</t>
   </si>
@@ -1814,7 +1835,7 @@
     <t>冰尘</t>
   </si>
   <si>
-    <t>极寒领域cd减少10秒。</t>
+    <t>极寒领域cd减少10秒</t>
   </si>
   <si>
     <t>hero/skywrath/冰尘</t>
@@ -1826,7 +1847,7 @@
     <t>死亡空间</t>
   </si>
   <si>
-    <t>以自身为中心召唤法阵，对法阵内的敌人造成持续的暗元素伤害，提升10%/20%/30%的技能基础伤害。
+    <t>以自身为中心召唤法阵，对法阵内的敌人造成持续的暗元素伤害，提升10%/20%/30%的技能基础伤害
 持续时间：8秒
 作用范围：600码</t>
   </si>
@@ -1852,7 +1873,7 @@
     <t>至暗</t>
   </si>
   <si>
-    <t>处于阵法内的敌人元素抗性降低50%，但自身每1秒扣除最大生命值的5%。
+    <t>处于阵法内的敌人元素抗性降低50%，但自身每1秒扣除最大生命值的5%
 真实伤害,不吃减免,血量少于5%则直接死亡</t>
   </si>
   <si>
@@ -1885,7 +1906,7 @@
     <t>节俭</t>
   </si>
   <si>
-    <t>技能蓝耗降低%ManaCostRate%%%。</t>
+    <t>技能蓝耗降低%ManaCostRate%%%</t>
   </si>
   <si>
     <t>ManaCostRate {
@@ -1896,7 +1917,7 @@
     <t>充沛</t>
   </si>
   <si>
-    <t>最大蓝量提升50/70/100点。</t>
+    <t>最大蓝量提升50/70/100点</t>
   </si>
   <si>
     <t>skywrath_4a</t>
@@ -1914,7 +1935,7 @@
     <t>能量补充</t>
   </si>
   <si>
-    <t>每秒回复蓝量5/10点。</t>
+    <t>每秒回复蓝量5/10点</t>
   </si>
   <si>
     <t>107|0</t>
@@ -1944,7 +1965,7 @@
     <t>盈能模式</t>
   </si>
   <si>
-    <t>开启状态，技能cd减少50%，蓝量消耗减少50%，持续5/8/12秒。
+    <t>开启状态，技能cd减少50%，蓝量消耗减少50%，持续5/8/12秒
 cd：40秒</t>
   </si>
   <si>
@@ -1969,7 +1990,7 @@
     <t>狂暴</t>
   </si>
   <si>
-    <t>盈能模式cd降低15秒。</t>
+    <t>盈能模式cd降低15秒</t>
   </si>
   <si>
     <t>hero/skywrath/狂暴</t>
@@ -1995,7 +2016,7 @@
     <t>贯通</t>
   </si>
   <si>
-    <t>暴击时，3秒内提高%value%%%的伤害加成。</t>
+    <t>暴击时，3秒内提高%value%%%的伤害加成</t>
   </si>
   <si>
     <t>hero/generic/贯通</t>
@@ -2072,7 +2093,7 @@
     <t>暗影</t>
   </si>
   <si>
-    <t>分身获得暗元素之力，模仿任意技能均结算为暗元素伤害。</t>
+    <t>分身获得暗元素之力，模仿任意技能均结算为暗元素伤害</t>
   </si>
   <si>
     <t>hero/skywrath/奥术分身4</t>
@@ -4018,36 +4039,36 @@
     </dxf>
   </dxfs>
   <tableStyles count="9" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{E9AC315C-52C7-4607-B8DA-19CD9575A2F4}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{0DA1B5F9-7093-4EBE-A2FF-40B35315840D}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{61F86F6C-9055-4394-A8D3-DDA8D63B246B}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{D840BE45-7A45-4138-9575-4724C46B3493}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{6F82CBAA-6B31-4F50-8C0F-935A6FDBC077}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{93FF7961-FAA8-4D14-BE19-DE44934B485E}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{F840F0DB-E1D0-4379-ABB8-A8266E5286FE}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{88F49A4C-F91B-479F-97D5-E1AB25B5F63F}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{B1343BCE-589C-4C7D-B8B8-B5BCAB97985F}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{9ABF4338-ED38-4312-BAFB-149E13D58BF3}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{B45EBB05-C264-43C0-A47B-9E9C1CBBD59C}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{BA94AEF3-3378-44FA-A5FD-3F849F46FAC9}">
       <tableStyleElement type="wholeTable" dxfId="28"/>
       <tableStyleElement type="headerRow" dxfId="27"/>
       <tableStyleElement type="totalRow" dxfId="26"/>
@@ -4059,7 +4080,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="20"/>
       <tableStyleElement type="lastTotalCell" dxfId="19"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{DD5168AC-7FEF-40FD-B176-180A736BD3C1}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{53585C8A-B14D-4B50-AAB1-40A9AD34D14E}">
       <tableStyleElement type="wholeTable" dxfId="40"/>
       <tableStyleElement type="headerRow" dxfId="39"/>
       <tableStyleElement type="totalRow" dxfId="38"/>
@@ -4073,7 +4094,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="30"/>
       <tableStyleElement type="lastTotalCell" dxfId="29"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{29B9306D-23A9-40C8-BDB1-44761BF4FAAB}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{A955D736-B3BD-44AA-AA22-38581AC258B5}">
       <tableStyleElement type="wholeTable" dxfId="47"/>
       <tableStyleElement type="headerRow" dxfId="46"/>
       <tableStyleElement type="totalRow" dxfId="45"/>
@@ -4082,7 +4103,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="42"/>
       <tableStyleElement type="firstColumnStripe" dxfId="41"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{A84C3462-30A0-40FC-8625-E47CC7D4BC74}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{84C4B94A-5F78-4FF2-9A95-F5752787834D}">
       <tableStyleElement type="wholeTable" dxfId="52"/>
       <tableStyleElement type="headerRow" dxfId="51"/>
       <tableStyleElement type="totalRow" dxfId="50"/>
@@ -4390,13 +4411,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:AD118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="Q1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D104" sqref="D104"/>
+      <selection pane="topRight" activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4519,7 +4540,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="18.5" hidden="1" customHeight="1" spans="1:30">
+    <row r="2" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:30">
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
@@ -4609,7 +4630,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" ht="51.5" hidden="1" customHeight="1" spans="1:30">
+    <row r="3" ht="51.5" customHeight="1" spans="1:30">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -4675,7 +4696,7 @@
       <c r="AC3" s="8"/>
       <c r="AD3" s="8"/>
     </row>
-    <row r="4" ht="51.5" hidden="1" customHeight="1" spans="1:30">
+    <row r="4" ht="51.5" customHeight="1" spans="1:30">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -4741,7 +4762,7 @@
       <c r="AC4" s="10"/>
       <c r="AD4" s="10"/>
     </row>
-    <row r="5" ht="35" hidden="1" customHeight="1" spans="1:30">
+    <row r="5" ht="35" customHeight="1" spans="1:30">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -4807,7 +4828,7 @@
       <c r="AC5" s="8"/>
       <c r="AD5" s="8"/>
     </row>
-    <row r="6" ht="35" hidden="1" customHeight="1" spans="1:30">
+    <row r="6" ht="35" customHeight="1" spans="1:30">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -4857,10 +4878,10 @@
       </c>
       <c r="R6" s="10"/>
       <c r="S6" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="T6" s="10" t="s">
         <v>63</v>
-      </c>
-      <c r="T6" s="10" t="s">
-        <v>64</v>
       </c>
       <c r="U6" s="10"/>
       <c r="V6" s="10"/>
@@ -4873,15 +4894,15 @@
       <c r="AC6" s="10"/>
       <c r="AD6" s="10"/>
     </row>
-    <row r="7" ht="68" hidden="1" customHeight="1" spans="1:30">
+    <row r="7" ht="68" customHeight="1" spans="1:30">
       <c r="A7" s="8">
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -4901,29 +4922,29 @@
         <v>4</v>
       </c>
       <c r="K7" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="8">
+        <v>1</v>
+      </c>
+      <c r="M7" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="L7" s="8">
-        <v>1</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>68</v>
       </c>
       <c r="N7" s="8">
         <v>2</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P7" s="8">
         <v>3</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R7" s="8"/>
       <c r="S7" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
@@ -4937,15 +4958,15 @@
       <c r="AC7" s="8"/>
       <c r="AD7" s="8"/>
     </row>
-    <row r="8" ht="35" hidden="1" customHeight="1" spans="1:30">
+    <row r="8" ht="35" customHeight="1" spans="1:30">
       <c r="A8" s="10">
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>72</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>73</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -4971,7 +4992,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N8" s="10">
         <v>3</v>
@@ -4983,11 +5004,11 @@
         <v>2</v>
       </c>
       <c r="Q8" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R8" s="10"/>
       <c r="S8" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T8" s="10"/>
       <c r="U8" s="10"/>
@@ -5001,15 +5022,15 @@
       <c r="AC8" s="10"/>
       <c r="AD8" s="10"/>
     </row>
-    <row r="9" ht="18.5" hidden="1" customHeight="1" spans="1:30">
+    <row r="9" ht="18.5" customHeight="1" spans="1:30">
       <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>77</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -5029,29 +5050,29 @@
         <v>0</v>
       </c>
       <c r="K9" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" s="8">
+        <v>1</v>
+      </c>
+      <c r="M9" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="L9" s="8">
-        <v>1</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>79</v>
       </c>
       <c r="N9" s="8">
         <v>2</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P9" s="8">
         <v>3</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R9" s="8"/>
       <c r="S9" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T9" s="8"/>
       <c r="U9" s="8"/>
@@ -5065,15 +5086,15 @@
       <c r="AC9" s="8"/>
       <c r="AD9" s="8"/>
     </row>
-    <row r="10" ht="35" hidden="1" customHeight="1" spans="1:30">
+    <row r="10" ht="35" customHeight="1" spans="1:30">
       <c r="A10" s="10">
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>83</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>84</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
@@ -5099,7 +5120,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N10" s="10">
         <v>3</v>
@@ -5111,11 +5132,11 @@
         <v>2</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R10" s="10"/>
       <c r="S10" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T10" s="10"/>
       <c r="U10" s="10"/>
@@ -5129,15 +5150,15 @@
       <c r="AC10" s="10"/>
       <c r="AD10" s="10"/>
     </row>
-    <row r="11" ht="35" hidden="1" customHeight="1" spans="1:30">
+    <row r="11" ht="35" customHeight="1" spans="1:30">
       <c r="A11" s="8">
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>88</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -5163,7 +5184,7 @@
         <v>1</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N11" s="8">
         <v>3</v>
@@ -5175,11 +5196,11 @@
         <v>2</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R11" s="8"/>
       <c r="S11" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T11" s="8"/>
       <c r="U11" s="8"/>
@@ -5193,17 +5214,19 @@
       <c r="AC11" s="8"/>
       <c r="AD11" s="8"/>
     </row>
-    <row r="12" ht="35" hidden="1" customHeight="1" spans="1:30">
+    <row r="12" ht="50.25" spans="1:30">
       <c r="A12" s="10">
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="D12" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="10">
         <v>6</v>
@@ -5221,7 +5244,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L12" s="10">
         <v>11</v>
@@ -5259,7 +5282,7 @@
       <c r="AC12" s="10"/>
       <c r="AD12" s="10"/>
     </row>
-    <row r="13" ht="18.5" hidden="1" customHeight="1" spans="1:30">
+    <row r="13" ht="18.5" customHeight="1" spans="1:30">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -5323,7 +5346,7 @@
       <c r="AC13" s="8"/>
       <c r="AD13" s="8"/>
     </row>
-    <row r="14" ht="51.5" hidden="1" customHeight="1" spans="1:30">
+    <row r="14" ht="51.5" customHeight="1" spans="1:30">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -5391,7 +5414,7 @@
       <c r="AC14" s="10"/>
       <c r="AD14" s="10"/>
     </row>
-    <row r="15" ht="35" hidden="1" customHeight="1" spans="1:30">
+    <row r="15" ht="35" customHeight="1" spans="1:30">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -5455,7 +5478,7 @@
       <c r="AC15" s="8"/>
       <c r="AD15" s="8"/>
     </row>
-    <row r="16" ht="35" hidden="1" customHeight="1" spans="1:30">
+    <row r="16" ht="35" customHeight="1" spans="1:30">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -5519,7 +5542,7 @@
       <c r="AC16" s="10"/>
       <c r="AD16" s="10"/>
     </row>
-    <row r="17" ht="18.5" hidden="1" customHeight="1" spans="1:30">
+    <row r="17" ht="18.5" customHeight="1" spans="1:30">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -5587,7 +5610,7 @@
       <c r="AC17" s="8"/>
       <c r="AD17" s="8"/>
     </row>
-    <row r="18" ht="68" hidden="1" customHeight="1" spans="1:30">
+    <row r="18" ht="68" customHeight="1" spans="1:30">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -5655,7 +5678,7 @@
       <c r="AC18" s="10"/>
       <c r="AD18" s="10"/>
     </row>
-    <row r="19" ht="35" hidden="1" customHeight="1" spans="1:30">
+    <row r="19" ht="35" customHeight="1" spans="1:30">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -5665,7 +5688,9 @@
       <c r="C19" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="D19" s="9"/>
+      <c r="D19" s="9" t="s">
+        <v>136</v>
+      </c>
       <c r="E19" s="9"/>
       <c r="F19" s="8">
         <v>6</v>
@@ -5689,26 +5714,26 @@
         <v>18</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N19" s="8">
         <v>1</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P19" s="8">
         <v>5</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="R19" s="8"/>
       <c r="S19" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="T19" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="U19" s="8"/>
       <c r="V19" s="8"/>
@@ -5721,15 +5746,15 @@
       <c r="AC19" s="8"/>
       <c r="AD19" s="8"/>
     </row>
-    <row r="20" ht="51.5" hidden="1" customHeight="1" spans="1:30">
+    <row r="20" ht="51.5" customHeight="1" spans="1:30">
       <c r="A20" s="10">
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
@@ -5749,29 +5774,29 @@
         <v>1</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L20" s="8">
         <v>18</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N20" s="10">
         <v>2</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P20" s="10">
         <v>3</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="R20" s="10"/>
       <c r="S20" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="T20" s="10"/>
       <c r="U20" s="10"/>
@@ -5785,15 +5810,15 @@
       <c r="AC20" s="10"/>
       <c r="AD20" s="10"/>
     </row>
-    <row r="21" ht="18.5" hidden="1" customHeight="1" spans="1:30">
+    <row r="21" ht="18.5" customHeight="1" spans="1:30">
       <c r="A21" s="8">
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
@@ -5819,23 +5844,23 @@
         <v>18</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N21" s="8">
         <v>3</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P21" s="8">
         <v>2</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="R21" s="8"/>
       <c r="S21" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="T21" s="8"/>
       <c r="U21" s="8"/>
@@ -5849,15 +5874,15 @@
       <c r="AC21" s="8"/>
       <c r="AD21" s="8"/>
     </row>
-    <row r="22" ht="35" hidden="1" customHeight="1" spans="1:30">
+    <row r="22" ht="35" customHeight="1" spans="1:30">
       <c r="A22" s="10">
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
@@ -5883,7 +5908,7 @@
         <v>18</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N22" s="10">
         <v>4</v>
@@ -5895,14 +5920,14 @@
         <v>3</v>
       </c>
       <c r="Q22" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="R22" s="10"/>
       <c r="S22" s="10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="T22" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="U22" s="10"/>
       <c r="V22" s="10"/>
@@ -5915,15 +5940,15 @@
       <c r="AC22" s="10"/>
       <c r="AD22" s="10"/>
     </row>
-    <row r="23" ht="35" hidden="1" customHeight="1" spans="1:30">
+    <row r="23" ht="35" customHeight="1" spans="1:30">
       <c r="A23" s="8">
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
@@ -5949,23 +5974,23 @@
         <v>18</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N23" s="8">
         <v>2</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P23" s="8">
         <v>3</v>
       </c>
       <c r="Q23" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="R23" s="8"/>
       <c r="S23" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="T23" s="8"/>
       <c r="U23" s="8"/>
@@ -5979,15 +6004,15 @@
       <c r="AC23" s="8"/>
       <c r="AD23" s="8"/>
     </row>
-    <row r="24" ht="51.5" hidden="1" customHeight="1" spans="1:30">
+    <row r="24" ht="51.5" customHeight="1" spans="1:30">
       <c r="A24" s="10">
         <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
@@ -6013,26 +6038,26 @@
         <v>18</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N24" s="10">
         <v>3</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P24" s="10">
         <v>2</v>
       </c>
       <c r="Q24" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="R24" s="10"/>
       <c r="S24" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="T24" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="U24" s="10"/>
       <c r="V24" s="10"/>
@@ -6045,15 +6070,15 @@
       <c r="AC24" s="10"/>
       <c r="AD24" s="10"/>
     </row>
-    <row r="25" ht="35" hidden="1" customHeight="1" spans="1:30">
+    <row r="25" ht="35" customHeight="1" spans="1:30">
       <c r="A25" s="8">
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
@@ -6079,7 +6104,7 @@
         <v>18</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N25" s="8">
         <v>4</v>
@@ -6091,11 +6116,11 @@
         <v>3</v>
       </c>
       <c r="Q25" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="R25" s="8"/>
       <c r="S25" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="T25" s="8"/>
       <c r="U25" s="8"/>
@@ -6109,15 +6134,15 @@
       <c r="AC25" s="8"/>
       <c r="AD25" s="8"/>
     </row>
-    <row r="26" ht="51.5" hidden="1" customHeight="1" spans="1:30">
+    <row r="26" ht="51.5" customHeight="1" spans="1:30">
       <c r="A26" s="10">
         <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
@@ -6140,10 +6165,10 @@
         <v>40</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N26" s="10">
         <v>99</v>
@@ -6155,7 +6180,7 @@
         <v>5</v>
       </c>
       <c r="Q26" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="R26" s="10"/>
       <c r="S26" s="10"/>
@@ -6167,21 +6192,21 @@
       <c r="Y26" s="10"/>
       <c r="Z26" s="10"/>
       <c r="AA26" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AB26" s="10"/>
       <c r="AC26" s="10"/>
       <c r="AD26" s="10"/>
     </row>
-    <row r="27" ht="35" hidden="1" customHeight="1" spans="1:30">
+    <row r="27" ht="35" customHeight="1" spans="1:30">
       <c r="A27" s="8">
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
@@ -6204,10 +6229,10 @@
         <v>40</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N27" s="8">
         <v>99</v>
@@ -6219,14 +6244,14 @@
         <v>5</v>
       </c>
       <c r="Q27" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="R27" s="8"/>
       <c r="S27" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="T27" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="U27" s="8"/>
       <c r="V27" s="8"/>
@@ -6239,15 +6264,15 @@
       <c r="AC27" s="8"/>
       <c r="AD27" s="8"/>
     </row>
-    <row r="28" ht="51.5" hidden="1" customHeight="1" spans="1:30">
+    <row r="28" ht="51.5" customHeight="1" spans="1:30">
       <c r="A28" s="10">
         <v>27</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
@@ -6270,10 +6295,10 @@
         <v>40</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N28" s="10">
         <v>99</v>
@@ -6285,7 +6310,7 @@
         <v>5</v>
       </c>
       <c r="Q28" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="R28" s="10"/>
       <c r="S28" s="10"/>
@@ -6297,21 +6322,21 @@
       <c r="Y28" s="10"/>
       <c r="Z28" s="10"/>
       <c r="AA28" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AB28" s="10"/>
       <c r="AC28" s="10"/>
       <c r="AD28" s="10"/>
     </row>
-    <row r="29" ht="51.5" hidden="1" customHeight="1" spans="1:30">
+    <row r="29" ht="51.5" customHeight="1" spans="1:30">
       <c r="A29" s="8">
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
@@ -6334,10 +6359,10 @@
         <v>40</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N29" s="8">
         <v>99</v>
@@ -6349,7 +6374,7 @@
         <v>5</v>
       </c>
       <c r="Q29" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R29" s="8"/>
       <c r="S29" s="8"/>
@@ -6361,23 +6386,25 @@
       <c r="Y29" s="8"/>
       <c r="Z29" s="8"/>
       <c r="AA29" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AB29" s="8"/>
       <c r="AC29" s="8"/>
       <c r="AD29" s="8"/>
     </row>
-    <row r="30" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:30">
+    <row r="30" customFormat="1" ht="51.5" customHeight="1" spans="1:30">
       <c r="A30" s="10">
         <v>29</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="D30" s="11"/>
+        <v>192</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>193</v>
+      </c>
       <c r="E30" s="11"/>
       <c r="F30" s="10">
         <v>6</v>
@@ -6395,35 +6422,35 @@
         <v>0</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L30" s="10">
         <v>29</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N30" s="10">
         <v>1</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P30" s="10">
         <v>5</v>
       </c>
       <c r="Q30" s="11" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="R30" s="10"/>
       <c r="S30" s="10" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="T30" s="10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="U30" s="10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="V30" s="10"/>
       <c r="W30" s="10"/>
@@ -6435,15 +6462,15 @@
       <c r="AC30" s="10"/>
       <c r="AD30" s="10"/>
     </row>
-    <row r="31" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:30">
+    <row r="31" customFormat="1" ht="35" customHeight="1" spans="1:30">
       <c r="A31" s="8">
         <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
@@ -6463,29 +6490,29 @@
         <v>0</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L31" s="10">
         <v>29</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="N31" s="8">
         <v>2</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P31" s="8">
         <v>2</v>
       </c>
       <c r="Q31" s="9" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="R31" s="8"/>
       <c r="S31" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="T31" s="8"/>
       <c r="U31" s="8"/>
@@ -6499,15 +6526,15 @@
       <c r="AC31" s="8"/>
       <c r="AD31" s="8"/>
     </row>
-    <row r="32" customFormat="1" ht="68" hidden="1" customHeight="1" spans="1:30">
+    <row r="32" customFormat="1" ht="68" customHeight="1" spans="1:30">
       <c r="A32" s="10">
         <v>31</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
@@ -6533,7 +6560,7 @@
         <v>29</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="N32" s="10">
         <v>3</v>
@@ -6545,14 +6572,14 @@
         <v>2</v>
       </c>
       <c r="Q32" s="11" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="R32" s="10"/>
       <c r="S32" s="10" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="T32" s="10" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="U32" s="10"/>
       <c r="V32" s="10"/>
@@ -6561,21 +6588,21 @@
       <c r="Y32" s="10"/>
       <c r="Z32" s="10"/>
       <c r="AA32" s="11" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AB32" s="10"/>
       <c r="AC32" s="10"/>
       <c r="AD32" s="10"/>
     </row>
-    <row r="33" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:30">
+    <row r="33" customFormat="1" ht="51.5" customHeight="1" spans="1:30">
       <c r="A33" s="8">
         <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
@@ -6601,23 +6628,23 @@
         <v>29</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="N33" s="8">
         <v>2</v>
       </c>
       <c r="O33" s="8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P33" s="8">
         <v>2</v>
       </c>
       <c r="Q33" s="9" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="R33" s="8"/>
       <c r="S33" s="8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="T33" s="8"/>
       <c r="U33" s="8"/>
@@ -6631,15 +6658,15 @@
       <c r="AC33" s="8"/>
       <c r="AD33" s="8"/>
     </row>
-    <row r="34" customFormat="1" ht="101" hidden="1" customHeight="1" spans="1:30">
+    <row r="34" customFormat="1" ht="101" customHeight="1" spans="1:30">
       <c r="A34" s="10">
         <v>33</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
@@ -6665,7 +6692,7 @@
         <v>29</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="N34" s="10">
         <v>3</v>
@@ -6677,17 +6704,17 @@
         <v>3</v>
       </c>
       <c r="Q34" s="11" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="R34" s="10"/>
       <c r="S34" s="10" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="T34" s="10" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="U34" s="10" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="V34" s="10"/>
       <c r="W34" s="10"/>
@@ -6699,17 +6726,19 @@
       <c r="AC34" s="10"/>
       <c r="AD34" s="10"/>
     </row>
-    <row r="35" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:30">
+    <row r="35" customFormat="1" ht="51.5" customHeight="1" spans="1:30">
       <c r="A35" s="8">
         <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="D35" s="9"/>
+        <v>227</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>193</v>
+      </c>
       <c r="E35" s="9"/>
       <c r="F35" s="8">
         <v>6</v>
@@ -6733,29 +6762,29 @@
         <v>34</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="N35" s="8">
         <v>1</v>
       </c>
       <c r="O35" s="8" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P35" s="8">
         <v>5</v>
       </c>
       <c r="Q35" s="9" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="R35" s="8"/>
       <c r="S35" s="8" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="T35" s="8" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="U35" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="V35" s="8"/>
       <c r="W35" s="8"/>
@@ -6767,19 +6796,19 @@
       <c r="AC35" s="8"/>
       <c r="AD35" s="8"/>
     </row>
-    <row r="36" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:30">
+    <row r="36" customFormat="1" ht="51.5" customHeight="1" spans="1:30">
       <c r="A36" s="10">
         <v>35</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F36" s="10">
         <v>6</v>
@@ -6797,35 +6826,35 @@
         <v>1</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L36" s="8">
         <v>34</v>
       </c>
       <c r="M36" s="10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N36" s="10">
         <v>2</v>
       </c>
       <c r="O36" s="10" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P36" s="10">
         <v>2</v>
       </c>
       <c r="Q36" s="11" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="R36" s="10"/>
       <c r="S36" s="10" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="T36" s="10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="U36" s="10" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="V36" s="10"/>
       <c r="W36" s="10"/>
@@ -6837,15 +6866,15 @@
       <c r="AC36" s="10"/>
       <c r="AD36" s="10"/>
     </row>
-    <row r="37" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:30">
+    <row r="37" customFormat="1" ht="35" customHeight="1" spans="1:30">
       <c r="A37" s="8">
         <v>36</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
@@ -6865,13 +6894,13 @@
         <v>0</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L37" s="8">
         <v>34</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N37" s="8">
         <v>3</v>
@@ -6883,11 +6912,11 @@
         <v>2</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="R37" s="8"/>
       <c r="S37" s="8" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="T37" s="8"/>
       <c r="U37" s="8"/>
@@ -6901,15 +6930,15 @@
       <c r="AC37" s="8"/>
       <c r="AD37" s="8"/>
     </row>
-    <row r="38" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:30">
+    <row r="38" customFormat="1" ht="51.5" customHeight="1" spans="1:30">
       <c r="A38" s="10">
         <v>37</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
@@ -6929,32 +6958,32 @@
         <v>0</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L38" s="8">
         <v>34</v>
       </c>
       <c r="M38" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="N38" s="10">
         <v>2</v>
       </c>
       <c r="O38" s="10" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P38" s="10">
         <v>3</v>
       </c>
       <c r="Q38" s="11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="R38" s="10"/>
       <c r="S38" s="10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="T38" s="10" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="U38" s="10"/>
       <c r="V38" s="10"/>
@@ -6967,15 +6996,15 @@
       <c r="AC38" s="10"/>
       <c r="AD38" s="10"/>
     </row>
-    <row r="39" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:30">
+    <row r="39" customFormat="1" ht="35" customHeight="1" spans="1:30">
       <c r="A39" s="8">
         <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
@@ -7001,7 +7030,7 @@
         <v>34</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="N39" s="8">
         <v>3</v>
@@ -7013,11 +7042,11 @@
         <v>2</v>
       </c>
       <c r="Q39" s="9" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="R39" s="8"/>
       <c r="S39" s="8" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="T39" s="8"/>
       <c r="U39" s="8"/>
@@ -7031,15 +7060,15 @@
       <c r="AC39" s="8"/>
       <c r="AD39" s="8"/>
     </row>
-    <row r="40" customFormat="1" ht="68" hidden="1" customHeight="1" spans="1:30">
+    <row r="40" customFormat="1" ht="68" customHeight="1" spans="1:30">
       <c r="A40" s="10">
         <v>39</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
@@ -7062,10 +7091,10 @@
         <v>40</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M40" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N40" s="10">
         <v>99</v>
@@ -7077,17 +7106,17 @@
         <v>3</v>
       </c>
       <c r="Q40" s="11" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="R40" s="10"/>
       <c r="S40" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="T40" s="10" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="U40" s="10" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="V40" s="10"/>
       <c r="W40" s="10"/>
@@ -7099,15 +7128,15 @@
       <c r="AC40" s="10"/>
       <c r="AD40" s="10"/>
     </row>
-    <row r="41" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:30">
+    <row r="41" customFormat="1" ht="51.5" customHeight="1" spans="1:30">
       <c r="A41" s="8">
         <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
@@ -7130,22 +7159,22 @@
         <v>40</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N41" s="8">
         <v>99</v>
       </c>
       <c r="O41" s="8" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P41" s="8">
         <v>5</v>
       </c>
       <c r="Q41" s="9" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="R41" s="8"/>
       <c r="S41" s="8"/>
@@ -7157,21 +7186,21 @@
       <c r="Y41" s="8"/>
       <c r="Z41" s="8"/>
       <c r="AA41" s="9" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AB41" s="8"/>
       <c r="AC41" s="8"/>
       <c r="AD41" s="8"/>
     </row>
-    <row r="42" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:30">
+    <row r="42" customFormat="1" ht="35" customHeight="1" spans="1:30">
       <c r="A42" s="10">
         <v>41</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
@@ -7194,10 +7223,10 @@
         <v>40</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M42" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N42" s="10">
         <v>99</v>
@@ -7209,11 +7238,11 @@
         <v>3</v>
       </c>
       <c r="Q42" s="11" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="R42" s="10"/>
       <c r="S42" s="10" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="T42" s="10"/>
       <c r="U42" s="10"/>
@@ -7227,15 +7256,15 @@
       <c r="AC42" s="10"/>
       <c r="AD42" s="10"/>
     </row>
-    <row r="43" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:30">
+    <row r="43" customFormat="1" ht="35" customHeight="1" spans="1:30">
       <c r="A43" s="8">
         <v>42</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
@@ -7258,10 +7287,10 @@
         <v>40</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N43" s="8">
         <v>99</v>
@@ -7273,11 +7302,11 @@
         <v>5</v>
       </c>
       <c r="Q43" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="R43" s="8"/>
       <c r="S43" s="8" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="T43" s="8"/>
       <c r="U43" s="8"/>
@@ -7291,15 +7320,15 @@
       <c r="AC43" s="8"/>
       <c r="AD43" s="8"/>
     </row>
-    <row r="44" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:30">
+    <row r="44" customFormat="1" ht="35" customHeight="1" spans="1:30">
       <c r="A44" s="10">
         <v>43</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
@@ -7322,10 +7351,10 @@
         <v>40</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M44" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N44" s="10">
         <v>99</v>
@@ -7337,14 +7366,14 @@
         <v>2</v>
       </c>
       <c r="Q44" s="11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="R44" s="10"/>
       <c r="S44" s="10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="T44" s="10" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="U44" s="10"/>
       <c r="V44" s="10"/>
@@ -7357,15 +7386,15 @@
       <c r="AC44" s="10"/>
       <c r="AD44" s="10"/>
     </row>
-    <row r="45" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:30">
+    <row r="45" customFormat="1" ht="35" customHeight="1" spans="1:30">
       <c r="A45" s="8">
         <v>44</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
@@ -7388,10 +7417,10 @@
         <v>40</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N45" s="8">
         <v>99</v>
@@ -7403,14 +7432,14 @@
         <v>2</v>
       </c>
       <c r="Q45" s="9" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="R45" s="8"/>
       <c r="S45" s="8" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="T45" s="8" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="U45" s="8"/>
       <c r="V45" s="8"/>
@@ -7423,17 +7452,19 @@
       <c r="AC45" s="8"/>
       <c r="AD45" s="8"/>
     </row>
-    <row r="46" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:30">
+    <row r="46" customFormat="1" ht="35" customHeight="1" spans="1:30">
       <c r="A46" s="10">
         <v>45</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="D46" s="11"/>
+        <v>288</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>289</v>
+      </c>
       <c r="E46" s="11"/>
       <c r="F46" s="10">
         <v>6</v>
@@ -7451,32 +7482,32 @@
         <v>0</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L46" s="10">
         <v>45</v>
       </c>
       <c r="M46" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="N46" s="10">
         <v>1</v>
       </c>
       <c r="O46" s="10" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="P46" s="10">
         <v>3</v>
       </c>
       <c r="Q46" s="11" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="R46" s="10"/>
       <c r="S46" s="10" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="T46" s="10" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="U46" s="10"/>
       <c r="V46" s="10"/>
@@ -7489,15 +7520,15 @@
       <c r="AC46" s="10"/>
       <c r="AD46" s="10"/>
     </row>
-    <row r="47" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:30">
+    <row r="47" customFormat="1" ht="51.5" customHeight="1" spans="1:30">
       <c r="A47" s="8">
         <v>46</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
@@ -7523,26 +7554,26 @@
         <v>45</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="N47" s="8">
         <v>2</v>
       </c>
       <c r="O47" s="8" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="P47" s="8">
         <v>2</v>
       </c>
       <c r="Q47" s="9" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="R47" s="8"/>
       <c r="S47" s="8" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="T47" s="8" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="U47" s="8"/>
       <c r="V47" s="8"/>
@@ -7555,15 +7586,15 @@
       <c r="AC47" s="8"/>
       <c r="AD47" s="8"/>
     </row>
-    <row r="48" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:30">
+    <row r="48" customFormat="1" ht="35" customHeight="1" spans="1:30">
       <c r="A48" s="10">
         <v>47</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
@@ -7589,7 +7620,7 @@
         <v>45</v>
       </c>
       <c r="M48" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="N48" s="10">
         <v>3</v>
@@ -7601,11 +7632,11 @@
         <v>2</v>
       </c>
       <c r="Q48" s="11" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="R48" s="10"/>
       <c r="S48" s="10" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="T48" s="10"/>
       <c r="U48" s="10"/>
@@ -7619,17 +7650,19 @@
       <c r="AC48" s="10"/>
       <c r="AD48" s="10"/>
     </row>
-    <row r="49" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:30">
+    <row r="49" customFormat="1" ht="35" customHeight="1" spans="1:30">
       <c r="A49" s="8">
         <v>48</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="D49" s="9"/>
+        <v>306</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>307</v>
+      </c>
       <c r="E49" s="9"/>
       <c r="F49" s="8">
         <v>6</v>
@@ -7647,35 +7680,35 @@
         <v>0</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L49" s="10">
         <v>45</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="N49" s="8">
         <v>1</v>
       </c>
       <c r="O49" s="8" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="P49" s="8">
         <v>3</v>
       </c>
       <c r="Q49" s="9" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="R49" s="8"/>
       <c r="S49" s="8" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="T49" s="8" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="U49" s="8" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="V49" s="8"/>
       <c r="W49" s="8"/>
@@ -7687,15 +7720,15 @@
       <c r="AC49" s="8"/>
       <c r="AD49" s="8"/>
     </row>
-    <row r="50" customFormat="1" ht="18.5" hidden="1" customHeight="1" spans="1:30">
+    <row r="50" customFormat="1" ht="18.5" customHeight="1" spans="1:30">
       <c r="A50" s="10">
         <v>49</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11"/>
@@ -7721,23 +7754,23 @@
         <v>45</v>
       </c>
       <c r="M50" s="10" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="N50" s="10">
         <v>2</v>
       </c>
       <c r="O50" s="10" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="P50" s="10">
         <v>2</v>
       </c>
       <c r="Q50" s="11" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="R50" s="10"/>
       <c r="S50" s="10" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="T50" s="10"/>
       <c r="U50" s="10"/>
@@ -7751,15 +7784,15 @@
       <c r="AC50" s="10"/>
       <c r="AD50" s="10"/>
     </row>
-    <row r="51" customFormat="1" ht="18.5" hidden="1" customHeight="1" spans="1:30">
+    <row r="51" customFormat="1" ht="18.5" customHeight="1" spans="1:30">
       <c r="A51" s="8">
         <v>50</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
@@ -7785,7 +7818,7 @@
         <v>45</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="N51" s="8">
         <v>3</v>
@@ -7797,7 +7830,7 @@
         <v>1</v>
       </c>
       <c r="Q51" s="9" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="R51" s="8"/>
       <c r="S51" s="8"/>
@@ -7813,15 +7846,15 @@
       <c r="AC51" s="8"/>
       <c r="AD51" s="8"/>
     </row>
-    <row r="52" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:30">
+    <row r="52" customFormat="1" ht="51.5" customHeight="1" spans="1:30">
       <c r="A52" s="10">
         <v>51</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
@@ -7844,10 +7877,10 @@
         <v>40</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M52" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N52" s="10">
         <v>99</v>
@@ -7859,7 +7892,7 @@
         <v>3</v>
       </c>
       <c r="Q52" s="11" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="R52" s="10"/>
       <c r="S52" s="10"/>
@@ -7871,23 +7904,23 @@
       <c r="Y52" s="10"/>
       <c r="Z52" s="10"/>
       <c r="AA52" s="11" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="AB52" s="10" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="AC52" s="10"/>
       <c r="AD52" s="10"/>
     </row>
-    <row r="53" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:30">
+    <row r="53" customFormat="1" ht="51.5" customHeight="1" spans="1:30">
       <c r="A53" s="8">
         <v>52</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
@@ -7910,10 +7943,10 @@
         <v>40</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N53" s="8">
         <v>99</v>
@@ -7925,7 +7958,7 @@
         <v>5</v>
       </c>
       <c r="Q53" s="9" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="R53" s="8"/>
       <c r="S53" s="8"/>
@@ -7937,21 +7970,21 @@
       <c r="Y53" s="8"/>
       <c r="Z53" s="8"/>
       <c r="AA53" s="9" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="AB53" s="8"/>
       <c r="AC53" s="8"/>
       <c r="AD53" s="8"/>
     </row>
-    <row r="54" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:30">
+    <row r="54" customFormat="1" ht="35" customHeight="1" spans="1:30">
       <c r="A54" s="10">
         <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
@@ -7974,10 +8007,10 @@
         <v>40</v>
       </c>
       <c r="L54" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M54" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N54" s="10">
         <v>99</v>
@@ -7989,17 +8022,17 @@
         <v>3</v>
       </c>
       <c r="Q54" s="11" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="R54" s="10"/>
       <c r="S54" s="10" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="T54" s="10" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="U54" s="10" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="V54" s="10"/>
       <c r="W54" s="10"/>
@@ -8011,17 +8044,19 @@
       <c r="AC54" s="10"/>
       <c r="AD54" s="10"/>
     </row>
-    <row r="55" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:30">
+    <row r="55" customFormat="1" ht="35" customHeight="1" spans="1:30">
       <c r="A55" s="8">
         <v>54</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="D55" s="9"/>
+        <v>338</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>339</v>
+      </c>
       <c r="E55" s="9"/>
       <c r="F55" s="8">
         <v>6</v>
@@ -8039,32 +8074,32 @@
         <v>0</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L55" s="8">
         <v>54</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="N55" s="8">
         <v>1</v>
       </c>
       <c r="O55" s="8" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="P55" s="8">
         <v>1</v>
       </c>
       <c r="Q55" s="9" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="R55" s="8"/>
       <c r="S55" s="8" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="T55" s="8" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="U55" s="8"/>
       <c r="V55" s="8"/>
@@ -8077,15 +8112,15 @@
       <c r="AC55" s="8"/>
       <c r="AD55" s="8"/>
     </row>
-    <row r="56" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:30">
+    <row r="56" customFormat="1" ht="51.5" customHeight="1" spans="1:30">
       <c r="A56" s="10">
         <v>55</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11"/>
@@ -8111,7 +8146,7 @@
         <v>54</v>
       </c>
       <c r="M56" s="10" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="N56" s="10">
         <v>2</v>
@@ -8123,11 +8158,11 @@
         <v>1</v>
       </c>
       <c r="Q56" s="11" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="R56" s="10"/>
       <c r="S56" s="10" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="T56" s="10"/>
       <c r="U56" s="10"/>
@@ -8141,15 +8176,15 @@
       <c r="AC56" s="10"/>
       <c r="AD56" s="10"/>
     </row>
-    <row r="57" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:30">
+    <row r="57" customFormat="1" ht="51.5" customHeight="1" spans="1:30">
       <c r="A57" s="8">
         <v>56</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
@@ -8175,7 +8210,7 @@
         <v>54</v>
       </c>
       <c r="M57" s="8" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="N57" s="8">
         <v>2</v>
@@ -8187,14 +8222,14 @@
         <v>1</v>
       </c>
       <c r="Q57" s="9" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="R57" s="8"/>
       <c r="S57" s="8" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="T57" s="8" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="U57" s="8"/>
       <c r="V57" s="8"/>
@@ -8207,15 +8242,15 @@
       <c r="AC57" s="8"/>
       <c r="AD57" s="8"/>
     </row>
-    <row r="58" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:30">
+    <row r="58" customFormat="1" ht="51.5" customHeight="1" spans="1:30">
       <c r="A58" s="10">
         <v>57</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
@@ -8241,7 +8276,7 @@
         <v>54</v>
       </c>
       <c r="M58" s="10" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="N58" s="10">
         <v>2</v>
@@ -8253,14 +8288,14 @@
         <v>1</v>
       </c>
       <c r="Q58" s="11" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="R58" s="10"/>
       <c r="S58" s="10" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="T58" s="10" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="U58" s="10"/>
       <c r="V58" s="10"/>
@@ -8278,10 +8313,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
@@ -8307,19 +8342,19 @@
         <v>58</v>
       </c>
       <c r="M59" s="8" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="N59" s="8">
         <v>1</v>
       </c>
       <c r="O59" s="8" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="P59" s="8">
         <v>1</v>
       </c>
       <c r="Q59" s="9" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="R59" s="8"/>
       <c r="S59" s="8" t="s">
@@ -8344,10 +8379,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11"/>
@@ -8367,32 +8402,32 @@
         <v>3</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L60" s="8">
         <v>58</v>
       </c>
       <c r="M60" s="10" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="N60" s="10">
         <v>2</v>
       </c>
       <c r="O60" s="10" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="P60" s="10">
         <v>3</v>
       </c>
       <c r="Q60" s="11" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="R60" s="10"/>
       <c r="S60" s="10" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="T60" s="10" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="U60" s="10"/>
       <c r="V60" s="10"/>
@@ -8410,10 +8445,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
@@ -8439,7 +8474,7 @@
         <v>58</v>
       </c>
       <c r="M61" s="8" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="N61" s="8">
         <v>3</v>
@@ -8451,11 +8486,11 @@
         <v>2</v>
       </c>
       <c r="Q61" s="9" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="R61" s="8"/>
       <c r="S61" s="8" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="T61" s="8"/>
       <c r="U61" s="8"/>
@@ -8474,10 +8509,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11"/>
@@ -8503,7 +8538,7 @@
         <v>58</v>
       </c>
       <c r="M62" s="10" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="N62" s="10">
         <v>3</v>
@@ -8515,17 +8550,17 @@
         <v>2</v>
       </c>
       <c r="Q62" s="11" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="R62" s="10"/>
       <c r="S62" s="10" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="T62" s="10" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="U62" s="10" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="V62" s="10"/>
       <c r="W62" s="10"/>
@@ -8542,10 +8577,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
@@ -8565,35 +8600,35 @@
         <v>2</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L63" s="8">
         <v>58</v>
       </c>
       <c r="M63" s="8" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="N63" s="8">
         <v>2</v>
       </c>
       <c r="O63" s="8" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="P63" s="8">
         <v>3</v>
       </c>
       <c r="Q63" s="9" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="R63" s="8"/>
       <c r="S63" s="8" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="T63" s="8" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="U63" s="8" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="V63" s="8"/>
       <c r="W63" s="8"/>
@@ -8610,10 +8645,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11"/>
@@ -8639,7 +8674,7 @@
         <v>58</v>
       </c>
       <c r="M64" s="10" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="N64" s="10">
         <v>3</v>
@@ -8651,11 +8686,11 @@
         <v>2</v>
       </c>
       <c r="Q64" s="11" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="R64" s="10"/>
       <c r="S64" s="10" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="T64" s="10"/>
       <c r="U64" s="10"/>
@@ -8674,10 +8709,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
@@ -8703,7 +8738,7 @@
         <v>58</v>
       </c>
       <c r="M65" s="8" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="N65" s="8">
         <v>3</v>
@@ -8715,11 +8750,11 @@
         <v>2</v>
       </c>
       <c r="Q65" s="9" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="R65" s="8"/>
       <c r="S65" s="8" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="T65" s="8"/>
       <c r="U65" s="8"/>
@@ -8738,10 +8773,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11"/>
@@ -8767,32 +8802,32 @@
         <v>58</v>
       </c>
       <c r="M66" s="10" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="N66" s="10">
         <v>2</v>
       </c>
       <c r="O66" s="10" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="P66" s="10">
         <v>3</v>
       </c>
       <c r="Q66" s="11" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="R66" s="10"/>
       <c r="S66" s="10" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="T66" s="10" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="U66" s="10" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="V66" s="10" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="W66" s="10"/>
       <c r="X66" s="10"/>
@@ -8808,10 +8843,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
@@ -8837,7 +8872,7 @@
         <v>58</v>
       </c>
       <c r="M67" s="8" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="N67" s="8">
         <v>3</v>
@@ -8849,14 +8884,14 @@
         <v>2</v>
       </c>
       <c r="Q67" s="9" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="R67" s="8"/>
       <c r="S67" s="8" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="T67" s="8" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="U67" s="8"/>
       <c r="V67" s="8"/>
@@ -8874,10 +8909,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11"/>
@@ -8903,7 +8938,7 @@
         <v>58</v>
       </c>
       <c r="M68" s="10" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="N68" s="10">
         <v>3</v>
@@ -8915,17 +8950,17 @@
         <v>1</v>
       </c>
       <c r="Q68" s="11" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="R68" s="10"/>
       <c r="S68" s="10" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="T68" s="10" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="U68" s="10" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="V68" s="10"/>
       <c r="W68" s="10"/>
@@ -8942,13 +8977,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="8">
@@ -8967,35 +9002,35 @@
         <v>0</v>
       </c>
       <c r="K69" s="8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L69" s="8">
         <v>68</v>
       </c>
       <c r="M69" s="8" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N69" s="8">
         <v>1</v>
       </c>
       <c r="O69" s="8" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="P69" s="8">
         <v>5</v>
       </c>
       <c r="Q69" s="9" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="R69" s="8"/>
       <c r="S69" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="T69" s="8" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="U69" s="8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="V69" s="8"/>
       <c r="W69" s="8"/>
@@ -9012,13 +9047,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="E70" s="11"/>
       <c r="F70" s="10">
@@ -9043,35 +9078,35 @@
         <v>68</v>
       </c>
       <c r="M70" s="10" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="N70" s="10">
         <v>2</v>
       </c>
       <c r="O70" s="10" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="P70" s="10">
         <v>3</v>
       </c>
       <c r="Q70" s="11" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="R70" s="10"/>
       <c r="S70" s="10" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="T70" s="10" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="U70" s="10" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="V70" s="10" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="W70" s="10" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="X70" s="10"/>
       <c r="Y70" s="10"/>
@@ -9086,10 +9121,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
@@ -9115,23 +9150,23 @@
         <v>68</v>
       </c>
       <c r="M71" s="8" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="N71" s="8">
         <v>3</v>
       </c>
       <c r="O71" s="8" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="P71" s="8">
         <v>2</v>
       </c>
       <c r="Q71" s="9" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="R71" s="8"/>
       <c r="S71" s="8" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="T71" s="8"/>
       <c r="U71" s="8"/>
@@ -9150,10 +9185,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11"/>
@@ -9179,7 +9214,7 @@
         <v>68</v>
       </c>
       <c r="M72" s="10" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="N72" s="10">
         <v>4</v>
@@ -9191,11 +9226,11 @@
         <v>1</v>
       </c>
       <c r="Q72" s="11" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="R72" s="10"/>
       <c r="S72" s="10" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="T72" s="10"/>
       <c r="U72" s="10"/>
@@ -9214,10 +9249,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
@@ -9243,23 +9278,23 @@
         <v>68</v>
       </c>
       <c r="M73" s="8" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="N73" s="8">
         <v>2</v>
       </c>
       <c r="O73" s="8" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="P73" s="8">
         <v>3</v>
       </c>
       <c r="Q73" s="9" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="R73" s="8"/>
       <c r="S73" s="8" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="T73" s="8"/>
       <c r="U73" s="8"/>
@@ -9278,10 +9313,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11"/>
@@ -9307,23 +9342,23 @@
         <v>68</v>
       </c>
       <c r="M74" s="10" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="N74" s="10">
         <v>3</v>
       </c>
       <c r="O74" s="10" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="P74" s="10">
         <v>2</v>
       </c>
       <c r="Q74" s="11" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="R74" s="10"/>
       <c r="S74" s="10" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="T74" s="10"/>
       <c r="U74" s="10"/>
@@ -9342,10 +9377,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
@@ -9371,7 +9406,7 @@
         <v>68</v>
       </c>
       <c r="M75" s="8" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="N75" s="8">
         <v>4</v>
@@ -9383,11 +9418,11 @@
         <v>1</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="R75" s="8"/>
       <c r="S75" s="8" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="T75" s="8"/>
       <c r="U75" s="8"/>
@@ -9406,13 +9441,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="E76" s="11"/>
       <c r="F76" s="10">
@@ -9437,23 +9472,23 @@
         <v>75</v>
       </c>
       <c r="M76" s="10" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="N76" s="10">
         <v>1</v>
       </c>
       <c r="O76" s="10" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="P76" s="10">
         <v>5</v>
       </c>
       <c r="Q76" s="11" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="R76" s="10"/>
       <c r="S76" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="T76" s="10"/>
       <c r="U76" s="10"/>
@@ -9472,13 +9507,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="C77" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="D77" s="9" t="s">
         <v>459</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>454</v>
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="8">
@@ -9497,35 +9532,35 @@
         <v>3</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="L77" s="10">
         <v>75</v>
       </c>
       <c r="M77" s="8" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="N77" s="8">
         <v>2</v>
       </c>
       <c r="O77" s="8" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="P77" s="8">
         <v>3</v>
       </c>
       <c r="Q77" s="9" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="R77" s="8"/>
       <c r="S77" s="8" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="T77" s="8" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="U77" s="8" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="V77" s="8"/>
       <c r="W77" s="8"/>
@@ -9542,10 +9577,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11"/>
@@ -9565,29 +9600,29 @@
         <v>0</v>
       </c>
       <c r="K78" s="10" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L78" s="10">
         <v>75</v>
       </c>
       <c r="M78" s="10" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="N78" s="10">
         <v>3</v>
       </c>
       <c r="O78" s="10" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="P78" s="10">
         <v>2</v>
       </c>
       <c r="Q78" s="11" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="R78" s="10"/>
       <c r="S78" s="10" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="T78" s="10"/>
       <c r="U78" s="10"/>
@@ -9606,10 +9641,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
@@ -9635,7 +9670,7 @@
         <v>75</v>
       </c>
       <c r="M79" s="8" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="N79" s="8">
         <v>4</v>
@@ -9647,17 +9682,17 @@
         <v>2</v>
       </c>
       <c r="Q79" s="9" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="R79" s="8"/>
       <c r="S79" s="8" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="T79" s="8" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="U79" s="8" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="V79" s="8"/>
       <c r="W79" s="8"/>
@@ -9674,13 +9709,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="E80" s="11"/>
       <c r="F80" s="10">
@@ -9699,35 +9734,35 @@
         <v>2</v>
       </c>
       <c r="K80" s="10" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="L80" s="10">
         <v>75</v>
       </c>
       <c r="M80" s="10" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="N80" s="10">
         <v>2</v>
       </c>
       <c r="O80" s="10" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="P80" s="10">
         <v>3</v>
       </c>
       <c r="Q80" s="11" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="R80" s="10"/>
       <c r="S80" s="10" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="T80" s="10" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="U80" s="10" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="V80" s="10"/>
       <c r="W80" s="10"/>
@@ -9744,10 +9779,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9"/>
@@ -9773,23 +9808,23 @@
         <v>75</v>
       </c>
       <c r="M81" s="8" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="N81" s="8">
         <v>3</v>
       </c>
       <c r="O81" s="8" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="P81" s="8">
         <v>2</v>
       </c>
       <c r="Q81" s="9" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="R81" s="8"/>
       <c r="S81" s="8" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="T81" s="8"/>
       <c r="U81" s="8"/>
@@ -9808,10 +9843,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11"/>
@@ -9837,7 +9872,7 @@
         <v>75</v>
       </c>
       <c r="M82" s="10" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="N82" s="10">
         <v>4</v>
@@ -9849,17 +9884,17 @@
         <v>2</v>
       </c>
       <c r="Q82" s="11" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="R82" s="10"/>
       <c r="S82" s="10" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="T82" s="10" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="U82" s="10" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="V82" s="10"/>
       <c r="W82" s="10"/>
@@ -9876,10 +9911,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9"/>
@@ -9902,10 +9937,10 @@
         <v>40</v>
       </c>
       <c r="L83" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M83" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N83" s="8">
         <v>99</v>
@@ -9917,7 +9952,7 @@
         <v>5</v>
       </c>
       <c r="Q83" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="R83" s="8"/>
       <c r="S83" s="8"/>
@@ -9929,7 +9964,7 @@
       <c r="Y83" s="8"/>
       <c r="Z83" s="8"/>
       <c r="AA83" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AB83" s="8"/>
       <c r="AC83" s="8"/>
@@ -9940,10 +9975,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11"/>
@@ -9966,10 +10001,10 @@
         <v>40</v>
       </c>
       <c r="L84" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M84" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N84" s="10">
         <v>99</v>
@@ -9981,11 +10016,11 @@
         <v>5</v>
       </c>
       <c r="Q84" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="R84" s="10"/>
       <c r="S84" s="10" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="T84" s="10"/>
       <c r="U84" s="10"/>
@@ -9995,7 +10030,7 @@
       <c r="Y84" s="10"/>
       <c r="Z84" s="10"/>
       <c r="AA84" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AB84" s="10"/>
       <c r="AC84" s="10"/>
@@ -10006,10 +10041,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9"/>
@@ -10032,10 +10067,10 @@
         <v>40</v>
       </c>
       <c r="L85" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M85" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N85" s="8">
         <v>99</v>
@@ -10047,7 +10082,7 @@
         <v>5</v>
       </c>
       <c r="Q85" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R85" s="8"/>
       <c r="S85" s="8"/>
@@ -10059,7 +10094,7 @@
       <c r="Y85" s="8"/>
       <c r="Z85" s="8"/>
       <c r="AA85" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AB85" s="8"/>
       <c r="AC85" s="8"/>
@@ -10070,10 +10105,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11"/>
@@ -10096,10 +10131,10 @@
         <v>40</v>
       </c>
       <c r="L86" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M86" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N86" s="10">
         <v>99</v>
@@ -10111,7 +10146,7 @@
         <v>3</v>
       </c>
       <c r="Q86" s="11" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="R86" s="10"/>
       <c r="S86" s="10"/>
@@ -10123,7 +10158,7 @@
       <c r="Y86" s="10"/>
       <c r="Z86" s="10"/>
       <c r="AA86" s="11" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="AB86" s="10"/>
       <c r="AC86" s="10"/>
@@ -10134,13 +10169,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="E87" s="9"/>
       <c r="F87" s="8">
@@ -10165,38 +10200,38 @@
         <v>86</v>
       </c>
       <c r="M87" s="8" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="N87" s="8">
         <v>1</v>
       </c>
       <c r="O87" s="8" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="P87" s="8">
         <v>5</v>
       </c>
       <c r="Q87" s="9" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="R87" s="8"/>
       <c r="S87" s="8" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="T87" s="8" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="U87" s="8" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="V87" s="8" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="W87" s="8" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="X87" s="8" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="Y87" s="8"/>
       <c r="Z87" s="8"/>
@@ -10210,13 +10245,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="E88" s="11"/>
       <c r="F88" s="10">
@@ -10235,38 +10270,38 @@
         <v>1</v>
       </c>
       <c r="K88" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L88" s="8">
         <v>86</v>
       </c>
       <c r="M88" s="10" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="N88" s="10">
         <v>2</v>
       </c>
       <c r="O88" s="10" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="P88" s="10">
         <v>3</v>
       </c>
       <c r="Q88" s="11" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="R88" s="10"/>
       <c r="S88" s="10" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="T88" s="10" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="U88" s="10" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="V88" s="10" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="W88" s="10"/>
       <c r="X88" s="10"/>
@@ -10282,10 +10317,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9"/>
@@ -10311,26 +10346,26 @@
         <v>86</v>
       </c>
       <c r="M89" s="8" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="N89" s="8">
         <v>3</v>
       </c>
       <c r="O89" s="8" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="P89" s="8">
         <v>1</v>
       </c>
       <c r="Q89" s="9" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="R89" s="8"/>
       <c r="S89" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="T89" s="8" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="U89" s="8"/>
       <c r="V89" s="8"/>
@@ -10348,10 +10383,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11"/>
@@ -10377,26 +10412,26 @@
         <v>86</v>
       </c>
       <c r="M90" s="10" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="N90" s="10">
         <v>4</v>
       </c>
       <c r="O90" s="10" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="P90" s="10">
         <v>2</v>
       </c>
       <c r="Q90" s="11" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="R90" s="10"/>
       <c r="S90" s="10" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="T90" s="10" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="U90" s="10"/>
       <c r="V90" s="10"/>
@@ -10414,10 +10449,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
@@ -10443,7 +10478,7 @@
         <v>86</v>
       </c>
       <c r="M91" s="8" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="N91" s="8">
         <v>5</v>
@@ -10455,14 +10490,14 @@
         <v>2</v>
       </c>
       <c r="Q91" s="9" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="R91" s="8"/>
       <c r="S91" s="8" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="T91" s="8" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="U91" s="8"/>
       <c r="V91" s="8"/>
@@ -10480,13 +10515,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="E92" s="11"/>
       <c r="F92" s="10">
@@ -10505,38 +10540,38 @@
         <v>3</v>
       </c>
       <c r="K92" s="10" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L92" s="8">
         <v>86</v>
       </c>
       <c r="M92" s="10" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="N92" s="10">
         <v>2</v>
       </c>
       <c r="O92" s="10" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="P92" s="10">
         <v>3</v>
       </c>
       <c r="Q92" s="11" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="R92" s="10"/>
       <c r="S92" s="10" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="T92" s="10" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="U92" s="10" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="V92" s="10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="W92" s="10"/>
       <c r="X92" s="10"/>
@@ -10552,10 +10587,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
@@ -10581,29 +10616,29 @@
         <v>86</v>
       </c>
       <c r="M93" s="8" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="N93" s="8">
         <v>3</v>
       </c>
       <c r="O93" s="8" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="P93" s="8">
         <v>2</v>
       </c>
       <c r="Q93" s="9" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="R93" s="8"/>
       <c r="S93" s="8" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="T93" s="8" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="U93" s="8" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="V93" s="8"/>
       <c r="W93" s="8"/>
@@ -10620,10 +10655,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="11"/>
@@ -10649,7 +10684,7 @@
         <v>86</v>
       </c>
       <c r="M94" s="10" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="N94" s="10">
         <v>4</v>
@@ -10661,11 +10696,11 @@
         <v>1</v>
       </c>
       <c r="Q94" s="11" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="R94" s="10"/>
       <c r="S94" s="10" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="T94" s="10"/>
       <c r="U94" s="10"/>
@@ -10684,13 +10719,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="8">
@@ -10709,35 +10744,35 @@
         <v>0</v>
       </c>
       <c r="K95" s="8" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L95" s="8">
         <v>94</v>
       </c>
       <c r="M95" s="8" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="N95" s="8">
         <v>1</v>
       </c>
       <c r="O95" s="8" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="P95" s="8">
         <v>5</v>
       </c>
       <c r="Q95" s="9" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="R95" s="8"/>
       <c r="S95" s="8" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="T95" s="8" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="U95" s="8" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="V95" s="8"/>
       <c r="W95" s="8"/>
@@ -10754,13 +10789,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="E96" s="11"/>
       <c r="F96" s="10">
@@ -10785,26 +10820,26 @@
         <v>94</v>
       </c>
       <c r="M96" s="10" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="N96" s="10">
         <v>2</v>
       </c>
       <c r="O96" s="10" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="P96" s="10">
         <v>3</v>
       </c>
       <c r="Q96" s="11" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="R96" s="10"/>
       <c r="S96" s="10" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="T96" s="10" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="U96" s="10"/>
       <c r="V96" s="10"/>
@@ -10822,10 +10857,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
@@ -10851,7 +10886,7 @@
         <v>94</v>
       </c>
       <c r="M97" s="8" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="N97" s="8">
         <v>3</v>
@@ -10863,11 +10898,11 @@
         <v>1</v>
       </c>
       <c r="Q97" s="9" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="R97" s="8"/>
       <c r="S97" s="8" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="T97" s="8"/>
       <c r="U97" s="8"/>
@@ -10886,13 +10921,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="E98" s="11"/>
       <c r="F98" s="10">
@@ -10917,29 +10952,29 @@
         <v>94</v>
       </c>
       <c r="M98" s="10" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="N98" s="10">
         <v>2</v>
       </c>
       <c r="O98" s="10" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="P98" s="10">
         <v>3</v>
       </c>
       <c r="Q98" s="11" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="R98" s="10"/>
       <c r="S98" s="10" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="T98" s="10" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="U98" s="10" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="V98" s="10"/>
       <c r="W98" s="10"/>
@@ -10956,10 +10991,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9"/>
@@ -10985,7 +11020,7 @@
         <v>94</v>
       </c>
       <c r="M99" s="8" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="N99" s="8">
         <v>3</v>
@@ -10997,14 +11032,14 @@
         <v>1</v>
       </c>
       <c r="Q99" s="9" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="R99" s="8"/>
       <c r="S99" s="8" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="T99" s="8" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="U99" s="8"/>
       <c r="V99" s="8"/>
@@ -11022,10 +11057,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11"/>
@@ -11048,10 +11083,10 @@
         <v>40</v>
       </c>
       <c r="L100" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M100" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N100" s="10">
         <v>99</v>
@@ -11063,17 +11098,17 @@
         <v>3</v>
       </c>
       <c r="Q100" s="11" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="R100" s="10"/>
       <c r="S100" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="T100" s="10" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="U100" s="10" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="V100" s="10"/>
       <c r="W100" s="10"/>
@@ -11090,10 +11125,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9"/>
@@ -11116,10 +11151,10 @@
         <v>40</v>
       </c>
       <c r="L101" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M101" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N101" s="8">
         <v>99</v>
@@ -11131,11 +11166,11 @@
         <v>5</v>
       </c>
       <c r="Q101" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="R101" s="8"/>
       <c r="S101" s="8" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="T101" s="8"/>
       <c r="U101" s="8"/>
@@ -11154,10 +11189,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11"/>
@@ -11180,10 +11215,10 @@
         <v>40</v>
       </c>
       <c r="L102" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M102" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N102" s="10">
         <v>99</v>
@@ -11195,14 +11230,14 @@
         <v>2</v>
       </c>
       <c r="Q102" s="11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="R102" s="10"/>
       <c r="S102" s="10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="T102" s="10" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="U102" s="10"/>
       <c r="V102" s="10"/>
@@ -11220,10 +11255,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
@@ -11246,10 +11281,10 @@
         <v>40</v>
       </c>
       <c r="L103" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M103" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N103" s="8">
         <v>99</v>
@@ -11261,14 +11296,14 @@
         <v>2</v>
       </c>
       <c r="Q103" s="9" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="R103" s="8"/>
       <c r="S103" s="8" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="T103" s="8" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="U103" s="8"/>
       <c r="V103" s="8"/>
@@ -11286,10 +11321,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11"/>
@@ -11312,10 +11347,10 @@
         <v>40</v>
       </c>
       <c r="L104" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M104" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N104" s="10">
         <v>99</v>
@@ -11327,7 +11362,7 @@
         <v>5</v>
       </c>
       <c r="Q104" s="11" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="R104" s="10"/>
       <c r="S104" s="10"/>
@@ -11339,7 +11374,7 @@
       <c r="Y104" s="10"/>
       <c r="Z104" s="10"/>
       <c r="AA104" s="11" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="AB104" s="10"/>
       <c r="AC104" s="10"/>
@@ -11350,10 +11385,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
@@ -11376,10 +11411,10 @@
         <v>40</v>
       </c>
       <c r="L105" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M105" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N105" s="8">
         <v>99</v>
@@ -11391,7 +11426,7 @@
         <v>5</v>
       </c>
       <c r="Q105" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="R105" s="8"/>
       <c r="S105" s="8"/>
@@ -11403,7 +11438,7 @@
       <c r="Y105" s="8"/>
       <c r="Z105" s="8"/>
       <c r="AA105" s="9" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="AB105" s="8"/>
       <c r="AC105" s="8"/>
@@ -11414,10 +11449,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="D106" s="11"/>
       <c r="E106" s="11"/>
@@ -11437,29 +11472,29 @@
         <v>3</v>
       </c>
       <c r="K106" s="10" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L106" s="10">
         <v>105</v>
       </c>
       <c r="M106" s="10" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="N106" s="10">
         <v>1</v>
       </c>
       <c r="O106" s="10" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="P106" s="10">
         <v>3</v>
       </c>
       <c r="Q106" s="11" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="R106" s="10"/>
       <c r="S106" s="10" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="T106" s="10"/>
       <c r="U106" s="10"/>
@@ -11478,10 +11513,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
@@ -11507,23 +11542,23 @@
         <v>105</v>
       </c>
       <c r="M107" s="8" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="N107" s="8">
         <v>2</v>
       </c>
       <c r="O107" s="8" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="P107" s="8">
         <v>2</v>
       </c>
       <c r="Q107" s="9" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="R107" s="8"/>
       <c r="S107" s="8" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="T107" s="8"/>
       <c r="U107" s="8"/>
@@ -11542,10 +11577,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="D108" s="11"/>
       <c r="E108" s="11"/>
@@ -11571,7 +11606,7 @@
         <v>105</v>
       </c>
       <c r="M108" s="10" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="N108" s="10">
         <v>3</v>
@@ -11583,14 +11618,14 @@
         <v>1</v>
       </c>
       <c r="Q108" s="11" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="R108" s="10"/>
       <c r="S108" s="10" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="T108" s="10" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="U108" s="10"/>
       <c r="V108" s="10"/>
@@ -11608,10 +11643,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
@@ -11631,35 +11666,35 @@
         <v>0</v>
       </c>
       <c r="K109" s="8" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L109" s="8">
         <v>108</v>
       </c>
       <c r="M109" s="8" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="N109" s="8">
         <v>1</v>
       </c>
       <c r="O109" s="8" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="P109" s="8">
         <v>3</v>
       </c>
       <c r="Q109" s="9" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="R109" s="8"/>
       <c r="S109" s="8" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="T109" s="8" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="U109" s="8" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="V109" s="8"/>
       <c r="W109" s="8"/>
@@ -11676,10 +11711,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="11"/>
@@ -11705,7 +11740,7 @@
         <v>108</v>
       </c>
       <c r="M110" s="10" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="N110" s="10">
         <v>2</v>
@@ -11717,11 +11752,11 @@
         <v>1</v>
       </c>
       <c r="Q110" s="11" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="R110" s="10"/>
       <c r="S110" s="10" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="T110" s="10"/>
       <c r="U110" s="10"/>
@@ -11740,10 +11775,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="9"/>
@@ -11766,10 +11801,10 @@
         <v>40</v>
       </c>
       <c r="L111" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M111" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N111" s="8">
         <v>99</v>
@@ -11781,7 +11816,7 @@
         <v>3</v>
       </c>
       <c r="Q111" s="9" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="R111" s="8"/>
       <c r="S111" s="8"/>
@@ -11793,10 +11828,10 @@
       <c r="Y111" s="8"/>
       <c r="Z111" s="8"/>
       <c r="AA111" s="11" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="AB111" s="10" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="AC111" s="8"/>
       <c r="AD111" s="8"/>
@@ -11806,10 +11841,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="D112" s="11"/>
       <c r="E112" s="11"/>
@@ -11832,10 +11867,10 @@
         <v>40</v>
       </c>
       <c r="L112" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M112" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N112" s="10">
         <v>99</v>
@@ -11847,7 +11882,7 @@
         <v>5</v>
       </c>
       <c r="Q112" s="11" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="R112" s="10"/>
       <c r="S112" s="10"/>
@@ -11859,7 +11894,7 @@
       <c r="Y112" s="10"/>
       <c r="Z112" s="10"/>
       <c r="AA112" s="11" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="AB112" s="10"/>
       <c r="AC112" s="10"/>
@@ -11870,10 +11905,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
@@ -11896,10 +11931,10 @@
         <v>40</v>
       </c>
       <c r="L113" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M113" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N113" s="8">
         <v>99</v>
@@ -11911,11 +11946,11 @@
         <v>3</v>
       </c>
       <c r="Q113" s="9" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="R113" s="8"/>
       <c r="S113" s="8" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="T113" s="8" t="s">
         <v>109</v>
@@ -11936,10 +11971,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="D114" s="11"/>
       <c r="E114" s="11"/>
@@ -11959,32 +11994,32 @@
         <v>0</v>
       </c>
       <c r="K114" s="10" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="L114" s="10">
         <v>113</v>
       </c>
       <c r="M114" s="10" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="N114" s="10">
         <v>1</v>
       </c>
       <c r="O114" s="10" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="P114" s="10">
         <v>1</v>
       </c>
       <c r="Q114" s="11" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="R114" s="10"/>
       <c r="S114" s="10" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="T114" s="10" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="U114" s="10"/>
       <c r="V114" s="10"/>
@@ -12002,10 +12037,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
@@ -12031,7 +12066,7 @@
         <v>113</v>
       </c>
       <c r="M115" s="8" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="N115" s="8">
         <v>2</v>
@@ -12043,14 +12078,14 @@
         <v>1</v>
       </c>
       <c r="Q115" s="9" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="R115" s="8"/>
       <c r="S115" s="8" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="T115" s="8" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="U115" s="8"/>
       <c r="V115" s="8"/>
@@ -12068,10 +12103,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="11"/>
@@ -12097,7 +12132,7 @@
         <v>113</v>
       </c>
       <c r="M116" s="10" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="N116" s="10">
         <v>2</v>
@@ -12109,14 +12144,14 @@
         <v>1</v>
       </c>
       <c r="Q116" s="11" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="R116" s="10"/>
       <c r="S116" s="10" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="T116" s="10" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="U116" s="10"/>
       <c r="V116" s="10"/>
@@ -12134,10 +12169,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
@@ -12163,7 +12198,7 @@
         <v>113</v>
       </c>
       <c r="M117" s="8" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="N117" s="8">
         <v>2</v>
@@ -12175,11 +12210,11 @@
         <v>1</v>
       </c>
       <c r="Q117" s="9" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="R117" s="8"/>
       <c r="S117" s="8" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="T117" s="8"/>
       <c r="U117" s="8"/>
@@ -12198,10 +12233,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="11"/>
@@ -12227,7 +12262,7 @@
         <v>113</v>
       </c>
       <c r="M118" s="10" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="N118" s="10">
         <v>2</v>
@@ -12239,11 +12274,11 @@
         <v>1</v>
       </c>
       <c r="Q118" s="11" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="R118" s="10"/>
       <c r="S118" s="10" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="T118" s="10"/>
       <c r="U118" s="10"/>
@@ -12259,11 +12294,6 @@
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AD118" etc:filterBottomFollowUsedRange="0">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="101"/>
-      </filters>
-    </filterColumn>
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="H$1:H$1048576">

--- a/excels/config/game/hero/talent_tree/talent_tree_config.xlsx
+++ b/excels/config/game/hero/talent_tree/talent_tree_config.xlsx
@@ -4039,36 +4039,36 @@
     </dxf>
   </dxfs>
   <tableStyles count="9" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{0DA1B5F9-7093-4EBE-A2FF-40B35315840D}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{83812CAA-0F77-4D5A-9AAA-5C0E96872404}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{D840BE45-7A45-4138-9575-4724C46B3493}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{C7A8F25F-4513-41AC-9E35-392349460175}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{93FF7961-FAA8-4D14-BE19-DE44934B485E}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{D0CF7B28-D2ED-4604-BD52-BC8BAC3E9561}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{88F49A4C-F91B-479F-97D5-E1AB25B5F63F}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{A797D773-7ED9-4A59-810A-51D775A9A84D}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{9ABF4338-ED38-4312-BAFB-149E13D58BF3}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{D08EA6C5-8241-4552-9CBC-E69EBF5D81AD}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{BA94AEF3-3378-44FA-A5FD-3F849F46FAC9}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{127B2C29-C95C-4697-9FB8-F4EF28D8A1F3}">
       <tableStyleElement type="wholeTable" dxfId="28"/>
       <tableStyleElement type="headerRow" dxfId="27"/>
       <tableStyleElement type="totalRow" dxfId="26"/>
@@ -4080,7 +4080,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="20"/>
       <tableStyleElement type="lastTotalCell" dxfId="19"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{53585C8A-B14D-4B50-AAB1-40A9AD34D14E}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{98DE9B9C-B532-4EAC-AE6E-A06F6492C672}">
       <tableStyleElement type="wholeTable" dxfId="40"/>
       <tableStyleElement type="headerRow" dxfId="39"/>
       <tableStyleElement type="totalRow" dxfId="38"/>
@@ -4094,7 +4094,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="30"/>
       <tableStyleElement type="lastTotalCell" dxfId="29"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{A955D736-B3BD-44AA-AA22-38581AC258B5}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{6888A80B-E89D-4D4D-AA25-F2C9810DB291}">
       <tableStyleElement type="wholeTable" dxfId="47"/>
       <tableStyleElement type="headerRow" dxfId="46"/>
       <tableStyleElement type="totalRow" dxfId="45"/>
@@ -4103,7 +4103,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="42"/>
       <tableStyleElement type="firstColumnStripe" dxfId="41"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{84C4B94A-5F78-4FF2-9A95-F5752787834D}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{7CF6E622-49D5-4E1F-BB2B-FD8A8D3D51D3}">
       <tableStyleElement type="wholeTable" dxfId="52"/>
       <tableStyleElement type="headerRow" dxfId="51"/>
       <tableStyleElement type="totalRow" dxfId="50"/>
@@ -4414,10 +4414,10 @@
   <sheetPr/>
   <dimension ref="A1:AD118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="R16" sqref="R16"/>
+      <selection pane="topRight" activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6410,7 +6410,7 @@
         <v>6</v>
       </c>
       <c r="G30" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H30" s="10">
         <v>1</v>
@@ -6477,8 +6477,8 @@
       <c r="F31" s="8">
         <v>6</v>
       </c>
-      <c r="G31" s="8">
-        <v>3</v>
+      <c r="G31" s="10">
+        <v>4</v>
       </c>
       <c r="H31" s="8">
         <v>1</v>
@@ -6542,7 +6542,7 @@
         <v>6</v>
       </c>
       <c r="G32" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H32" s="10">
         <v>0</v>
@@ -6609,8 +6609,8 @@
       <c r="F33" s="8">
         <v>6</v>
       </c>
-      <c r="G33" s="8">
-        <v>3</v>
+      <c r="G33" s="10">
+        <v>4</v>
       </c>
       <c r="H33" s="8">
         <v>1</v>
@@ -6674,7 +6674,7 @@
         <v>6</v>
       </c>
       <c r="G34" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H34" s="10">
         <v>0</v>
@@ -6743,8 +6743,8 @@
       <c r="F35" s="8">
         <v>6</v>
       </c>
-      <c r="G35" s="8">
-        <v>3</v>
+      <c r="G35" s="10">
+        <v>4</v>
       </c>
       <c r="H35" s="8">
         <v>1</v>
@@ -6814,7 +6814,7 @@
         <v>6</v>
       </c>
       <c r="G36" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H36" s="10">
         <v>1</v>
@@ -6881,8 +6881,8 @@
       <c r="F37" s="8">
         <v>6</v>
       </c>
-      <c r="G37" s="8">
-        <v>3</v>
+      <c r="G37" s="10">
+        <v>4</v>
       </c>
       <c r="H37" s="8">
         <v>0</v>
@@ -6946,7 +6946,7 @@
         <v>6</v>
       </c>
       <c r="G38" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H38" s="10">
         <v>1</v>
@@ -7011,8 +7011,8 @@
       <c r="F39" s="8">
         <v>6</v>
       </c>
-      <c r="G39" s="8">
-        <v>3</v>
+      <c r="G39" s="10">
+        <v>4</v>
       </c>
       <c r="H39" s="8">
         <v>0</v>
@@ -7076,7 +7076,7 @@
         <v>6</v>
       </c>
       <c r="G40" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H40" s="10">
         <v>0</v>
@@ -7143,8 +7143,8 @@
       <c r="F41" s="8">
         <v>6</v>
       </c>
-      <c r="G41" s="8">
-        <v>3</v>
+      <c r="G41" s="10">
+        <v>4</v>
       </c>
       <c r="H41" s="8">
         <v>0</v>
@@ -7208,7 +7208,7 @@
         <v>6</v>
       </c>
       <c r="G42" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H42" s="10">
         <v>0</v>
@@ -7271,8 +7271,8 @@
       <c r="F43" s="8">
         <v>6</v>
       </c>
-      <c r="G43" s="8">
-        <v>3</v>
+      <c r="G43" s="10">
+        <v>4</v>
       </c>
       <c r="H43" s="8">
         <v>0</v>
@@ -7336,7 +7336,7 @@
         <v>6</v>
       </c>
       <c r="G44" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H44" s="10">
         <v>0</v>
@@ -7401,8 +7401,8 @@
       <c r="F45" s="8">
         <v>6</v>
       </c>
-      <c r="G45" s="8">
-        <v>3</v>
+      <c r="G45" s="10">
+        <v>4</v>
       </c>
       <c r="H45" s="8">
         <v>0</v>
@@ -7470,7 +7470,7 @@
         <v>6</v>
       </c>
       <c r="G46" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H46" s="10">
         <v>1</v>
@@ -7535,8 +7535,8 @@
       <c r="F47" s="8">
         <v>6</v>
       </c>
-      <c r="G47" s="8">
-        <v>4</v>
+      <c r="G47" s="10">
+        <v>3</v>
       </c>
       <c r="H47" s="8">
         <v>0</v>
@@ -7602,7 +7602,7 @@
         <v>6</v>
       </c>
       <c r="G48" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H48" s="10">
         <v>0</v>
@@ -7667,8 +7667,8 @@
       <c r="F49" s="8">
         <v>6</v>
       </c>
-      <c r="G49" s="8">
-        <v>4</v>
+      <c r="G49" s="10">
+        <v>3</v>
       </c>
       <c r="H49" s="8">
         <v>1</v>
@@ -7736,7 +7736,7 @@
         <v>6</v>
       </c>
       <c r="G50" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H50" s="10">
         <v>0</v>
@@ -7799,8 +7799,8 @@
       <c r="F51" s="8">
         <v>6</v>
       </c>
-      <c r="G51" s="8">
-        <v>4</v>
+      <c r="G51" s="10">
+        <v>3</v>
       </c>
       <c r="H51" s="8">
         <v>0</v>
@@ -7862,7 +7862,7 @@
         <v>6</v>
       </c>
       <c r="G52" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H52" s="10">
         <v>0</v>
@@ -7927,8 +7927,8 @@
       <c r="F53" s="8">
         <v>6</v>
       </c>
-      <c r="G53" s="8">
-        <v>4</v>
+      <c r="G53" s="10">
+        <v>3</v>
       </c>
       <c r="H53" s="8">
         <v>0</v>
@@ -7992,7 +7992,7 @@
         <v>6</v>
       </c>
       <c r="G54" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H54" s="10">
         <v>0</v>
@@ -10182,7 +10182,7 @@
         <v>101</v>
       </c>
       <c r="G87" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H87" s="8">
         <v>1</v>
@@ -10257,8 +10257,8 @@
       <c r="F88" s="10">
         <v>101</v>
       </c>
-      <c r="G88" s="10">
-        <v>3</v>
+      <c r="G88" s="8">
+        <v>4</v>
       </c>
       <c r="H88" s="10">
         <v>1</v>
@@ -10328,7 +10328,7 @@
         <v>101</v>
       </c>
       <c r="G89" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H89" s="8">
         <v>0</v>
@@ -10393,8 +10393,8 @@
       <c r="F90" s="10">
         <v>101</v>
       </c>
-      <c r="G90" s="10">
-        <v>3</v>
+      <c r="G90" s="8">
+        <v>4</v>
       </c>
       <c r="H90" s="10">
         <v>0</v>
@@ -10460,7 +10460,7 @@
         <v>101</v>
       </c>
       <c r="G91" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H91" s="8">
         <v>0</v>
@@ -10527,8 +10527,8 @@
       <c r="F92" s="10">
         <v>101</v>
       </c>
-      <c r="G92" s="10">
-        <v>3</v>
+      <c r="G92" s="8">
+        <v>4</v>
       </c>
       <c r="H92" s="10">
         <v>1</v>
@@ -10598,7 +10598,7 @@
         <v>101</v>
       </c>
       <c r="G93" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H93" s="8">
         <v>0</v>
@@ -10665,8 +10665,8 @@
       <c r="F94" s="10">
         <v>101</v>
       </c>
-      <c r="G94" s="10">
-        <v>3</v>
+      <c r="G94" s="8">
+        <v>4</v>
       </c>
       <c r="H94" s="10">
         <v>0</v>
@@ -10732,7 +10732,7 @@
         <v>101</v>
       </c>
       <c r="G95" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H95" s="8">
         <v>1</v>
@@ -10801,8 +10801,8 @@
       <c r="F96" s="10">
         <v>101</v>
       </c>
-      <c r="G96" s="10">
-        <v>3</v>
+      <c r="G96" s="8">
+        <v>4</v>
       </c>
       <c r="H96" s="10">
         <v>1</v>
@@ -10868,7 +10868,7 @@
         <v>101</v>
       </c>
       <c r="G97" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H97" s="8">
         <v>0</v>
@@ -10933,8 +10933,8 @@
       <c r="F98" s="10">
         <v>101</v>
       </c>
-      <c r="G98" s="10">
-        <v>3</v>
+      <c r="G98" s="8">
+        <v>4</v>
       </c>
       <c r="H98" s="10">
         <v>1</v>
@@ -11002,7 +11002,7 @@
         <v>101</v>
       </c>
       <c r="G99" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H99" s="8">
         <v>0</v>
@@ -11067,8 +11067,8 @@
       <c r="F100" s="10">
         <v>101</v>
       </c>
-      <c r="G100" s="10">
-        <v>3</v>
+      <c r="G100" s="8">
+        <v>4</v>
       </c>
       <c r="H100" s="10">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>101</v>
       </c>
       <c r="G101" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H101" s="8">
         <v>0</v>
@@ -11199,8 +11199,8 @@
       <c r="F102" s="10">
         <v>101</v>
       </c>
-      <c r="G102" s="10">
-        <v>3</v>
+      <c r="G102" s="8">
+        <v>4</v>
       </c>
       <c r="H102" s="10">
         <v>0</v>
@@ -11266,7 +11266,7 @@
         <v>101</v>
       </c>
       <c r="G103" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H103" s="8">
         <v>0</v>
@@ -11331,8 +11331,8 @@
       <c r="F104" s="10">
         <v>101</v>
       </c>
-      <c r="G104" s="10">
-        <v>3</v>
+      <c r="G104" s="8">
+        <v>4</v>
       </c>
       <c r="H104" s="10">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>101</v>
       </c>
       <c r="G105" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H105" s="8">
         <v>0</v>
@@ -11460,7 +11460,7 @@
         <v>101</v>
       </c>
       <c r="G106" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H106" s="10">
         <v>1</v>
@@ -11523,8 +11523,8 @@
       <c r="F107" s="8">
         <v>101</v>
       </c>
-      <c r="G107" s="8">
-        <v>4</v>
+      <c r="G107" s="10">
+        <v>3</v>
       </c>
       <c r="H107" s="8">
         <v>0</v>
@@ -11588,7 +11588,7 @@
         <v>101</v>
       </c>
       <c r="G108" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H108" s="10">
         <v>0</v>
@@ -11653,8 +11653,8 @@
       <c r="F109" s="8">
         <v>101</v>
       </c>
-      <c r="G109" s="8">
-        <v>4</v>
+      <c r="G109" s="10">
+        <v>3</v>
       </c>
       <c r="H109" s="8">
         <v>1</v>
@@ -11722,7 +11722,7 @@
         <v>101</v>
       </c>
       <c r="G110" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H110" s="10">
         <v>0</v>
@@ -11785,8 +11785,8 @@
       <c r="F111" s="8">
         <v>101</v>
       </c>
-      <c r="G111" s="8">
-        <v>4</v>
+      <c r="G111" s="10">
+        <v>3</v>
       </c>
       <c r="H111" s="8">
         <v>0</v>
@@ -11852,7 +11852,7 @@
         <v>101</v>
       </c>
       <c r="G112" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H112" s="10">
         <v>0</v>
@@ -11916,7 +11916,7 @@
         <v>101</v>
       </c>
       <c r="G113" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H113" s="8">
         <v>0</v>

--- a/excels/config/game/hero/talent_tree/talent_tree_config.xlsx
+++ b/excels/config/game/hero/talent_tree/talent_tree_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="talent_tree_config" sheetId="1" r:id="rId1"/>
@@ -4039,36 +4039,36 @@
     </dxf>
   </dxfs>
   <tableStyles count="9" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{83812CAA-0F77-4D5A-9AAA-5C0E96872404}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{20E93BB4-A773-4A8D-B005-9A331EF1D947}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{C7A8F25F-4513-41AC-9E35-392349460175}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{C023D183-3106-443E-8B5F-0839D6CEDA08}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{D0CF7B28-D2ED-4604-BD52-BC8BAC3E9561}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{A1D37B64-BB82-4851-8B8B-D039C2EB8C30}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{A797D773-7ED9-4A59-810A-51D775A9A84D}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{3E9B5D6D-D545-4AAF-8C1A-06EFF0B0A651}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{D08EA6C5-8241-4552-9CBC-E69EBF5D81AD}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{026BB8EB-6751-4235-8F55-6955858DA3D8}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{127B2C29-C95C-4697-9FB8-F4EF28D8A1F3}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{62711597-CE2C-4759-9395-7E05752EF86B}">
       <tableStyleElement type="wholeTable" dxfId="28"/>
       <tableStyleElement type="headerRow" dxfId="27"/>
       <tableStyleElement type="totalRow" dxfId="26"/>
@@ -4080,7 +4080,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="20"/>
       <tableStyleElement type="lastTotalCell" dxfId="19"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{98DE9B9C-B532-4EAC-AE6E-A06F6492C672}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{B640C4E5-7A77-4467-8C8E-5D38A0D4EC09}">
       <tableStyleElement type="wholeTable" dxfId="40"/>
       <tableStyleElement type="headerRow" dxfId="39"/>
       <tableStyleElement type="totalRow" dxfId="38"/>
@@ -4094,7 +4094,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="30"/>
       <tableStyleElement type="lastTotalCell" dxfId="29"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{6888A80B-E89D-4D4D-AA25-F2C9810DB291}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{2F0D0DAC-111B-4649-A631-61D40BF794A9}">
       <tableStyleElement type="wholeTable" dxfId="47"/>
       <tableStyleElement type="headerRow" dxfId="46"/>
       <tableStyleElement type="totalRow" dxfId="45"/>
@@ -4103,7 +4103,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="42"/>
       <tableStyleElement type="firstColumnStripe" dxfId="41"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{7CF6E622-49D5-4E1F-BB2B-FD8A8D3D51D3}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{12270453-F579-4FAE-9E14-934408FD8356}">
       <tableStyleElement type="wholeTable" dxfId="52"/>
       <tableStyleElement type="headerRow" dxfId="51"/>
       <tableStyleElement type="totalRow" dxfId="50"/>
@@ -4411,13 +4411,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AD118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E114" sqref="E114"/>
+      <selection pane="topRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4540,7 +4540,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:30">
+    <row r="2" s="1" customFormat="1" ht="18.5" hidden="1" customHeight="1" spans="1:30">
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>6</v>
       </c>
       <c r="G3" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="8">
         <v>1</v>
@@ -4711,8 +4711,8 @@
       <c r="F4" s="10">
         <v>6</v>
       </c>
-      <c r="G4" s="10">
-        <v>1</v>
+      <c r="G4" s="8">
+        <v>0</v>
       </c>
       <c r="H4" s="10">
         <v>1</v>
@@ -4778,7 +4778,7 @@
         <v>6</v>
       </c>
       <c r="G5" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="8">
         <v>0</v>
@@ -4843,8 +4843,8 @@
       <c r="F6" s="10">
         <v>6</v>
       </c>
-      <c r="G6" s="10">
-        <v>1</v>
+      <c r="G6" s="8">
+        <v>0</v>
       </c>
       <c r="H6" s="10">
         <v>0</v>
@@ -4910,7 +4910,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="8">
         <v>1</v>
@@ -4973,8 +4973,8 @@
       <c r="F8" s="10">
         <v>6</v>
       </c>
-      <c r="G8" s="10">
-        <v>1</v>
+      <c r="G8" s="8">
+        <v>0</v>
       </c>
       <c r="H8" s="10">
         <v>0</v>
@@ -5038,7 +5038,7 @@
         <v>6</v>
       </c>
       <c r="G9" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="8">
         <v>1</v>
@@ -5101,8 +5101,8 @@
       <c r="F10" s="10">
         <v>6</v>
       </c>
-      <c r="G10" s="10">
-        <v>1</v>
+      <c r="G10" s="8">
+        <v>0</v>
       </c>
       <c r="H10" s="10">
         <v>0</v>
@@ -5166,7 +5166,7 @@
         <v>6</v>
       </c>
       <c r="G11" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="8">
         <v>0</v>
@@ -5232,7 +5232,7 @@
         <v>6</v>
       </c>
       <c r="G12" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" s="10">
         <v>1</v>
@@ -5297,8 +5297,8 @@
       <c r="F13" s="8">
         <v>6</v>
       </c>
-      <c r="G13" s="8">
-        <v>2</v>
+      <c r="G13" s="10">
+        <v>1</v>
       </c>
       <c r="H13" s="8">
         <v>1</v>
@@ -5362,7 +5362,7 @@
         <v>6</v>
       </c>
       <c r="G14" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" s="10">
         <v>0</v>
@@ -5429,8 +5429,8 @@
       <c r="F15" s="8">
         <v>6</v>
       </c>
-      <c r="G15" s="8">
-        <v>2</v>
+      <c r="G15" s="10">
+        <v>1</v>
       </c>
       <c r="H15" s="8">
         <v>0</v>
@@ -5494,7 +5494,7 @@
         <v>6</v>
       </c>
       <c r="G16" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" s="10">
         <v>1</v>
@@ -5559,8 +5559,8 @@
       <c r="F17" s="8">
         <v>6</v>
       </c>
-      <c r="G17" s="8">
-        <v>2</v>
+      <c r="G17" s="10">
+        <v>1</v>
       </c>
       <c r="H17" s="8">
         <v>0</v>
@@ -5626,7 +5626,7 @@
         <v>6</v>
       </c>
       <c r="G18" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" s="10">
         <v>0</v>
@@ -5695,8 +5695,8 @@
       <c r="F19" s="8">
         <v>6</v>
       </c>
-      <c r="G19" s="8">
-        <v>2</v>
+      <c r="G19" s="10">
+        <v>1</v>
       </c>
       <c r="H19" s="8">
         <v>1</v>
@@ -5762,7 +5762,7 @@
         <v>6</v>
       </c>
       <c r="G20" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" s="10">
         <v>1</v>
@@ -5825,8 +5825,8 @@
       <c r="F21" s="8">
         <v>6</v>
       </c>
-      <c r="G21" s="8">
-        <v>2</v>
+      <c r="G21" s="10">
+        <v>1</v>
       </c>
       <c r="H21" s="8">
         <v>0</v>
@@ -5890,7 +5890,7 @@
         <v>6</v>
       </c>
       <c r="G22" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22" s="10">
         <v>0</v>
@@ -5955,8 +5955,8 @@
       <c r="F23" s="8">
         <v>6</v>
       </c>
-      <c r="G23" s="8">
-        <v>2</v>
+      <c r="G23" s="10">
+        <v>1</v>
       </c>
       <c r="H23" s="8">
         <v>1</v>
@@ -6020,7 +6020,7 @@
         <v>6</v>
       </c>
       <c r="G24" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" s="10">
         <v>0</v>
@@ -6085,8 +6085,8 @@
       <c r="F25" s="8">
         <v>6</v>
       </c>
-      <c r="G25" s="8">
-        <v>2</v>
+      <c r="G25" s="10">
+        <v>1</v>
       </c>
       <c r="H25" s="8">
         <v>0</v>
@@ -6150,7 +6150,7 @@
         <v>6</v>
       </c>
       <c r="G26" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H26" s="10">
         <v>0</v>
@@ -6213,8 +6213,8 @@
       <c r="F27" s="8">
         <v>6</v>
       </c>
-      <c r="G27" s="8">
-        <v>2</v>
+      <c r="G27" s="10">
+        <v>1</v>
       </c>
       <c r="H27" s="8">
         <v>0</v>
@@ -6280,7 +6280,7 @@
         <v>6</v>
       </c>
       <c r="G28" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28" s="10">
         <v>0</v>
@@ -6343,8 +6343,8 @@
       <c r="F29" s="8">
         <v>6</v>
       </c>
-      <c r="G29" s="8">
-        <v>2</v>
+      <c r="G29" s="10">
+        <v>1</v>
       </c>
       <c r="H29" s="8">
         <v>0</v>
@@ -6410,7 +6410,7 @@
         <v>6</v>
       </c>
       <c r="G30" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H30" s="10">
         <v>1</v>
@@ -6478,7 +6478,7 @@
         <v>6</v>
       </c>
       <c r="G31" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H31" s="8">
         <v>1</v>
@@ -6542,7 +6542,7 @@
         <v>6</v>
       </c>
       <c r="G32" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H32" s="10">
         <v>0</v>
@@ -6610,7 +6610,7 @@
         <v>6</v>
       </c>
       <c r="G33" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H33" s="8">
         <v>1</v>
@@ -6674,7 +6674,7 @@
         <v>6</v>
       </c>
       <c r="G34" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H34" s="10">
         <v>0</v>
@@ -6744,7 +6744,7 @@
         <v>6</v>
       </c>
       <c r="G35" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H35" s="8">
         <v>1</v>
@@ -6814,7 +6814,7 @@
         <v>6</v>
       </c>
       <c r="G36" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H36" s="10">
         <v>1</v>
@@ -6882,7 +6882,7 @@
         <v>6</v>
       </c>
       <c r="G37" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H37" s="8">
         <v>0</v>
@@ -6946,7 +6946,7 @@
         <v>6</v>
       </c>
       <c r="G38" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H38" s="10">
         <v>1</v>
@@ -7012,7 +7012,7 @@
         <v>6</v>
       </c>
       <c r="G39" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H39" s="8">
         <v>0</v>
@@ -7076,7 +7076,7 @@
         <v>6</v>
       </c>
       <c r="G40" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H40" s="10">
         <v>0</v>
@@ -7144,7 +7144,7 @@
         <v>6</v>
       </c>
       <c r="G41" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H41" s="8">
         <v>0</v>
@@ -7208,7 +7208,7 @@
         <v>6</v>
       </c>
       <c r="G42" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H42" s="10">
         <v>0</v>
@@ -7272,7 +7272,7 @@
         <v>6</v>
       </c>
       <c r="G43" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H43" s="8">
         <v>0</v>
@@ -7336,7 +7336,7 @@
         <v>6</v>
       </c>
       <c r="G44" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H44" s="10">
         <v>0</v>
@@ -7402,7 +7402,7 @@
         <v>6</v>
       </c>
       <c r="G45" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H45" s="8">
         <v>0</v>
@@ -7470,7 +7470,7 @@
         <v>6</v>
       </c>
       <c r="G46" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H46" s="10">
         <v>1</v>
@@ -7536,7 +7536,7 @@
         <v>6</v>
       </c>
       <c r="G47" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H47" s="8">
         <v>0</v>
@@ -7602,7 +7602,7 @@
         <v>6</v>
       </c>
       <c r="G48" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H48" s="10">
         <v>0</v>
@@ -7668,7 +7668,7 @@
         <v>6</v>
       </c>
       <c r="G49" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H49" s="8">
         <v>1</v>
@@ -7736,7 +7736,7 @@
         <v>6</v>
       </c>
       <c r="G50" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H50" s="10">
         <v>0</v>
@@ -7800,7 +7800,7 @@
         <v>6</v>
       </c>
       <c r="G51" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H51" s="8">
         <v>0</v>
@@ -7862,7 +7862,7 @@
         <v>6</v>
       </c>
       <c r="G52" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H52" s="10">
         <v>0</v>
@@ -7928,7 +7928,7 @@
         <v>6</v>
       </c>
       <c r="G53" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H53" s="8">
         <v>0</v>
@@ -7992,7 +7992,7 @@
         <v>6</v>
       </c>
       <c r="G54" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H54" s="10">
         <v>0</v>
@@ -8062,7 +8062,7 @@
         <v>6</v>
       </c>
       <c r="G55" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H55" s="8">
         <v>1</v>
@@ -8127,8 +8127,8 @@
       <c r="F56" s="10">
         <v>6</v>
       </c>
-      <c r="G56" s="10">
-        <v>5</v>
+      <c r="G56" s="8">
+        <v>4</v>
       </c>
       <c r="H56" s="10">
         <v>0</v>
@@ -8192,7 +8192,7 @@
         <v>6</v>
       </c>
       <c r="G57" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H57" s="8">
         <v>0</v>
@@ -8257,8 +8257,8 @@
       <c r="F58" s="10">
         <v>6</v>
       </c>
-      <c r="G58" s="10">
-        <v>5</v>
+      <c r="G58" s="8">
+        <v>4</v>
       </c>
       <c r="H58" s="10">
         <v>0</v>
@@ -8308,7 +8308,7 @@
       <c r="AC58" s="10"/>
       <c r="AD58" s="10"/>
     </row>
-    <row r="59" s="2" customFormat="1" ht="35" customHeight="1" spans="1:30">
+    <row r="59" s="2" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:30">
       <c r="A59" s="8">
         <v>58</v>
       </c>
@@ -8374,7 +8374,7 @@
       <c r="AC59" s="8"/>
       <c r="AD59" s="8"/>
     </row>
-    <row r="60" ht="51.5" customHeight="1" spans="1:30">
+    <row r="60" ht="51.5" hidden="1" customHeight="1" spans="1:30">
       <c r="A60" s="10">
         <v>59</v>
       </c>
@@ -8440,7 +8440,7 @@
       <c r="AC60" s="10"/>
       <c r="AD60" s="10"/>
     </row>
-    <row r="61" ht="35" customHeight="1" spans="1:30">
+    <row r="61" ht="35" hidden="1" customHeight="1" spans="1:30">
       <c r="A61" s="8">
         <v>60</v>
       </c>
@@ -8504,7 +8504,7 @@
       <c r="AC61" s="8"/>
       <c r="AD61" s="8"/>
     </row>
-    <row r="62" ht="51.5" customHeight="1" spans="1:30">
+    <row r="62" ht="51.5" hidden="1" customHeight="1" spans="1:30">
       <c r="A62" s="10">
         <v>61</v>
       </c>
@@ -8572,7 +8572,7 @@
       <c r="AC62" s="10"/>
       <c r="AD62" s="10"/>
     </row>
-    <row r="63" ht="68" customHeight="1" spans="1:30">
+    <row r="63" ht="68" hidden="1" customHeight="1" spans="1:30">
       <c r="A63" s="8">
         <v>62</v>
       </c>
@@ -8640,7 +8640,7 @@
       <c r="AC63" s="8"/>
       <c r="AD63" s="8"/>
     </row>
-    <row r="64" ht="18.5" customHeight="1" spans="1:30">
+    <row r="64" ht="18.5" hidden="1" customHeight="1" spans="1:30">
       <c r="A64" s="10">
         <v>63</v>
       </c>
@@ -8704,7 +8704,7 @@
       <c r="AC64" s="10"/>
       <c r="AD64" s="10"/>
     </row>
-    <row r="65" ht="35" customHeight="1" spans="1:30">
+    <row r="65" ht="35" hidden="1" customHeight="1" spans="1:30">
       <c r="A65" s="8">
         <v>64</v>
       </c>
@@ -8768,7 +8768,7 @@
       <c r="AC65" s="8"/>
       <c r="AD65" s="8"/>
     </row>
-    <row r="66" ht="68" customHeight="1" spans="1:30">
+    <row r="66" ht="68" hidden="1" customHeight="1" spans="1:30">
       <c r="A66" s="10">
         <v>65</v>
       </c>
@@ -8838,7 +8838,7 @@
       <c r="AC66" s="10"/>
       <c r="AD66" s="10"/>
     </row>
-    <row r="67" ht="35" customHeight="1" spans="1:30">
+    <row r="67" ht="35" hidden="1" customHeight="1" spans="1:30">
       <c r="A67" s="8">
         <v>66</v>
       </c>
@@ -8904,7 +8904,7 @@
       <c r="AC67" s="8"/>
       <c r="AD67" s="8"/>
     </row>
-    <row r="68" ht="35" customHeight="1" spans="1:30">
+    <row r="68" ht="35" hidden="1" customHeight="1" spans="1:30">
       <c r="A68" s="10">
         <v>67</v>
       </c>
@@ -8972,7 +8972,7 @@
       <c r="AC68" s="10"/>
       <c r="AD68" s="10"/>
     </row>
-    <row r="69" ht="150.5" customHeight="1" spans="1:30">
+    <row r="69" ht="150.5" hidden="1" customHeight="1" spans="1:30">
       <c r="A69" s="8">
         <v>68</v>
       </c>
@@ -9042,7 +9042,7 @@
       <c r="AC69" s="8"/>
       <c r="AD69" s="8"/>
     </row>
-    <row r="70" ht="116.25" spans="1:30">
+    <row r="70" ht="116.25" hidden="1" spans="1:30">
       <c r="A70" s="10">
         <v>69</v>
       </c>
@@ -9116,7 +9116,7 @@
       <c r="AC70" s="10"/>
       <c r="AD70" s="10"/>
     </row>
-    <row r="71" ht="18.5" customHeight="1" spans="1:30">
+    <row r="71" ht="18.5" hidden="1" customHeight="1" spans="1:30">
       <c r="A71" s="8">
         <v>70</v>
       </c>
@@ -9180,7 +9180,7 @@
       <c r="AC71" s="8"/>
       <c r="AD71" s="8"/>
     </row>
-    <row r="72" ht="35" customHeight="1" spans="1:30">
+    <row r="72" ht="35" hidden="1" customHeight="1" spans="1:30">
       <c r="A72" s="10">
         <v>71</v>
       </c>
@@ -9244,7 +9244,7 @@
       <c r="AC72" s="10"/>
       <c r="AD72" s="10"/>
     </row>
-    <row r="73" ht="50.25" spans="1:30">
+    <row r="73" ht="50.25" hidden="1" spans="1:30">
       <c r="A73" s="8">
         <v>72</v>
       </c>
@@ -9308,7 +9308,7 @@
       <c r="AC73" s="8"/>
       <c r="AD73" s="8"/>
     </row>
-    <row r="74" ht="18.5" customHeight="1" spans="1:30">
+    <row r="74" ht="18.5" hidden="1" customHeight="1" spans="1:30">
       <c r="A74" s="10">
         <v>73</v>
       </c>
@@ -9372,7 +9372,7 @@
       <c r="AC74" s="10"/>
       <c r="AD74" s="10"/>
     </row>
-    <row r="75" ht="18.5" customHeight="1" spans="1:30">
+    <row r="75" ht="18.5" hidden="1" customHeight="1" spans="1:30">
       <c r="A75" s="8">
         <v>74</v>
       </c>
@@ -9436,7 +9436,7 @@
       <c r="AC75" s="8"/>
       <c r="AD75" s="8"/>
     </row>
-    <row r="76" ht="99.75" spans="1:30">
+    <row r="76" ht="99.75" hidden="1" spans="1:30">
       <c r="A76" s="10">
         <v>75</v>
       </c>
@@ -9502,7 +9502,7 @@
       <c r="AC76" s="10"/>
       <c r="AD76" s="10"/>
     </row>
-    <row r="77" ht="68" customHeight="1" spans="1:30">
+    <row r="77" ht="68" hidden="1" customHeight="1" spans="1:30">
       <c r="A77" s="8">
         <v>76</v>
       </c>
@@ -9572,7 +9572,7 @@
       <c r="AC77" s="8"/>
       <c r="AD77" s="8"/>
     </row>
-    <row r="78" ht="35" customHeight="1" spans="1:30">
+    <row r="78" ht="35" hidden="1" customHeight="1" spans="1:30">
       <c r="A78" s="10">
         <v>77</v>
       </c>
@@ -9636,7 +9636,7 @@
       <c r="AC78" s="10"/>
       <c r="AD78" s="10"/>
     </row>
-    <row r="79" ht="35" customHeight="1" spans="1:30">
+    <row r="79" ht="35" hidden="1" customHeight="1" spans="1:30">
       <c r="A79" s="8">
         <v>78</v>
       </c>
@@ -9704,7 +9704,7 @@
       <c r="AC79" s="8"/>
       <c r="AD79" s="8"/>
     </row>
-    <row r="80" ht="68" customHeight="1" spans="1:30">
+    <row r="80" ht="68" hidden="1" customHeight="1" spans="1:30">
       <c r="A80" s="10">
         <v>79</v>
       </c>
@@ -9774,7 +9774,7 @@
       <c r="AC80" s="10"/>
       <c r="AD80" s="10"/>
     </row>
-    <row r="81" ht="18.5" customHeight="1" spans="1:30">
+    <row r="81" ht="18.5" hidden="1" customHeight="1" spans="1:30">
       <c r="A81" s="8">
         <v>80</v>
       </c>
@@ -9838,7 +9838,7 @@
       <c r="AC81" s="8"/>
       <c r="AD81" s="8"/>
     </row>
-    <row r="82" ht="51.5" customHeight="1" spans="1:30">
+    <row r="82" ht="51.5" hidden="1" customHeight="1" spans="1:30">
       <c r="A82" s="10">
         <v>81</v>
       </c>
@@ -9906,7 +9906,7 @@
       <c r="AC82" s="10"/>
       <c r="AD82" s="10"/>
     </row>
-    <row r="83" ht="50.25" spans="1:30">
+    <row r="83" ht="50.25" hidden="1" spans="1:30">
       <c r="A83" s="8">
         <v>82</v>
       </c>
@@ -9970,7 +9970,7 @@
       <c r="AC83" s="8"/>
       <c r="AD83" s="8"/>
     </row>
-    <row r="84" ht="50.25" spans="1:30">
+    <row r="84" ht="50.25" hidden="1" spans="1:30">
       <c r="A84" s="10">
         <v>83</v>
       </c>
@@ -10036,7 +10036,7 @@
       <c r="AC84" s="10"/>
       <c r="AD84" s="10"/>
     </row>
-    <row r="85" ht="50.25" spans="1:30">
+    <row r="85" ht="50.25" hidden="1" spans="1:30">
       <c r="A85" s="8">
         <v>84</v>
       </c>
@@ -10100,7 +10100,7 @@
       <c r="AC85" s="8"/>
       <c r="AD85" s="8"/>
     </row>
-    <row r="86" ht="50.25" spans="1:30">
+    <row r="86" ht="50.25" hidden="1" spans="1:30">
       <c r="A86" s="10">
         <v>85</v>
       </c>
@@ -10164,7 +10164,7 @@
       <c r="AC86" s="10"/>
       <c r="AD86" s="10"/>
     </row>
-    <row r="87" ht="150.5" customHeight="1" spans="1:30">
+    <row r="87" ht="150.5" hidden="1" customHeight="1" spans="1:30">
       <c r="A87" s="8">
         <v>86</v>
       </c>
@@ -10240,7 +10240,7 @@
       <c r="AC87" s="8"/>
       <c r="AD87" s="8"/>
     </row>
-    <row r="88" ht="99.75" spans="1:30">
+    <row r="88" ht="99.75" hidden="1" spans="1:30">
       <c r="A88" s="10">
         <v>87</v>
       </c>
@@ -10312,7 +10312,7 @@
       <c r="AC88" s="10"/>
       <c r="AD88" s="10"/>
     </row>
-    <row r="89" ht="51.5" customHeight="1" spans="1:30">
+    <row r="89" ht="51.5" hidden="1" customHeight="1" spans="1:30">
       <c r="A89" s="8">
         <v>88</v>
       </c>
@@ -10378,7 +10378,7 @@
       <c r="AC89" s="8"/>
       <c r="AD89" s="8"/>
     </row>
-    <row r="90" ht="84.5" customHeight="1" spans="1:30">
+    <row r="90" ht="84.5" hidden="1" customHeight="1" spans="1:30">
       <c r="A90" s="10">
         <v>89</v>
       </c>
@@ -10444,7 +10444,7 @@
       <c r="AC90" s="10"/>
       <c r="AD90" s="10"/>
     </row>
-    <row r="91" ht="35" customHeight="1" spans="1:30">
+    <row r="91" ht="35" hidden="1" customHeight="1" spans="1:30">
       <c r="A91" s="8">
         <v>90</v>
       </c>
@@ -10510,7 +10510,7 @@
       <c r="AC91" s="8"/>
       <c r="AD91" s="8"/>
     </row>
-    <row r="92" ht="83.25" spans="1:30">
+    <row r="92" ht="83.25" hidden="1" spans="1:30">
       <c r="A92" s="10">
         <v>91</v>
       </c>
@@ -10582,7 +10582,7 @@
       <c r="AC92" s="10"/>
       <c r="AD92" s="10"/>
     </row>
-    <row r="93" ht="84.5" customHeight="1" spans="1:30">
+    <row r="93" ht="84.5" hidden="1" customHeight="1" spans="1:30">
       <c r="A93" s="8">
         <v>92</v>
       </c>
@@ -10650,7 +10650,7 @@
       <c r="AC93" s="8"/>
       <c r="AD93" s="8"/>
     </row>
-    <row r="94" ht="18.5" customHeight="1" spans="1:30">
+    <row r="94" ht="18.5" hidden="1" customHeight="1" spans="1:30">
       <c r="A94" s="10">
         <v>93</v>
       </c>
@@ -10714,7 +10714,7 @@
       <c r="AC94" s="10"/>
       <c r="AD94" s="10"/>
     </row>
-    <row r="95" ht="117.5" customHeight="1" spans="1:30">
+    <row r="95" ht="117.5" hidden="1" customHeight="1" spans="1:30">
       <c r="A95" s="8">
         <v>94</v>
       </c>
@@ -10784,7 +10784,7 @@
       <c r="AC95" s="8"/>
       <c r="AD95" s="8"/>
     </row>
-    <row r="96" ht="117.5" customHeight="1" spans="1:30">
+    <row r="96" ht="117.5" hidden="1" customHeight="1" spans="1:30">
       <c r="A96" s="10">
         <v>95</v>
       </c>
@@ -10852,7 +10852,7 @@
       <c r="AC96" s="10"/>
       <c r="AD96" s="10"/>
     </row>
-    <row r="97" ht="18.5" customHeight="1" spans="1:30">
+    <row r="97" ht="18.5" hidden="1" customHeight="1" spans="1:30">
       <c r="A97" s="8">
         <v>96</v>
       </c>
@@ -10916,7 +10916,7 @@
       <c r="AC97" s="8"/>
       <c r="AD97" s="8"/>
     </row>
-    <row r="98" ht="83.25" spans="1:30">
+    <row r="98" ht="83.25" hidden="1" spans="1:30">
       <c r="A98" s="10">
         <v>97</v>
       </c>
@@ -10986,7 +10986,7 @@
       <c r="AC98" s="10"/>
       <c r="AD98" s="10"/>
     </row>
-    <row r="99" ht="50.25" spans="1:30">
+    <row r="99" ht="50.25" hidden="1" spans="1:30">
       <c r="A99" s="8">
         <v>98</v>
       </c>
@@ -11052,7 +11052,7 @@
       <c r="AC99" s="8"/>
       <c r="AD99" s="8"/>
     </row>
-    <row r="100" ht="51.5" customHeight="1" spans="1:30">
+    <row r="100" ht="51.5" hidden="1" customHeight="1" spans="1:30">
       <c r="A100" s="10">
         <v>99</v>
       </c>
@@ -11120,7 +11120,7 @@
       <c r="AC100" s="10"/>
       <c r="AD100" s="10"/>
     </row>
-    <row r="101" ht="35" customHeight="1" spans="1:30">
+    <row r="101" ht="35" hidden="1" customHeight="1" spans="1:30">
       <c r="A101" s="8">
         <v>100</v>
       </c>
@@ -11184,7 +11184,7 @@
       <c r="AC101" s="8"/>
       <c r="AD101" s="8"/>
     </row>
-    <row r="102" ht="35" customHeight="1" spans="1:30">
+    <row r="102" ht="35" hidden="1" customHeight="1" spans="1:30">
       <c r="A102" s="10">
         <v>101</v>
       </c>
@@ -11250,7 +11250,7 @@
       <c r="AC102" s="10"/>
       <c r="AD102" s="10"/>
     </row>
-    <row r="103" ht="33.75" spans="1:30">
+    <row r="103" ht="33.75" hidden="1" spans="1:30">
       <c r="A103" s="8">
         <v>102</v>
       </c>
@@ -11316,7 +11316,7 @@
       <c r="AC103" s="8"/>
       <c r="AD103" s="8"/>
     </row>
-    <row r="104" ht="50.25" spans="1:30">
+    <row r="104" ht="50.25" hidden="1" spans="1:30">
       <c r="A104" s="10">
         <v>103</v>
       </c>
@@ -11380,7 +11380,7 @@
       <c r="AC104" s="10"/>
       <c r="AD104" s="10"/>
     </row>
-    <row r="105" ht="50.25" spans="1:30">
+    <row r="105" ht="50.25" hidden="1" spans="1:30">
       <c r="A105" s="8">
         <v>104</v>
       </c>
@@ -11444,7 +11444,7 @@
       <c r="AC105" s="8"/>
       <c r="AD105" s="8"/>
     </row>
-    <row r="106" ht="18.5" customHeight="1" spans="1:30">
+    <row r="106" ht="18.5" hidden="1" customHeight="1" spans="1:30">
       <c r="A106" s="10">
         <v>105</v>
       </c>
@@ -11508,7 +11508,7 @@
       <c r="AC106" s="10"/>
       <c r="AD106" s="10"/>
     </row>
-    <row r="107" ht="18.5" customHeight="1" spans="1:30">
+    <row r="107" ht="18.5" hidden="1" customHeight="1" spans="1:30">
       <c r="A107" s="8">
         <v>106</v>
       </c>
@@ -11572,7 +11572,7 @@
       <c r="AC107" s="8"/>
       <c r="AD107" s="8"/>
     </row>
-    <row r="108" ht="35" customHeight="1" spans="1:30">
+    <row r="108" ht="35" hidden="1" customHeight="1" spans="1:30">
       <c r="A108" s="10">
         <v>107</v>
       </c>
@@ -11638,7 +11638,7 @@
       <c r="AC108" s="10"/>
       <c r="AD108" s="10"/>
     </row>
-    <row r="109" ht="51.5" customHeight="1" spans="1:30">
+    <row r="109" ht="51.5" hidden="1" customHeight="1" spans="1:30">
       <c r="A109" s="8">
         <v>108</v>
       </c>
@@ -11706,7 +11706,7 @@
       <c r="AC109" s="8"/>
       <c r="AD109" s="8"/>
     </row>
-    <row r="110" ht="17.25" spans="1:30">
+    <row r="110" ht="17.25" hidden="1" spans="1:30">
       <c r="A110" s="10">
         <v>109</v>
       </c>
@@ -11770,7 +11770,7 @@
       <c r="AC110" s="10"/>
       <c r="AD110" s="10"/>
     </row>
-    <row r="111" ht="50.25" spans="1:30">
+    <row r="111" ht="50.25" hidden="1" spans="1:30">
       <c r="A111" s="8">
         <v>110</v>
       </c>
@@ -11836,7 +11836,7 @@
       <c r="AC111" s="8"/>
       <c r="AD111" s="8"/>
     </row>
-    <row r="112" ht="50.25" spans="1:30">
+    <row r="112" ht="50.25" hidden="1" spans="1:30">
       <c r="A112" s="10">
         <v>111</v>
       </c>
@@ -11900,7 +11900,7 @@
       <c r="AC112" s="10"/>
       <c r="AD112" s="10"/>
     </row>
-    <row r="113" ht="35" customHeight="1" spans="1:30">
+    <row r="113" ht="35" hidden="1" customHeight="1" spans="1:30">
       <c r="A113" s="8">
         <v>112</v>
       </c>
@@ -11966,7 +11966,7 @@
       <c r="AC113" s="8"/>
       <c r="AD113" s="8"/>
     </row>
-    <row r="114" ht="68" customHeight="1" spans="1:30">
+    <row r="114" ht="68" hidden="1" customHeight="1" spans="1:30">
       <c r="A114" s="10">
         <v>113</v>
       </c>
@@ -12032,7 +12032,7 @@
       <c r="AC114" s="10"/>
       <c r="AD114" s="10"/>
     </row>
-    <row r="115" ht="35" customHeight="1" spans="1:30">
+    <row r="115" ht="35" hidden="1" customHeight="1" spans="1:30">
       <c r="A115" s="8">
         <v>114</v>
       </c>
@@ -12098,7 +12098,7 @@
       <c r="AC115" s="8"/>
       <c r="AD115" s="8"/>
     </row>
-    <row r="116" ht="51.5" customHeight="1" spans="1:30">
+    <row r="116" ht="51.5" hidden="1" customHeight="1" spans="1:30">
       <c r="A116" s="10">
         <v>115</v>
       </c>
@@ -12164,7 +12164,7 @@
       <c r="AC116" s="10"/>
       <c r="AD116" s="10"/>
     </row>
-    <row r="117" ht="35" customHeight="1" spans="1:30">
+    <row r="117" ht="35" hidden="1" customHeight="1" spans="1:30">
       <c r="A117" s="8">
         <v>116</v>
       </c>
@@ -12228,7 +12228,7 @@
       <c r="AC117" s="8"/>
       <c r="AD117" s="8"/>
     </row>
-    <row r="118" ht="35" customHeight="1" spans="1:30">
+    <row r="118" ht="35" hidden="1" customHeight="1" spans="1:30">
       <c r="A118" s="10">
         <v>117</v>
       </c>
@@ -12294,6 +12294,11 @@
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AD118" etc:filterBottomFollowUsedRange="0">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="6"/>
+      </filters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="H$1:H$1048576">

--- a/excels/config/game/hero/talent_tree/talent_tree_config.xlsx
+++ b/excels/config/game/hero/talent_tree/talent_tree_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345"/>
+    <workbookView windowWidth="27945" windowHeight="13395"/>
   </bookViews>
   <sheets>
     <sheet name="talent_tree_config" sheetId="1" r:id="rId1"/>
@@ -4039,36 +4039,36 @@
     </dxf>
   </dxfs>
   <tableStyles count="9" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{20E93BB4-A773-4A8D-B005-9A331EF1D947}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{8DD9FF94-CDB4-494E-B28A-153C73D081CB}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{C023D183-3106-443E-8B5F-0839D6CEDA08}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{EE38480B-8823-4443-8AC3-E19341CF6FBA}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{A1D37B64-BB82-4851-8B8B-D039C2EB8C30}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{B2B39787-555B-4FA6-A51B-9F54B3DDC774}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{3E9B5D6D-D545-4AAF-8C1A-06EFF0B0A651}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{DC1B3DAC-1F00-4F52-86F1-3F827B82C09C}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{026BB8EB-6751-4235-8F55-6955858DA3D8}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{BAA78EFB-3FF3-4921-9672-6AD072907588}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{62711597-CE2C-4759-9395-7E05752EF86B}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{8B029117-B90D-4247-8B78-2EE63B41E98D}">
       <tableStyleElement type="wholeTable" dxfId="28"/>
       <tableStyleElement type="headerRow" dxfId="27"/>
       <tableStyleElement type="totalRow" dxfId="26"/>
@@ -4080,7 +4080,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="20"/>
       <tableStyleElement type="lastTotalCell" dxfId="19"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{B640C4E5-7A77-4467-8C8E-5D38A0D4EC09}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{4CE9F88D-4458-4C5F-A867-FC389497550E}">
       <tableStyleElement type="wholeTable" dxfId="40"/>
       <tableStyleElement type="headerRow" dxfId="39"/>
       <tableStyleElement type="totalRow" dxfId="38"/>
@@ -4094,7 +4094,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="30"/>
       <tableStyleElement type="lastTotalCell" dxfId="29"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{2F0D0DAC-111B-4649-A631-61D40BF794A9}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{EB913BB4-AC6D-4162-B8D5-79C5BE1380ED}">
       <tableStyleElement type="wholeTable" dxfId="47"/>
       <tableStyleElement type="headerRow" dxfId="46"/>
       <tableStyleElement type="totalRow" dxfId="45"/>
@@ -4103,7 +4103,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="42"/>
       <tableStyleElement type="firstColumnStripe" dxfId="41"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{12270453-F579-4FAE-9E14-934408FD8356}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{05CE78F3-193F-407B-A509-6DD1E0D4EA44}">
       <tableStyleElement type="wholeTable" dxfId="52"/>
       <tableStyleElement type="headerRow" dxfId="51"/>
       <tableStyleElement type="totalRow" dxfId="50"/>
@@ -4411,13 +4411,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:AD118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="I7" sqref="I7"/>
+      <selection pane="topRight" activeCell="G114" sqref="G114:G118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4540,7 +4540,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="18.5" hidden="1" customHeight="1" spans="1:30">
+    <row r="2" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:30">
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
@@ -8308,7 +8308,7 @@
       <c r="AC58" s="10"/>
       <c r="AD58" s="10"/>
     </row>
-    <row r="59" s="2" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:30">
+    <row r="59" s="2" customFormat="1" ht="35" customHeight="1" spans="1:30">
       <c r="A59" s="8">
         <v>58</v>
       </c>
@@ -8324,7 +8324,7 @@
         <v>101</v>
       </c>
       <c r="G59" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" s="8">
         <v>1</v>
@@ -8374,7 +8374,7 @@
       <c r="AC59" s="8"/>
       <c r="AD59" s="8"/>
     </row>
-    <row r="60" ht="51.5" hidden="1" customHeight="1" spans="1:30">
+    <row r="60" ht="51.5" customHeight="1" spans="1:30">
       <c r="A60" s="10">
         <v>59</v>
       </c>
@@ -8389,8 +8389,8 @@
       <c r="F60" s="10">
         <v>101</v>
       </c>
-      <c r="G60" s="10">
-        <v>1</v>
+      <c r="G60" s="8">
+        <v>0</v>
       </c>
       <c r="H60" s="10">
         <v>1</v>
@@ -8440,7 +8440,7 @@
       <c r="AC60" s="10"/>
       <c r="AD60" s="10"/>
     </row>
-    <row r="61" ht="35" hidden="1" customHeight="1" spans="1:30">
+    <row r="61" ht="35" customHeight="1" spans="1:30">
       <c r="A61" s="8">
         <v>60</v>
       </c>
@@ -8456,7 +8456,7 @@
         <v>101</v>
       </c>
       <c r="G61" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" s="8">
         <v>0</v>
@@ -8504,7 +8504,7 @@
       <c r="AC61" s="8"/>
       <c r="AD61" s="8"/>
     </row>
-    <row r="62" ht="51.5" hidden="1" customHeight="1" spans="1:30">
+    <row r="62" ht="51.5" customHeight="1" spans="1:30">
       <c r="A62" s="10">
         <v>61</v>
       </c>
@@ -8519,8 +8519,8 @@
       <c r="F62" s="10">
         <v>101</v>
       </c>
-      <c r="G62" s="10">
-        <v>1</v>
+      <c r="G62" s="8">
+        <v>0</v>
       </c>
       <c r="H62" s="10">
         <v>0</v>
@@ -8572,7 +8572,7 @@
       <c r="AC62" s="10"/>
       <c r="AD62" s="10"/>
     </row>
-    <row r="63" ht="68" hidden="1" customHeight="1" spans="1:30">
+    <row r="63" ht="68" customHeight="1" spans="1:30">
       <c r="A63" s="8">
         <v>62</v>
       </c>
@@ -8588,7 +8588,7 @@
         <v>101</v>
       </c>
       <c r="G63" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" s="8">
         <v>1</v>
@@ -8640,7 +8640,7 @@
       <c r="AC63" s="8"/>
       <c r="AD63" s="8"/>
     </row>
-    <row r="64" ht="18.5" hidden="1" customHeight="1" spans="1:30">
+    <row r="64" ht="18.5" customHeight="1" spans="1:30">
       <c r="A64" s="10">
         <v>63</v>
       </c>
@@ -8655,8 +8655,8 @@
       <c r="F64" s="10">
         <v>101</v>
       </c>
-      <c r="G64" s="10">
-        <v>1</v>
+      <c r="G64" s="8">
+        <v>0</v>
       </c>
       <c r="H64" s="10">
         <v>0</v>
@@ -8704,7 +8704,7 @@
       <c r="AC64" s="10"/>
       <c r="AD64" s="10"/>
     </row>
-    <row r="65" ht="35" hidden="1" customHeight="1" spans="1:30">
+    <row r="65" ht="35" customHeight="1" spans="1:30">
       <c r="A65" s="8">
         <v>64</v>
       </c>
@@ -8720,7 +8720,7 @@
         <v>101</v>
       </c>
       <c r="G65" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" s="8">
         <v>0</v>
@@ -8768,7 +8768,7 @@
       <c r="AC65" s="8"/>
       <c r="AD65" s="8"/>
     </row>
-    <row r="66" ht="68" hidden="1" customHeight="1" spans="1:30">
+    <row r="66" ht="68" customHeight="1" spans="1:30">
       <c r="A66" s="10">
         <v>65</v>
       </c>
@@ -8783,8 +8783,8 @@
       <c r="F66" s="10">
         <v>101</v>
       </c>
-      <c r="G66" s="10">
-        <v>1</v>
+      <c r="G66" s="8">
+        <v>0</v>
       </c>
       <c r="H66" s="10">
         <v>1</v>
@@ -8838,7 +8838,7 @@
       <c r="AC66" s="10"/>
       <c r="AD66" s="10"/>
     </row>
-    <row r="67" ht="35" hidden="1" customHeight="1" spans="1:30">
+    <row r="67" ht="35" customHeight="1" spans="1:30">
       <c r="A67" s="8">
         <v>66</v>
       </c>
@@ -8854,7 +8854,7 @@
         <v>101</v>
       </c>
       <c r="G67" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" s="8">
         <v>0</v>
@@ -8904,7 +8904,7 @@
       <c r="AC67" s="8"/>
       <c r="AD67" s="8"/>
     </row>
-    <row r="68" ht="35" hidden="1" customHeight="1" spans="1:30">
+    <row r="68" ht="35" customHeight="1" spans="1:30">
       <c r="A68" s="10">
         <v>67</v>
       </c>
@@ -8919,8 +8919,8 @@
       <c r="F68" s="10">
         <v>101</v>
       </c>
-      <c r="G68" s="10">
-        <v>1</v>
+      <c r="G68" s="8">
+        <v>0</v>
       </c>
       <c r="H68" s="10">
         <v>0</v>
@@ -8972,7 +8972,7 @@
       <c r="AC68" s="10"/>
       <c r="AD68" s="10"/>
     </row>
-    <row r="69" ht="150.5" hidden="1" customHeight="1" spans="1:30">
+    <row r="69" ht="150.5" customHeight="1" spans="1:30">
       <c r="A69" s="8">
         <v>68</v>
       </c>
@@ -8990,7 +8990,7 @@
         <v>101</v>
       </c>
       <c r="G69" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H69" s="8">
         <v>1</v>
@@ -9042,7 +9042,7 @@
       <c r="AC69" s="8"/>
       <c r="AD69" s="8"/>
     </row>
-    <row r="70" ht="116.25" hidden="1" spans="1:30">
+    <row r="70" ht="116.25" spans="1:30">
       <c r="A70" s="10">
         <v>69</v>
       </c>
@@ -9059,8 +9059,8 @@
       <c r="F70" s="10">
         <v>101</v>
       </c>
-      <c r="G70" s="10">
-        <v>2</v>
+      <c r="G70" s="8">
+        <v>1</v>
       </c>
       <c r="H70" s="10">
         <v>1</v>
@@ -9116,7 +9116,7 @@
       <c r="AC70" s="10"/>
       <c r="AD70" s="10"/>
     </row>
-    <row r="71" ht="18.5" hidden="1" customHeight="1" spans="1:30">
+    <row r="71" ht="18.5" customHeight="1" spans="1:30">
       <c r="A71" s="8">
         <v>70</v>
       </c>
@@ -9132,7 +9132,7 @@
         <v>101</v>
       </c>
       <c r="G71" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H71" s="8">
         <v>0</v>
@@ -9180,7 +9180,7 @@
       <c r="AC71" s="8"/>
       <c r="AD71" s="8"/>
     </row>
-    <row r="72" ht="35" hidden="1" customHeight="1" spans="1:30">
+    <row r="72" ht="35" customHeight="1" spans="1:30">
       <c r="A72" s="10">
         <v>71</v>
       </c>
@@ -9195,8 +9195,8 @@
       <c r="F72" s="10">
         <v>101</v>
       </c>
-      <c r="G72" s="10">
-        <v>2</v>
+      <c r="G72" s="8">
+        <v>1</v>
       </c>
       <c r="H72" s="10">
         <v>0</v>
@@ -9244,7 +9244,7 @@
       <c r="AC72" s="10"/>
       <c r="AD72" s="10"/>
     </row>
-    <row r="73" ht="50.25" hidden="1" spans="1:30">
+    <row r="73" ht="50.25" spans="1:30">
       <c r="A73" s="8">
         <v>72</v>
       </c>
@@ -9260,7 +9260,7 @@
         <v>101</v>
       </c>
       <c r="G73" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H73" s="8">
         <v>1</v>
@@ -9308,7 +9308,7 @@
       <c r="AC73" s="8"/>
       <c r="AD73" s="8"/>
     </row>
-    <row r="74" ht="18.5" hidden="1" customHeight="1" spans="1:30">
+    <row r="74" ht="18.5" customHeight="1" spans="1:30">
       <c r="A74" s="10">
         <v>73</v>
       </c>
@@ -9323,8 +9323,8 @@
       <c r="F74" s="10">
         <v>101</v>
       </c>
-      <c r="G74" s="10">
-        <v>2</v>
+      <c r="G74" s="8">
+        <v>1</v>
       </c>
       <c r="H74" s="10">
         <v>0</v>
@@ -9372,7 +9372,7 @@
       <c r="AC74" s="10"/>
       <c r="AD74" s="10"/>
     </row>
-    <row r="75" ht="18.5" hidden="1" customHeight="1" spans="1:30">
+    <row r="75" ht="18.5" customHeight="1" spans="1:30">
       <c r="A75" s="8">
         <v>74</v>
       </c>
@@ -9388,7 +9388,7 @@
         <v>101</v>
       </c>
       <c r="G75" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H75" s="8">
         <v>0</v>
@@ -9436,7 +9436,7 @@
       <c r="AC75" s="8"/>
       <c r="AD75" s="8"/>
     </row>
-    <row r="76" ht="99.75" hidden="1" spans="1:30">
+    <row r="76" ht="99.75" spans="1:30">
       <c r="A76" s="10">
         <v>75</v>
       </c>
@@ -9453,8 +9453,8 @@
       <c r="F76" s="10">
         <v>101</v>
       </c>
-      <c r="G76" s="10">
-        <v>2</v>
+      <c r="G76" s="8">
+        <v>1</v>
       </c>
       <c r="H76" s="10">
         <v>1</v>
@@ -9502,7 +9502,7 @@
       <c r="AC76" s="10"/>
       <c r="AD76" s="10"/>
     </row>
-    <row r="77" ht="68" hidden="1" customHeight="1" spans="1:30">
+    <row r="77" ht="68" customHeight="1" spans="1:30">
       <c r="A77" s="8">
         <v>76</v>
       </c>
@@ -9520,7 +9520,7 @@
         <v>101</v>
       </c>
       <c r="G77" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H77" s="8">
         <v>1</v>
@@ -9572,7 +9572,7 @@
       <c r="AC77" s="8"/>
       <c r="AD77" s="8"/>
     </row>
-    <row r="78" ht="35" hidden="1" customHeight="1" spans="1:30">
+    <row r="78" ht="35" customHeight="1" spans="1:30">
       <c r="A78" s="10">
         <v>77</v>
       </c>
@@ -9587,8 +9587,8 @@
       <c r="F78" s="10">
         <v>101</v>
       </c>
-      <c r="G78" s="10">
-        <v>2</v>
+      <c r="G78" s="8">
+        <v>1</v>
       </c>
       <c r="H78" s="10">
         <v>0</v>
@@ -9636,7 +9636,7 @@
       <c r="AC78" s="10"/>
       <c r="AD78" s="10"/>
     </row>
-    <row r="79" ht="35" hidden="1" customHeight="1" spans="1:30">
+    <row r="79" ht="35" customHeight="1" spans="1:30">
       <c r="A79" s="8">
         <v>78</v>
       </c>
@@ -9652,7 +9652,7 @@
         <v>101</v>
       </c>
       <c r="G79" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H79" s="8">
         <v>0</v>
@@ -9704,7 +9704,7 @@
       <c r="AC79" s="8"/>
       <c r="AD79" s="8"/>
     </row>
-    <row r="80" ht="68" hidden="1" customHeight="1" spans="1:30">
+    <row r="80" ht="68" customHeight="1" spans="1:30">
       <c r="A80" s="10">
         <v>79</v>
       </c>
@@ -9721,8 +9721,8 @@
       <c r="F80" s="10">
         <v>101</v>
       </c>
-      <c r="G80" s="10">
-        <v>2</v>
+      <c r="G80" s="8">
+        <v>1</v>
       </c>
       <c r="H80" s="10">
         <v>1</v>
@@ -9774,7 +9774,7 @@
       <c r="AC80" s="10"/>
       <c r="AD80" s="10"/>
     </row>
-    <row r="81" ht="18.5" hidden="1" customHeight="1" spans="1:30">
+    <row r="81" ht="18.5" customHeight="1" spans="1:30">
       <c r="A81" s="8">
         <v>80</v>
       </c>
@@ -9790,7 +9790,7 @@
         <v>101</v>
       </c>
       <c r="G81" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H81" s="8">
         <v>0</v>
@@ -9838,7 +9838,7 @@
       <c r="AC81" s="8"/>
       <c r="AD81" s="8"/>
     </row>
-    <row r="82" ht="51.5" hidden="1" customHeight="1" spans="1:30">
+    <row r="82" ht="51.5" customHeight="1" spans="1:30">
       <c r="A82" s="10">
         <v>81</v>
       </c>
@@ -9853,8 +9853,8 @@
       <c r="F82" s="10">
         <v>101</v>
       </c>
-      <c r="G82" s="10">
-        <v>2</v>
+      <c r="G82" s="8">
+        <v>1</v>
       </c>
       <c r="H82" s="10">
         <v>0</v>
@@ -9906,7 +9906,7 @@
       <c r="AC82" s="10"/>
       <c r="AD82" s="10"/>
     </row>
-    <row r="83" ht="50.25" hidden="1" spans="1:30">
+    <row r="83" ht="50.25" spans="1:30">
       <c r="A83" s="8">
         <v>82</v>
       </c>
@@ -9922,7 +9922,7 @@
         <v>101</v>
       </c>
       <c r="G83" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H83" s="8">
         <v>0</v>
@@ -9970,7 +9970,7 @@
       <c r="AC83" s="8"/>
       <c r="AD83" s="8"/>
     </row>
-    <row r="84" ht="50.25" hidden="1" spans="1:30">
+    <row r="84" ht="50.25" spans="1:30">
       <c r="A84" s="10">
         <v>83</v>
       </c>
@@ -9985,8 +9985,8 @@
       <c r="F84" s="10">
         <v>101</v>
       </c>
-      <c r="G84" s="10">
-        <v>2</v>
+      <c r="G84" s="8">
+        <v>1</v>
       </c>
       <c r="H84" s="10">
         <v>0</v>
@@ -10036,7 +10036,7 @@
       <c r="AC84" s="10"/>
       <c r="AD84" s="10"/>
     </row>
-    <row r="85" ht="50.25" hidden="1" spans="1:30">
+    <row r="85" ht="50.25" spans="1:30">
       <c r="A85" s="8">
         <v>84</v>
       </c>
@@ -10052,7 +10052,7 @@
         <v>101</v>
       </c>
       <c r="G85" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H85" s="8">
         <v>0</v>
@@ -10100,7 +10100,7 @@
       <c r="AC85" s="8"/>
       <c r="AD85" s="8"/>
     </row>
-    <row r="86" ht="50.25" hidden="1" spans="1:30">
+    <row r="86" ht="50.25" spans="1:30">
       <c r="A86" s="10">
         <v>85</v>
       </c>
@@ -10115,8 +10115,8 @@
       <c r="F86" s="10">
         <v>101</v>
       </c>
-      <c r="G86" s="10">
-        <v>2</v>
+      <c r="G86" s="8">
+        <v>1</v>
       </c>
       <c r="H86" s="10">
         <v>0</v>
@@ -10164,7 +10164,7 @@
       <c r="AC86" s="10"/>
       <c r="AD86" s="10"/>
     </row>
-    <row r="87" ht="150.5" hidden="1" customHeight="1" spans="1:30">
+    <row r="87" ht="150.5" customHeight="1" spans="1:30">
       <c r="A87" s="8">
         <v>86</v>
       </c>
@@ -10182,7 +10182,7 @@
         <v>101</v>
       </c>
       <c r="G87" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H87" s="8">
         <v>1</v>
@@ -10240,7 +10240,7 @@
       <c r="AC87" s="8"/>
       <c r="AD87" s="8"/>
     </row>
-    <row r="88" ht="99.75" hidden="1" spans="1:30">
+    <row r="88" ht="99.75" spans="1:30">
       <c r="A88" s="10">
         <v>87</v>
       </c>
@@ -10258,7 +10258,7 @@
         <v>101</v>
       </c>
       <c r="G88" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H88" s="10">
         <v>1</v>
@@ -10312,7 +10312,7 @@
       <c r="AC88" s="10"/>
       <c r="AD88" s="10"/>
     </row>
-    <row r="89" ht="51.5" hidden="1" customHeight="1" spans="1:30">
+    <row r="89" ht="51.5" customHeight="1" spans="1:30">
       <c r="A89" s="8">
         <v>88</v>
       </c>
@@ -10328,7 +10328,7 @@
         <v>101</v>
       </c>
       <c r="G89" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H89" s="8">
         <v>0</v>
@@ -10378,7 +10378,7 @@
       <c r="AC89" s="8"/>
       <c r="AD89" s="8"/>
     </row>
-    <row r="90" ht="84.5" hidden="1" customHeight="1" spans="1:30">
+    <row r="90" ht="84.5" customHeight="1" spans="1:30">
       <c r="A90" s="10">
         <v>89</v>
       </c>
@@ -10394,7 +10394,7 @@
         <v>101</v>
       </c>
       <c r="G90" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H90" s="10">
         <v>0</v>
@@ -10444,7 +10444,7 @@
       <c r="AC90" s="10"/>
       <c r="AD90" s="10"/>
     </row>
-    <row r="91" ht="35" hidden="1" customHeight="1" spans="1:30">
+    <row r="91" ht="35" customHeight="1" spans="1:30">
       <c r="A91" s="8">
         <v>90</v>
       </c>
@@ -10460,7 +10460,7 @@
         <v>101</v>
       </c>
       <c r="G91" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H91" s="8">
         <v>0</v>
@@ -10510,7 +10510,7 @@
       <c r="AC91" s="8"/>
       <c r="AD91" s="8"/>
     </row>
-    <row r="92" ht="83.25" hidden="1" spans="1:30">
+    <row r="92" ht="83.25" spans="1:30">
       <c r="A92" s="10">
         <v>91</v>
       </c>
@@ -10528,7 +10528,7 @@
         <v>101</v>
       </c>
       <c r="G92" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H92" s="10">
         <v>1</v>
@@ -10582,7 +10582,7 @@
       <c r="AC92" s="10"/>
       <c r="AD92" s="10"/>
     </row>
-    <row r="93" ht="84.5" hidden="1" customHeight="1" spans="1:30">
+    <row r="93" ht="84.5" customHeight="1" spans="1:30">
       <c r="A93" s="8">
         <v>92</v>
       </c>
@@ -10598,7 +10598,7 @@
         <v>101</v>
       </c>
       <c r="G93" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H93" s="8">
         <v>0</v>
@@ -10650,7 +10650,7 @@
       <c r="AC93" s="8"/>
       <c r="AD93" s="8"/>
     </row>
-    <row r="94" ht="18.5" hidden="1" customHeight="1" spans="1:30">
+    <row r="94" ht="18.5" customHeight="1" spans="1:30">
       <c r="A94" s="10">
         <v>93</v>
       </c>
@@ -10666,7 +10666,7 @@
         <v>101</v>
       </c>
       <c r="G94" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H94" s="10">
         <v>0</v>
@@ -10714,7 +10714,7 @@
       <c r="AC94" s="10"/>
       <c r="AD94" s="10"/>
     </row>
-    <row r="95" ht="117.5" hidden="1" customHeight="1" spans="1:30">
+    <row r="95" ht="117.5" customHeight="1" spans="1:30">
       <c r="A95" s="8">
         <v>94</v>
       </c>
@@ -10732,7 +10732,7 @@
         <v>101</v>
       </c>
       <c r="G95" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H95" s="8">
         <v>1</v>
@@ -10784,7 +10784,7 @@
       <c r="AC95" s="8"/>
       <c r="AD95" s="8"/>
     </row>
-    <row r="96" ht="117.5" hidden="1" customHeight="1" spans="1:30">
+    <row r="96" ht="117.5" customHeight="1" spans="1:30">
       <c r="A96" s="10">
         <v>95</v>
       </c>
@@ -10802,7 +10802,7 @@
         <v>101</v>
       </c>
       <c r="G96" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H96" s="10">
         <v>1</v>
@@ -10852,7 +10852,7 @@
       <c r="AC96" s="10"/>
       <c r="AD96" s="10"/>
     </row>
-    <row r="97" ht="18.5" hidden="1" customHeight="1" spans="1:30">
+    <row r="97" ht="18.5" customHeight="1" spans="1:30">
       <c r="A97" s="8">
         <v>96</v>
       </c>
@@ -10868,7 +10868,7 @@
         <v>101</v>
       </c>
       <c r="G97" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H97" s="8">
         <v>0</v>
@@ -10916,7 +10916,7 @@
       <c r="AC97" s="8"/>
       <c r="AD97" s="8"/>
     </row>
-    <row r="98" ht="83.25" hidden="1" spans="1:30">
+    <row r="98" ht="83.25" spans="1:30">
       <c r="A98" s="10">
         <v>97</v>
       </c>
@@ -10934,7 +10934,7 @@
         <v>101</v>
       </c>
       <c r="G98" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H98" s="10">
         <v>1</v>
@@ -10986,7 +10986,7 @@
       <c r="AC98" s="10"/>
       <c r="AD98" s="10"/>
     </row>
-    <row r="99" ht="50.25" hidden="1" spans="1:30">
+    <row r="99" ht="50.25" spans="1:30">
       <c r="A99" s="8">
         <v>98</v>
       </c>
@@ -11002,7 +11002,7 @@
         <v>101</v>
       </c>
       <c r="G99" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H99" s="8">
         <v>0</v>
@@ -11052,7 +11052,7 @@
       <c r="AC99" s="8"/>
       <c r="AD99" s="8"/>
     </row>
-    <row r="100" ht="51.5" hidden="1" customHeight="1" spans="1:30">
+    <row r="100" ht="51.5" customHeight="1" spans="1:30">
       <c r="A100" s="10">
         <v>99</v>
       </c>
@@ -11068,7 +11068,7 @@
         <v>101</v>
       </c>
       <c r="G100" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H100" s="10">
         <v>0</v>
@@ -11120,7 +11120,7 @@
       <c r="AC100" s="10"/>
       <c r="AD100" s="10"/>
     </row>
-    <row r="101" ht="35" hidden="1" customHeight="1" spans="1:30">
+    <row r="101" ht="35" customHeight="1" spans="1:30">
       <c r="A101" s="8">
         <v>100</v>
       </c>
@@ -11136,7 +11136,7 @@
         <v>101</v>
       </c>
       <c r="G101" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H101" s="8">
         <v>0</v>
@@ -11184,7 +11184,7 @@
       <c r="AC101" s="8"/>
       <c r="AD101" s="8"/>
     </row>
-    <row r="102" ht="35" hidden="1" customHeight="1" spans="1:30">
+    <row r="102" ht="35" customHeight="1" spans="1:30">
       <c r="A102" s="10">
         <v>101</v>
       </c>
@@ -11200,7 +11200,7 @@
         <v>101</v>
       </c>
       <c r="G102" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H102" s="10">
         <v>0</v>
@@ -11250,7 +11250,7 @@
       <c r="AC102" s="10"/>
       <c r="AD102" s="10"/>
     </row>
-    <row r="103" ht="33.75" hidden="1" spans="1:30">
+    <row r="103" ht="33.75" spans="1:30">
       <c r="A103" s="8">
         <v>102</v>
       </c>
@@ -11266,7 +11266,7 @@
         <v>101</v>
       </c>
       <c r="G103" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H103" s="8">
         <v>0</v>
@@ -11316,7 +11316,7 @@
       <c r="AC103" s="8"/>
       <c r="AD103" s="8"/>
     </row>
-    <row r="104" ht="50.25" hidden="1" spans="1:30">
+    <row r="104" ht="50.25" spans="1:30">
       <c r="A104" s="10">
         <v>103</v>
       </c>
@@ -11332,7 +11332,7 @@
         <v>101</v>
       </c>
       <c r="G104" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H104" s="10">
         <v>0</v>
@@ -11380,7 +11380,7 @@
       <c r="AC104" s="10"/>
       <c r="AD104" s="10"/>
     </row>
-    <row r="105" ht="50.25" hidden="1" spans="1:30">
+    <row r="105" ht="50.25" spans="1:30">
       <c r="A105" s="8">
         <v>104</v>
       </c>
@@ -11396,7 +11396,7 @@
         <v>101</v>
       </c>
       <c r="G105" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H105" s="8">
         <v>0</v>
@@ -11444,7 +11444,7 @@
       <c r="AC105" s="8"/>
       <c r="AD105" s="8"/>
     </row>
-    <row r="106" ht="18.5" hidden="1" customHeight="1" spans="1:30">
+    <row r="106" ht="18.5" customHeight="1" spans="1:30">
       <c r="A106" s="10">
         <v>105</v>
       </c>
@@ -11460,7 +11460,7 @@
         <v>101</v>
       </c>
       <c r="G106" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H106" s="10">
         <v>1</v>
@@ -11508,7 +11508,7 @@
       <c r="AC106" s="10"/>
       <c r="AD106" s="10"/>
     </row>
-    <row r="107" ht="18.5" hidden="1" customHeight="1" spans="1:30">
+    <row r="107" ht="18.5" customHeight="1" spans="1:30">
       <c r="A107" s="8">
         <v>106</v>
       </c>
@@ -11524,7 +11524,7 @@
         <v>101</v>
       </c>
       <c r="G107" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H107" s="8">
         <v>0</v>
@@ -11572,7 +11572,7 @@
       <c r="AC107" s="8"/>
       <c r="AD107" s="8"/>
     </row>
-    <row r="108" ht="35" hidden="1" customHeight="1" spans="1:30">
+    <row r="108" ht="35" customHeight="1" spans="1:30">
       <c r="A108" s="10">
         <v>107</v>
       </c>
@@ -11588,7 +11588,7 @@
         <v>101</v>
       </c>
       <c r="G108" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H108" s="10">
         <v>0</v>
@@ -11638,7 +11638,7 @@
       <c r="AC108" s="10"/>
       <c r="AD108" s="10"/>
     </row>
-    <row r="109" ht="51.5" hidden="1" customHeight="1" spans="1:30">
+    <row r="109" ht="51.5" customHeight="1" spans="1:30">
       <c r="A109" s="8">
         <v>108</v>
       </c>
@@ -11654,7 +11654,7 @@
         <v>101</v>
       </c>
       <c r="G109" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H109" s="8">
         <v>1</v>
@@ -11706,7 +11706,7 @@
       <c r="AC109" s="8"/>
       <c r="AD109" s="8"/>
     </row>
-    <row r="110" ht="17.25" hidden="1" spans="1:30">
+    <row r="110" ht="17.25" spans="1:30">
       <c r="A110" s="10">
         <v>109</v>
       </c>
@@ -11722,7 +11722,7 @@
         <v>101</v>
       </c>
       <c r="G110" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H110" s="10">
         <v>0</v>
@@ -11770,7 +11770,7 @@
       <c r="AC110" s="10"/>
       <c r="AD110" s="10"/>
     </row>
-    <row r="111" ht="50.25" hidden="1" spans="1:30">
+    <row r="111" ht="50.25" spans="1:30">
       <c r="A111" s="8">
         <v>110</v>
       </c>
@@ -11786,7 +11786,7 @@
         <v>101</v>
       </c>
       <c r="G111" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H111" s="8">
         <v>0</v>
@@ -11836,7 +11836,7 @@
       <c r="AC111" s="8"/>
       <c r="AD111" s="8"/>
     </row>
-    <row r="112" ht="50.25" hidden="1" spans="1:30">
+    <row r="112" ht="50.25" spans="1:30">
       <c r="A112" s="10">
         <v>111</v>
       </c>
@@ -11852,7 +11852,7 @@
         <v>101</v>
       </c>
       <c r="G112" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H112" s="10">
         <v>0</v>
@@ -11900,7 +11900,7 @@
       <c r="AC112" s="10"/>
       <c r="AD112" s="10"/>
     </row>
-    <row r="113" ht="35" hidden="1" customHeight="1" spans="1:30">
+    <row r="113" ht="35" customHeight="1" spans="1:30">
       <c r="A113" s="8">
         <v>112</v>
       </c>
@@ -11915,8 +11915,8 @@
       <c r="F113" s="8">
         <v>101</v>
       </c>
-      <c r="G113" s="8">
-        <v>3</v>
+      <c r="G113" s="10">
+        <v>2</v>
       </c>
       <c r="H113" s="8">
         <v>0</v>
@@ -11966,7 +11966,7 @@
       <c r="AC113" s="8"/>
       <c r="AD113" s="8"/>
     </row>
-    <row r="114" ht="68" hidden="1" customHeight="1" spans="1:30">
+    <row r="114" ht="68" customHeight="1" spans="1:30">
       <c r="A114" s="10">
         <v>113</v>
       </c>
@@ -11982,7 +11982,7 @@
         <v>101</v>
       </c>
       <c r="G114" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H114" s="10">
         <v>1</v>
@@ -12032,7 +12032,7 @@
       <c r="AC114" s="10"/>
       <c r="AD114" s="10"/>
     </row>
-    <row r="115" ht="35" hidden="1" customHeight="1" spans="1:30">
+    <row r="115" ht="35" customHeight="1" spans="1:30">
       <c r="A115" s="8">
         <v>114</v>
       </c>
@@ -12047,8 +12047,8 @@
       <c r="F115" s="8">
         <v>101</v>
       </c>
-      <c r="G115" s="8">
-        <v>5</v>
+      <c r="G115" s="10">
+        <v>4</v>
       </c>
       <c r="H115" s="8">
         <v>0</v>
@@ -12098,7 +12098,7 @@
       <c r="AC115" s="8"/>
       <c r="AD115" s="8"/>
     </row>
-    <row r="116" ht="51.5" hidden="1" customHeight="1" spans="1:30">
+    <row r="116" ht="51.5" customHeight="1" spans="1:30">
       <c r="A116" s="10">
         <v>115</v>
       </c>
@@ -12114,7 +12114,7 @@
         <v>101</v>
       </c>
       <c r="G116" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H116" s="10">
         <v>0</v>
@@ -12164,7 +12164,7 @@
       <c r="AC116" s="10"/>
       <c r="AD116" s="10"/>
     </row>
-    <row r="117" ht="35" hidden="1" customHeight="1" spans="1:30">
+    <row r="117" ht="35" customHeight="1" spans="1:30">
       <c r="A117" s="8">
         <v>116</v>
       </c>
@@ -12179,8 +12179,8 @@
       <c r="F117" s="8">
         <v>101</v>
       </c>
-      <c r="G117" s="8">
-        <v>5</v>
+      <c r="G117" s="10">
+        <v>4</v>
       </c>
       <c r="H117" s="8">
         <v>0</v>
@@ -12228,7 +12228,7 @@
       <c r="AC117" s="8"/>
       <c r="AD117" s="8"/>
     </row>
-    <row r="118" ht="35" hidden="1" customHeight="1" spans="1:30">
+    <row r="118" ht="35" customHeight="1" spans="1:30">
       <c r="A118" s="10">
         <v>117</v>
       </c>
@@ -12244,7 +12244,7 @@
         <v>101</v>
       </c>
       <c r="G118" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H118" s="10">
         <v>0</v>
@@ -12294,11 +12294,6 @@
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AD118" etc:filterBottomFollowUsedRange="0">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="6"/>
-      </filters>
-    </filterColumn>
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="H$1:H$1048576">

--- a/excels/config/game/hero/talent_tree/talent_tree_config.xlsx
+++ b/excels/config/game/hero/talent_tree/talent_tree_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="talent_tree_config" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
     <t>单体射击</t>
   </si>
   <si>
-    <t>基础技能：单体射击：攻击1名敌人，造成攻击力%base_value%%%的基础技能伤害，并回复%give_mana%点蓝量</t>
+    <t>基础技能：攻击1名敌人，造成攻击力%base_value%%%的基础技能伤害，并回复%give_mana%点蓝量</t>
   </si>
   <si>
     <t>Null</t>
@@ -173,7 +173,7 @@
     <t>爆炸箭</t>
   </si>
   <si>
-    <t>攻击变为%skv_aoe_radius%码范围伤害，提高%bonus_value%%%的基础技能伤害，伤害变为火元素伤害</t>
+    <t>攻击变为%skv_aoe_radius%码范围火元素伤害，提高%bonus_value%%%的基础技能伤害</t>
   </si>
   <si>
     <t>Aoe</t>
@@ -215,7 +215,7 @@
     <t>碎裂</t>
   </si>
   <si>
-    <t>爆炸箭范围提高%skv_aoe_radius%码，灼烧伤害提高%burn_dmg%%%</t>
+    <t>爆炸箭作用范围提高%skv_aoe_radius%码，灼烧伤害提高%burn_dmg%%%</t>
   </si>
   <si>
     <t>hero/drow/炸裂</t>
@@ -227,7 +227,7 @@
     <t>穿透箭</t>
   </si>
   <si>
-    <t>攻击可以穿透敌人，提高%bonus_value%%%的基础技能伤害技能赋予风元素效果，伤害变为风元素伤害</t>
+    <t>攻击可以穿透敌人，提高%bonus_value%%%的基础技能伤害，变为风元素伤害</t>
   </si>
   <si>
     <t>Missile</t>
@@ -281,7 +281,7 @@
     <t>冰箭</t>
   </si>
   <si>
-    <t>提高%bonus_value%%%的基础技能伤害，技能赋予冰元素效果，伤害变为冰元素伤害</t>
+    <t>提高%bonus_value%%%的基础技能伤害，变为冰元素伤害</t>
   </si>
   <si>
     <t>drow_ranger/dragons_touch_ability_icons/drow_ranger_frost_arrows</t>
@@ -349,7 +349,8 @@
     <t>击破</t>
   </si>
   <si>
-    <t>连续射击的每支箭都会使目标受到的基础技能伤害增加%value%%%，持续%duration%秒，最高%max_stack%层</t>
+    <t>连续射击的每支箭都会使目标受到的伤害增加%value%%%
+持续%duration%秒，最高%max_stack%层</t>
   </si>
   <si>
     <t>14|0</t>
@@ -370,7 +371,7 @@
     <t>风箭</t>
   </si>
   <si>
-    <t>技能赋予风元素效果，伤害变为风元素伤害增加%wind_dmg_pct%%%的风元素伤害</t>
+    <t>技能赋予风元素效果，增加%wind_dmg_pct%%%的风元素伤害</t>
   </si>
   <si>
     <t>hero/drow/风箭</t>
@@ -400,7 +401,7 @@
     <t>刺骨</t>
   </si>
   <si>
-    <t>技能赋予冰元素效果，伤害变为冰元素伤害</t>
+    <t>技能赋予冰元素效果，变为冰元素伤害</t>
   </si>
   <si>
     <t>冰元素减速效果增加至%move_slow%%%</t>
@@ -4039,36 +4040,36 @@
     </dxf>
   </dxfs>
   <tableStyles count="9" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{8DD9FF94-CDB4-494E-B28A-153C73D081CB}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{5DCAA28F-3470-4561-AFEE-ECD9FBEF6E2C}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{EE38480B-8823-4443-8AC3-E19341CF6FBA}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{7E06C502-9DE2-4115-9168-87094A3AEB19}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{B2B39787-555B-4FA6-A51B-9F54B3DDC774}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{1DC360C1-B1C4-4D73-85B7-113286B227E1}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{DC1B3DAC-1F00-4F52-86F1-3F827B82C09C}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{F5156744-DEBC-4191-AC71-D94E25683457}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{BAA78EFB-3FF3-4921-9672-6AD072907588}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{7B8103C5-15C0-463A-ACC0-94DD8AE974C0}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{8B029117-B90D-4247-8B78-2EE63B41E98D}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{3688E96F-C8EE-4E0D-A7CB-4AABAA20F935}">
       <tableStyleElement type="wholeTable" dxfId="28"/>
       <tableStyleElement type="headerRow" dxfId="27"/>
       <tableStyleElement type="totalRow" dxfId="26"/>
@@ -4080,7 +4081,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="20"/>
       <tableStyleElement type="lastTotalCell" dxfId="19"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{4CE9F88D-4458-4C5F-A867-FC389497550E}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{E1A4F777-1FD1-4A06-B861-2E4AF0E8D0D6}">
       <tableStyleElement type="wholeTable" dxfId="40"/>
       <tableStyleElement type="headerRow" dxfId="39"/>
       <tableStyleElement type="totalRow" dxfId="38"/>
@@ -4094,7 +4095,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="30"/>
       <tableStyleElement type="lastTotalCell" dxfId="29"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{EB913BB4-AC6D-4162-B8D5-79C5BE1380ED}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{B891CAAB-E533-4EBE-B704-4FA80C281620}">
       <tableStyleElement type="wholeTable" dxfId="47"/>
       <tableStyleElement type="headerRow" dxfId="46"/>
       <tableStyleElement type="totalRow" dxfId="45"/>
@@ -4103,7 +4104,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="42"/>
       <tableStyleElement type="firstColumnStripe" dxfId="41"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{05CE78F3-193F-407B-A509-6DD1E0D4EA44}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{316EF733-91B2-403D-9AA3-8E7C228ADD30}">
       <tableStyleElement type="wholeTable" dxfId="52"/>
       <tableStyleElement type="headerRow" dxfId="51"/>
       <tableStyleElement type="totalRow" dxfId="50"/>
@@ -4414,10 +4415,10 @@
   <sheetPr/>
   <dimension ref="A1:AD118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G114" sqref="G114:G118"/>
+      <selection pane="topRight" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/excels/config/game/hero/talent_tree/talent_tree_config.xlsx
+++ b/excels/config/game/hero/talent_tree/talent_tree_config.xlsx
@@ -971,7 +971,7 @@
     <t>46|0</t>
   </si>
   <si>
-    <t>hero/drow/能量回复</t>
+    <t>hero/drow/蓝量回复</t>
   </si>
   <si>
     <t>recover_mana 60</t>
@@ -4115,36 +4115,36 @@
     </dxf>
   </dxfs>
   <tableStyles count="9" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{E78A1CE9-071C-474F-B621-53D8EA3987E3}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{BE30EAAF-764C-47CD-ACFB-97530A0E0C0D}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{21073015-881E-4F7D-ABB6-69962AA54640}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{CE7F7B20-7FD9-4F48-951E-CA441FE2BF9B}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{53FC04B1-B19A-4E0D-9229-57C4F08BCA76}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{45D865A7-700D-4B79-A52A-1804A28763FF}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{37011ED5-1C6D-4DA3-8BFF-2B16AB3E84F3}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{0C79D95B-3B56-4F77-B3F7-A13406A49DE5}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{25AE4817-EC24-47E1-ABA8-6E56E69C670F}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{2A28BB70-60EC-418F-9EBC-0B2E6DB861AE}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{CC1E9998-9DB8-48BE-8BDC-708057984447}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{504A7744-3216-4DA9-BCAE-A6393944DB1B}">
       <tableStyleElement type="wholeTable" dxfId="28"/>
       <tableStyleElement type="headerRow" dxfId="27"/>
       <tableStyleElement type="totalRow" dxfId="26"/>
@@ -4156,7 +4156,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="20"/>
       <tableStyleElement type="lastTotalCell" dxfId="19"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{16773D07-12B6-4AA3-B14E-15F49F5A88A2}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{7EACA8E1-3312-4E14-857F-4F97FC7F4F82}">
       <tableStyleElement type="wholeTable" dxfId="40"/>
       <tableStyleElement type="headerRow" dxfId="39"/>
       <tableStyleElement type="totalRow" dxfId="38"/>
@@ -4170,7 +4170,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="30"/>
       <tableStyleElement type="lastTotalCell" dxfId="29"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{5DA158C3-C266-41F4-8A8D-ACF5BD0A964A}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{0CB4B462-19B3-4A63-AC7F-A8EA0CD28909}">
       <tableStyleElement type="wholeTable" dxfId="47"/>
       <tableStyleElement type="headerRow" dxfId="46"/>
       <tableStyleElement type="totalRow" dxfId="45"/>
@@ -4179,7 +4179,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="42"/>
       <tableStyleElement type="firstColumnStripe" dxfId="41"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{72380897-C542-4067-AE9F-05C5A6438551}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{E1424E15-B6EC-412E-BDBD-4041E89B8370}">
       <tableStyleElement type="wholeTable" dxfId="52"/>
       <tableStyleElement type="headerRow" dxfId="51"/>
       <tableStyleElement type="totalRow" dxfId="50"/>

--- a/excels/config/game/hero/talent_tree/talent_tree_config.xlsx
+++ b/excels/config/game/hero/talent_tree/talent_tree_config.xlsx
@@ -1663,7 +1663,7 @@
     <t>元素轰炸</t>
   </si>
   <si>
-    <t>吟唱施法，吟唱3秒后在自身1000码范围内每波随机位置生成数个元素爆炸，对范围内敌人造成伤害，一共3波
+    <t>吟唱施法，吟唱1.5秒后在自身1000码范围内每波随机位置生成数个元素爆炸，对范围内敌人造成伤害，一共3波
 伤害系数：攻击力%base_value%%%·对应元素技能基础伤害
 每波生成元素数量：3/4/5/6/8
 爆炸范围：200码</t>
@@ -1685,13 +1685,13 @@
     <t>base_value 100 120 140 160 180</t>
   </si>
   <si>
-    <t>channel 3</t>
+    <t>channel 1.5</t>
   </si>
   <si>
     <t>range 1000</t>
   </si>
   <si>
-    <t>explosion_count 3 4 5 6 8</t>
+    <t>explosion_count 5 6 7 8 10</t>
   </si>
   <si>
     <t>explosion_radius 200</t>
@@ -1703,7 +1703,7 @@
     <t>陨石雨</t>
   </si>
   <si>
-    <t>吟唱3秒，召唤3枚陨石雨打击向自身范围1000码内随机敌军，对目标及周围单位造成范围火元素伤害，获得20%*【元素轰炸】等级的技能基础伤害
+    <t>吟唱1.5秒，召唤3枚陨石雨打击向自身范围1000码内随机敌军，对目标及周围单位造成范围火元素伤害，获得20%*【元素轰炸】等级的技能基础伤害
 额外提高25%/35%/50%的技能基础伤害
 伤害范围：200码</t>
   </si>
@@ -4115,36 +4115,36 @@
     </dxf>
   </dxfs>
   <tableStyles count="9" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{BE30EAAF-764C-47CD-ACFB-97530A0E0C0D}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{531749F9-FBDD-41D8-AF3F-84E1CD691082}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{CE7F7B20-7FD9-4F48-951E-CA441FE2BF9B}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{EB236631-98AA-465C-80B2-B8E4BB90DFB9}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{45D865A7-700D-4B79-A52A-1804A28763FF}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{85BA2296-DBE5-4B7C-80AB-929848C4FE3A}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{0C79D95B-3B56-4F77-B3F7-A13406A49DE5}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{BDA1994B-67E7-4C69-8796-2E097CCDEB5C}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{2A28BB70-60EC-418F-9EBC-0B2E6DB861AE}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{FC75BAF7-B10F-401F-B7D0-C3EC361FD296}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{504A7744-3216-4DA9-BCAE-A6393944DB1B}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{F7A90EC9-653F-423A-9F16-8BD4F96F111A}">
       <tableStyleElement type="wholeTable" dxfId="28"/>
       <tableStyleElement type="headerRow" dxfId="27"/>
       <tableStyleElement type="totalRow" dxfId="26"/>
@@ -4156,7 +4156,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="20"/>
       <tableStyleElement type="lastTotalCell" dxfId="19"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{7EACA8E1-3312-4E14-857F-4F97FC7F4F82}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{6437694A-CEC8-4B86-918B-F6AAE9652F54}">
       <tableStyleElement type="wholeTable" dxfId="40"/>
       <tableStyleElement type="headerRow" dxfId="39"/>
       <tableStyleElement type="totalRow" dxfId="38"/>
@@ -4170,7 +4170,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="30"/>
       <tableStyleElement type="lastTotalCell" dxfId="29"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{0CB4B462-19B3-4A63-AC7F-A8EA0CD28909}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{A80E2B2E-DE9E-4E91-83BE-C390C33E593A}">
       <tableStyleElement type="wholeTable" dxfId="47"/>
       <tableStyleElement type="headerRow" dxfId="46"/>
       <tableStyleElement type="totalRow" dxfId="45"/>
@@ -4179,7 +4179,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="42"/>
       <tableStyleElement type="firstColumnStripe" dxfId="41"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{E1424E15-B6EC-412E-BDBD-4041E89B8370}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{3261CCEF-3832-4D21-A0FD-958DE6C6B265}">
       <tableStyleElement type="wholeTable" dxfId="52"/>
       <tableStyleElement type="headerRow" dxfId="51"/>
       <tableStyleElement type="totalRow" dxfId="50"/>
@@ -4490,10 +4490,10 @@
   <sheetPr/>
   <dimension ref="A1:AE118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="S1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F7" sqref="F7"/>
+      <selection pane="topRight" activeCell="W89" sqref="W89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/excels/config/game/hero/talent_tree/talent_tree_config.xlsx
+++ b/excels/config/game/hero/talent_tree/talent_tree_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="talent_tree_config" sheetId="1" r:id="rId1"/>
@@ -971,7 +971,7 @@
     <t>46|0</t>
   </si>
   <si>
-    <t>hero/drow/蓝量回复</t>
+    <t>hero/drow/能量回复</t>
   </si>
   <si>
     <t>recover_mana 60</t>
@@ -4115,36 +4115,36 @@
     </dxf>
   </dxfs>
   <tableStyles count="9" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{531749F9-FBDD-41D8-AF3F-84E1CD691082}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{CB3F28C0-C4D6-426D-BD0E-BB32E81D4868}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{EB236631-98AA-465C-80B2-B8E4BB90DFB9}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{D1961232-2211-43D0-A9E7-9237AC3F94A9}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{85BA2296-DBE5-4B7C-80AB-929848C4FE3A}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{31D198B0-CB23-418E-8C8E-69A294A275A8}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{BDA1994B-67E7-4C69-8796-2E097CCDEB5C}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{9D6E8F6D-8B75-4C72-8DC5-659C7B2C81CE}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{FC75BAF7-B10F-401F-B7D0-C3EC361FD296}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{49E0DECD-6B30-4950-A3DE-1F10A12CA011}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{F7A90EC9-653F-423A-9F16-8BD4F96F111A}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{6E92F3B5-C613-425E-BC6B-6523784A68B9}">
       <tableStyleElement type="wholeTable" dxfId="28"/>
       <tableStyleElement type="headerRow" dxfId="27"/>
       <tableStyleElement type="totalRow" dxfId="26"/>
@@ -4156,7 +4156,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="20"/>
       <tableStyleElement type="lastTotalCell" dxfId="19"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{6437694A-CEC8-4B86-918B-F6AAE9652F54}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{87FF7117-E758-4119-BEB2-F1C4CF6ECCDB}">
       <tableStyleElement type="wholeTable" dxfId="40"/>
       <tableStyleElement type="headerRow" dxfId="39"/>
       <tableStyleElement type="totalRow" dxfId="38"/>
@@ -4170,7 +4170,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="30"/>
       <tableStyleElement type="lastTotalCell" dxfId="29"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{A80E2B2E-DE9E-4E91-83BE-C390C33E593A}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{5424C667-5438-4D8D-9E65-2571CB700D5A}">
       <tableStyleElement type="wholeTable" dxfId="47"/>
       <tableStyleElement type="headerRow" dxfId="46"/>
       <tableStyleElement type="totalRow" dxfId="45"/>
@@ -4179,7 +4179,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="42"/>
       <tableStyleElement type="firstColumnStripe" dxfId="41"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{3261CCEF-3832-4D21-A0FD-958DE6C6B265}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{862840DC-1C21-4B62-9D5F-9452A0F09F84}">
       <tableStyleElement type="wholeTable" dxfId="52"/>
       <tableStyleElement type="headerRow" dxfId="51"/>
       <tableStyleElement type="totalRow" dxfId="50"/>
@@ -4490,10 +4490,10 @@
   <sheetPr/>
   <dimension ref="A1:AE118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="S1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="W89" sqref="W89"/>
+      <selection pane="topRight" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
